--- a/artfynd/A 57003-2022.xlsx
+++ b/artfynd/A 57003-2022.xlsx
@@ -1186,10 +1186,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111425926</v>
+        <v>111425553</v>
       </c>
       <c r="B6" t="n">
-        <v>98446</v>
+        <v>103396</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1198,25 +1198,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>222771</v>
+        <v>674</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Svart trolldruva</t>
+          <t>Myskmåra</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Actaea spicata</t>
+          <t>Galium triflorum</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>Michx.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1262,7 +1262,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>15:34</t>
+          <t>15:16</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -1272,7 +1272,7 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>15:34</t>
+          <t>15:16</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1299,10 +1299,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111426302</v>
+        <v>111427034</v>
       </c>
       <c r="B7" t="n">
-        <v>89686</v>
+        <v>96348</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1311,25 +1311,25 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>658</v>
+        <v>220787</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1340,10 +1340,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>550960.5946457037</v>
+        <v>550961.4004867796</v>
       </c>
       <c r="R7" t="n">
-        <v>7001918.185706819</v>
+        <v>7001924.529771334</v>
       </c>
       <c r="S7" t="n">
         <v>25</v>
@@ -1375,7 +1375,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>16:07</t>
+          <t>16:41</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -1385,7 +1385,7 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>16:07</t>
+          <t>16:41</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1412,7 +1412,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111423343</v>
+        <v>111425285</v>
       </c>
       <c r="B8" t="n">
         <v>98535</v>
@@ -1453,10 +1453,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>550911.6997848416</v>
+        <v>550974.800833688</v>
       </c>
       <c r="R8" t="n">
-        <v>7001974.850411222</v>
+        <v>7001907.55558978</v>
       </c>
       <c r="S8" t="n">
         <v>25</v>
@@ -1488,7 +1488,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>13:55</t>
+          <t>15:16</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -1498,7 +1498,7 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>13:55</t>
+          <t>15:16</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1525,10 +1525,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111423236</v>
+        <v>111425037</v>
       </c>
       <c r="B9" t="n">
-        <v>94134</v>
+        <v>89845</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1537,25 +1537,25 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>53</v>
+        <v>1209</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1566,10 +1566,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>550869.8149192812</v>
+        <v>551037.0775894802</v>
       </c>
       <c r="R9" t="n">
-        <v>7001960.172576382</v>
+        <v>7001950.143101228</v>
       </c>
       <c r="S9" t="n">
         <v>25</v>
@@ -1601,7 +1601,7 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>15:16</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -1611,7 +1611,7 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>15:16</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1638,10 +1638,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111421391</v>
+        <v>111420477</v>
       </c>
       <c r="B10" t="n">
-        <v>78578</v>
+        <v>89405</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1654,21 +1654,21 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6458</v>
+        <v>1202</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1679,10 +1679,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>550825.6664593286</v>
+        <v>550727.9291679059</v>
       </c>
       <c r="R10" t="n">
-        <v>7002060.778115767</v>
+        <v>7002200.33458891</v>
       </c>
       <c r="S10" t="n">
         <v>25</v>
@@ -1714,7 +1714,7 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>12:18</t>
+          <t>11:36</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -1724,12 +1724,7 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>12:18</t>
-        </is>
-      </c>
-      <c r="AC10" t="inlineStr">
-        <is>
-          <t>På asp</t>
+          <t>11:36</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1756,10 +1751,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111420481</v>
+        <v>111426302</v>
       </c>
       <c r="B11" t="n">
-        <v>96381</v>
+        <v>89686</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1768,25 +1763,25 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>219874</v>
+        <v>658</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Nattviol</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Platanthera bifolia</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1797,10 +1792,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>550727.9291679059</v>
+        <v>550960.5946457037</v>
       </c>
       <c r="R11" t="n">
-        <v>7002200.33458891</v>
+        <v>7001918.185706819</v>
       </c>
       <c r="S11" t="n">
         <v>25</v>
@@ -1832,7 +1827,7 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>11:36</t>
+          <t>16:07</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
@@ -1842,7 +1837,7 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>11:36</t>
+          <t>16:07</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1869,10 +1864,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111427617</v>
+        <v>111423943</v>
       </c>
       <c r="B12" t="n">
-        <v>98535</v>
+        <v>77267</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1881,25 +1876,25 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>222498</v>
+        <v>6446</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1910,10 +1905,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>550925.5549388798</v>
+        <v>550983.7409033215</v>
       </c>
       <c r="R12" t="n">
-        <v>7001928.940230627</v>
+        <v>7002058.742119073</v>
       </c>
       <c r="S12" t="n">
         <v>25</v>
@@ -1945,7 +1940,7 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>16:41</t>
+          <t>13:55</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
@@ -1955,7 +1950,7 @@
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>16:41</t>
+          <t>13:55</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1982,10 +1977,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111428138</v>
+        <v>111427787</v>
       </c>
       <c r="B13" t="n">
-        <v>96348</v>
+        <v>98535</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1994,25 +1989,25 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>220787</v>
+        <v>222498</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -2023,10 +2018,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>550809.7857848165</v>
+        <v>550907.3809405958</v>
       </c>
       <c r="R13" t="n">
-        <v>7001918.528248113</v>
+        <v>7001932.724492302</v>
       </c>
       <c r="S13" t="n">
         <v>25</v>
@@ -2058,7 +2053,7 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>17:39</t>
+          <t>16:41</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
@@ -2068,7 +2063,7 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>17:39</t>
+          <t>16:41</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2095,10 +2090,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111425313</v>
+        <v>111421480</v>
       </c>
       <c r="B14" t="n">
-        <v>78578</v>
+        <v>78107</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2111,21 +2106,21 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>6458</v>
+        <v>6453</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2136,10 +2131,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>550974.800833688</v>
+        <v>550808.5392307156</v>
       </c>
       <c r="R14" t="n">
-        <v>7001907.55558978</v>
+        <v>7002084.47682756</v>
       </c>
       <c r="S14" t="n">
         <v>25</v>
@@ -2171,7 +2166,7 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>15:16</t>
+          <t>12:18</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
@@ -2181,7 +2176,7 @@
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>15:16</t>
+          <t>12:18</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2208,10 +2203,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111427612</v>
+        <v>111421391</v>
       </c>
       <c r="B15" t="n">
-        <v>98446</v>
+        <v>78578</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2220,25 +2215,25 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>222771</v>
+        <v>6458</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Svart trolldruva</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Actaea spicata</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2249,10 +2244,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>550925.5549388798</v>
+        <v>550825.6664593286</v>
       </c>
       <c r="R15" t="n">
-        <v>7001928.940230627</v>
+        <v>7002060.778115767</v>
       </c>
       <c r="S15" t="n">
         <v>25</v>
@@ -2284,7 +2279,7 @@
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>16:41</t>
+          <t>12:18</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
@@ -2294,7 +2289,12 @@
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>16:41</t>
+          <t>12:18</t>
+        </is>
+      </c>
+      <c r="AC15" t="inlineStr">
+        <is>
+          <t>På asp</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2321,10 +2321,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111427779</v>
+        <v>111423255</v>
       </c>
       <c r="B16" t="n">
-        <v>98446</v>
+        <v>98535</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2337,21 +2337,21 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>222771</v>
+        <v>222498</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Svart trolldruva</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Actaea spicata</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2362,10 +2362,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>550907.3809405958</v>
+        <v>550869.8149192812</v>
       </c>
       <c r="R16" t="n">
-        <v>7001932.724492302</v>
+        <v>7001960.172576382</v>
       </c>
       <c r="S16" t="n">
         <v>25</v>
@@ -2397,7 +2397,7 @@
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>16:41</t>
+          <t>13:40</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
@@ -2407,7 +2407,7 @@
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>16:41</t>
+          <t>13:40</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2434,10 +2434,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111426031</v>
+        <v>111423316</v>
       </c>
       <c r="B17" t="n">
-        <v>99413</v>
+        <v>96348</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2446,25 +2446,25 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>221235</v>
+        <v>220787</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Vårärt</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Lathyrus vernus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(L.) Bernh.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2475,10 +2475,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>550956.02874151</v>
+        <v>550887.953173755</v>
       </c>
       <c r="R17" t="n">
-        <v>7001949.318344167</v>
+        <v>7001958.648759932</v>
       </c>
       <c r="S17" t="n">
         <v>25</v>
@@ -2510,7 +2510,7 @@
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>15:34</t>
+          <t>13:55</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
@@ -2520,7 +2520,7 @@
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>15:34</t>
+          <t>13:55</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2547,10 +2547,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111424976</v>
+        <v>111423343</v>
       </c>
       <c r="B18" t="n">
-        <v>78578</v>
+        <v>98535</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2559,25 +2559,25 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>6458</v>
+        <v>222498</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2588,10 +2588,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>551037.0775894802</v>
+        <v>550911.6997848416</v>
       </c>
       <c r="R18" t="n">
-        <v>7001950.143101228</v>
+        <v>7001974.850411222</v>
       </c>
       <c r="S18" t="n">
         <v>25</v>
@@ -2623,7 +2623,7 @@
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>14:55</t>
+          <t>13:55</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
@@ -2633,12 +2633,7 @@
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>14:55</t>
-        </is>
-      </c>
-      <c r="AC18" t="inlineStr">
-        <is>
-          <t>På asp</t>
+          <t>13:55</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2665,10 +2660,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111425553</v>
+        <v>111427222</v>
       </c>
       <c r="B19" t="n">
-        <v>103396</v>
+        <v>98535</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2677,25 +2672,25 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>674</v>
+        <v>222498</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Myskmåra</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Galium triflorum</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Michx.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2706,10 +2701,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>550954.7515832841</v>
+        <v>550980.9358707955</v>
       </c>
       <c r="R19" t="n">
-        <v>7001915.380264779</v>
+        <v>7001891.823664788</v>
       </c>
       <c r="S19" t="n">
         <v>25</v>
@@ -2741,7 +2736,7 @@
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>15:16</t>
+          <t>16:41</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
@@ -2751,7 +2746,7 @@
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>15:16</t>
+          <t>16:41</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2778,10 +2773,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111425951</v>
+        <v>111421476</v>
       </c>
       <c r="B20" t="n">
-        <v>99413</v>
+        <v>77186</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2790,25 +2785,25 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>221235</v>
+        <v>353</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Vårärt</t>
+          <t>Dvärgbägarlav</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Lathyrus vernus</t>
+          <t>Cladonia parasitica</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(L.) Bernh.</t>
+          <t>(Hoffm.) Hoffm.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2819,10 +2814,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>550955.3723719715</v>
+        <v>550808.5392307156</v>
       </c>
       <c r="R20" t="n">
-        <v>7001933.479667452</v>
+        <v>7002084.47682756</v>
       </c>
       <c r="S20" t="n">
         <v>25</v>
@@ -2854,7 +2849,7 @@
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>15:34</t>
+          <t>12:18</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
@@ -2864,7 +2859,7 @@
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>15:34</t>
+          <t>12:18</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2891,10 +2886,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111423316</v>
+        <v>111426015</v>
       </c>
       <c r="B21" t="n">
-        <v>96348</v>
+        <v>98446</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2903,25 +2898,25 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>220787</v>
+        <v>222771</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Svart trolldruva</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Actaea spicata</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2932,10 +2927,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>550887.953173755</v>
+        <v>550956.02874151</v>
       </c>
       <c r="R21" t="n">
-        <v>7001958.648759932</v>
+        <v>7001949.318344167</v>
       </c>
       <c r="S21" t="n">
         <v>25</v>
@@ -2967,7 +2962,7 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>13:55</t>
+          <t>15:34</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
@@ -2977,7 +2972,7 @@
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>13:55</t>
+          <t>15:34</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -3004,10 +2999,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111423113</v>
+        <v>111424976</v>
       </c>
       <c r="B22" t="n">
-        <v>99413</v>
+        <v>78578</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3016,32 +3011,28 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>221235</v>
+        <v>6458</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Vårärt</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Lathyrus vernus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(L.) Bernh.</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+          <t>(L.) Hoffm.</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
@@ -3049,10 +3040,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>550880.707108345</v>
+        <v>551037.0775894802</v>
       </c>
       <c r="R22" t="n">
-        <v>7001987.477793725</v>
+        <v>7001950.143101228</v>
       </c>
       <c r="S22" t="n">
         <v>25</v>
@@ -3084,7 +3075,7 @@
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>14:55</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
@@ -3094,7 +3085,12 @@
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>14:55</t>
+        </is>
+      </c>
+      <c r="AC22" t="inlineStr">
+        <is>
+          <t>På asp</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3121,10 +3117,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111421476</v>
+        <v>111420595</v>
       </c>
       <c r="B23" t="n">
-        <v>77186</v>
+        <v>96348</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3133,25 +3129,25 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>353</v>
+        <v>220787</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Dvärgbägarlav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Cladonia parasitica</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Hoffm.) Hoffm.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -3162,10 +3158,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>550808.5392307156</v>
+        <v>550711.6321998269</v>
       </c>
       <c r="R23" t="n">
-        <v>7002084.47682756</v>
+        <v>7002171.138182109</v>
       </c>
       <c r="S23" t="n">
         <v>25</v>
@@ -3197,7 +3193,7 @@
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>12:18</t>
+          <t>11:47</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
@@ -3207,7 +3203,7 @@
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>12:18</t>
+          <t>11:47</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3234,10 +3230,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111427783</v>
+        <v>111422303</v>
       </c>
       <c r="B24" t="n">
-        <v>99413</v>
+        <v>89405</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3246,25 +3242,25 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>221235</v>
+        <v>1202</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Vårärt</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Lathyrus vernus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(L.) Bernh.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -3275,10 +3271,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>550907.3809405958</v>
+        <v>550866.5625217154</v>
       </c>
       <c r="R24" t="n">
-        <v>7001932.724492302</v>
+        <v>7002138.297294092</v>
       </c>
       <c r="S24" t="n">
         <v>25</v>
@@ -3310,7 +3306,7 @@
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>16:41</t>
+          <t>12:18</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
@@ -3320,7 +3316,7 @@
       </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>16:41</t>
+          <t>12:18</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3347,10 +3343,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111426308</v>
+        <v>111427126</v>
       </c>
       <c r="B25" t="n">
-        <v>89405</v>
+        <v>78578</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3363,21 +3359,21 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>1202</v>
+        <v>6458</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3388,10 +3384,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>550958.3735980184</v>
+        <v>550960.5946457037</v>
       </c>
       <c r="R25" t="n">
-        <v>7001915.437287232</v>
+        <v>7001918.185706819</v>
       </c>
       <c r="S25" t="n">
         <v>25</v>
@@ -3423,7 +3419,7 @@
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>16:07</t>
+          <t>16:41</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
@@ -3433,7 +3429,7 @@
       </c>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>16:07</t>
+          <t>16:41</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3460,10 +3456,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111421480</v>
+        <v>111426042</v>
       </c>
       <c r="B26" t="n">
-        <v>78107</v>
+        <v>98535</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3472,25 +3468,25 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>6453</v>
+        <v>222498</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
@@ -3501,10 +3497,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>550808.5392307156</v>
+        <v>550956.02874151</v>
       </c>
       <c r="R26" t="n">
-        <v>7002084.47682756</v>
+        <v>7001949.318344167</v>
       </c>
       <c r="S26" t="n">
         <v>25</v>
@@ -3536,7 +3532,7 @@
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>12:18</t>
+          <t>15:34</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
@@ -3546,7 +3542,7 @@
       </c>
       <c r="AB26" t="inlineStr">
         <is>
-          <t>12:18</t>
+          <t>15:34</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -3573,10 +3569,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111420310</v>
+        <v>111423560</v>
       </c>
       <c r="B27" t="n">
-        <v>96348</v>
+        <v>94134</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3585,25 +3581,25 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>220787</v>
+        <v>53</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -3614,10 +3610,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>550710.25923741</v>
+        <v>550948.589889885</v>
       </c>
       <c r="R27" t="n">
-        <v>7002200.962073827</v>
+        <v>7001990.354570261</v>
       </c>
       <c r="S27" t="n">
         <v>25</v>
@@ -3649,7 +3645,7 @@
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>11:25</t>
+          <t>13:55</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
@@ -3659,7 +3655,7 @@
       </c>
       <c r="AB27" t="inlineStr">
         <is>
-          <t>11:25</t>
+          <t>13:55</t>
         </is>
       </c>
       <c r="AD27" t="b">
@@ -3686,7 +3682,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111421054</v>
+        <v>111428138</v>
       </c>
       <c r="B28" t="n">
         <v>96348</v>
@@ -3727,10 +3723,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>550741.937658608</v>
+        <v>550809.7857848165</v>
       </c>
       <c r="R28" t="n">
-        <v>7002115.539248759</v>
+        <v>7001918.528248113</v>
       </c>
       <c r="S28" t="n">
         <v>25</v>
@@ -3762,7 +3758,7 @@
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>12:09</t>
+          <t>17:39</t>
         </is>
       </c>
       <c r="AA28" t="inlineStr">
@@ -3772,7 +3768,7 @@
       </c>
       <c r="AB28" t="inlineStr">
         <is>
-          <t>12:09</t>
+          <t>17:39</t>
         </is>
       </c>
       <c r="AD28" t="b">
@@ -3799,10 +3795,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111427126</v>
+        <v>111423460</v>
       </c>
       <c r="B29" t="n">
-        <v>78578</v>
+        <v>98535</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3811,25 +3807,25 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>6458</v>
+        <v>222498</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
@@ -3840,10 +3836,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>550960.5946457037</v>
+        <v>550919.8847323675</v>
       </c>
       <c r="R29" t="n">
-        <v>7001918.185706819</v>
+        <v>7001972.718000742</v>
       </c>
       <c r="S29" t="n">
         <v>25</v>
@@ -3875,7 +3871,7 @@
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>16:41</t>
+          <t>13:55</t>
         </is>
       </c>
       <c r="AA29" t="inlineStr">
@@ -3885,7 +3881,7 @@
       </c>
       <c r="AB29" t="inlineStr">
         <is>
-          <t>16:41</t>
+          <t>13:55</t>
         </is>
       </c>
       <c r="AD29" t="b">
@@ -3912,10 +3908,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111424910</v>
+        <v>111424103</v>
       </c>
       <c r="B30" t="n">
-        <v>78578</v>
+        <v>94134</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3928,21 +3924,21 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>6458</v>
+        <v>53</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
@@ -3953,10 +3949,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>551057.2480807917</v>
+        <v>551037.3771583335</v>
       </c>
       <c r="R30" t="n">
-        <v>7001934.632864759</v>
+        <v>7002103.452742142</v>
       </c>
       <c r="S30" t="n">
         <v>25</v>
@@ -3988,7 +3984,7 @@
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>14:55</t>
+          <t>13:55</t>
         </is>
       </c>
       <c r="AA30" t="inlineStr">
@@ -3998,12 +3994,7 @@
       </c>
       <c r="AB30" t="inlineStr">
         <is>
-          <t>14:55</t>
-        </is>
-      </c>
-      <c r="AC30" t="inlineStr">
-        <is>
-          <t>På asp</t>
+          <t>13:55</t>
         </is>
       </c>
       <c r="AD30" t="b">
@@ -4030,10 +4021,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>111422067</v>
+        <v>111420835</v>
       </c>
       <c r="B31" t="n">
-        <v>77515</v>
+        <v>96348</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -4042,25 +4033,25 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>6425</v>
+        <v>220787</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
@@ -4071,10 +4062,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>550845.9433502604</v>
+        <v>550732.0319218244</v>
       </c>
       <c r="R31" t="n">
-        <v>7002124.859161366</v>
+        <v>7002198.590094371</v>
       </c>
       <c r="S31" t="n">
         <v>25</v>
@@ -4106,7 +4097,7 @@
       </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>12:18</t>
+          <t>11:56</t>
         </is>
       </c>
       <c r="AA31" t="inlineStr">
@@ -4116,12 +4107,7 @@
       </c>
       <c r="AB31" t="inlineStr">
         <is>
-          <t>12:18</t>
-        </is>
-      </c>
-      <c r="AC31" t="inlineStr">
-        <is>
-          <t>På tall</t>
+          <t>11:56</t>
         </is>
       </c>
       <c r="AD31" t="b">
@@ -4148,10 +4134,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>111425037</v>
+        <v>111420310</v>
       </c>
       <c r="B32" t="n">
-        <v>89845</v>
+        <v>96348</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4164,21 +4150,21 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>1209</v>
+        <v>220787</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
@@ -4189,10 +4175,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>551037.0775894802</v>
+        <v>550710.25923741</v>
       </c>
       <c r="R32" t="n">
-        <v>7001950.143101228</v>
+        <v>7002200.962073827</v>
       </c>
       <c r="S32" t="n">
         <v>25</v>
@@ -4224,7 +4210,7 @@
       </c>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>15:16</t>
+          <t>11:25</t>
         </is>
       </c>
       <c r="AA32" t="inlineStr">
@@ -4234,7 +4220,7 @@
       </c>
       <c r="AB32" t="inlineStr">
         <is>
-          <t>15:16</t>
+          <t>11:25</t>
         </is>
       </c>
       <c r="AD32" t="b">
@@ -4261,10 +4247,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>111425548</v>
+        <v>111421571</v>
       </c>
       <c r="B33" t="n">
-        <v>98535</v>
+        <v>78605</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4277,21 +4263,21 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>222498</v>
+        <v>6462</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
@@ -4302,10 +4288,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>550954.7515832841</v>
+        <v>550832.3776022838</v>
       </c>
       <c r="R33" t="n">
-        <v>7001915.380264779</v>
+        <v>7002094.799920618</v>
       </c>
       <c r="S33" t="n">
         <v>25</v>
@@ -4337,7 +4323,7 @@
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>15:16</t>
+          <t>12:18</t>
         </is>
       </c>
       <c r="AA33" t="inlineStr">
@@ -4347,7 +4333,7 @@
       </c>
       <c r="AB33" t="inlineStr">
         <is>
-          <t>15:16</t>
+          <t>12:18</t>
         </is>
       </c>
       <c r="AD33" t="b">
@@ -4374,10 +4360,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>111420859</v>
+        <v>111425614</v>
       </c>
       <c r="B34" t="n">
-        <v>89686</v>
+        <v>98446</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4386,25 +4372,25 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>658</v>
+        <v>222771</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Svart trolldruva</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Actaea spicata</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
@@ -4415,10 +4401,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>550742.1573915739</v>
+        <v>550954.7515832841</v>
       </c>
       <c r="R34" t="n">
-        <v>7002101.524058201</v>
+        <v>7001915.380264779</v>
       </c>
       <c r="S34" t="n">
         <v>25</v>
@@ -4450,7 +4436,7 @@
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>11:56</t>
+          <t>15:34</t>
         </is>
       </c>
       <c r="AA34" t="inlineStr">
@@ -4460,7 +4446,7 @@
       </c>
       <c r="AB34" t="inlineStr">
         <is>
-          <t>11:56</t>
+          <t>15:34</t>
         </is>
       </c>
       <c r="AD34" t="b">
@@ -4487,10 +4473,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>111425285</v>
+        <v>111424331</v>
       </c>
       <c r="B35" t="n">
-        <v>98535</v>
+        <v>78605</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4503,21 +4489,21 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>222498</v>
+        <v>6462</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
@@ -4528,10 +4514,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>550974.800833688</v>
+        <v>551041.1344693471</v>
       </c>
       <c r="R35" t="n">
-        <v>7001907.55558978</v>
+        <v>7002037.487754084</v>
       </c>
       <c r="S35" t="n">
         <v>25</v>
@@ -4563,7 +4549,7 @@
       </c>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>15:16</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA35" t="inlineStr">
@@ -4573,7 +4559,7 @@
       </c>
       <c r="AB35" t="inlineStr">
         <is>
-          <t>15:16</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD35" t="b">
@@ -4600,10 +4586,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>111423560</v>
+        <v>111425889</v>
       </c>
       <c r="B36" t="n">
-        <v>94134</v>
+        <v>98446</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4612,25 +4598,25 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>53</v>
+        <v>222771</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Svart trolldruva</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Actaea spicata</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
@@ -4641,10 +4627,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>550948.589889885</v>
+        <v>550964.3063330664</v>
       </c>
       <c r="R36" t="n">
-        <v>7001990.354570261</v>
+        <v>7001941.308390027</v>
       </c>
       <c r="S36" t="n">
         <v>25</v>
@@ -4676,7 +4662,7 @@
       </c>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>13:55</t>
+          <t>15:34</t>
         </is>
       </c>
       <c r="AA36" t="inlineStr">
@@ -4686,7 +4672,7 @@
       </c>
       <c r="AB36" t="inlineStr">
         <is>
-          <t>13:55</t>
+          <t>15:34</t>
         </is>
       </c>
       <c r="AD36" t="b">
@@ -4713,10 +4699,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>111423943</v>
+        <v>111426308</v>
       </c>
       <c r="B37" t="n">
-        <v>77267</v>
+        <v>89405</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4729,21 +4715,21 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>6446</v>
+        <v>1202</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
@@ -4754,10 +4740,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>550983.7409033215</v>
+        <v>550958.3735980184</v>
       </c>
       <c r="R37" t="n">
-        <v>7002058.742119073</v>
+        <v>7001915.437287232</v>
       </c>
       <c r="S37" t="n">
         <v>25</v>
@@ -4789,7 +4775,7 @@
       </c>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>13:55</t>
+          <t>16:07</t>
         </is>
       </c>
       <c r="AA37" t="inlineStr">
@@ -4799,7 +4785,7 @@
       </c>
       <c r="AB37" t="inlineStr">
         <is>
-          <t>13:55</t>
+          <t>16:07</t>
         </is>
       </c>
       <c r="AD37" t="b">
@@ -4826,10 +4812,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>111424331</v>
+        <v>111426315</v>
       </c>
       <c r="B38" t="n">
-        <v>78605</v>
+        <v>89845</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -4838,25 +4824,25 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>6462</v>
+        <v>1209</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
@@ -4867,10 +4853,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>551041.1344693471</v>
+        <v>550958.3735980184</v>
       </c>
       <c r="R38" t="n">
-        <v>7002037.487754084</v>
+        <v>7001915.437287232</v>
       </c>
       <c r="S38" t="n">
         <v>25</v>
@@ -4902,7 +4888,7 @@
       </c>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>16:07</t>
         </is>
       </c>
       <c r="AA38" t="inlineStr">
@@ -4912,7 +4898,7 @@
       </c>
       <c r="AB38" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>16:07</t>
         </is>
       </c>
       <c r="AD38" t="b">
@@ -4939,10 +4925,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>111420370</v>
+        <v>111421528</v>
       </c>
       <c r="B39" t="n">
-        <v>96348</v>
+        <v>78578</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -4951,25 +4937,25 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>220787</v>
+        <v>6458</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
@@ -4980,10 +4966,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>550722.7296859198</v>
+        <v>550826.5844548051</v>
       </c>
       <c r="R39" t="n">
-        <v>7002214.271300747</v>
+        <v>7002088.830120047</v>
       </c>
       <c r="S39" t="n">
         <v>25</v>
@@ -5015,7 +5001,7 @@
       </c>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>11:36</t>
+          <t>12:18</t>
         </is>
       </c>
       <c r="AA39" t="inlineStr">
@@ -5025,7 +5011,7 @@
       </c>
       <c r="AB39" t="inlineStr">
         <is>
-          <t>11:36</t>
+          <t>12:18</t>
         </is>
       </c>
       <c r="AD39" t="b">
@@ -5052,10 +5038,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>111423417</v>
+        <v>111424650</v>
       </c>
       <c r="B40" t="n">
-        <v>94134</v>
+        <v>96348</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -5064,25 +5050,25 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>53</v>
+        <v>220787</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
@@ -5093,10 +5079,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>550901.6754341319</v>
+        <v>551057.4223798013</v>
       </c>
       <c r="R40" t="n">
-        <v>7001978.762844464</v>
+        <v>7002009.706558069</v>
       </c>
       <c r="S40" t="n">
         <v>25</v>
@@ -5128,7 +5114,7 @@
       </c>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>13:55</t>
+          <t>14:55</t>
         </is>
       </c>
       <c r="AA40" t="inlineStr">
@@ -5138,7 +5124,7 @@
       </c>
       <c r="AB40" t="inlineStr">
         <is>
-          <t>13:55</t>
+          <t>14:55</t>
         </is>
       </c>
       <c r="AD40" t="b">
@@ -5165,10 +5151,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>111423460</v>
+        <v>111423236</v>
       </c>
       <c r="B41" t="n">
-        <v>98535</v>
+        <v>94134</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -5177,25 +5163,25 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>222498</v>
+        <v>53</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
@@ -5206,10 +5192,10 @@
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>550919.8847323675</v>
+        <v>550869.8149192812</v>
       </c>
       <c r="R41" t="n">
-        <v>7001972.718000742</v>
+        <v>7001960.172576382</v>
       </c>
       <c r="S41" t="n">
         <v>25</v>
@@ -5241,7 +5227,7 @@
       </c>
       <c r="Z41" t="inlineStr">
         <is>
-          <t>13:55</t>
+          <t>13:40</t>
         </is>
       </c>
       <c r="AA41" t="inlineStr">
@@ -5251,7 +5237,7 @@
       </c>
       <c r="AB41" t="inlineStr">
         <is>
-          <t>13:55</t>
+          <t>13:40</t>
         </is>
       </c>
       <c r="AD41" t="b">
@@ -5278,10 +5264,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>111424253</v>
+        <v>111425313</v>
       </c>
       <c r="B42" t="n">
-        <v>89965</v>
+        <v>78578</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -5290,25 +5276,25 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>760</v>
+        <v>6458</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Doftticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Haploporus odorus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>(Sommerf.) Bondartsev &amp; Singer</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I42" t="inlineStr"/>
@@ -5319,10 +5305,10 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>551048.5278099331</v>
+        <v>550974.800833688</v>
       </c>
       <c r="R42" t="n">
-        <v>7002085.539900199</v>
+        <v>7001907.55558978</v>
       </c>
       <c r="S42" t="n">
         <v>25</v>
@@ -5354,7 +5340,7 @@
       </c>
       <c r="Z42" t="inlineStr">
         <is>
-          <t>13:55</t>
+          <t>15:16</t>
         </is>
       </c>
       <c r="AA42" t="inlineStr">
@@ -5364,12 +5350,7 @@
       </c>
       <c r="AB42" t="inlineStr">
         <is>
-          <t>13:55</t>
-        </is>
-      </c>
-      <c r="AC42" t="inlineStr">
-        <is>
-          <t>Liten väldoftande fruktkropp på sälg som fallit</t>
+          <t>15:16</t>
         </is>
       </c>
       <c r="AD42" t="b">
@@ -5396,10 +5377,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>111425889</v>
+        <v>111425527</v>
       </c>
       <c r="B43" t="n">
-        <v>98446</v>
+        <v>99413</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -5412,21 +5393,21 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>222771</v>
+        <v>221235</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Svart trolldruva</t>
+          <t>Vårärt</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Actaea spicata</t>
+          <t>Lathyrus vernus</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(L.) Bernh.</t>
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
@@ -5437,10 +5418,10 @@
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>550964.3063330664</v>
+        <v>550954.7515832841</v>
       </c>
       <c r="R43" t="n">
-        <v>7001941.308390027</v>
+        <v>7001915.380264779</v>
       </c>
       <c r="S43" t="n">
         <v>25</v>
@@ -5472,7 +5453,7 @@
       </c>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>15:34</t>
+          <t>15:16</t>
         </is>
       </c>
       <c r="AA43" t="inlineStr">
@@ -5482,7 +5463,7 @@
       </c>
       <c r="AB43" t="inlineStr">
         <is>
-          <t>15:34</t>
+          <t>15:16</t>
         </is>
       </c>
       <c r="AD43" t="b">
@@ -5509,10 +5490,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>111427034</v>
+        <v>111426486</v>
       </c>
       <c r="B44" t="n">
-        <v>96348</v>
+        <v>98446</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -5521,25 +5502,25 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>220787</v>
+        <v>222771</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Svart trolldruva</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Actaea spicata</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I44" t="inlineStr"/>
@@ -5550,10 +5531,10 @@
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>550961.4004867796</v>
+        <v>550941.2588680513</v>
       </c>
       <c r="R44" t="n">
-        <v>7001924.529771334</v>
+        <v>7001938.232138845</v>
       </c>
       <c r="S44" t="n">
         <v>25</v>
@@ -5585,7 +5566,7 @@
       </c>
       <c r="Z44" t="inlineStr">
         <is>
-          <t>16:41</t>
+          <t>16:08</t>
         </is>
       </c>
       <c r="AA44" t="inlineStr">
@@ -5595,7 +5576,7 @@
       </c>
       <c r="AB44" t="inlineStr">
         <is>
-          <t>16:41</t>
+          <t>16:08</t>
         </is>
       </c>
       <c r="AD44" t="b">
@@ -5622,10 +5603,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>111420660</v>
+        <v>111424256</v>
       </c>
       <c r="B45" t="n">
-        <v>77267</v>
+        <v>78605</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -5634,25 +5615,25 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>6446</v>
+        <v>6462</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I45" t="inlineStr"/>
@@ -5663,10 +5644,10 @@
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>550733.9986858405</v>
+        <v>551048.5278099331</v>
       </c>
       <c r="R45" t="n">
-        <v>7002188.6724778</v>
+        <v>7002085.539900199</v>
       </c>
       <c r="S45" t="n">
         <v>25</v>
@@ -5698,7 +5679,7 @@
       </c>
       <c r="Z45" t="inlineStr">
         <is>
-          <t>11:51</t>
+          <t>13:55</t>
         </is>
       </c>
       <c r="AA45" t="inlineStr">
@@ -5708,7 +5689,7 @@
       </c>
       <c r="AB45" t="inlineStr">
         <is>
-          <t>11:51</t>
+          <t>13:55</t>
         </is>
       </c>
       <c r="AD45" t="b">
@@ -5735,10 +5716,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>111421582</v>
+        <v>111426031</v>
       </c>
       <c r="B46" t="n">
-        <v>78578</v>
+        <v>99413</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -5747,25 +5728,25 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>6458</v>
+        <v>221235</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Vårärt</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Lathyrus vernus</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) Bernh.</t>
         </is>
       </c>
       <c r="I46" t="inlineStr"/>
@@ -5776,10 +5757,10 @@
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>550826.5844548051</v>
+        <v>550956.02874151</v>
       </c>
       <c r="R46" t="n">
-        <v>7002088.830120047</v>
+        <v>7001949.318344167</v>
       </c>
       <c r="S46" t="n">
         <v>25</v>
@@ -5811,7 +5792,7 @@
       </c>
       <c r="Z46" t="inlineStr">
         <is>
-          <t>12:18</t>
+          <t>15:34</t>
         </is>
       </c>
       <c r="AA46" t="inlineStr">
@@ -5821,7 +5802,7 @@
       </c>
       <c r="AB46" t="inlineStr">
         <is>
-          <t>12:18</t>
+          <t>15:34</t>
         </is>
       </c>
       <c r="AD46" t="b">
@@ -5848,10 +5829,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>111420645</v>
+        <v>111425959</v>
       </c>
       <c r="B47" t="n">
-        <v>96348</v>
+        <v>98535</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -5860,25 +5841,25 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>220787</v>
+        <v>222498</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I47" t="inlineStr"/>
@@ -5889,10 +5870,10 @@
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>550733.9986858405</v>
+        <v>550955.3723719715</v>
       </c>
       <c r="R47" t="n">
-        <v>7002188.6724778</v>
+        <v>7001933.479667452</v>
       </c>
       <c r="S47" t="n">
         <v>25</v>
@@ -5924,7 +5905,7 @@
       </c>
       <c r="Z47" t="inlineStr">
         <is>
-          <t>11:51</t>
+          <t>15:34</t>
         </is>
       </c>
       <c r="AA47" t="inlineStr">
@@ -5934,7 +5915,7 @@
       </c>
       <c r="AB47" t="inlineStr">
         <is>
-          <t>11:51</t>
+          <t>15:34</t>
         </is>
       </c>
       <c r="AD47" t="b">
@@ -5961,10 +5942,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>111426015</v>
+        <v>111425548</v>
       </c>
       <c r="B48" t="n">
-        <v>98446</v>
+        <v>98535</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -5977,21 +5958,21 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>222771</v>
+        <v>222498</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Svart trolldruva</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Actaea spicata</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I48" t="inlineStr"/>
@@ -6002,10 +5983,10 @@
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>550956.02874151</v>
+        <v>550954.7515832841</v>
       </c>
       <c r="R48" t="n">
-        <v>7001949.318344167</v>
+        <v>7001915.380264779</v>
       </c>
       <c r="S48" t="n">
         <v>25</v>
@@ -6037,7 +6018,7 @@
       </c>
       <c r="Z48" t="inlineStr">
         <is>
-          <t>15:34</t>
+          <t>15:16</t>
         </is>
       </c>
       <c r="AA48" t="inlineStr">
@@ -6047,7 +6028,7 @@
       </c>
       <c r="AB48" t="inlineStr">
         <is>
-          <t>15:34</t>
+          <t>15:16</t>
         </is>
       </c>
       <c r="AD48" t="b">
@@ -6074,7 +6055,7 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>111424960</v>
+        <v>111423417</v>
       </c>
       <c r="B49" t="n">
         <v>94134</v>
@@ -6115,10 +6096,10 @@
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>551037.0775894802</v>
+        <v>550901.6754341319</v>
       </c>
       <c r="R49" t="n">
-        <v>7001950.143101228</v>
+        <v>7001978.762844464</v>
       </c>
       <c r="S49" t="n">
         <v>25</v>
@@ -6150,7 +6131,7 @@
       </c>
       <c r="Z49" t="inlineStr">
         <is>
-          <t>14:55</t>
+          <t>13:55</t>
         </is>
       </c>
       <c r="AA49" t="inlineStr">
@@ -6160,7 +6141,7 @@
       </c>
       <c r="AB49" t="inlineStr">
         <is>
-          <t>14:55</t>
+          <t>13:55</t>
         </is>
       </c>
       <c r="AD49" t="b">
@@ -6187,10 +6168,10 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>111424103</v>
+        <v>111427617</v>
       </c>
       <c r="B50" t="n">
-        <v>94134</v>
+        <v>98535</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -6199,25 +6180,25 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>53</v>
+        <v>222498</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I50" t="inlineStr"/>
@@ -6228,10 +6209,10 @@
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>551037.3771583335</v>
+        <v>550925.5549388798</v>
       </c>
       <c r="R50" t="n">
-        <v>7002103.452742142</v>
+        <v>7001928.940230627</v>
       </c>
       <c r="S50" t="n">
         <v>25</v>
@@ -6263,7 +6244,7 @@
       </c>
       <c r="Z50" t="inlineStr">
         <is>
-          <t>13:55</t>
+          <t>16:41</t>
         </is>
       </c>
       <c r="AA50" t="inlineStr">
@@ -6273,7 +6254,7 @@
       </c>
       <c r="AB50" t="inlineStr">
         <is>
-          <t>13:55</t>
+          <t>16:41</t>
         </is>
       </c>
       <c r="AD50" t="b">
@@ -6300,10 +6281,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>111426562</v>
+        <v>111424253</v>
       </c>
       <c r="B51" t="n">
-        <v>96348</v>
+        <v>89965</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -6316,21 +6297,21 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>220787</v>
+        <v>760</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Doftticka</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Haploporus odorus</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Sommerf.) Bondartsev &amp; Singer</t>
         </is>
       </c>
       <c r="I51" t="inlineStr"/>
@@ -6341,10 +6322,10 @@
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>550976.2344434585</v>
+        <v>551048.5278099331</v>
       </c>
       <c r="R51" t="n">
-        <v>7001931.546968644</v>
+        <v>7002085.539900199</v>
       </c>
       <c r="S51" t="n">
         <v>25</v>
@@ -6376,7 +6357,7 @@
       </c>
       <c r="Z51" t="inlineStr">
         <is>
-          <t>16:17</t>
+          <t>13:55</t>
         </is>
       </c>
       <c r="AA51" t="inlineStr">
@@ -6386,7 +6367,12 @@
       </c>
       <c r="AB51" t="inlineStr">
         <is>
-          <t>16:17</t>
+          <t>13:55</t>
+        </is>
+      </c>
+      <c r="AC51" t="inlineStr">
+        <is>
+          <t>Liten väldoftande fruktkropp på sälg som fallit</t>
         </is>
       </c>
       <c r="AD51" t="b">
@@ -6413,10 +6399,10 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>111426486</v>
+        <v>111420645</v>
       </c>
       <c r="B52" t="n">
-        <v>98446</v>
+        <v>96348</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -6425,25 +6411,25 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>222771</v>
+        <v>220787</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Svart trolldruva</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Actaea spicata</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I52" t="inlineStr"/>
@@ -6454,10 +6440,10 @@
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>550941.2588680513</v>
+        <v>550733.9986858405</v>
       </c>
       <c r="R52" t="n">
-        <v>7001938.232138845</v>
+        <v>7002188.6724778</v>
       </c>
       <c r="S52" t="n">
         <v>25</v>
@@ -6489,7 +6475,7 @@
       </c>
       <c r="Z52" t="inlineStr">
         <is>
-          <t>16:08</t>
+          <t>11:51</t>
         </is>
       </c>
       <c r="AA52" t="inlineStr">
@@ -6499,7 +6485,7 @@
       </c>
       <c r="AB52" t="inlineStr">
         <is>
-          <t>16:08</t>
+          <t>11:51</t>
         </is>
       </c>
       <c r="AD52" t="b">
@@ -6526,10 +6512,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>111424650</v>
+        <v>111425158</v>
       </c>
       <c r="B53" t="n">
-        <v>96348</v>
+        <v>89845</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -6542,21 +6528,21 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>220787</v>
+        <v>1209</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I53" t="inlineStr"/>
@@ -6567,10 +6553,10 @@
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>551057.4223798013</v>
+        <v>551009.5203002443</v>
       </c>
       <c r="R53" t="n">
-        <v>7002009.706558069</v>
+        <v>7001917.147422009</v>
       </c>
       <c r="S53" t="n">
         <v>25</v>
@@ -6602,7 +6588,7 @@
       </c>
       <c r="Z53" t="inlineStr">
         <is>
-          <t>14:55</t>
+          <t>15:16</t>
         </is>
       </c>
       <c r="AA53" t="inlineStr">
@@ -6612,7 +6598,7 @@
       </c>
       <c r="AB53" t="inlineStr">
         <is>
-          <t>14:55</t>
+          <t>15:16</t>
         </is>
       </c>
       <c r="AD53" t="b">
@@ -6639,10 +6625,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>111420869</v>
+        <v>111425789</v>
       </c>
       <c r="B54" t="n">
-        <v>89405</v>
+        <v>99413</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -6651,25 +6637,25 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>1202</v>
+        <v>221235</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Vårärt</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Lathyrus vernus</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(L.) Bernh.</t>
         </is>
       </c>
       <c r="I54" t="inlineStr"/>
@@ -6680,10 +6666,10 @@
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>550741.937658608</v>
+        <v>550964.3063330664</v>
       </c>
       <c r="R54" t="n">
-        <v>7002115.539248759</v>
+        <v>7001941.308390027</v>
       </c>
       <c r="S54" t="n">
         <v>25</v>
@@ -6715,7 +6701,7 @@
       </c>
       <c r="Z54" t="inlineStr">
         <is>
-          <t>11:56</t>
+          <t>15:34</t>
         </is>
       </c>
       <c r="AA54" t="inlineStr">
@@ -6725,7 +6711,7 @@
       </c>
       <c r="AB54" t="inlineStr">
         <is>
-          <t>11:56</t>
+          <t>15:34</t>
         </is>
       </c>
       <c r="AD54" t="b">
@@ -6752,10 +6738,10 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>111424030</v>
+        <v>111424144</v>
       </c>
       <c r="B55" t="n">
-        <v>78578</v>
+        <v>95532</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -6764,25 +6750,25 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>6458</v>
+        <v>221945</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Lycopodium annotinum</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I55" t="inlineStr"/>
@@ -6793,10 +6779,10 @@
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>551011.8102739404</v>
+        <v>551057.4254629152</v>
       </c>
       <c r="R55" t="n">
-        <v>7002059.18440557</v>
+        <v>7002095.629051142</v>
       </c>
       <c r="S55" t="n">
         <v>25</v>
@@ -6839,11 +6825,6 @@
       <c r="AB55" t="inlineStr">
         <is>
           <t>13:55</t>
-        </is>
-      </c>
-      <c r="AC55" t="inlineStr">
-        <is>
-          <t>På björk</t>
         </is>
       </c>
       <c r="AD55" t="b">
@@ -6870,10 +6851,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>111424256</v>
+        <v>111427779</v>
       </c>
       <c r="B56" t="n">
-        <v>78605</v>
+        <v>98446</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -6886,21 +6867,21 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>6462</v>
+        <v>222771</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Svart trolldruva</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Actaea spicata</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I56" t="inlineStr"/>
@@ -6911,10 +6892,10 @@
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>551048.5278099331</v>
+        <v>550907.3809405958</v>
       </c>
       <c r="R56" t="n">
-        <v>7002085.539900199</v>
+        <v>7001932.724492302</v>
       </c>
       <c r="S56" t="n">
         <v>25</v>
@@ -6946,7 +6927,7 @@
       </c>
       <c r="Z56" t="inlineStr">
         <is>
-          <t>13:55</t>
+          <t>16:41</t>
         </is>
       </c>
       <c r="AA56" t="inlineStr">
@@ -6956,7 +6937,7 @@
       </c>
       <c r="AB56" t="inlineStr">
         <is>
-          <t>13:55</t>
+          <t>16:41</t>
         </is>
       </c>
       <c r="AD56" t="b">
@@ -6983,10 +6964,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>111426315</v>
+        <v>111425793</v>
       </c>
       <c r="B57" t="n">
-        <v>89845</v>
+        <v>98535</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -6995,25 +6976,25 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E57" t="n">
-        <v>1209</v>
+        <v>222498</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I57" t="inlineStr"/>
@@ -7024,10 +7005,10 @@
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>550958.3735980184</v>
+        <v>550964.3063330664</v>
       </c>
       <c r="R57" t="n">
-        <v>7001915.437287232</v>
+        <v>7001941.308390027</v>
       </c>
       <c r="S57" t="n">
         <v>25</v>
@@ -7059,7 +7040,7 @@
       </c>
       <c r="Z57" t="inlineStr">
         <is>
-          <t>16:07</t>
+          <t>15:34</t>
         </is>
       </c>
       <c r="AA57" t="inlineStr">
@@ -7069,7 +7050,7 @@
       </c>
       <c r="AB57" t="inlineStr">
         <is>
-          <t>16:07</t>
+          <t>15:34</t>
         </is>
       </c>
       <c r="AD57" t="b">
@@ -7096,10 +7077,10 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>111425793</v>
+        <v>111424910</v>
       </c>
       <c r="B58" t="n">
-        <v>98535</v>
+        <v>78578</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -7108,25 +7089,25 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E58" t="n">
-        <v>222498</v>
+        <v>6458</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I58" t="inlineStr"/>
@@ -7137,10 +7118,10 @@
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>550964.3063330664</v>
+        <v>551057.2480807917</v>
       </c>
       <c r="R58" t="n">
-        <v>7001941.308390027</v>
+        <v>7001934.632864759</v>
       </c>
       <c r="S58" t="n">
         <v>25</v>
@@ -7172,7 +7153,7 @@
       </c>
       <c r="Z58" t="inlineStr">
         <is>
-          <t>15:34</t>
+          <t>14:55</t>
         </is>
       </c>
       <c r="AA58" t="inlineStr">
@@ -7182,7 +7163,12 @@
       </c>
       <c r="AB58" t="inlineStr">
         <is>
-          <t>15:34</t>
+          <t>14:55</t>
+        </is>
+      </c>
+      <c r="AC58" t="inlineStr">
+        <is>
+          <t>På asp</t>
         </is>
       </c>
       <c r="AD58" t="b">
@@ -7209,10 +7195,10 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>111426042</v>
+        <v>111424960</v>
       </c>
       <c r="B59" t="n">
-        <v>98535</v>
+        <v>94134</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -7221,25 +7207,25 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E59" t="n">
-        <v>222498</v>
+        <v>53</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I59" t="inlineStr"/>
@@ -7250,10 +7236,10 @@
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>550956.02874151</v>
+        <v>551037.0775894802</v>
       </c>
       <c r="R59" t="n">
-        <v>7001949.318344167</v>
+        <v>7001950.143101228</v>
       </c>
       <c r="S59" t="n">
         <v>25</v>
@@ -7285,7 +7271,7 @@
       </c>
       <c r="Z59" t="inlineStr">
         <is>
-          <t>15:34</t>
+          <t>14:55</t>
         </is>
       </c>
       <c r="AA59" t="inlineStr">
@@ -7295,7 +7281,7 @@
       </c>
       <c r="AB59" t="inlineStr">
         <is>
-          <t>15:34</t>
+          <t>14:55</t>
         </is>
       </c>
       <c r="AD59" t="b">
@@ -7322,10 +7308,10 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>111422303</v>
+        <v>111422067</v>
       </c>
       <c r="B60" t="n">
-        <v>89405</v>
+        <v>77515</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -7338,21 +7324,21 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>1202</v>
+        <v>6425</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I60" t="inlineStr"/>
@@ -7363,10 +7349,10 @@
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>550866.5625217154</v>
+        <v>550845.9433502604</v>
       </c>
       <c r="R60" t="n">
-        <v>7002138.297294092</v>
+        <v>7002124.859161366</v>
       </c>
       <c r="S60" t="n">
         <v>25</v>
@@ -7409,6 +7395,11 @@
       <c r="AB60" t="inlineStr">
         <is>
           <t>12:18</t>
+        </is>
+      </c>
+      <c r="AC60" t="inlineStr">
+        <is>
+          <t>På tall</t>
         </is>
       </c>
       <c r="AD60" t="b">
@@ -7435,7 +7426,7 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>111420595</v>
+        <v>111426562</v>
       </c>
       <c r="B61" t="n">
         <v>96348</v>
@@ -7476,10 +7467,10 @@
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>550711.6321998269</v>
+        <v>550976.2344434585</v>
       </c>
       <c r="R61" t="n">
-        <v>7002171.138182109</v>
+        <v>7001931.546968644</v>
       </c>
       <c r="S61" t="n">
         <v>25</v>
@@ -7511,7 +7502,7 @@
       </c>
       <c r="Z61" t="inlineStr">
         <is>
-          <t>11:47</t>
+          <t>16:17</t>
         </is>
       </c>
       <c r="AA61" t="inlineStr">
@@ -7521,7 +7512,7 @@
       </c>
       <c r="AB61" t="inlineStr">
         <is>
-          <t>11:47</t>
+          <t>16:17</t>
         </is>
       </c>
       <c r="AD61" t="b">
@@ -7548,10 +7539,10 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>111425789</v>
+        <v>111421283</v>
       </c>
       <c r="B62" t="n">
-        <v>99413</v>
+        <v>96348</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -7560,25 +7551,25 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E62" t="n">
-        <v>221235</v>
+        <v>220787</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Vårärt</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Lathyrus vernus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>(L.) Bernh.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I62" t="inlineStr"/>
@@ -7589,10 +7580,10 @@
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>550964.3063330664</v>
+        <v>550786.6251378106</v>
       </c>
       <c r="R62" t="n">
-        <v>7001941.308390027</v>
+        <v>7002066.94856437</v>
       </c>
       <c r="S62" t="n">
         <v>25</v>
@@ -7624,7 +7615,7 @@
       </c>
       <c r="Z62" t="inlineStr">
         <is>
-          <t>15:34</t>
+          <t>12:18</t>
         </is>
       </c>
       <c r="AA62" t="inlineStr">
@@ -7634,7 +7625,7 @@
       </c>
       <c r="AB62" t="inlineStr">
         <is>
-          <t>15:34</t>
+          <t>12:18</t>
         </is>
       </c>
       <c r="AD62" t="b">
@@ -7661,10 +7652,10 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>111421283</v>
+        <v>111426396</v>
       </c>
       <c r="B63" t="n">
-        <v>96348</v>
+        <v>103396</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -7673,25 +7664,25 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E63" t="n">
-        <v>220787</v>
+        <v>674</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Myskmåra</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Galium triflorum</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>Michx.</t>
         </is>
       </c>
       <c r="I63" t="inlineStr"/>
@@ -7702,10 +7693,10 @@
         </is>
       </c>
       <c r="Q63" t="n">
-        <v>550786.6251378106</v>
+        <v>550951.5040298713</v>
       </c>
       <c r="R63" t="n">
-        <v>7002066.94856437</v>
+        <v>7001920.303799121</v>
       </c>
       <c r="S63" t="n">
         <v>25</v>
@@ -7737,7 +7728,7 @@
       </c>
       <c r="Z63" t="inlineStr">
         <is>
-          <t>12:18</t>
+          <t>16:08</t>
         </is>
       </c>
       <c r="AA63" t="inlineStr">
@@ -7747,7 +7738,7 @@
       </c>
       <c r="AB63" t="inlineStr">
         <is>
-          <t>12:18</t>
+          <t>16:08</t>
         </is>
       </c>
       <c r="AD63" t="b">
@@ -7774,10 +7765,10 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>111427222</v>
+        <v>111422950</v>
       </c>
       <c r="B64" t="n">
-        <v>98535</v>
+        <v>96348</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -7786,25 +7777,25 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E64" t="n">
-        <v>222498</v>
+        <v>220787</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I64" t="inlineStr"/>
@@ -7815,10 +7806,10 @@
         </is>
       </c>
       <c r="Q64" t="n">
-        <v>550980.9358707955</v>
+        <v>550849.6384025981</v>
       </c>
       <c r="R64" t="n">
-        <v>7001891.823664788</v>
+        <v>7001976.135959106</v>
       </c>
       <c r="S64" t="n">
         <v>25</v>
@@ -7850,7 +7841,7 @@
       </c>
       <c r="Z64" t="inlineStr">
         <is>
-          <t>16:41</t>
+          <t>13:40</t>
         </is>
       </c>
       <c r="AA64" t="inlineStr">
@@ -7860,7 +7851,7 @@
       </c>
       <c r="AB64" t="inlineStr">
         <is>
-          <t>16:41</t>
+          <t>13:40</t>
         </is>
       </c>
       <c r="AD64" t="b">
@@ -7887,7 +7878,7 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>111424441</v>
+        <v>111420370</v>
       </c>
       <c r="B65" t="n">
         <v>96348</v>
@@ -7928,10 +7919,10 @@
         </is>
       </c>
       <c r="Q65" t="n">
-        <v>551054.6486243291</v>
+        <v>550722.7296859198</v>
       </c>
       <c r="R65" t="n">
-        <v>7002070.713193813</v>
+        <v>7002214.271300747</v>
       </c>
       <c r="S65" t="n">
         <v>25</v>
@@ -7963,7 +7954,7 @@
       </c>
       <c r="Z65" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>11:36</t>
         </is>
       </c>
       <c r="AA65" t="inlineStr">
@@ -7973,7 +7964,7 @@
       </c>
       <c r="AB65" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>11:36</t>
         </is>
       </c>
       <c r="AD65" t="b">
@@ -8000,10 +7991,10 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>111425527</v>
+        <v>111420869</v>
       </c>
       <c r="B66" t="n">
-        <v>99413</v>
+        <v>89405</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -8012,25 +8003,25 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E66" t="n">
-        <v>221235</v>
+        <v>1202</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Vårärt</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Lathyrus vernus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>(L.) Bernh.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I66" t="inlineStr"/>
@@ -8041,10 +8032,10 @@
         </is>
       </c>
       <c r="Q66" t="n">
-        <v>550954.7515832841</v>
+        <v>550741.937658608</v>
       </c>
       <c r="R66" t="n">
-        <v>7001915.380264779</v>
+        <v>7002115.539248759</v>
       </c>
       <c r="S66" t="n">
         <v>25</v>
@@ -8076,7 +8067,7 @@
       </c>
       <c r="Z66" t="inlineStr">
         <is>
-          <t>15:16</t>
+          <t>11:56</t>
         </is>
       </c>
       <c r="AA66" t="inlineStr">
@@ -8086,7 +8077,7 @@
       </c>
       <c r="AB66" t="inlineStr">
         <is>
-          <t>15:16</t>
+          <t>11:56</t>
         </is>
       </c>
       <c r="AD66" t="b">
@@ -8113,10 +8104,10 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>111422600</v>
+        <v>111424030</v>
       </c>
       <c r="B67" t="n">
-        <v>77186</v>
+        <v>78578</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -8129,21 +8120,21 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>353</v>
+        <v>6458</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Dvärgbägarlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Cladonia parasitica</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>(Hoffm.) Hoffm.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I67" t="inlineStr"/>
@@ -8154,10 +8145,10 @@
         </is>
       </c>
       <c r="Q67" t="n">
-        <v>550737.1374797915</v>
+        <v>551011.8102739404</v>
       </c>
       <c r="R67" t="n">
-        <v>7002017.332277133</v>
+        <v>7002059.18440557</v>
       </c>
       <c r="S67" t="n">
         <v>25</v>
@@ -8189,7 +8180,7 @@
       </c>
       <c r="Z67" t="inlineStr">
         <is>
-          <t>12:18</t>
+          <t>13:55</t>
         </is>
       </c>
       <c r="AA67" t="inlineStr">
@@ -8199,7 +8190,12 @@
       </c>
       <c r="AB67" t="inlineStr">
         <is>
-          <t>12:18</t>
+          <t>13:55</t>
+        </is>
+      </c>
+      <c r="AC67" t="inlineStr">
+        <is>
+          <t>På björk</t>
         </is>
       </c>
       <c r="AD67" t="b">
@@ -8226,10 +8222,10 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>111421571</v>
+        <v>111424441</v>
       </c>
       <c r="B68" t="n">
-        <v>78605</v>
+        <v>96348</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -8238,25 +8234,25 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E68" t="n">
-        <v>6462</v>
+        <v>220787</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I68" t="inlineStr"/>
@@ -8267,10 +8263,10 @@
         </is>
       </c>
       <c r="Q68" t="n">
-        <v>550832.3776022838</v>
+        <v>551054.6486243291</v>
       </c>
       <c r="R68" t="n">
-        <v>7002094.799920618</v>
+        <v>7002070.713193813</v>
       </c>
       <c r="S68" t="n">
         <v>25</v>
@@ -8302,7 +8298,7 @@
       </c>
       <c r="Z68" t="inlineStr">
         <is>
-          <t>12:18</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA68" t="inlineStr">
@@ -8312,7 +8308,7 @@
       </c>
       <c r="AB68" t="inlineStr">
         <is>
-          <t>12:18</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD68" t="b">
@@ -8339,10 +8335,10 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>111427787</v>
+        <v>111427612</v>
       </c>
       <c r="B69" t="n">
-        <v>98535</v>
+        <v>98446</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -8355,21 +8351,21 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>222498</v>
+        <v>222771</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Svart trolldruva</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Actaea spicata</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I69" t="inlineStr"/>
@@ -8380,10 +8376,10 @@
         </is>
       </c>
       <c r="Q69" t="n">
-        <v>550907.3809405958</v>
+        <v>550925.5549388798</v>
       </c>
       <c r="R69" t="n">
-        <v>7001932.724492302</v>
+        <v>7001928.940230627</v>
       </c>
       <c r="S69" t="n">
         <v>25</v>
@@ -8452,10 +8448,10 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>111425959</v>
+        <v>111420859</v>
       </c>
       <c r="B70" t="n">
-        <v>98535</v>
+        <v>89686</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -8464,25 +8460,25 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E70" t="n">
-        <v>222498</v>
+        <v>658</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I70" t="inlineStr"/>
@@ -8493,10 +8489,10 @@
         </is>
       </c>
       <c r="Q70" t="n">
-        <v>550955.3723719715</v>
+        <v>550742.1573915739</v>
       </c>
       <c r="R70" t="n">
-        <v>7001933.479667452</v>
+        <v>7002101.524058201</v>
       </c>
       <c r="S70" t="n">
         <v>25</v>
@@ -8528,7 +8524,7 @@
       </c>
       <c r="Z70" t="inlineStr">
         <is>
-          <t>15:34</t>
+          <t>11:56</t>
         </is>
       </c>
       <c r="AA70" t="inlineStr">
@@ -8538,7 +8534,7 @@
       </c>
       <c r="AB70" t="inlineStr">
         <is>
-          <t>15:34</t>
+          <t>11:56</t>
         </is>
       </c>
       <c r="AD70" t="b">
@@ -8565,10 +8561,10 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>111426396</v>
+        <v>111427783</v>
       </c>
       <c r="B71" t="n">
-        <v>103396</v>
+        <v>99413</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -8577,25 +8573,25 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E71" t="n">
-        <v>674</v>
+        <v>221235</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Myskmåra</t>
+          <t>Vårärt</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Galium triflorum</t>
+          <t>Lathyrus vernus</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Michx.</t>
+          <t>(L.) Bernh.</t>
         </is>
       </c>
       <c r="I71" t="inlineStr"/>
@@ -8606,10 +8602,10 @@
         </is>
       </c>
       <c r="Q71" t="n">
-        <v>550951.5040298713</v>
+        <v>550907.3809405958</v>
       </c>
       <c r="R71" t="n">
-        <v>7001920.303799121</v>
+        <v>7001932.724492302</v>
       </c>
       <c r="S71" t="n">
         <v>25</v>
@@ -8641,7 +8637,7 @@
       </c>
       <c r="Z71" t="inlineStr">
         <is>
-          <t>16:08</t>
+          <t>16:41</t>
         </is>
       </c>
       <c r="AA71" t="inlineStr">
@@ -8651,7 +8647,7 @@
       </c>
       <c r="AB71" t="inlineStr">
         <is>
-          <t>16:08</t>
+          <t>16:41</t>
         </is>
       </c>
       <c r="AD71" t="b">
@@ -8678,10 +8674,10 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>111422950</v>
+        <v>111425951</v>
       </c>
       <c r="B72" t="n">
-        <v>96348</v>
+        <v>99413</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -8690,25 +8686,25 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E72" t="n">
-        <v>220787</v>
+        <v>221235</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Vårärt</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lathyrus vernus</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(L.) Bernh.</t>
         </is>
       </c>
       <c r="I72" t="inlineStr"/>
@@ -8719,10 +8715,10 @@
         </is>
       </c>
       <c r="Q72" t="n">
-        <v>550849.6384025981</v>
+        <v>550955.3723719715</v>
       </c>
       <c r="R72" t="n">
-        <v>7001976.135959106</v>
+        <v>7001933.479667452</v>
       </c>
       <c r="S72" t="n">
         <v>25</v>
@@ -8754,7 +8750,7 @@
       </c>
       <c r="Z72" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>15:34</t>
         </is>
       </c>
       <c r="AA72" t="inlineStr">
@@ -8764,7 +8760,7 @@
       </c>
       <c r="AB72" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>15:34</t>
         </is>
       </c>
       <c r="AD72" t="b">
@@ -8791,10 +8787,10 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>111423255</v>
+        <v>111420481</v>
       </c>
       <c r="B73" t="n">
-        <v>98535</v>
+        <v>96381</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -8807,21 +8803,21 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>222498</v>
+        <v>219874</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Nattviol</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Platanthera bifolia</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I73" t="inlineStr"/>
@@ -8832,10 +8828,10 @@
         </is>
       </c>
       <c r="Q73" t="n">
-        <v>550869.8149192812</v>
+        <v>550727.9291679059</v>
       </c>
       <c r="R73" t="n">
-        <v>7001960.172576382</v>
+        <v>7002200.33458891</v>
       </c>
       <c r="S73" t="n">
         <v>25</v>
@@ -8867,7 +8863,7 @@
       </c>
       <c r="Z73" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>11:36</t>
         </is>
       </c>
       <c r="AA73" t="inlineStr">
@@ -8877,7 +8873,7 @@
       </c>
       <c r="AB73" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>11:36</t>
         </is>
       </c>
       <c r="AD73" t="b">
@@ -8904,10 +8900,10 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>111423749</v>
+        <v>111423113</v>
       </c>
       <c r="B74" t="n">
-        <v>78578</v>
+        <v>99413</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -8916,28 +8912,32 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E74" t="n">
-        <v>6458</v>
+        <v>221235</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Vårärt</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Lathyrus vernus</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
-        </is>
-      </c>
-      <c r="I74" t="inlineStr"/>
+          <t>(L.) Bernh.</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="K74" t="inlineStr"/>
       <c r="P74" t="inlineStr">
         <is>
@@ -8945,10 +8945,10 @@
         </is>
       </c>
       <c r="Q74" t="n">
-        <v>550953.7324835873</v>
+        <v>550880.707108345</v>
       </c>
       <c r="R74" t="n">
-        <v>7002066.409536021</v>
+        <v>7001987.477793725</v>
       </c>
       <c r="S74" t="n">
         <v>25</v>
@@ -8980,7 +8980,7 @@
       </c>
       <c r="Z74" t="inlineStr">
         <is>
-          <t>13:55</t>
+          <t>13:40</t>
         </is>
       </c>
       <c r="AA74" t="inlineStr">
@@ -8990,12 +8990,7 @@
       </c>
       <c r="AB74" t="inlineStr">
         <is>
-          <t>13:55</t>
-        </is>
-      </c>
-      <c r="AC74" t="inlineStr">
-        <is>
-          <t>På asp</t>
+          <t>13:40</t>
         </is>
       </c>
       <c r="AD74" t="b">
@@ -9022,10 +9017,10 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>111420477</v>
+        <v>111423749</v>
       </c>
       <c r="B75" t="n">
-        <v>89405</v>
+        <v>78578</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -9038,21 +9033,21 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>1202</v>
+        <v>6458</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I75" t="inlineStr"/>
@@ -9063,10 +9058,10 @@
         </is>
       </c>
       <c r="Q75" t="n">
-        <v>550727.9291679059</v>
+        <v>550953.7324835873</v>
       </c>
       <c r="R75" t="n">
-        <v>7002200.33458891</v>
+        <v>7002066.409536021</v>
       </c>
       <c r="S75" t="n">
         <v>25</v>
@@ -9098,7 +9093,7 @@
       </c>
       <c r="Z75" t="inlineStr">
         <is>
-          <t>11:36</t>
+          <t>13:55</t>
         </is>
       </c>
       <c r="AA75" t="inlineStr">
@@ -9108,7 +9103,12 @@
       </c>
       <c r="AB75" t="inlineStr">
         <is>
-          <t>11:36</t>
+          <t>13:55</t>
+        </is>
+      </c>
+      <c r="AC75" t="inlineStr">
+        <is>
+          <t>På asp</t>
         </is>
       </c>
       <c r="AD75" t="b">
@@ -9248,10 +9248,10 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>111424144</v>
+        <v>111421054</v>
       </c>
       <c r="B77" t="n">
-        <v>95532</v>
+        <v>96348</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -9260,25 +9260,25 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E77" t="n">
-        <v>221945</v>
+        <v>220787</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>Lycopodium annotinum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I77" t="inlineStr"/>
@@ -9289,10 +9289,10 @@
         </is>
       </c>
       <c r="Q77" t="n">
-        <v>551057.4254629152</v>
+        <v>550741.937658608</v>
       </c>
       <c r="R77" t="n">
-        <v>7002095.629051142</v>
+        <v>7002115.539248759</v>
       </c>
       <c r="S77" t="n">
         <v>25</v>
@@ -9324,7 +9324,7 @@
       </c>
       <c r="Z77" t="inlineStr">
         <is>
-          <t>13:55</t>
+          <t>12:09</t>
         </is>
       </c>
       <c r="AA77" t="inlineStr">
@@ -9334,7 +9334,7 @@
       </c>
       <c r="AB77" t="inlineStr">
         <is>
-          <t>13:55</t>
+          <t>12:09</t>
         </is>
       </c>
       <c r="AD77" t="b">
@@ -9361,10 +9361,10 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>111420835</v>
+        <v>111422600</v>
       </c>
       <c r="B78" t="n">
-        <v>96348</v>
+        <v>77186</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -9373,25 +9373,25 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E78" t="n">
-        <v>220787</v>
+        <v>353</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Dvärgbägarlav</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Cladonia parasitica</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Hoffm.) Hoffm.</t>
         </is>
       </c>
       <c r="I78" t="inlineStr"/>
@@ -9402,10 +9402,10 @@
         </is>
       </c>
       <c r="Q78" t="n">
-        <v>550732.0319218244</v>
+        <v>550737.1374797915</v>
       </c>
       <c r="R78" t="n">
-        <v>7002198.590094371</v>
+        <v>7002017.332277133</v>
       </c>
       <c r="S78" t="n">
         <v>25</v>
@@ -9437,7 +9437,7 @@
       </c>
       <c r="Z78" t="inlineStr">
         <is>
-          <t>11:56</t>
+          <t>12:18</t>
         </is>
       </c>
       <c r="AA78" t="inlineStr">
@@ -9447,7 +9447,7 @@
       </c>
       <c r="AB78" t="inlineStr">
         <is>
-          <t>11:56</t>
+          <t>12:18</t>
         </is>
       </c>
       <c r="AD78" t="b">
@@ -9474,10 +9474,10 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>111425158</v>
+        <v>111420660</v>
       </c>
       <c r="B79" t="n">
-        <v>89845</v>
+        <v>77267</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -9486,25 +9486,25 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E79" t="n">
-        <v>1209</v>
+        <v>6446</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I79" t="inlineStr"/>
@@ -9515,10 +9515,10 @@
         </is>
       </c>
       <c r="Q79" t="n">
-        <v>551009.5203002443</v>
+        <v>550733.9986858405</v>
       </c>
       <c r="R79" t="n">
-        <v>7001917.147422009</v>
+        <v>7002188.6724778</v>
       </c>
       <c r="S79" t="n">
         <v>25</v>
@@ -9550,7 +9550,7 @@
       </c>
       <c r="Z79" t="inlineStr">
         <is>
-          <t>15:16</t>
+          <t>11:51</t>
         </is>
       </c>
       <c r="AA79" t="inlineStr">
@@ -9560,7 +9560,7 @@
       </c>
       <c r="AB79" t="inlineStr">
         <is>
-          <t>15:16</t>
+          <t>11:51</t>
         </is>
       </c>
       <c r="AD79" t="b">

--- a/artfynd/A 57003-2022.xlsx
+++ b/artfynd/A 57003-2022.xlsx
@@ -1186,10 +1186,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111425553</v>
+        <v>111424144</v>
       </c>
       <c r="B6" t="n">
-        <v>103396</v>
+        <v>95532</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1198,25 +1198,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>674</v>
+        <v>221945</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Myskmåra</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Galium triflorum</t>
+          <t>Lycopodium annotinum</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Michx.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1227,10 +1227,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>550954.7515832841</v>
+        <v>551057.4254629152</v>
       </c>
       <c r="R6" t="n">
-        <v>7001915.380264779</v>
+        <v>7002095.629051142</v>
       </c>
       <c r="S6" t="n">
         <v>25</v>
@@ -1262,7 +1262,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>15:16</t>
+          <t>13:55</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -1272,7 +1272,7 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>15:16</t>
+          <t>13:55</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1299,10 +1299,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111427034</v>
+        <v>111423255</v>
       </c>
       <c r="B7" t="n">
-        <v>96348</v>
+        <v>98535</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1311,25 +1311,25 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>220787</v>
+        <v>222498</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1340,10 +1340,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>550961.4004867796</v>
+        <v>550869.8149192812</v>
       </c>
       <c r="R7" t="n">
-        <v>7001924.529771334</v>
+        <v>7001960.172576382</v>
       </c>
       <c r="S7" t="n">
         <v>25</v>
@@ -1375,7 +1375,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>16:41</t>
+          <t>13:40</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -1385,7 +1385,7 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>16:41</t>
+          <t>13:40</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1412,10 +1412,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111425285</v>
+        <v>111420859</v>
       </c>
       <c r="B8" t="n">
-        <v>98535</v>
+        <v>89686</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1424,25 +1424,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>222498</v>
+        <v>658</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1453,10 +1453,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>550974.800833688</v>
+        <v>550742.1573915739</v>
       </c>
       <c r="R8" t="n">
-        <v>7001907.55558978</v>
+        <v>7002101.524058201</v>
       </c>
       <c r="S8" t="n">
         <v>25</v>
@@ -1488,7 +1488,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>15:16</t>
+          <t>11:56</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -1498,7 +1498,7 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>15:16</t>
+          <t>11:56</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1525,10 +1525,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111425037</v>
+        <v>111421480</v>
       </c>
       <c r="B9" t="n">
-        <v>89845</v>
+        <v>78107</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1537,25 +1537,25 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>1209</v>
+        <v>6453</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1566,10 +1566,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>551037.0775894802</v>
+        <v>550808.5392307156</v>
       </c>
       <c r="R9" t="n">
-        <v>7001950.143101228</v>
+        <v>7002084.47682756</v>
       </c>
       <c r="S9" t="n">
         <v>25</v>
@@ -1601,7 +1601,7 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>15:16</t>
+          <t>12:18</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -1611,7 +1611,7 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>15:16</t>
+          <t>12:18</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1638,10 +1638,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111420477</v>
+        <v>111425789</v>
       </c>
       <c r="B10" t="n">
-        <v>89405</v>
+        <v>99413</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1650,25 +1650,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>1202</v>
+        <v>221235</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Vårärt</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Lathyrus vernus</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(L.) Bernh.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1679,10 +1679,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>550727.9291679059</v>
+        <v>550964.3063330664</v>
       </c>
       <c r="R10" t="n">
-        <v>7002200.33458891</v>
+        <v>7001941.308390027</v>
       </c>
       <c r="S10" t="n">
         <v>25</v>
@@ -1714,7 +1714,7 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>11:36</t>
+          <t>15:34</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -1724,7 +1724,7 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>11:36</t>
+          <t>15:34</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1751,10 +1751,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111426302</v>
+        <v>111423560</v>
       </c>
       <c r="B11" t="n">
-        <v>89686</v>
+        <v>94134</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1767,21 +1767,21 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>658</v>
+        <v>53</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1792,10 +1792,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>550960.5946457037</v>
+        <v>550948.589889885</v>
       </c>
       <c r="R11" t="n">
-        <v>7001918.185706819</v>
+        <v>7001990.354570261</v>
       </c>
       <c r="S11" t="n">
         <v>25</v>
@@ -1827,7 +1827,7 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>16:07</t>
+          <t>13:55</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
@@ -1837,7 +1837,7 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>16:07</t>
+          <t>13:55</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1864,10 +1864,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111423943</v>
+        <v>111420645</v>
       </c>
       <c r="B12" t="n">
-        <v>77267</v>
+        <v>96348</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1876,25 +1876,25 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>6446</v>
+        <v>220787</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1905,10 +1905,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>550983.7409033215</v>
+        <v>550733.9986858405</v>
       </c>
       <c r="R12" t="n">
-        <v>7002058.742119073</v>
+        <v>7002188.6724778</v>
       </c>
       <c r="S12" t="n">
         <v>25</v>
@@ -1940,7 +1940,7 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>13:55</t>
+          <t>11:51</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
@@ -1950,7 +1950,7 @@
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>13:55</t>
+          <t>11:51</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1977,10 +1977,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111427787</v>
+        <v>111426486</v>
       </c>
       <c r="B13" t="n">
-        <v>98535</v>
+        <v>98446</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1993,21 +1993,21 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>222498</v>
+        <v>222771</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Svart trolldruva</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Actaea spicata</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -2018,10 +2018,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>550907.3809405958</v>
+        <v>550941.2588680513</v>
       </c>
       <c r="R13" t="n">
-        <v>7001932.724492302</v>
+        <v>7001938.232138845</v>
       </c>
       <c r="S13" t="n">
         <v>25</v>
@@ -2053,7 +2053,7 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>16:41</t>
+          <t>16:08</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
@@ -2063,7 +2063,7 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>16:41</t>
+          <t>16:08</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2090,10 +2090,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111421480</v>
+        <v>111427617</v>
       </c>
       <c r="B14" t="n">
-        <v>78107</v>
+        <v>98535</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2102,25 +2102,25 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>6453</v>
+        <v>222498</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2131,10 +2131,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>550808.5392307156</v>
+        <v>550925.5549388798</v>
       </c>
       <c r="R14" t="n">
-        <v>7002084.47682756</v>
+        <v>7001928.940230627</v>
       </c>
       <c r="S14" t="n">
         <v>25</v>
@@ -2166,7 +2166,7 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>12:18</t>
+          <t>16:41</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
@@ -2176,7 +2176,7 @@
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>12:18</t>
+          <t>16:41</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2203,10 +2203,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111421391</v>
+        <v>111426308</v>
       </c>
       <c r="B15" t="n">
-        <v>78578</v>
+        <v>89405</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2219,21 +2219,21 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>6458</v>
+        <v>1202</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2244,10 +2244,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>550825.6664593286</v>
+        <v>550958.3735980184</v>
       </c>
       <c r="R15" t="n">
-        <v>7002060.778115767</v>
+        <v>7001915.437287232</v>
       </c>
       <c r="S15" t="n">
         <v>25</v>
@@ -2279,7 +2279,7 @@
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>12:18</t>
+          <t>16:07</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
@@ -2289,12 +2289,7 @@
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>12:18</t>
-        </is>
-      </c>
-      <c r="AC15" t="inlineStr">
-        <is>
-          <t>På asp</t>
+          <t>16:07</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2321,7 +2316,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111423255</v>
+        <v>111427222</v>
       </c>
       <c r="B16" t="n">
         <v>98535</v>
@@ -2362,10 +2357,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>550869.8149192812</v>
+        <v>550980.9358707955</v>
       </c>
       <c r="R16" t="n">
-        <v>7001960.172576382</v>
+        <v>7001891.823664788</v>
       </c>
       <c r="S16" t="n">
         <v>25</v>
@@ -2397,7 +2392,7 @@
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>16:41</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
@@ -2407,7 +2402,7 @@
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>16:41</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2547,7 +2542,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111423343</v>
+        <v>111425959</v>
       </c>
       <c r="B18" t="n">
         <v>98535</v>
@@ -2588,10 +2583,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>550911.6997848416</v>
+        <v>550955.3723719715</v>
       </c>
       <c r="R18" t="n">
-        <v>7001974.850411222</v>
+        <v>7001933.479667452</v>
       </c>
       <c r="S18" t="n">
         <v>25</v>
@@ -2623,7 +2618,7 @@
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>13:55</t>
+          <t>15:34</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
@@ -2633,7 +2628,7 @@
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>13:55</t>
+          <t>15:34</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2660,10 +2655,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111427222</v>
+        <v>111424256</v>
       </c>
       <c r="B19" t="n">
-        <v>98535</v>
+        <v>78605</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2676,21 +2671,21 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>222498</v>
+        <v>6462</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2701,10 +2696,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>550980.9358707955</v>
+        <v>551048.5278099331</v>
       </c>
       <c r="R19" t="n">
-        <v>7001891.823664788</v>
+        <v>7002085.539900199</v>
       </c>
       <c r="S19" t="n">
         <v>25</v>
@@ -2736,7 +2731,7 @@
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>16:41</t>
+          <t>13:55</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
@@ -2746,7 +2741,7 @@
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>16:41</t>
+          <t>13:55</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2773,10 +2768,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111421476</v>
+        <v>111426031</v>
       </c>
       <c r="B20" t="n">
-        <v>77186</v>
+        <v>99413</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2785,25 +2780,25 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>353</v>
+        <v>221235</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Dvärgbägarlav</t>
+          <t>Vårärt</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Cladonia parasitica</t>
+          <t>Lathyrus vernus</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Hoffm.) Hoffm.</t>
+          <t>(L.) Bernh.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2814,10 +2809,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>550808.5392307156</v>
+        <v>550956.02874151</v>
       </c>
       <c r="R20" t="n">
-        <v>7002084.47682756</v>
+        <v>7001949.318344167</v>
       </c>
       <c r="S20" t="n">
         <v>25</v>
@@ -2849,7 +2844,7 @@
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>12:18</t>
+          <t>15:34</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
@@ -2859,7 +2854,7 @@
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>12:18</t>
+          <t>15:34</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2886,10 +2881,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111426015</v>
+        <v>111426396</v>
       </c>
       <c r="B21" t="n">
-        <v>98446</v>
+        <v>103396</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2898,25 +2893,25 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>222771</v>
+        <v>674</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Svart trolldruva</t>
+          <t>Myskmåra</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Actaea spicata</t>
+          <t>Galium triflorum</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>Michx.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2927,10 +2922,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>550956.02874151</v>
+        <v>550951.5040298713</v>
       </c>
       <c r="R21" t="n">
-        <v>7001949.318344167</v>
+        <v>7001920.303799121</v>
       </c>
       <c r="S21" t="n">
         <v>25</v>
@@ -2962,7 +2957,7 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>15:34</t>
+          <t>16:08</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
@@ -2972,7 +2967,7 @@
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>15:34</t>
+          <t>16:08</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -2999,10 +2994,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111424976</v>
+        <v>111420835</v>
       </c>
       <c r="B22" t="n">
-        <v>78578</v>
+        <v>96348</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3011,25 +3006,25 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>6458</v>
+        <v>220787</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -3040,10 +3035,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>551037.0775894802</v>
+        <v>550732.0319218244</v>
       </c>
       <c r="R22" t="n">
-        <v>7001950.143101228</v>
+        <v>7002198.590094371</v>
       </c>
       <c r="S22" t="n">
         <v>25</v>
@@ -3075,7 +3070,7 @@
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>14:55</t>
+          <t>11:56</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
@@ -3085,12 +3080,7 @@
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>14:55</t>
-        </is>
-      </c>
-      <c r="AC22" t="inlineStr">
-        <is>
-          <t>På asp</t>
+          <t>11:56</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3117,10 +3107,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111420595</v>
+        <v>111422303</v>
       </c>
       <c r="B23" t="n">
-        <v>96348</v>
+        <v>89405</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3129,25 +3119,25 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>220787</v>
+        <v>1202</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -3158,10 +3148,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>550711.6321998269</v>
+        <v>550866.5625217154</v>
       </c>
       <c r="R23" t="n">
-        <v>7002171.138182109</v>
+        <v>7002138.297294092</v>
       </c>
       <c r="S23" t="n">
         <v>25</v>
@@ -3193,7 +3183,7 @@
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>11:47</t>
+          <t>12:18</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
@@ -3203,7 +3193,7 @@
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>11:47</t>
+          <t>12:18</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3230,10 +3220,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111422303</v>
+        <v>111425889</v>
       </c>
       <c r="B24" t="n">
-        <v>89405</v>
+        <v>98446</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3242,25 +3232,25 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>1202</v>
+        <v>222771</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Svart trolldruva</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Actaea spicata</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -3271,10 +3261,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>550866.5625217154</v>
+        <v>550964.3063330664</v>
       </c>
       <c r="R24" t="n">
-        <v>7002138.297294092</v>
+        <v>7001941.308390027</v>
       </c>
       <c r="S24" t="n">
         <v>25</v>
@@ -3306,7 +3296,7 @@
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>12:18</t>
+          <t>15:34</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
@@ -3316,7 +3306,7 @@
       </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>12:18</t>
+          <t>15:34</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3343,10 +3333,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111427126</v>
+        <v>111424103</v>
       </c>
       <c r="B25" t="n">
-        <v>78578</v>
+        <v>94134</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3359,21 +3349,21 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>6458</v>
+        <v>53</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3384,10 +3374,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>550960.5946457037</v>
+        <v>551037.3771583335</v>
       </c>
       <c r="R25" t="n">
-        <v>7001918.185706819</v>
+        <v>7002103.452742142</v>
       </c>
       <c r="S25" t="n">
         <v>25</v>
@@ -3419,7 +3409,7 @@
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>16:41</t>
+          <t>13:55</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
@@ -3429,7 +3419,7 @@
       </c>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>16:41</t>
+          <t>13:55</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3456,10 +3446,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111426042</v>
+        <v>111426015</v>
       </c>
       <c r="B26" t="n">
-        <v>98535</v>
+        <v>98446</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3472,21 +3462,21 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>222498</v>
+        <v>222771</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Svart trolldruva</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Actaea spicata</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
@@ -3569,10 +3559,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111423560</v>
+        <v>111420370</v>
       </c>
       <c r="B27" t="n">
-        <v>94134</v>
+        <v>96348</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3581,25 +3571,25 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>53</v>
+        <v>220787</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -3610,10 +3600,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>550948.589889885</v>
+        <v>550722.7296859198</v>
       </c>
       <c r="R27" t="n">
-        <v>7001990.354570261</v>
+        <v>7002214.271300747</v>
       </c>
       <c r="S27" t="n">
         <v>25</v>
@@ -3645,7 +3635,7 @@
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>13:55</t>
+          <t>11:36</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
@@ -3655,7 +3645,7 @@
       </c>
       <c r="AB27" t="inlineStr">
         <is>
-          <t>13:55</t>
+          <t>11:36</t>
         </is>
       </c>
       <c r="AD27" t="b">
@@ -3682,10 +3672,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111428138</v>
+        <v>111422023</v>
       </c>
       <c r="B28" t="n">
-        <v>96348</v>
+        <v>90666</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3694,25 +3684,25 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>220787</v>
+        <v>4364</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
@@ -3723,10 +3713,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>550809.7857848165</v>
+        <v>550845.9433502604</v>
       </c>
       <c r="R28" t="n">
-        <v>7001918.528248113</v>
+        <v>7002124.859161366</v>
       </c>
       <c r="S28" t="n">
         <v>25</v>
@@ -3758,7 +3748,7 @@
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>17:39</t>
+          <t>12:18</t>
         </is>
       </c>
       <c r="AA28" t="inlineStr">
@@ -3768,7 +3758,7 @@
       </c>
       <c r="AB28" t="inlineStr">
         <is>
-          <t>17:39</t>
+          <t>12:18</t>
         </is>
       </c>
       <c r="AD28" t="b">
@@ -3795,10 +3785,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111423460</v>
+        <v>111426562</v>
       </c>
       <c r="B29" t="n">
-        <v>98535</v>
+        <v>96348</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3807,25 +3797,25 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>222498</v>
+        <v>220787</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
@@ -3836,10 +3826,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>550919.8847323675</v>
+        <v>550976.2344434585</v>
       </c>
       <c r="R29" t="n">
-        <v>7001972.718000742</v>
+        <v>7001931.546968644</v>
       </c>
       <c r="S29" t="n">
         <v>25</v>
@@ -3871,7 +3861,7 @@
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>13:55</t>
+          <t>16:17</t>
         </is>
       </c>
       <c r="AA29" t="inlineStr">
@@ -3881,7 +3871,7 @@
       </c>
       <c r="AB29" t="inlineStr">
         <is>
-          <t>13:55</t>
+          <t>16:17</t>
         </is>
       </c>
       <c r="AD29" t="b">
@@ -3908,10 +3898,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111424103</v>
+        <v>111427612</v>
       </c>
       <c r="B30" t="n">
-        <v>94134</v>
+        <v>98446</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3920,25 +3910,25 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>53</v>
+        <v>222771</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Svart trolldruva</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Actaea spicata</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
@@ -3949,10 +3939,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>551037.3771583335</v>
+        <v>550925.5549388798</v>
       </c>
       <c r="R30" t="n">
-        <v>7002103.452742142</v>
+        <v>7001928.940230627</v>
       </c>
       <c r="S30" t="n">
         <v>25</v>
@@ -3984,7 +3974,7 @@
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>13:55</t>
+          <t>16:41</t>
         </is>
       </c>
       <c r="AA30" t="inlineStr">
@@ -3994,7 +3984,7 @@
       </c>
       <c r="AB30" t="inlineStr">
         <is>
-          <t>13:55</t>
+          <t>16:41</t>
         </is>
       </c>
       <c r="AD30" t="b">
@@ -4021,10 +4011,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>111420835</v>
+        <v>111425158</v>
       </c>
       <c r="B31" t="n">
-        <v>96348</v>
+        <v>89845</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -4037,21 +4027,21 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>220787</v>
+        <v>1209</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
@@ -4062,10 +4052,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>550732.0319218244</v>
+        <v>551009.5203002443</v>
       </c>
       <c r="R31" t="n">
-        <v>7002198.590094371</v>
+        <v>7001917.147422009</v>
       </c>
       <c r="S31" t="n">
         <v>25</v>
@@ -4097,7 +4087,7 @@
       </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>11:56</t>
+          <t>15:16</t>
         </is>
       </c>
       <c r="AA31" t="inlineStr">
@@ -4107,7 +4097,7 @@
       </c>
       <c r="AB31" t="inlineStr">
         <is>
-          <t>11:56</t>
+          <t>15:16</t>
         </is>
       </c>
       <c r="AD31" t="b">
@@ -4134,10 +4124,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>111420310</v>
+        <v>111425614</v>
       </c>
       <c r="B32" t="n">
-        <v>96348</v>
+        <v>98446</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4146,25 +4136,25 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>220787</v>
+        <v>222771</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Svart trolldruva</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Actaea spicata</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
@@ -4175,10 +4165,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>550710.25923741</v>
+        <v>550954.7515832841</v>
       </c>
       <c r="R32" t="n">
-        <v>7002200.962073827</v>
+        <v>7001915.380264779</v>
       </c>
       <c r="S32" t="n">
         <v>25</v>
@@ -4210,7 +4200,7 @@
       </c>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>11:25</t>
+          <t>15:34</t>
         </is>
       </c>
       <c r="AA32" t="inlineStr">
@@ -4220,7 +4210,7 @@
       </c>
       <c r="AB32" t="inlineStr">
         <is>
-          <t>11:25</t>
+          <t>15:34</t>
         </is>
       </c>
       <c r="AD32" t="b">
@@ -4247,10 +4237,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>111421571</v>
+        <v>111425285</v>
       </c>
       <c r="B33" t="n">
-        <v>78605</v>
+        <v>98535</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4263,21 +4253,21 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>6462</v>
+        <v>222498</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
@@ -4288,10 +4278,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>550832.3776022838</v>
+        <v>550974.800833688</v>
       </c>
       <c r="R33" t="n">
-        <v>7002094.799920618</v>
+        <v>7001907.55558978</v>
       </c>
       <c r="S33" t="n">
         <v>25</v>
@@ -4323,7 +4313,7 @@
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>12:18</t>
+          <t>15:16</t>
         </is>
       </c>
       <c r="AA33" t="inlineStr">
@@ -4333,7 +4323,7 @@
       </c>
       <c r="AB33" t="inlineStr">
         <is>
-          <t>12:18</t>
+          <t>15:16</t>
         </is>
       </c>
       <c r="AD33" t="b">
@@ -4360,10 +4350,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>111425614</v>
+        <v>111426042</v>
       </c>
       <c r="B34" t="n">
-        <v>98446</v>
+        <v>98535</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4376,21 +4366,21 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>222771</v>
+        <v>222498</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Svart trolldruva</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Actaea spicata</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
@@ -4401,10 +4391,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>550954.7515832841</v>
+        <v>550956.02874151</v>
       </c>
       <c r="R34" t="n">
-        <v>7001915.380264779</v>
+        <v>7001949.318344167</v>
       </c>
       <c r="S34" t="n">
         <v>25</v>
@@ -4473,10 +4463,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>111424331</v>
+        <v>111420481</v>
       </c>
       <c r="B35" t="n">
-        <v>78605</v>
+        <v>96381</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4489,21 +4479,21 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>6462</v>
+        <v>219874</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Nattviol</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Platanthera bifolia</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
@@ -4514,10 +4504,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>551041.1344693471</v>
+        <v>550727.9291679059</v>
       </c>
       <c r="R35" t="n">
-        <v>7002037.487754084</v>
+        <v>7002200.33458891</v>
       </c>
       <c r="S35" t="n">
         <v>25</v>
@@ -4549,7 +4539,7 @@
       </c>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>11:36</t>
         </is>
       </c>
       <c r="AA35" t="inlineStr">
@@ -4559,7 +4549,7 @@
       </c>
       <c r="AB35" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>11:36</t>
         </is>
       </c>
       <c r="AD35" t="b">
@@ -4586,10 +4576,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>111425889</v>
+        <v>111422600</v>
       </c>
       <c r="B36" t="n">
-        <v>98446</v>
+        <v>77186</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4598,25 +4588,25 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>222771</v>
+        <v>353</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Svart trolldruva</t>
+          <t>Dvärgbägarlav</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Actaea spicata</t>
+          <t>Cladonia parasitica</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Hoffm.) Hoffm.</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
@@ -4627,10 +4617,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>550964.3063330664</v>
+        <v>550737.1374797915</v>
       </c>
       <c r="R36" t="n">
-        <v>7001941.308390027</v>
+        <v>7002017.332277133</v>
       </c>
       <c r="S36" t="n">
         <v>25</v>
@@ -4662,7 +4652,7 @@
       </c>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>15:34</t>
+          <t>12:18</t>
         </is>
       </c>
       <c r="AA36" t="inlineStr">
@@ -4672,7 +4662,7 @@
       </c>
       <c r="AB36" t="inlineStr">
         <is>
-          <t>15:34</t>
+          <t>12:18</t>
         </is>
       </c>
       <c r="AD36" t="b">
@@ -4699,10 +4689,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>111426308</v>
+        <v>111421054</v>
       </c>
       <c r="B37" t="n">
-        <v>89405</v>
+        <v>96348</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4711,25 +4701,25 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>1202</v>
+        <v>220787</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
@@ -4740,10 +4730,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>550958.3735980184</v>
+        <v>550741.937658608</v>
       </c>
       <c r="R37" t="n">
-        <v>7001915.437287232</v>
+        <v>7002115.539248759</v>
       </c>
       <c r="S37" t="n">
         <v>25</v>
@@ -4775,7 +4765,7 @@
       </c>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>16:07</t>
+          <t>12:09</t>
         </is>
       </c>
       <c r="AA37" t="inlineStr">
@@ -4785,7 +4775,7 @@
       </c>
       <c r="AB37" t="inlineStr">
         <is>
-          <t>16:07</t>
+          <t>12:09</t>
         </is>
       </c>
       <c r="AD37" t="b">
@@ -4812,10 +4802,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>111426315</v>
+        <v>111421571</v>
       </c>
       <c r="B38" t="n">
-        <v>89845</v>
+        <v>78605</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -4824,25 +4814,25 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>1209</v>
+        <v>6462</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
@@ -4853,10 +4843,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>550958.3735980184</v>
+        <v>550832.3776022838</v>
       </c>
       <c r="R38" t="n">
-        <v>7001915.437287232</v>
+        <v>7002094.799920618</v>
       </c>
       <c r="S38" t="n">
         <v>25</v>
@@ -4888,7 +4878,7 @@
       </c>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>16:07</t>
+          <t>12:18</t>
         </is>
       </c>
       <c r="AA38" t="inlineStr">
@@ -4898,7 +4888,7 @@
       </c>
       <c r="AB38" t="inlineStr">
         <is>
-          <t>16:07</t>
+          <t>12:18</t>
         </is>
       </c>
       <c r="AD38" t="b">
@@ -4925,10 +4915,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>111421528</v>
+        <v>111426302</v>
       </c>
       <c r="B39" t="n">
-        <v>78578</v>
+        <v>89686</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -4941,21 +4931,21 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>6458</v>
+        <v>658</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
@@ -4966,10 +4956,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>550826.5844548051</v>
+        <v>550960.5946457037</v>
       </c>
       <c r="R39" t="n">
-        <v>7002088.830120047</v>
+        <v>7001918.185706819</v>
       </c>
       <c r="S39" t="n">
         <v>25</v>
@@ -5001,7 +4991,7 @@
       </c>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>12:18</t>
+          <t>16:07</t>
         </is>
       </c>
       <c r="AA39" t="inlineStr">
@@ -5011,7 +5001,7 @@
       </c>
       <c r="AB39" t="inlineStr">
         <is>
-          <t>12:18</t>
+          <t>16:07</t>
         </is>
       </c>
       <c r="AD39" t="b">
@@ -5038,10 +5028,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>111424650</v>
+        <v>111427779</v>
       </c>
       <c r="B40" t="n">
-        <v>96348</v>
+        <v>98446</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -5050,25 +5040,25 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>220787</v>
+        <v>222771</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Svart trolldruva</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Actaea spicata</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
@@ -5079,10 +5069,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>551057.4223798013</v>
+        <v>550907.3809405958</v>
       </c>
       <c r="R40" t="n">
-        <v>7002009.706558069</v>
+        <v>7001932.724492302</v>
       </c>
       <c r="S40" t="n">
         <v>25</v>
@@ -5114,7 +5104,7 @@
       </c>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>14:55</t>
+          <t>16:41</t>
         </is>
       </c>
       <c r="AA40" t="inlineStr">
@@ -5124,7 +5114,7 @@
       </c>
       <c r="AB40" t="inlineStr">
         <is>
-          <t>14:55</t>
+          <t>16:41</t>
         </is>
       </c>
       <c r="AD40" t="b">
@@ -5151,7 +5141,7 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>111423236</v>
+        <v>111424960</v>
       </c>
       <c r="B41" t="n">
         <v>94134</v>
@@ -5192,10 +5182,10 @@
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>550869.8149192812</v>
+        <v>551037.0775894802</v>
       </c>
       <c r="R41" t="n">
-        <v>7001960.172576382</v>
+        <v>7001950.143101228</v>
       </c>
       <c r="S41" t="n">
         <v>25</v>
@@ -5227,7 +5217,7 @@
       </c>
       <c r="Z41" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>14:55</t>
         </is>
       </c>
       <c r="AA41" t="inlineStr">
@@ -5237,7 +5227,7 @@
       </c>
       <c r="AB41" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>14:55</t>
         </is>
       </c>
       <c r="AD41" t="b">
@@ -5264,10 +5254,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>111425313</v>
+        <v>111425553</v>
       </c>
       <c r="B42" t="n">
-        <v>78578</v>
+        <v>103396</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -5280,21 +5270,21 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>6458</v>
+        <v>674</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Myskmåra</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Galium triflorum</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>Michx.</t>
         </is>
       </c>
       <c r="I42" t="inlineStr"/>
@@ -5305,10 +5295,10 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>550974.800833688</v>
+        <v>550954.7515832841</v>
       </c>
       <c r="R42" t="n">
-        <v>7001907.55558978</v>
+        <v>7001915.380264779</v>
       </c>
       <c r="S42" t="n">
         <v>25</v>
@@ -5377,10 +5367,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>111425527</v>
+        <v>111425313</v>
       </c>
       <c r="B43" t="n">
-        <v>99413</v>
+        <v>78578</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -5389,25 +5379,25 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>221235</v>
+        <v>6458</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Vårärt</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Lathyrus vernus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>(L.) Bernh.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
@@ -5418,10 +5408,10 @@
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>550954.7515832841</v>
+        <v>550974.800833688</v>
       </c>
       <c r="R43" t="n">
-        <v>7001915.380264779</v>
+        <v>7001907.55558978</v>
       </c>
       <c r="S43" t="n">
         <v>25</v>
@@ -5490,10 +5480,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>111426486</v>
+        <v>111424331</v>
       </c>
       <c r="B44" t="n">
-        <v>98446</v>
+        <v>78605</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -5506,21 +5496,21 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>222771</v>
+        <v>6462</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Svart trolldruva</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Actaea spicata</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I44" t="inlineStr"/>
@@ -5531,10 +5521,10 @@
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>550941.2588680513</v>
+        <v>551041.1344693471</v>
       </c>
       <c r="R44" t="n">
-        <v>7001938.232138845</v>
+        <v>7002037.487754084</v>
       </c>
       <c r="S44" t="n">
         <v>25</v>
@@ -5566,7 +5556,7 @@
       </c>
       <c r="Z44" t="inlineStr">
         <is>
-          <t>16:08</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA44" t="inlineStr">
@@ -5576,7 +5566,7 @@
       </c>
       <c r="AB44" t="inlineStr">
         <is>
-          <t>16:08</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD44" t="b">
@@ -5603,10 +5593,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>111424256</v>
+        <v>111422950</v>
       </c>
       <c r="B45" t="n">
-        <v>78605</v>
+        <v>96348</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -5615,25 +5605,25 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>6462</v>
+        <v>220787</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I45" t="inlineStr"/>
@@ -5644,10 +5634,10 @@
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>551048.5278099331</v>
+        <v>550849.6384025981</v>
       </c>
       <c r="R45" t="n">
-        <v>7002085.539900199</v>
+        <v>7001976.135959106</v>
       </c>
       <c r="S45" t="n">
         <v>25</v>
@@ -5679,7 +5669,7 @@
       </c>
       <c r="Z45" t="inlineStr">
         <is>
-          <t>13:55</t>
+          <t>13:40</t>
         </is>
       </c>
       <c r="AA45" t="inlineStr">
@@ -5689,7 +5679,7 @@
       </c>
       <c r="AB45" t="inlineStr">
         <is>
-          <t>13:55</t>
+          <t>13:40</t>
         </is>
       </c>
       <c r="AD45" t="b">
@@ -5716,10 +5706,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>111426031</v>
+        <v>111424441</v>
       </c>
       <c r="B46" t="n">
-        <v>99413</v>
+        <v>96348</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -5728,25 +5718,25 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>221235</v>
+        <v>220787</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Vårärt</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Lathyrus vernus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>(L.) Bernh.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I46" t="inlineStr"/>
@@ -5757,10 +5747,10 @@
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>550956.02874151</v>
+        <v>551054.6486243291</v>
       </c>
       <c r="R46" t="n">
-        <v>7001949.318344167</v>
+        <v>7002070.713193813</v>
       </c>
       <c r="S46" t="n">
         <v>25</v>
@@ -5792,7 +5782,7 @@
       </c>
       <c r="Z46" t="inlineStr">
         <is>
-          <t>15:34</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA46" t="inlineStr">
@@ -5802,7 +5792,7 @@
       </c>
       <c r="AB46" t="inlineStr">
         <is>
-          <t>15:34</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD46" t="b">
@@ -5829,10 +5819,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>111425959</v>
+        <v>111427783</v>
       </c>
       <c r="B47" t="n">
-        <v>98535</v>
+        <v>99413</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -5845,21 +5835,21 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>222498</v>
+        <v>221235</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Vårärt</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Lathyrus vernus</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(L.) Bernh.</t>
         </is>
       </c>
       <c r="I47" t="inlineStr"/>
@@ -5870,10 +5860,10 @@
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>550955.3723719715</v>
+        <v>550907.3809405958</v>
       </c>
       <c r="R47" t="n">
-        <v>7001933.479667452</v>
+        <v>7001932.724492302</v>
       </c>
       <c r="S47" t="n">
         <v>25</v>
@@ -5905,7 +5895,7 @@
       </c>
       <c r="Z47" t="inlineStr">
         <is>
-          <t>15:34</t>
+          <t>16:41</t>
         </is>
       </c>
       <c r="AA47" t="inlineStr">
@@ -5915,7 +5905,7 @@
       </c>
       <c r="AB47" t="inlineStr">
         <is>
-          <t>15:34</t>
+          <t>16:41</t>
         </is>
       </c>
       <c r="AD47" t="b">
@@ -5942,10 +5932,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>111425548</v>
+        <v>111421283</v>
       </c>
       <c r="B48" t="n">
-        <v>98535</v>
+        <v>96348</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -5954,25 +5944,25 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>222498</v>
+        <v>220787</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I48" t="inlineStr"/>
@@ -5983,10 +5973,10 @@
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>550954.7515832841</v>
+        <v>550786.6251378106</v>
       </c>
       <c r="R48" t="n">
-        <v>7001915.380264779</v>
+        <v>7002066.94856437</v>
       </c>
       <c r="S48" t="n">
         <v>25</v>
@@ -6018,7 +6008,7 @@
       </c>
       <c r="Z48" t="inlineStr">
         <is>
-          <t>15:16</t>
+          <t>12:18</t>
         </is>
       </c>
       <c r="AA48" t="inlineStr">
@@ -6028,7 +6018,7 @@
       </c>
       <c r="AB48" t="inlineStr">
         <is>
-          <t>15:16</t>
+          <t>12:18</t>
         </is>
       </c>
       <c r="AD48" t="b">
@@ -6055,10 +6045,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>111423417</v>
+        <v>111427787</v>
       </c>
       <c r="B49" t="n">
-        <v>94134</v>
+        <v>98535</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -6067,25 +6057,25 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>53</v>
+        <v>222498</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
@@ -6096,10 +6086,10 @@
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>550901.6754341319</v>
+        <v>550907.3809405958</v>
       </c>
       <c r="R49" t="n">
-        <v>7001978.762844464</v>
+        <v>7001932.724492302</v>
       </c>
       <c r="S49" t="n">
         <v>25</v>
@@ -6131,7 +6121,7 @@
       </c>
       <c r="Z49" t="inlineStr">
         <is>
-          <t>13:55</t>
+          <t>16:41</t>
         </is>
       </c>
       <c r="AA49" t="inlineStr">
@@ -6141,7 +6131,7 @@
       </c>
       <c r="AB49" t="inlineStr">
         <is>
-          <t>13:55</t>
+          <t>16:41</t>
         </is>
       </c>
       <c r="AD49" t="b">
@@ -6168,7 +6158,7 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>111427617</v>
+        <v>111425793</v>
       </c>
       <c r="B50" t="n">
         <v>98535</v>
@@ -6209,10 +6199,10 @@
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>550925.5549388798</v>
+        <v>550964.3063330664</v>
       </c>
       <c r="R50" t="n">
-        <v>7001928.940230627</v>
+        <v>7001941.308390027</v>
       </c>
       <c r="S50" t="n">
         <v>25</v>
@@ -6244,7 +6234,7 @@
       </c>
       <c r="Z50" t="inlineStr">
         <is>
-          <t>16:41</t>
+          <t>15:34</t>
         </is>
       </c>
       <c r="AA50" t="inlineStr">
@@ -6254,7 +6244,7 @@
       </c>
       <c r="AB50" t="inlineStr">
         <is>
-          <t>16:41</t>
+          <t>15:34</t>
         </is>
       </c>
       <c r="AD50" t="b">
@@ -6399,10 +6389,10 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>111420645</v>
+        <v>111423417</v>
       </c>
       <c r="B52" t="n">
-        <v>96348</v>
+        <v>94134</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -6411,25 +6401,25 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>220787</v>
+        <v>53</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I52" t="inlineStr"/>
@@ -6440,10 +6430,10 @@
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>550733.9986858405</v>
+        <v>550901.6754341319</v>
       </c>
       <c r="R52" t="n">
-        <v>7002188.6724778</v>
+        <v>7001978.762844464</v>
       </c>
       <c r="S52" t="n">
         <v>25</v>
@@ -6475,7 +6465,7 @@
       </c>
       <c r="Z52" t="inlineStr">
         <is>
-          <t>11:51</t>
+          <t>13:55</t>
         </is>
       </c>
       <c r="AA52" t="inlineStr">
@@ -6485,7 +6475,7 @@
       </c>
       <c r="AB52" t="inlineStr">
         <is>
-          <t>11:51</t>
+          <t>13:55</t>
         </is>
       </c>
       <c r="AD52" t="b">
@@ -6512,10 +6502,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>111425158</v>
+        <v>111420660</v>
       </c>
       <c r="B53" t="n">
-        <v>89845</v>
+        <v>77267</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -6524,25 +6514,25 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>1209</v>
+        <v>6446</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I53" t="inlineStr"/>
@@ -6553,10 +6543,10 @@
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>551009.5203002443</v>
+        <v>550733.9986858405</v>
       </c>
       <c r="R53" t="n">
-        <v>7001917.147422009</v>
+        <v>7002188.6724778</v>
       </c>
       <c r="S53" t="n">
         <v>25</v>
@@ -6588,7 +6578,7 @@
       </c>
       <c r="Z53" t="inlineStr">
         <is>
-          <t>15:16</t>
+          <t>11:51</t>
         </is>
       </c>
       <c r="AA53" t="inlineStr">
@@ -6598,7 +6588,7 @@
       </c>
       <c r="AB53" t="inlineStr">
         <is>
-          <t>15:16</t>
+          <t>11:51</t>
         </is>
       </c>
       <c r="AD53" t="b">
@@ -6625,10 +6615,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>111425789</v>
+        <v>111425548</v>
       </c>
       <c r="B54" t="n">
-        <v>99413</v>
+        <v>98535</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -6641,21 +6631,21 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>221235</v>
+        <v>222498</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Vårärt</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Lathyrus vernus</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>(L.) Bernh.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I54" t="inlineStr"/>
@@ -6666,10 +6656,10 @@
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>550964.3063330664</v>
+        <v>550954.7515832841</v>
       </c>
       <c r="R54" t="n">
-        <v>7001941.308390027</v>
+        <v>7001915.380264779</v>
       </c>
       <c r="S54" t="n">
         <v>25</v>
@@ -6701,7 +6691,7 @@
       </c>
       <c r="Z54" t="inlineStr">
         <is>
-          <t>15:34</t>
+          <t>15:16</t>
         </is>
       </c>
       <c r="AA54" t="inlineStr">
@@ -6711,7 +6701,7 @@
       </c>
       <c r="AB54" t="inlineStr">
         <is>
-          <t>15:34</t>
+          <t>15:16</t>
         </is>
       </c>
       <c r="AD54" t="b">
@@ -6738,10 +6728,10 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>111424144</v>
+        <v>111420310</v>
       </c>
       <c r="B55" t="n">
-        <v>95532</v>
+        <v>96348</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -6750,25 +6740,25 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>221945</v>
+        <v>220787</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Lycopodium annotinum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I55" t="inlineStr"/>
@@ -6779,10 +6769,10 @@
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>551057.4254629152</v>
+        <v>550710.25923741</v>
       </c>
       <c r="R55" t="n">
-        <v>7002095.629051142</v>
+        <v>7002200.962073827</v>
       </c>
       <c r="S55" t="n">
         <v>25</v>
@@ -6814,7 +6804,7 @@
       </c>
       <c r="Z55" t="inlineStr">
         <is>
-          <t>13:55</t>
+          <t>11:25</t>
         </is>
       </c>
       <c r="AA55" t="inlineStr">
@@ -6824,7 +6814,7 @@
       </c>
       <c r="AB55" t="inlineStr">
         <is>
-          <t>13:55</t>
+          <t>11:25</t>
         </is>
       </c>
       <c r="AD55" t="b">
@@ -6851,10 +6841,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>111427779</v>
+        <v>111427034</v>
       </c>
       <c r="B56" t="n">
-        <v>98446</v>
+        <v>96348</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -6863,25 +6853,25 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>222771</v>
+        <v>220787</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Svart trolldruva</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Actaea spicata</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I56" t="inlineStr"/>
@@ -6892,10 +6882,10 @@
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>550907.3809405958</v>
+        <v>550961.4004867796</v>
       </c>
       <c r="R56" t="n">
-        <v>7001932.724492302</v>
+        <v>7001924.529771334</v>
       </c>
       <c r="S56" t="n">
         <v>25</v>
@@ -6964,10 +6954,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>111425793</v>
+        <v>111421476</v>
       </c>
       <c r="B57" t="n">
-        <v>98535</v>
+        <v>77186</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -6976,25 +6966,25 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E57" t="n">
-        <v>222498</v>
+        <v>353</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Dvärgbägarlav</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Cladonia parasitica</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Hoffm.) Hoffm.</t>
         </is>
       </c>
       <c r="I57" t="inlineStr"/>
@@ -7005,10 +6995,10 @@
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>550964.3063330664</v>
+        <v>550808.5392307156</v>
       </c>
       <c r="R57" t="n">
-        <v>7001941.308390027</v>
+        <v>7002084.47682756</v>
       </c>
       <c r="S57" t="n">
         <v>25</v>
@@ -7040,7 +7030,7 @@
       </c>
       <c r="Z57" t="inlineStr">
         <is>
-          <t>15:34</t>
+          <t>12:18</t>
         </is>
       </c>
       <c r="AA57" t="inlineStr">
@@ -7050,7 +7040,7 @@
       </c>
       <c r="AB57" t="inlineStr">
         <is>
-          <t>15:34</t>
+          <t>12:18</t>
         </is>
       </c>
       <c r="AD57" t="b">
@@ -7077,10 +7067,10 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>111424910</v>
+        <v>111425037</v>
       </c>
       <c r="B58" t="n">
-        <v>78578</v>
+        <v>89845</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -7089,25 +7079,25 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E58" t="n">
-        <v>6458</v>
+        <v>1209</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I58" t="inlineStr"/>
@@ -7118,10 +7108,10 @@
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>551057.2480807917</v>
+        <v>551037.0775894802</v>
       </c>
       <c r="R58" t="n">
-        <v>7001934.632864759</v>
+        <v>7001950.143101228</v>
       </c>
       <c r="S58" t="n">
         <v>25</v>
@@ -7153,7 +7143,7 @@
       </c>
       <c r="Z58" t="inlineStr">
         <is>
-          <t>14:55</t>
+          <t>15:16</t>
         </is>
       </c>
       <c r="AA58" t="inlineStr">
@@ -7163,12 +7153,7 @@
       </c>
       <c r="AB58" t="inlineStr">
         <is>
-          <t>14:55</t>
-        </is>
-      </c>
-      <c r="AC58" t="inlineStr">
-        <is>
-          <t>På asp</t>
+          <t>15:16</t>
         </is>
       </c>
       <c r="AD58" t="b">
@@ -7195,10 +7180,10 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>111424960</v>
+        <v>111423113</v>
       </c>
       <c r="B59" t="n">
-        <v>94134</v>
+        <v>99413</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -7207,28 +7192,32 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E59" t="n">
-        <v>53</v>
+        <v>221235</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Vårärt</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Lathyrus vernus</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
-        </is>
-      </c>
-      <c r="I59" t="inlineStr"/>
+          <t>(L.) Bernh.</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="K59" t="inlineStr"/>
       <c r="P59" t="inlineStr">
         <is>
@@ -7236,10 +7225,10 @@
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>551037.0775894802</v>
+        <v>550880.707108345</v>
       </c>
       <c r="R59" t="n">
-        <v>7001950.143101228</v>
+        <v>7001987.477793725</v>
       </c>
       <c r="S59" t="n">
         <v>25</v>
@@ -7271,7 +7260,7 @@
       </c>
       <c r="Z59" t="inlineStr">
         <is>
-          <t>14:55</t>
+          <t>13:40</t>
         </is>
       </c>
       <c r="AA59" t="inlineStr">
@@ -7281,7 +7270,7 @@
       </c>
       <c r="AB59" t="inlineStr">
         <is>
-          <t>14:55</t>
+          <t>13:40</t>
         </is>
       </c>
       <c r="AD59" t="b">
@@ -7308,10 +7297,10 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>111422067</v>
+        <v>111427126</v>
       </c>
       <c r="B60" t="n">
-        <v>77515</v>
+        <v>78578</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -7324,21 +7313,21 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I60" t="inlineStr"/>
@@ -7349,10 +7338,10 @@
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>550845.9433502604</v>
+        <v>550960.5946457037</v>
       </c>
       <c r="R60" t="n">
-        <v>7002124.859161366</v>
+        <v>7001918.185706819</v>
       </c>
       <c r="S60" t="n">
         <v>25</v>
@@ -7384,7 +7373,7 @@
       </c>
       <c r="Z60" t="inlineStr">
         <is>
-          <t>12:18</t>
+          <t>16:41</t>
         </is>
       </c>
       <c r="AA60" t="inlineStr">
@@ -7394,12 +7383,7 @@
       </c>
       <c r="AB60" t="inlineStr">
         <is>
-          <t>12:18</t>
-        </is>
-      </c>
-      <c r="AC60" t="inlineStr">
-        <is>
-          <t>På tall</t>
+          <t>16:41</t>
         </is>
       </c>
       <c r="AD60" t="b">
@@ -7426,10 +7410,10 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>111426562</v>
+        <v>111426315</v>
       </c>
       <c r="B61" t="n">
-        <v>96348</v>
+        <v>89845</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -7442,21 +7426,21 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>220787</v>
+        <v>1209</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I61" t="inlineStr"/>
@@ -7467,10 +7451,10 @@
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>550976.2344434585</v>
+        <v>550958.3735980184</v>
       </c>
       <c r="R61" t="n">
-        <v>7001931.546968644</v>
+        <v>7001915.437287232</v>
       </c>
       <c r="S61" t="n">
         <v>25</v>
@@ -7502,7 +7486,7 @@
       </c>
       <c r="Z61" t="inlineStr">
         <is>
-          <t>16:17</t>
+          <t>16:07</t>
         </is>
       </c>
       <c r="AA61" t="inlineStr">
@@ -7512,7 +7496,7 @@
       </c>
       <c r="AB61" t="inlineStr">
         <is>
-          <t>16:17</t>
+          <t>16:07</t>
         </is>
       </c>
       <c r="AD61" t="b">
@@ -7539,10 +7523,10 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>111421283</v>
+        <v>111421528</v>
       </c>
       <c r="B62" t="n">
-        <v>96348</v>
+        <v>78578</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -7551,25 +7535,25 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E62" t="n">
-        <v>220787</v>
+        <v>6458</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I62" t="inlineStr"/>
@@ -7580,10 +7564,10 @@
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>550786.6251378106</v>
+        <v>550826.5844548051</v>
       </c>
       <c r="R62" t="n">
-        <v>7002066.94856437</v>
+        <v>7002088.830120047</v>
       </c>
       <c r="S62" t="n">
         <v>25</v>
@@ -7652,10 +7636,10 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>111426396</v>
+        <v>111425527</v>
       </c>
       <c r="B63" t="n">
-        <v>103396</v>
+        <v>99413</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -7664,25 +7648,25 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E63" t="n">
-        <v>674</v>
+        <v>221235</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Myskmåra</t>
+          <t>Vårärt</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Galium triflorum</t>
+          <t>Lathyrus vernus</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Michx.</t>
+          <t>(L.) Bernh.</t>
         </is>
       </c>
       <c r="I63" t="inlineStr"/>
@@ -7693,10 +7677,10 @@
         </is>
       </c>
       <c r="Q63" t="n">
-        <v>550951.5040298713</v>
+        <v>550954.7515832841</v>
       </c>
       <c r="R63" t="n">
-        <v>7001920.303799121</v>
+        <v>7001915.380264779</v>
       </c>
       <c r="S63" t="n">
         <v>25</v>
@@ -7728,7 +7712,7 @@
       </c>
       <c r="Z63" t="inlineStr">
         <is>
-          <t>16:08</t>
+          <t>15:16</t>
         </is>
       </c>
       <c r="AA63" t="inlineStr">
@@ -7738,7 +7722,7 @@
       </c>
       <c r="AB63" t="inlineStr">
         <is>
-          <t>16:08</t>
+          <t>15:16</t>
         </is>
       </c>
       <c r="AD63" t="b">
@@ -7765,7 +7749,7 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>111422950</v>
+        <v>111424650</v>
       </c>
       <c r="B64" t="n">
         <v>96348</v>
@@ -7806,10 +7790,10 @@
         </is>
       </c>
       <c r="Q64" t="n">
-        <v>550849.6384025981</v>
+        <v>551057.4223798013</v>
       </c>
       <c r="R64" t="n">
-        <v>7001976.135959106</v>
+        <v>7002009.706558069</v>
       </c>
       <c r="S64" t="n">
         <v>25</v>
@@ -7841,7 +7825,7 @@
       </c>
       <c r="Z64" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>14:55</t>
         </is>
       </c>
       <c r="AA64" t="inlineStr">
@@ -7851,7 +7835,7 @@
       </c>
       <c r="AB64" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>14:55</t>
         </is>
       </c>
       <c r="AD64" t="b">
@@ -7878,10 +7862,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>111420370</v>
+        <v>111425951</v>
       </c>
       <c r="B65" t="n">
-        <v>96348</v>
+        <v>99413</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -7890,25 +7874,25 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E65" t="n">
-        <v>220787</v>
+        <v>221235</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Vårärt</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lathyrus vernus</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(L.) Bernh.</t>
         </is>
       </c>
       <c r="I65" t="inlineStr"/>
@@ -7919,10 +7903,10 @@
         </is>
       </c>
       <c r="Q65" t="n">
-        <v>550722.7296859198</v>
+        <v>550955.3723719715</v>
       </c>
       <c r="R65" t="n">
-        <v>7002214.271300747</v>
+        <v>7001933.479667452</v>
       </c>
       <c r="S65" t="n">
         <v>25</v>
@@ -7954,7 +7938,7 @@
       </c>
       <c r="Z65" t="inlineStr">
         <is>
-          <t>11:36</t>
+          <t>15:34</t>
         </is>
       </c>
       <c r="AA65" t="inlineStr">
@@ -7964,7 +7948,7 @@
       </c>
       <c r="AB65" t="inlineStr">
         <is>
-          <t>11:36</t>
+          <t>15:34</t>
         </is>
       </c>
       <c r="AD65" t="b">
@@ -7991,10 +7975,10 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>111420869</v>
+        <v>111423460</v>
       </c>
       <c r="B66" t="n">
-        <v>89405</v>
+        <v>98535</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -8003,25 +7987,25 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E66" t="n">
-        <v>1202</v>
+        <v>222498</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I66" t="inlineStr"/>
@@ -8032,10 +8016,10 @@
         </is>
       </c>
       <c r="Q66" t="n">
-        <v>550741.937658608</v>
+        <v>550919.8847323675</v>
       </c>
       <c r="R66" t="n">
-        <v>7002115.539248759</v>
+        <v>7001972.718000742</v>
       </c>
       <c r="S66" t="n">
         <v>25</v>
@@ -8067,7 +8051,7 @@
       </c>
       <c r="Z66" t="inlineStr">
         <is>
-          <t>11:56</t>
+          <t>13:55</t>
         </is>
       </c>
       <c r="AA66" t="inlineStr">
@@ -8077,7 +8061,7 @@
       </c>
       <c r="AB66" t="inlineStr">
         <is>
-          <t>11:56</t>
+          <t>13:55</t>
         </is>
       </c>
       <c r="AD66" t="b">
@@ -8104,10 +8088,10 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>111424030</v>
+        <v>111423236</v>
       </c>
       <c r="B67" t="n">
-        <v>78578</v>
+        <v>94134</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -8120,21 +8104,21 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>6458</v>
+        <v>53</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I67" t="inlineStr"/>
@@ -8145,10 +8129,10 @@
         </is>
       </c>
       <c r="Q67" t="n">
-        <v>551011.8102739404</v>
+        <v>550869.8149192812</v>
       </c>
       <c r="R67" t="n">
-        <v>7002059.18440557</v>
+        <v>7001960.172576382</v>
       </c>
       <c r="S67" t="n">
         <v>25</v>
@@ -8180,7 +8164,7 @@
       </c>
       <c r="Z67" t="inlineStr">
         <is>
-          <t>13:55</t>
+          <t>13:40</t>
         </is>
       </c>
       <c r="AA67" t="inlineStr">
@@ -8190,12 +8174,7 @@
       </c>
       <c r="AB67" t="inlineStr">
         <is>
-          <t>13:55</t>
-        </is>
-      </c>
-      <c r="AC67" t="inlineStr">
-        <is>
-          <t>På björk</t>
+          <t>13:40</t>
         </is>
       </c>
       <c r="AD67" t="b">
@@ -8222,7 +8201,7 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>111424441</v>
+        <v>111428138</v>
       </c>
       <c r="B68" t="n">
         <v>96348</v>
@@ -8263,10 +8242,10 @@
         </is>
       </c>
       <c r="Q68" t="n">
-        <v>551054.6486243291</v>
+        <v>550809.7857848165</v>
       </c>
       <c r="R68" t="n">
-        <v>7002070.713193813</v>
+        <v>7001918.528248113</v>
       </c>
       <c r="S68" t="n">
         <v>25</v>
@@ -8298,7 +8277,7 @@
       </c>
       <c r="Z68" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>17:39</t>
         </is>
       </c>
       <c r="AA68" t="inlineStr">
@@ -8308,7 +8287,7 @@
       </c>
       <c r="AB68" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>17:39</t>
         </is>
       </c>
       <c r="AD68" t="b">
@@ -8335,10 +8314,10 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>111427612</v>
+        <v>111420595</v>
       </c>
       <c r="B69" t="n">
-        <v>98446</v>
+        <v>96348</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -8347,25 +8326,25 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E69" t="n">
-        <v>222771</v>
+        <v>220787</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Svart trolldruva</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Actaea spicata</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I69" t="inlineStr"/>
@@ -8376,10 +8355,10 @@
         </is>
       </c>
       <c r="Q69" t="n">
-        <v>550925.5549388798</v>
+        <v>550711.6321998269</v>
       </c>
       <c r="R69" t="n">
-        <v>7001928.940230627</v>
+        <v>7002171.138182109</v>
       </c>
       <c r="S69" t="n">
         <v>25</v>
@@ -8411,7 +8390,7 @@
       </c>
       <c r="Z69" t="inlineStr">
         <is>
-          <t>16:41</t>
+          <t>11:47</t>
         </is>
       </c>
       <c r="AA69" t="inlineStr">
@@ -8421,7 +8400,7 @@
       </c>
       <c r="AB69" t="inlineStr">
         <is>
-          <t>16:41</t>
+          <t>11:47</t>
         </is>
       </c>
       <c r="AD69" t="b">
@@ -8448,10 +8427,10 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>111420859</v>
+        <v>111420869</v>
       </c>
       <c r="B70" t="n">
-        <v>89686</v>
+        <v>89405</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -8464,21 +8443,21 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>658</v>
+        <v>1202</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I70" t="inlineStr"/>
@@ -8489,10 +8468,10 @@
         </is>
       </c>
       <c r="Q70" t="n">
-        <v>550742.1573915739</v>
+        <v>550741.937658608</v>
       </c>
       <c r="R70" t="n">
-        <v>7002101.524058201</v>
+        <v>7002115.539248759</v>
       </c>
       <c r="S70" t="n">
         <v>25</v>
@@ -8561,10 +8540,10 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>111427783</v>
+        <v>111422067</v>
       </c>
       <c r="B71" t="n">
-        <v>99413</v>
+        <v>77515</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -8573,25 +8552,25 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E71" t="n">
-        <v>221235</v>
+        <v>6425</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Vårärt</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Lathyrus vernus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>(L.) Bernh.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I71" t="inlineStr"/>
@@ -8602,10 +8581,10 @@
         </is>
       </c>
       <c r="Q71" t="n">
-        <v>550907.3809405958</v>
+        <v>550845.9433502604</v>
       </c>
       <c r="R71" t="n">
-        <v>7001932.724492302</v>
+        <v>7002124.859161366</v>
       </c>
       <c r="S71" t="n">
         <v>25</v>
@@ -8637,7 +8616,7 @@
       </c>
       <c r="Z71" t="inlineStr">
         <is>
-          <t>16:41</t>
+          <t>12:18</t>
         </is>
       </c>
       <c r="AA71" t="inlineStr">
@@ -8647,7 +8626,12 @@
       </c>
       <c r="AB71" t="inlineStr">
         <is>
-          <t>16:41</t>
+          <t>12:18</t>
+        </is>
+      </c>
+      <c r="AC71" t="inlineStr">
+        <is>
+          <t>På tall</t>
         </is>
       </c>
       <c r="AD71" t="b">
@@ -8674,10 +8658,10 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>111425951</v>
+        <v>111423943</v>
       </c>
       <c r="B72" t="n">
-        <v>99413</v>
+        <v>77267</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -8686,25 +8670,25 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E72" t="n">
-        <v>221235</v>
+        <v>6446</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Vårärt</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>Lathyrus vernus</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>(L.) Bernh.</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I72" t="inlineStr"/>
@@ -8715,10 +8699,10 @@
         </is>
       </c>
       <c r="Q72" t="n">
-        <v>550955.3723719715</v>
+        <v>550983.7409033215</v>
       </c>
       <c r="R72" t="n">
-        <v>7001933.479667452</v>
+        <v>7002058.742119073</v>
       </c>
       <c r="S72" t="n">
         <v>25</v>
@@ -8750,7 +8734,7 @@
       </c>
       <c r="Z72" t="inlineStr">
         <is>
-          <t>15:34</t>
+          <t>13:55</t>
         </is>
       </c>
       <c r="AA72" t="inlineStr">
@@ -8760,7 +8744,7 @@
       </c>
       <c r="AB72" t="inlineStr">
         <is>
-          <t>15:34</t>
+          <t>13:55</t>
         </is>
       </c>
       <c r="AD72" t="b">
@@ -8787,10 +8771,10 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>111420481</v>
+        <v>111421391</v>
       </c>
       <c r="B73" t="n">
-        <v>96381</v>
+        <v>78578</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -8799,25 +8783,25 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E73" t="n">
-        <v>219874</v>
+        <v>6458</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Nattviol</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Platanthera bifolia</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I73" t="inlineStr"/>
@@ -8828,10 +8812,10 @@
         </is>
       </c>
       <c r="Q73" t="n">
-        <v>550727.9291679059</v>
+        <v>550825.6664593286</v>
       </c>
       <c r="R73" t="n">
-        <v>7002200.33458891</v>
+        <v>7002060.778115767</v>
       </c>
       <c r="S73" t="n">
         <v>25</v>
@@ -8863,7 +8847,7 @@
       </c>
       <c r="Z73" t="inlineStr">
         <is>
-          <t>11:36</t>
+          <t>12:18</t>
         </is>
       </c>
       <c r="AA73" t="inlineStr">
@@ -8873,7 +8857,12 @@
       </c>
       <c r="AB73" t="inlineStr">
         <is>
-          <t>11:36</t>
+          <t>12:18</t>
+        </is>
+      </c>
+      <c r="AC73" t="inlineStr">
+        <is>
+          <t>På asp</t>
         </is>
       </c>
       <c r="AD73" t="b">
@@ -8900,10 +8889,10 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>111423113</v>
+        <v>111420477</v>
       </c>
       <c r="B74" t="n">
-        <v>99413</v>
+        <v>89405</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -8912,32 +8901,28 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E74" t="n">
-        <v>221235</v>
+        <v>1202</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Vårärt</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Lathyrus vernus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>(L.) Bernh.</t>
-        </is>
-      </c>
-      <c r="I74" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
       <c r="P74" t="inlineStr">
         <is>
@@ -8945,10 +8930,10 @@
         </is>
       </c>
       <c r="Q74" t="n">
-        <v>550880.707108345</v>
+        <v>550727.9291679059</v>
       </c>
       <c r="R74" t="n">
-        <v>7001987.477793725</v>
+        <v>7002200.33458891</v>
       </c>
       <c r="S74" t="n">
         <v>25</v>
@@ -8980,7 +8965,7 @@
       </c>
       <c r="Z74" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>11:36</t>
         </is>
       </c>
       <c r="AA74" t="inlineStr">
@@ -8990,7 +8975,7 @@
       </c>
       <c r="AB74" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>11:36</t>
         </is>
       </c>
       <c r="AD74" t="b">
@@ -9017,7 +9002,7 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>111423749</v>
+        <v>111424030</v>
       </c>
       <c r="B75" t="n">
         <v>78578</v>
@@ -9058,10 +9043,10 @@
         </is>
       </c>
       <c r="Q75" t="n">
-        <v>550953.7324835873</v>
+        <v>551011.8102739404</v>
       </c>
       <c r="R75" t="n">
-        <v>7002066.409536021</v>
+        <v>7002059.18440557</v>
       </c>
       <c r="S75" t="n">
         <v>25</v>
@@ -9108,7 +9093,7 @@
       </c>
       <c r="AC75" t="inlineStr">
         <is>
-          <t>På asp</t>
+          <t>På björk</t>
         </is>
       </c>
       <c r="AD75" t="b">
@@ -9135,10 +9120,10 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>111422023</v>
+        <v>111424976</v>
       </c>
       <c r="B76" t="n">
-        <v>90666</v>
+        <v>78578</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -9147,25 +9132,25 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E76" t="n">
-        <v>4364</v>
+        <v>6458</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I76" t="inlineStr"/>
@@ -9176,10 +9161,10 @@
         </is>
       </c>
       <c r="Q76" t="n">
-        <v>550845.9433502604</v>
+        <v>551037.0775894802</v>
       </c>
       <c r="R76" t="n">
-        <v>7002124.859161366</v>
+        <v>7001950.143101228</v>
       </c>
       <c r="S76" t="n">
         <v>25</v>
@@ -9211,7 +9196,7 @@
       </c>
       <c r="Z76" t="inlineStr">
         <is>
-          <t>12:18</t>
+          <t>14:55</t>
         </is>
       </c>
       <c r="AA76" t="inlineStr">
@@ -9221,7 +9206,12 @@
       </c>
       <c r="AB76" t="inlineStr">
         <is>
-          <t>12:18</t>
+          <t>14:55</t>
+        </is>
+      </c>
+      <c r="AC76" t="inlineStr">
+        <is>
+          <t>På asp</t>
         </is>
       </c>
       <c r="AD76" t="b">
@@ -9248,10 +9238,10 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>111421054</v>
+        <v>111424910</v>
       </c>
       <c r="B77" t="n">
-        <v>96348</v>
+        <v>78578</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -9260,25 +9250,25 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E77" t="n">
-        <v>220787</v>
+        <v>6458</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I77" t="inlineStr"/>
@@ -9289,10 +9279,10 @@
         </is>
       </c>
       <c r="Q77" t="n">
-        <v>550741.937658608</v>
+        <v>551057.2480807917</v>
       </c>
       <c r="R77" t="n">
-        <v>7002115.539248759</v>
+        <v>7001934.632864759</v>
       </c>
       <c r="S77" t="n">
         <v>25</v>
@@ -9324,7 +9314,7 @@
       </c>
       <c r="Z77" t="inlineStr">
         <is>
-          <t>12:09</t>
+          <t>14:55</t>
         </is>
       </c>
       <c r="AA77" t="inlineStr">
@@ -9334,7 +9324,12 @@
       </c>
       <c r="AB77" t="inlineStr">
         <is>
-          <t>12:09</t>
+          <t>14:55</t>
+        </is>
+      </c>
+      <c r="AC77" t="inlineStr">
+        <is>
+          <t>På asp</t>
         </is>
       </c>
       <c r="AD77" t="b">
@@ -9361,10 +9356,10 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>111422600</v>
+        <v>111423343</v>
       </c>
       <c r="B78" t="n">
-        <v>77186</v>
+        <v>98535</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -9373,25 +9368,25 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E78" t="n">
-        <v>353</v>
+        <v>222498</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Dvärgbägarlav</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>Cladonia parasitica</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>(Hoffm.) Hoffm.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I78" t="inlineStr"/>
@@ -9402,10 +9397,10 @@
         </is>
       </c>
       <c r="Q78" t="n">
-        <v>550737.1374797915</v>
+        <v>550911.6997848416</v>
       </c>
       <c r="R78" t="n">
-        <v>7002017.332277133</v>
+        <v>7001974.850411222</v>
       </c>
       <c r="S78" t="n">
         <v>25</v>
@@ -9437,7 +9432,7 @@
       </c>
       <c r="Z78" t="inlineStr">
         <is>
-          <t>12:18</t>
+          <t>13:55</t>
         </is>
       </c>
       <c r="AA78" t="inlineStr">
@@ -9447,7 +9442,7 @@
       </c>
       <c r="AB78" t="inlineStr">
         <is>
-          <t>12:18</t>
+          <t>13:55</t>
         </is>
       </c>
       <c r="AD78" t="b">
@@ -9474,10 +9469,10 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>111420660</v>
+        <v>111423749</v>
       </c>
       <c r="B79" t="n">
-        <v>77267</v>
+        <v>78578</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -9490,21 +9485,21 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>6446</v>
+        <v>6458</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I79" t="inlineStr"/>
@@ -9515,10 +9510,10 @@
         </is>
       </c>
       <c r="Q79" t="n">
-        <v>550733.9986858405</v>
+        <v>550953.7324835873</v>
       </c>
       <c r="R79" t="n">
-        <v>7002188.6724778</v>
+        <v>7002066.409536021</v>
       </c>
       <c r="S79" t="n">
         <v>25</v>
@@ -9550,7 +9545,7 @@
       </c>
       <c r="Z79" t="inlineStr">
         <is>
-          <t>11:51</t>
+          <t>13:55</t>
         </is>
       </c>
       <c r="AA79" t="inlineStr">
@@ -9560,7 +9555,12 @@
       </c>
       <c r="AB79" t="inlineStr">
         <is>
-          <t>11:51</t>
+          <t>13:55</t>
+        </is>
+      </c>
+      <c r="AC79" t="inlineStr">
+        <is>
+          <t>På asp</t>
         </is>
       </c>
       <c r="AD79" t="b">

--- a/artfynd/A 57003-2022.xlsx
+++ b/artfynd/A 57003-2022.xlsx
@@ -1186,10 +1186,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111424144</v>
+        <v>111420869</v>
       </c>
       <c r="B6" t="n">
-        <v>95532</v>
+        <v>89405</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1198,25 +1198,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>221945</v>
+        <v>1202</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Lycopodium annotinum</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1227,10 +1227,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>551057.4254629152</v>
+        <v>550741.937658608</v>
       </c>
       <c r="R6" t="n">
-        <v>7002095.629051142</v>
+        <v>7002115.539248759</v>
       </c>
       <c r="S6" t="n">
         <v>25</v>
@@ -1262,7 +1262,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>13:55</t>
+          <t>11:56</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -1272,7 +1272,7 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>13:55</t>
+          <t>11:56</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1299,10 +1299,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111423255</v>
+        <v>111420481</v>
       </c>
       <c r="B7" t="n">
-        <v>98535</v>
+        <v>96381</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1315,21 +1315,21 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>222498</v>
+        <v>219874</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Nattviol</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Platanthera bifolia</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1340,10 +1340,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>550869.8149192812</v>
+        <v>550727.9291679059</v>
       </c>
       <c r="R7" t="n">
-        <v>7001960.172576382</v>
+        <v>7002200.33458891</v>
       </c>
       <c r="S7" t="n">
         <v>25</v>
@@ -1375,7 +1375,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>11:36</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -1385,7 +1385,7 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>11:36</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1412,10 +1412,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111420859</v>
+        <v>111420310</v>
       </c>
       <c r="B8" t="n">
-        <v>89686</v>
+        <v>96348</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1424,25 +1424,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>658</v>
+        <v>220787</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1453,10 +1453,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>550742.1573915739</v>
+        <v>550710.25923741</v>
       </c>
       <c r="R8" t="n">
-        <v>7002101.524058201</v>
+        <v>7002200.962073827</v>
       </c>
       <c r="S8" t="n">
         <v>25</v>
@@ -1488,7 +1488,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>11:56</t>
+          <t>11:25</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -1498,7 +1498,7 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>11:56</t>
+          <t>11:25</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1525,10 +1525,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111421480</v>
+        <v>111424650</v>
       </c>
       <c r="B9" t="n">
-        <v>78107</v>
+        <v>96348</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1537,25 +1537,25 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6453</v>
+        <v>220787</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1566,10 +1566,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>550808.5392307156</v>
+        <v>551057.4223798013</v>
       </c>
       <c r="R9" t="n">
-        <v>7002084.47682756</v>
+        <v>7002009.706558069</v>
       </c>
       <c r="S9" t="n">
         <v>25</v>
@@ -1601,7 +1601,7 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>12:18</t>
+          <t>14:55</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -1611,7 +1611,7 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>12:18</t>
+          <t>14:55</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1638,10 +1638,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111425789</v>
+        <v>111427787</v>
       </c>
       <c r="B10" t="n">
-        <v>99413</v>
+        <v>98535</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1654,21 +1654,21 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>221235</v>
+        <v>222498</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Vårärt</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Lathyrus vernus</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(L.) Bernh.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1679,10 +1679,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>550964.3063330664</v>
+        <v>550907.3809405958</v>
       </c>
       <c r="R10" t="n">
-        <v>7001941.308390027</v>
+        <v>7001932.724492302</v>
       </c>
       <c r="S10" t="n">
         <v>25</v>
@@ -1714,7 +1714,7 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>15:34</t>
+          <t>16:41</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -1724,7 +1724,7 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>15:34</t>
+          <t>16:41</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1751,10 +1751,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111423560</v>
+        <v>111423255</v>
       </c>
       <c r="B11" t="n">
-        <v>94134</v>
+        <v>98535</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1763,25 +1763,25 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>53</v>
+        <v>222498</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1792,10 +1792,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>550948.589889885</v>
+        <v>550869.8149192812</v>
       </c>
       <c r="R11" t="n">
-        <v>7001990.354570261</v>
+        <v>7001960.172576382</v>
       </c>
       <c r="S11" t="n">
         <v>25</v>
@@ -1827,7 +1827,7 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>13:55</t>
+          <t>13:40</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
@@ -1837,7 +1837,7 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>13:55</t>
+          <t>13:40</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1864,10 +1864,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111420645</v>
+        <v>111424253</v>
       </c>
       <c r="B12" t="n">
-        <v>96348</v>
+        <v>89965</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1880,21 +1880,21 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>220787</v>
+        <v>760</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Doftticka</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Haploporus odorus</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Sommerf.) Bondartsev &amp; Singer</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1905,10 +1905,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>550733.9986858405</v>
+        <v>551048.5278099331</v>
       </c>
       <c r="R12" t="n">
-        <v>7002188.6724778</v>
+        <v>7002085.539900199</v>
       </c>
       <c r="S12" t="n">
         <v>25</v>
@@ -1940,7 +1940,7 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>11:51</t>
+          <t>13:55</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
@@ -1950,7 +1950,12 @@
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>11:51</t>
+          <t>13:55</t>
+        </is>
+      </c>
+      <c r="AC12" t="inlineStr">
+        <is>
+          <t>Liten väldoftande fruktkropp på sälg som fallit</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1977,10 +1982,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111426486</v>
+        <v>111422023</v>
       </c>
       <c r="B13" t="n">
-        <v>98446</v>
+        <v>90666</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1993,21 +1998,21 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>222771</v>
+        <v>4364</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Svart trolldruva</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Actaea spicata</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -2018,10 +2023,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>550941.2588680513</v>
+        <v>550845.9433502604</v>
       </c>
       <c r="R13" t="n">
-        <v>7001938.232138845</v>
+        <v>7002124.859161366</v>
       </c>
       <c r="S13" t="n">
         <v>25</v>
@@ -2053,7 +2058,7 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>16:08</t>
+          <t>12:18</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
@@ -2063,7 +2068,7 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>16:08</t>
+          <t>12:18</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2090,10 +2095,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111427617</v>
+        <v>111420660</v>
       </c>
       <c r="B14" t="n">
-        <v>98535</v>
+        <v>77267</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2102,25 +2107,25 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>222498</v>
+        <v>6446</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2131,10 +2136,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>550925.5549388798</v>
+        <v>550733.9986858405</v>
       </c>
       <c r="R14" t="n">
-        <v>7001928.940230627</v>
+        <v>7002188.6724778</v>
       </c>
       <c r="S14" t="n">
         <v>25</v>
@@ -2166,7 +2171,7 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>16:41</t>
+          <t>11:51</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
@@ -2176,7 +2181,7 @@
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>16:41</t>
+          <t>11:51</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2203,10 +2208,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111426308</v>
+        <v>111426396</v>
       </c>
       <c r="B15" t="n">
-        <v>89405</v>
+        <v>103396</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2219,21 +2224,21 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>1202</v>
+        <v>674</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Myskmåra</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Galium triflorum</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>Michx.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2244,10 +2249,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>550958.3735980184</v>
+        <v>550951.5040298713</v>
       </c>
       <c r="R15" t="n">
-        <v>7001915.437287232</v>
+        <v>7001920.303799121</v>
       </c>
       <c r="S15" t="n">
         <v>25</v>
@@ -2279,7 +2284,7 @@
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>16:07</t>
+          <t>16:08</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
@@ -2289,7 +2294,7 @@
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>16:07</t>
+          <t>16:08</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2316,10 +2321,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111427222</v>
+        <v>111426302</v>
       </c>
       <c r="B16" t="n">
-        <v>98535</v>
+        <v>89686</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2328,25 +2333,25 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>222498</v>
+        <v>658</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2357,10 +2362,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>550980.9358707955</v>
+        <v>550960.5946457037</v>
       </c>
       <c r="R16" t="n">
-        <v>7001891.823664788</v>
+        <v>7001918.185706819</v>
       </c>
       <c r="S16" t="n">
         <v>25</v>
@@ -2392,7 +2397,7 @@
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>16:41</t>
+          <t>16:07</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
@@ -2402,7 +2407,7 @@
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>16:41</t>
+          <t>16:07</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2429,7 +2434,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111423316</v>
+        <v>111422950</v>
       </c>
       <c r="B17" t="n">
         <v>96348</v>
@@ -2470,10 +2475,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>550887.953173755</v>
+        <v>550849.6384025981</v>
       </c>
       <c r="R17" t="n">
-        <v>7001958.648759932</v>
+        <v>7001976.135959106</v>
       </c>
       <c r="S17" t="n">
         <v>25</v>
@@ -2505,7 +2510,7 @@
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>13:55</t>
+          <t>13:40</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
@@ -2515,7 +2520,7 @@
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>13:55</t>
+          <t>13:40</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2542,10 +2547,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111425959</v>
+        <v>111424960</v>
       </c>
       <c r="B18" t="n">
-        <v>98535</v>
+        <v>94134</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2554,25 +2559,25 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>222498</v>
+        <v>53</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2583,10 +2588,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>550955.3723719715</v>
+        <v>551037.0775894802</v>
       </c>
       <c r="R18" t="n">
-        <v>7001933.479667452</v>
+        <v>7001950.143101228</v>
       </c>
       <c r="S18" t="n">
         <v>25</v>
@@ -2618,7 +2623,7 @@
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>15:34</t>
+          <t>14:55</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
@@ -2628,7 +2633,7 @@
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>15:34</t>
+          <t>14:55</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2655,10 +2660,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111424256</v>
+        <v>111426015</v>
       </c>
       <c r="B19" t="n">
-        <v>78605</v>
+        <v>98446</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2671,21 +2676,21 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>6462</v>
+        <v>222771</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Svart trolldruva</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Actaea spicata</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2696,10 +2701,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>551048.5278099331</v>
+        <v>550956.02874151</v>
       </c>
       <c r="R19" t="n">
-        <v>7002085.539900199</v>
+        <v>7001949.318344167</v>
       </c>
       <c r="S19" t="n">
         <v>25</v>
@@ -2731,7 +2736,7 @@
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>13:55</t>
+          <t>15:34</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
@@ -2741,7 +2746,7 @@
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>13:55</t>
+          <t>15:34</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2768,10 +2773,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111426031</v>
+        <v>111421528</v>
       </c>
       <c r="B20" t="n">
-        <v>99413</v>
+        <v>78578</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2780,25 +2785,25 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>221235</v>
+        <v>6458</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Vårärt</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Lathyrus vernus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(L.) Bernh.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2809,10 +2814,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>550956.02874151</v>
+        <v>550826.5844548051</v>
       </c>
       <c r="R20" t="n">
-        <v>7001949.318344167</v>
+        <v>7002088.830120047</v>
       </c>
       <c r="S20" t="n">
         <v>25</v>
@@ -2844,7 +2849,7 @@
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>15:34</t>
+          <t>12:18</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
@@ -2854,7 +2859,7 @@
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>15:34</t>
+          <t>12:18</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2881,10 +2886,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111426396</v>
+        <v>111424331</v>
       </c>
       <c r="B21" t="n">
-        <v>103396</v>
+        <v>78605</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2893,25 +2898,25 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>674</v>
+        <v>6462</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Myskmåra</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Galium triflorum</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Michx.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2922,10 +2927,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>550951.5040298713</v>
+        <v>551041.1344693471</v>
       </c>
       <c r="R21" t="n">
-        <v>7001920.303799121</v>
+        <v>7002037.487754084</v>
       </c>
       <c r="S21" t="n">
         <v>25</v>
@@ -2957,7 +2962,7 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>16:08</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
@@ -2967,7 +2972,7 @@
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>16:08</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -2994,7 +2999,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111420835</v>
+        <v>111421283</v>
       </c>
       <c r="B22" t="n">
         <v>96348</v>
@@ -3035,10 +3040,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>550732.0319218244</v>
+        <v>550786.6251378106</v>
       </c>
       <c r="R22" t="n">
-        <v>7002198.590094371</v>
+        <v>7002066.94856437</v>
       </c>
       <c r="S22" t="n">
         <v>25</v>
@@ -3070,7 +3075,7 @@
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>11:56</t>
+          <t>12:18</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
@@ -3080,7 +3085,7 @@
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>11:56</t>
+          <t>12:18</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3107,10 +3112,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111422303</v>
+        <v>111427222</v>
       </c>
       <c r="B23" t="n">
-        <v>89405</v>
+        <v>98535</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3119,25 +3124,25 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>1202</v>
+        <v>222498</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -3148,10 +3153,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>550866.5625217154</v>
+        <v>550980.9358707955</v>
       </c>
       <c r="R23" t="n">
-        <v>7002138.297294092</v>
+        <v>7001891.823664788</v>
       </c>
       <c r="S23" t="n">
         <v>25</v>
@@ -3183,7 +3188,7 @@
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>12:18</t>
+          <t>16:41</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
@@ -3193,7 +3198,7 @@
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>12:18</t>
+          <t>16:41</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3220,10 +3225,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111425889</v>
+        <v>111425553</v>
       </c>
       <c r="B24" t="n">
-        <v>98446</v>
+        <v>103396</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3232,25 +3237,25 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>222771</v>
+        <v>674</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Svart trolldruva</t>
+          <t>Myskmåra</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Actaea spicata</t>
+          <t>Galium triflorum</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>Michx.</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -3261,10 +3266,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>550964.3063330664</v>
+        <v>550954.7515832841</v>
       </c>
       <c r="R24" t="n">
-        <v>7001941.308390027</v>
+        <v>7001915.380264779</v>
       </c>
       <c r="S24" t="n">
         <v>25</v>
@@ -3296,7 +3301,7 @@
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>15:34</t>
+          <t>15:16</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
@@ -3306,7 +3311,7 @@
       </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>15:34</t>
+          <t>15:16</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3333,10 +3338,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111424103</v>
+        <v>111427617</v>
       </c>
       <c r="B25" t="n">
-        <v>94134</v>
+        <v>98535</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3345,25 +3350,25 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>53</v>
+        <v>222498</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3374,10 +3379,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>551037.3771583335</v>
+        <v>550925.5549388798</v>
       </c>
       <c r="R25" t="n">
-        <v>7002103.452742142</v>
+        <v>7001928.940230627</v>
       </c>
       <c r="S25" t="n">
         <v>25</v>
@@ -3409,7 +3414,7 @@
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>13:55</t>
+          <t>16:41</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
@@ -3419,7 +3424,7 @@
       </c>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>13:55</t>
+          <t>16:41</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3446,10 +3451,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111426015</v>
+        <v>111425951</v>
       </c>
       <c r="B26" t="n">
-        <v>98446</v>
+        <v>99413</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3462,21 +3467,21 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>222771</v>
+        <v>221235</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Svart trolldruva</t>
+          <t>Vårärt</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Actaea spicata</t>
+          <t>Lathyrus vernus</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(L.) Bernh.</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
@@ -3487,10 +3492,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>550956.02874151</v>
+        <v>550955.3723719715</v>
       </c>
       <c r="R26" t="n">
-        <v>7001949.318344167</v>
+        <v>7001933.479667452</v>
       </c>
       <c r="S26" t="n">
         <v>25</v>
@@ -3559,10 +3564,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111420370</v>
+        <v>111426042</v>
       </c>
       <c r="B27" t="n">
-        <v>96348</v>
+        <v>98535</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3571,25 +3576,25 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>220787</v>
+        <v>222498</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -3600,10 +3605,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>550722.7296859198</v>
+        <v>550956.02874151</v>
       </c>
       <c r="R27" t="n">
-        <v>7002214.271300747</v>
+        <v>7001949.318344167</v>
       </c>
       <c r="S27" t="n">
         <v>25</v>
@@ -3635,7 +3640,7 @@
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>11:36</t>
+          <t>15:34</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
@@ -3645,7 +3650,7 @@
       </c>
       <c r="AB27" t="inlineStr">
         <is>
-          <t>11:36</t>
+          <t>15:34</t>
         </is>
       </c>
       <c r="AD27" t="b">
@@ -3672,10 +3677,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111422023</v>
+        <v>111424256</v>
       </c>
       <c r="B28" t="n">
-        <v>90666</v>
+        <v>78605</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3688,21 +3693,21 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>4364</v>
+        <v>6462</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
@@ -3713,10 +3718,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>550845.9433502604</v>
+        <v>551048.5278099331</v>
       </c>
       <c r="R28" t="n">
-        <v>7002124.859161366</v>
+        <v>7002085.539900199</v>
       </c>
       <c r="S28" t="n">
         <v>25</v>
@@ -3748,7 +3753,7 @@
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>12:18</t>
+          <t>13:55</t>
         </is>
       </c>
       <c r="AA28" t="inlineStr">
@@ -3758,7 +3763,7 @@
       </c>
       <c r="AB28" t="inlineStr">
         <is>
-          <t>12:18</t>
+          <t>13:55</t>
         </is>
       </c>
       <c r="AD28" t="b">
@@ -3785,10 +3790,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111426562</v>
+        <v>111423749</v>
       </c>
       <c r="B29" t="n">
-        <v>96348</v>
+        <v>78578</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3797,25 +3802,25 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>220787</v>
+        <v>6458</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
@@ -3826,10 +3831,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>550976.2344434585</v>
+        <v>550953.7324835873</v>
       </c>
       <c r="R29" t="n">
-        <v>7001931.546968644</v>
+        <v>7002066.409536021</v>
       </c>
       <c r="S29" t="n">
         <v>25</v>
@@ -3861,7 +3866,7 @@
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>16:17</t>
+          <t>13:55</t>
         </is>
       </c>
       <c r="AA29" t="inlineStr">
@@ -3871,7 +3876,12 @@
       </c>
       <c r="AB29" t="inlineStr">
         <is>
-          <t>16:17</t>
+          <t>13:55</t>
+        </is>
+      </c>
+      <c r="AC29" t="inlineStr">
+        <is>
+          <t>På asp</t>
         </is>
       </c>
       <c r="AD29" t="b">
@@ -3898,10 +3908,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111427612</v>
+        <v>111420835</v>
       </c>
       <c r="B30" t="n">
-        <v>98446</v>
+        <v>96348</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3910,25 +3920,25 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>222771</v>
+        <v>220787</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Svart trolldruva</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Actaea spicata</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
@@ -3939,10 +3949,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>550925.5549388798</v>
+        <v>550732.0319218244</v>
       </c>
       <c r="R30" t="n">
-        <v>7001928.940230627</v>
+        <v>7002198.590094371</v>
       </c>
       <c r="S30" t="n">
         <v>25</v>
@@ -3974,7 +3984,7 @@
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>16:41</t>
+          <t>11:56</t>
         </is>
       </c>
       <c r="AA30" t="inlineStr">
@@ -3984,7 +3994,7 @@
       </c>
       <c r="AB30" t="inlineStr">
         <is>
-          <t>16:41</t>
+          <t>11:56</t>
         </is>
       </c>
       <c r="AD30" t="b">
@@ -4011,10 +4021,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>111425158</v>
+        <v>111423943</v>
       </c>
       <c r="B31" t="n">
-        <v>89845</v>
+        <v>77267</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -4023,25 +4033,25 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>1209</v>
+        <v>6446</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
@@ -4052,10 +4062,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>551009.5203002443</v>
+        <v>550983.7409033215</v>
       </c>
       <c r="R31" t="n">
-        <v>7001917.147422009</v>
+        <v>7002058.742119073</v>
       </c>
       <c r="S31" t="n">
         <v>25</v>
@@ -4087,7 +4097,7 @@
       </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>15:16</t>
+          <t>13:55</t>
         </is>
       </c>
       <c r="AA31" t="inlineStr">
@@ -4097,7 +4107,7 @@
       </c>
       <c r="AB31" t="inlineStr">
         <is>
-          <t>15:16</t>
+          <t>13:55</t>
         </is>
       </c>
       <c r="AD31" t="b">
@@ -4124,7 +4134,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>111425614</v>
+        <v>111427612</v>
       </c>
       <c r="B32" t="n">
         <v>98446</v>
@@ -4165,10 +4175,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>550954.7515832841</v>
+        <v>550925.5549388798</v>
       </c>
       <c r="R32" t="n">
-        <v>7001915.380264779</v>
+        <v>7001928.940230627</v>
       </c>
       <c r="S32" t="n">
         <v>25</v>
@@ -4200,7 +4210,7 @@
       </c>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>15:34</t>
+          <t>16:41</t>
         </is>
       </c>
       <c r="AA32" t="inlineStr">
@@ -4210,7 +4220,7 @@
       </c>
       <c r="AB32" t="inlineStr">
         <is>
-          <t>15:34</t>
+          <t>16:41</t>
         </is>
       </c>
       <c r="AD32" t="b">
@@ -4237,10 +4247,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>111425285</v>
+        <v>111424976</v>
       </c>
       <c r="B33" t="n">
-        <v>98535</v>
+        <v>78578</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4249,25 +4259,25 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>222498</v>
+        <v>6458</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
@@ -4278,10 +4288,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>550974.800833688</v>
+        <v>551037.0775894802</v>
       </c>
       <c r="R33" t="n">
-        <v>7001907.55558978</v>
+        <v>7001950.143101228</v>
       </c>
       <c r="S33" t="n">
         <v>25</v>
@@ -4313,7 +4323,7 @@
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>15:16</t>
+          <t>14:55</t>
         </is>
       </c>
       <c r="AA33" t="inlineStr">
@@ -4323,7 +4333,12 @@
       </c>
       <c r="AB33" t="inlineStr">
         <is>
-          <t>15:16</t>
+          <t>14:55</t>
+        </is>
+      </c>
+      <c r="AC33" t="inlineStr">
+        <is>
+          <t>På asp</t>
         </is>
       </c>
       <c r="AD33" t="b">
@@ -4350,7 +4365,7 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>111426042</v>
+        <v>111425285</v>
       </c>
       <c r="B34" t="n">
         <v>98535</v>
@@ -4391,10 +4406,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>550956.02874151</v>
+        <v>550974.800833688</v>
       </c>
       <c r="R34" t="n">
-        <v>7001949.318344167</v>
+        <v>7001907.55558978</v>
       </c>
       <c r="S34" t="n">
         <v>25</v>
@@ -4426,7 +4441,7 @@
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>15:34</t>
+          <t>15:16</t>
         </is>
       </c>
       <c r="AA34" t="inlineStr">
@@ -4436,7 +4451,7 @@
       </c>
       <c r="AB34" t="inlineStr">
         <is>
-          <t>15:34</t>
+          <t>15:16</t>
         </is>
       </c>
       <c r="AD34" t="b">
@@ -4463,10 +4478,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>111420481</v>
+        <v>111426315</v>
       </c>
       <c r="B35" t="n">
-        <v>96381</v>
+        <v>89845</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4475,25 +4490,25 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>219874</v>
+        <v>1209</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Nattviol</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Platanthera bifolia</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
@@ -4504,10 +4519,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>550727.9291679059</v>
+        <v>550958.3735980184</v>
       </c>
       <c r="R35" t="n">
-        <v>7002200.33458891</v>
+        <v>7001915.437287232</v>
       </c>
       <c r="S35" t="n">
         <v>25</v>
@@ -4539,7 +4554,7 @@
       </c>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>11:36</t>
+          <t>16:07</t>
         </is>
       </c>
       <c r="AA35" t="inlineStr">
@@ -4549,7 +4564,7 @@
       </c>
       <c r="AB35" t="inlineStr">
         <is>
-          <t>11:36</t>
+          <t>16:07</t>
         </is>
       </c>
       <c r="AD35" t="b">
@@ -4576,10 +4591,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>111422600</v>
+        <v>111421480</v>
       </c>
       <c r="B36" t="n">
-        <v>77186</v>
+        <v>78107</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4592,21 +4607,21 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>353</v>
+        <v>6453</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Dvärgbägarlav</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Cladonia parasitica</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(Hoffm.) Hoffm.</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
@@ -4617,10 +4632,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>550737.1374797915</v>
+        <v>550808.5392307156</v>
       </c>
       <c r="R36" t="n">
-        <v>7002017.332277133</v>
+        <v>7002084.47682756</v>
       </c>
       <c r="S36" t="n">
         <v>25</v>
@@ -4689,10 +4704,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>111421054</v>
+        <v>111427779</v>
       </c>
       <c r="B37" t="n">
-        <v>96348</v>
+        <v>98446</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4701,25 +4716,25 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>220787</v>
+        <v>222771</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Svart trolldruva</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Actaea spicata</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
@@ -4730,10 +4745,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>550741.937658608</v>
+        <v>550907.3809405958</v>
       </c>
       <c r="R37" t="n">
-        <v>7002115.539248759</v>
+        <v>7001932.724492302</v>
       </c>
       <c r="S37" t="n">
         <v>25</v>
@@ -4765,7 +4780,7 @@
       </c>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>12:09</t>
+          <t>16:41</t>
         </is>
       </c>
       <c r="AA37" t="inlineStr">
@@ -4775,7 +4790,7 @@
       </c>
       <c r="AB37" t="inlineStr">
         <is>
-          <t>12:09</t>
+          <t>16:41</t>
         </is>
       </c>
       <c r="AD37" t="b">
@@ -4802,10 +4817,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>111421571</v>
+        <v>111420645</v>
       </c>
       <c r="B38" t="n">
-        <v>78605</v>
+        <v>96348</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -4814,25 +4829,25 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>6462</v>
+        <v>220787</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
@@ -4843,10 +4858,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>550832.3776022838</v>
+        <v>550733.9986858405</v>
       </c>
       <c r="R38" t="n">
-        <v>7002094.799920618</v>
+        <v>7002188.6724778</v>
       </c>
       <c r="S38" t="n">
         <v>25</v>
@@ -4878,7 +4893,7 @@
       </c>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>12:18</t>
+          <t>11:51</t>
         </is>
       </c>
       <c r="AA38" t="inlineStr">
@@ -4888,7 +4903,7 @@
       </c>
       <c r="AB38" t="inlineStr">
         <is>
-          <t>12:18</t>
+          <t>11:51</t>
         </is>
       </c>
       <c r="AD38" t="b">
@@ -4915,7 +4930,7 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>111426302</v>
+        <v>111420859</v>
       </c>
       <c r="B39" t="n">
         <v>89686</v>
@@ -4956,10 +4971,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>550960.5946457037</v>
+        <v>550742.1573915739</v>
       </c>
       <c r="R39" t="n">
-        <v>7001918.185706819</v>
+        <v>7002101.524058201</v>
       </c>
       <c r="S39" t="n">
         <v>25</v>
@@ -4991,7 +5006,7 @@
       </c>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>16:07</t>
+          <t>11:56</t>
         </is>
       </c>
       <c r="AA39" t="inlineStr">
@@ -5001,7 +5016,7 @@
       </c>
       <c r="AB39" t="inlineStr">
         <is>
-          <t>16:07</t>
+          <t>11:56</t>
         </is>
       </c>
       <c r="AD39" t="b">
@@ -5028,10 +5043,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>111427779</v>
+        <v>111421054</v>
       </c>
       <c r="B40" t="n">
-        <v>98446</v>
+        <v>96348</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -5040,25 +5055,25 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>222771</v>
+        <v>220787</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Svart trolldruva</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Actaea spicata</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
@@ -5069,10 +5084,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>550907.3809405958</v>
+        <v>550741.937658608</v>
       </c>
       <c r="R40" t="n">
-        <v>7001932.724492302</v>
+        <v>7002115.539248759</v>
       </c>
       <c r="S40" t="n">
         <v>25</v>
@@ -5104,7 +5119,7 @@
       </c>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>16:41</t>
+          <t>12:09</t>
         </is>
       </c>
       <c r="AA40" t="inlineStr">
@@ -5114,7 +5129,7 @@
       </c>
       <c r="AB40" t="inlineStr">
         <is>
-          <t>16:41</t>
+          <t>12:09</t>
         </is>
       </c>
       <c r="AD40" t="b">
@@ -5141,10 +5156,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>111424960</v>
+        <v>111423343</v>
       </c>
       <c r="B41" t="n">
-        <v>94134</v>
+        <v>98535</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -5153,25 +5168,25 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>53</v>
+        <v>222498</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
@@ -5182,10 +5197,10 @@
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>551037.0775894802</v>
+        <v>550911.6997848416</v>
       </c>
       <c r="R41" t="n">
-        <v>7001950.143101228</v>
+        <v>7001974.850411222</v>
       </c>
       <c r="S41" t="n">
         <v>25</v>
@@ -5217,7 +5232,7 @@
       </c>
       <c r="Z41" t="inlineStr">
         <is>
-          <t>14:55</t>
+          <t>13:55</t>
         </is>
       </c>
       <c r="AA41" t="inlineStr">
@@ -5227,7 +5242,7 @@
       </c>
       <c r="AB41" t="inlineStr">
         <is>
-          <t>14:55</t>
+          <t>13:55</t>
         </is>
       </c>
       <c r="AD41" t="b">
@@ -5254,10 +5269,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>111425553</v>
+        <v>111425614</v>
       </c>
       <c r="B42" t="n">
-        <v>103396</v>
+        <v>98446</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -5266,25 +5281,25 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>674</v>
+        <v>222771</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Myskmåra</t>
+          <t>Svart trolldruva</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Galium triflorum</t>
+          <t>Actaea spicata</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Michx.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I42" t="inlineStr"/>
@@ -5330,7 +5345,7 @@
       </c>
       <c r="Z42" t="inlineStr">
         <is>
-          <t>15:16</t>
+          <t>15:34</t>
         </is>
       </c>
       <c r="AA42" t="inlineStr">
@@ -5340,7 +5355,7 @@
       </c>
       <c r="AB42" t="inlineStr">
         <is>
-          <t>15:16</t>
+          <t>15:34</t>
         </is>
       </c>
       <c r="AD42" t="b">
@@ -5367,10 +5382,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>111425313</v>
+        <v>111426308</v>
       </c>
       <c r="B43" t="n">
-        <v>78578</v>
+        <v>89405</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -5383,21 +5398,21 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>6458</v>
+        <v>1202</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
@@ -5408,10 +5423,10 @@
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>550974.800833688</v>
+        <v>550958.3735980184</v>
       </c>
       <c r="R43" t="n">
-        <v>7001907.55558978</v>
+        <v>7001915.437287232</v>
       </c>
       <c r="S43" t="n">
         <v>25</v>
@@ -5443,7 +5458,7 @@
       </c>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>15:16</t>
+          <t>16:07</t>
         </is>
       </c>
       <c r="AA43" t="inlineStr">
@@ -5453,7 +5468,7 @@
       </c>
       <c r="AB43" t="inlineStr">
         <is>
-          <t>15:16</t>
+          <t>16:07</t>
         </is>
       </c>
       <c r="AD43" t="b">
@@ -5480,10 +5495,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>111424331</v>
+        <v>111424103</v>
       </c>
       <c r="B44" t="n">
-        <v>78605</v>
+        <v>94134</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -5492,25 +5507,25 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>6462</v>
+        <v>53</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I44" t="inlineStr"/>
@@ -5521,10 +5536,10 @@
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>551041.1344693471</v>
+        <v>551037.3771583335</v>
       </c>
       <c r="R44" t="n">
-        <v>7002037.487754084</v>
+        <v>7002103.452742142</v>
       </c>
       <c r="S44" t="n">
         <v>25</v>
@@ -5556,7 +5571,7 @@
       </c>
       <c r="Z44" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>13:55</t>
         </is>
       </c>
       <c r="AA44" t="inlineStr">
@@ -5566,7 +5581,7 @@
       </c>
       <c r="AB44" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>13:55</t>
         </is>
       </c>
       <c r="AD44" t="b">
@@ -5593,10 +5608,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>111422950</v>
+        <v>111422303</v>
       </c>
       <c r="B45" t="n">
-        <v>96348</v>
+        <v>89405</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -5605,25 +5620,25 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>220787</v>
+        <v>1202</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I45" t="inlineStr"/>
@@ -5634,10 +5649,10 @@
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>550849.6384025981</v>
+        <v>550866.5625217154</v>
       </c>
       <c r="R45" t="n">
-        <v>7001976.135959106</v>
+        <v>7002138.297294092</v>
       </c>
       <c r="S45" t="n">
         <v>25</v>
@@ -5669,7 +5684,7 @@
       </c>
       <c r="Z45" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>12:18</t>
         </is>
       </c>
       <c r="AA45" t="inlineStr">
@@ -5679,7 +5694,7 @@
       </c>
       <c r="AB45" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>12:18</t>
         </is>
       </c>
       <c r="AD45" t="b">
@@ -5706,7 +5721,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>111424441</v>
+        <v>111420370</v>
       </c>
       <c r="B46" t="n">
         <v>96348</v>
@@ -5747,10 +5762,10 @@
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>551054.6486243291</v>
+        <v>550722.7296859198</v>
       </c>
       <c r="R46" t="n">
-        <v>7002070.713193813</v>
+        <v>7002214.271300747</v>
       </c>
       <c r="S46" t="n">
         <v>25</v>
@@ -5782,7 +5797,7 @@
       </c>
       <c r="Z46" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>11:36</t>
         </is>
       </c>
       <c r="AA46" t="inlineStr">
@@ -5792,7 +5807,7 @@
       </c>
       <c r="AB46" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>11:36</t>
         </is>
       </c>
       <c r="AD46" t="b">
@@ -5819,7 +5834,7 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>111427783</v>
+        <v>111426031</v>
       </c>
       <c r="B47" t="n">
         <v>99413</v>
@@ -5860,10 +5875,10 @@
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>550907.3809405958</v>
+        <v>550956.02874151</v>
       </c>
       <c r="R47" t="n">
-        <v>7001932.724492302</v>
+        <v>7001949.318344167</v>
       </c>
       <c r="S47" t="n">
         <v>25</v>
@@ -5895,7 +5910,7 @@
       </c>
       <c r="Z47" t="inlineStr">
         <is>
-          <t>16:41</t>
+          <t>15:34</t>
         </is>
       </c>
       <c r="AA47" t="inlineStr">
@@ -5905,7 +5920,7 @@
       </c>
       <c r="AB47" t="inlineStr">
         <is>
-          <t>16:41</t>
+          <t>15:34</t>
         </is>
       </c>
       <c r="AD47" t="b">
@@ -5932,10 +5947,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>111421283</v>
+        <v>111425789</v>
       </c>
       <c r="B48" t="n">
-        <v>96348</v>
+        <v>99413</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -5944,25 +5959,25 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>220787</v>
+        <v>221235</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Vårärt</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lathyrus vernus</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(L.) Bernh.</t>
         </is>
       </c>
       <c r="I48" t="inlineStr"/>
@@ -5973,10 +5988,10 @@
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>550786.6251378106</v>
+        <v>550964.3063330664</v>
       </c>
       <c r="R48" t="n">
-        <v>7002066.94856437</v>
+        <v>7001941.308390027</v>
       </c>
       <c r="S48" t="n">
         <v>25</v>
@@ -6008,7 +6023,7 @@
       </c>
       <c r="Z48" t="inlineStr">
         <is>
-          <t>12:18</t>
+          <t>15:34</t>
         </is>
       </c>
       <c r="AA48" t="inlineStr">
@@ -6018,7 +6033,7 @@
       </c>
       <c r="AB48" t="inlineStr">
         <is>
-          <t>12:18</t>
+          <t>15:34</t>
         </is>
       </c>
       <c r="AD48" t="b">
@@ -6045,7 +6060,7 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>111427787</v>
+        <v>111423460</v>
       </c>
       <c r="B49" t="n">
         <v>98535</v>
@@ -6086,10 +6101,10 @@
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>550907.3809405958</v>
+        <v>550919.8847323675</v>
       </c>
       <c r="R49" t="n">
-        <v>7001932.724492302</v>
+        <v>7001972.718000742</v>
       </c>
       <c r="S49" t="n">
         <v>25</v>
@@ -6121,7 +6136,7 @@
       </c>
       <c r="Z49" t="inlineStr">
         <is>
-          <t>16:41</t>
+          <t>13:55</t>
         </is>
       </c>
       <c r="AA49" t="inlineStr">
@@ -6131,7 +6146,7 @@
       </c>
       <c r="AB49" t="inlineStr">
         <is>
-          <t>16:41</t>
+          <t>13:55</t>
         </is>
       </c>
       <c r="AD49" t="b">
@@ -6158,10 +6173,10 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>111425793</v>
+        <v>111428138</v>
       </c>
       <c r="B50" t="n">
-        <v>98535</v>
+        <v>96348</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -6170,25 +6185,25 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>222498</v>
+        <v>220787</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I50" t="inlineStr"/>
@@ -6199,10 +6214,10 @@
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>550964.3063330664</v>
+        <v>550809.7857848165</v>
       </c>
       <c r="R50" t="n">
-        <v>7001941.308390027</v>
+        <v>7001918.528248113</v>
       </c>
       <c r="S50" t="n">
         <v>25</v>
@@ -6234,7 +6249,7 @@
       </c>
       <c r="Z50" t="inlineStr">
         <is>
-          <t>15:34</t>
+          <t>17:39</t>
         </is>
       </c>
       <c r="AA50" t="inlineStr">
@@ -6244,7 +6259,7 @@
       </c>
       <c r="AB50" t="inlineStr">
         <is>
-          <t>15:34</t>
+          <t>17:39</t>
         </is>
       </c>
       <c r="AD50" t="b">
@@ -6271,10 +6286,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>111424253</v>
+        <v>111425959</v>
       </c>
       <c r="B51" t="n">
-        <v>89965</v>
+        <v>98535</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -6283,25 +6298,25 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>760</v>
+        <v>222498</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Doftticka</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Haploporus odorus</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>(Sommerf.) Bondartsev &amp; Singer</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I51" t="inlineStr"/>
@@ -6312,10 +6327,10 @@
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>551048.5278099331</v>
+        <v>550955.3723719715</v>
       </c>
       <c r="R51" t="n">
-        <v>7002085.539900199</v>
+        <v>7001933.479667452</v>
       </c>
       <c r="S51" t="n">
         <v>25</v>
@@ -6347,7 +6362,7 @@
       </c>
       <c r="Z51" t="inlineStr">
         <is>
-          <t>13:55</t>
+          <t>15:34</t>
         </is>
       </c>
       <c r="AA51" t="inlineStr">
@@ -6357,12 +6372,7 @@
       </c>
       <c r="AB51" t="inlineStr">
         <is>
-          <t>13:55</t>
-        </is>
-      </c>
-      <c r="AC51" t="inlineStr">
-        <is>
-          <t>Liten väldoftande fruktkropp på sälg som fallit</t>
+          <t>15:34</t>
         </is>
       </c>
       <c r="AD51" t="b">
@@ -6389,10 +6399,10 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>111423417</v>
+        <v>111427126</v>
       </c>
       <c r="B52" t="n">
-        <v>94134</v>
+        <v>78578</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -6405,21 +6415,21 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>53</v>
+        <v>6458</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I52" t="inlineStr"/>
@@ -6430,10 +6440,10 @@
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>550901.6754341319</v>
+        <v>550960.5946457037</v>
       </c>
       <c r="R52" t="n">
-        <v>7001978.762844464</v>
+        <v>7001918.185706819</v>
       </c>
       <c r="S52" t="n">
         <v>25</v>
@@ -6465,7 +6475,7 @@
       </c>
       <c r="Z52" t="inlineStr">
         <is>
-          <t>13:55</t>
+          <t>16:41</t>
         </is>
       </c>
       <c r="AA52" t="inlineStr">
@@ -6475,7 +6485,7 @@
       </c>
       <c r="AB52" t="inlineStr">
         <is>
-          <t>13:55</t>
+          <t>16:41</t>
         </is>
       </c>
       <c r="AD52" t="b">
@@ -6502,10 +6512,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>111420660</v>
+        <v>111426486</v>
       </c>
       <c r="B53" t="n">
-        <v>77267</v>
+        <v>98446</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -6514,25 +6524,25 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>6446</v>
+        <v>222771</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Svart trolldruva</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Actaea spicata</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I53" t="inlineStr"/>
@@ -6543,10 +6553,10 @@
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>550733.9986858405</v>
+        <v>550941.2588680513</v>
       </c>
       <c r="R53" t="n">
-        <v>7002188.6724778</v>
+        <v>7001938.232138845</v>
       </c>
       <c r="S53" t="n">
         <v>25</v>
@@ -6578,7 +6588,7 @@
       </c>
       <c r="Z53" t="inlineStr">
         <is>
-          <t>11:51</t>
+          <t>16:08</t>
         </is>
       </c>
       <c r="AA53" t="inlineStr">
@@ -6588,7 +6598,7 @@
       </c>
       <c r="AB53" t="inlineStr">
         <is>
-          <t>11:51</t>
+          <t>16:08</t>
         </is>
       </c>
       <c r="AD53" t="b">
@@ -6615,10 +6625,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>111425548</v>
+        <v>111425158</v>
       </c>
       <c r="B54" t="n">
-        <v>98535</v>
+        <v>89845</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -6627,25 +6637,25 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>222498</v>
+        <v>1209</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I54" t="inlineStr"/>
@@ -6656,10 +6666,10 @@
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>550954.7515832841</v>
+        <v>551009.5203002443</v>
       </c>
       <c r="R54" t="n">
-        <v>7001915.380264779</v>
+        <v>7001917.147422009</v>
       </c>
       <c r="S54" t="n">
         <v>25</v>
@@ -6728,10 +6738,10 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>111420310</v>
+        <v>111427783</v>
       </c>
       <c r="B55" t="n">
-        <v>96348</v>
+        <v>99413</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -6740,25 +6750,25 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>220787</v>
+        <v>221235</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Vårärt</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lathyrus vernus</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(L.) Bernh.</t>
         </is>
       </c>
       <c r="I55" t="inlineStr"/>
@@ -6769,10 +6779,10 @@
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>550710.25923741</v>
+        <v>550907.3809405958</v>
       </c>
       <c r="R55" t="n">
-        <v>7002200.962073827</v>
+        <v>7001932.724492302</v>
       </c>
       <c r="S55" t="n">
         <v>25</v>
@@ -6804,7 +6814,7 @@
       </c>
       <c r="Z55" t="inlineStr">
         <is>
-          <t>11:25</t>
+          <t>16:41</t>
         </is>
       </c>
       <c r="AA55" t="inlineStr">
@@ -6814,7 +6824,7 @@
       </c>
       <c r="AB55" t="inlineStr">
         <is>
-          <t>11:25</t>
+          <t>16:41</t>
         </is>
       </c>
       <c r="AD55" t="b">
@@ -6841,10 +6851,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>111427034</v>
+        <v>111425527</v>
       </c>
       <c r="B56" t="n">
-        <v>96348</v>
+        <v>99413</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -6853,25 +6863,25 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>220787</v>
+        <v>221235</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Vårärt</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lathyrus vernus</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(L.) Bernh.</t>
         </is>
       </c>
       <c r="I56" t="inlineStr"/>
@@ -6882,10 +6892,10 @@
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>550961.4004867796</v>
+        <v>550954.7515832841</v>
       </c>
       <c r="R56" t="n">
-        <v>7001924.529771334</v>
+        <v>7001915.380264779</v>
       </c>
       <c r="S56" t="n">
         <v>25</v>
@@ -6917,7 +6927,7 @@
       </c>
       <c r="Z56" t="inlineStr">
         <is>
-          <t>16:41</t>
+          <t>15:16</t>
         </is>
       </c>
       <c r="AA56" t="inlineStr">
@@ -6927,7 +6937,7 @@
       </c>
       <c r="AB56" t="inlineStr">
         <is>
-          <t>16:41</t>
+          <t>15:16</t>
         </is>
       </c>
       <c r="AD56" t="b">
@@ -6954,10 +6964,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>111421476</v>
+        <v>111423316</v>
       </c>
       <c r="B57" t="n">
-        <v>77186</v>
+        <v>96348</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -6966,25 +6976,25 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E57" t="n">
-        <v>353</v>
+        <v>220787</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Dvärgbägarlav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Cladonia parasitica</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>(Hoffm.) Hoffm.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I57" t="inlineStr"/>
@@ -6995,10 +7005,10 @@
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>550808.5392307156</v>
+        <v>550887.953173755</v>
       </c>
       <c r="R57" t="n">
-        <v>7002084.47682756</v>
+        <v>7001958.648759932</v>
       </c>
       <c r="S57" t="n">
         <v>25</v>
@@ -7030,7 +7040,7 @@
       </c>
       <c r="Z57" t="inlineStr">
         <is>
-          <t>12:18</t>
+          <t>13:55</t>
         </is>
       </c>
       <c r="AA57" t="inlineStr">
@@ -7040,7 +7050,7 @@
       </c>
       <c r="AB57" t="inlineStr">
         <is>
-          <t>12:18</t>
+          <t>13:55</t>
         </is>
       </c>
       <c r="AD57" t="b">
@@ -7067,10 +7077,10 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>111425037</v>
+        <v>111425548</v>
       </c>
       <c r="B58" t="n">
-        <v>89845</v>
+        <v>98535</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -7079,25 +7089,25 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E58" t="n">
-        <v>1209</v>
+        <v>222498</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I58" t="inlineStr"/>
@@ -7108,10 +7118,10 @@
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>551037.0775894802</v>
+        <v>550954.7515832841</v>
       </c>
       <c r="R58" t="n">
-        <v>7001950.143101228</v>
+        <v>7001915.380264779</v>
       </c>
       <c r="S58" t="n">
         <v>25</v>
@@ -7180,10 +7190,10 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>111423113</v>
+        <v>111422067</v>
       </c>
       <c r="B59" t="n">
-        <v>99413</v>
+        <v>77515</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -7192,32 +7202,28 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E59" t="n">
-        <v>221235</v>
+        <v>6425</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Vårärt</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Lathyrus vernus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>(L.) Bernh.</t>
-        </is>
-      </c>
-      <c r="I59" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
       <c r="P59" t="inlineStr">
         <is>
@@ -7225,10 +7231,10 @@
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>550880.707108345</v>
+        <v>550845.9433502604</v>
       </c>
       <c r="R59" t="n">
-        <v>7001987.477793725</v>
+        <v>7002124.859161366</v>
       </c>
       <c r="S59" t="n">
         <v>25</v>
@@ -7260,7 +7266,7 @@
       </c>
       <c r="Z59" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>12:18</t>
         </is>
       </c>
       <c r="AA59" t="inlineStr">
@@ -7270,7 +7276,12 @@
       </c>
       <c r="AB59" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>12:18</t>
+        </is>
+      </c>
+      <c r="AC59" t="inlineStr">
+        <is>
+          <t>På tall</t>
         </is>
       </c>
       <c r="AD59" t="b">
@@ -7297,10 +7308,10 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>111427126</v>
+        <v>111422600</v>
       </c>
       <c r="B60" t="n">
-        <v>78578</v>
+        <v>77186</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -7313,21 +7324,21 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>6458</v>
+        <v>353</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Dvärgbägarlav</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Cladonia parasitica</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Hoffm.) Hoffm.</t>
         </is>
       </c>
       <c r="I60" t="inlineStr"/>
@@ -7338,10 +7349,10 @@
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>550960.5946457037</v>
+        <v>550737.1374797915</v>
       </c>
       <c r="R60" t="n">
-        <v>7001918.185706819</v>
+        <v>7002017.332277133</v>
       </c>
       <c r="S60" t="n">
         <v>25</v>
@@ -7373,7 +7384,7 @@
       </c>
       <c r="Z60" t="inlineStr">
         <is>
-          <t>16:41</t>
+          <t>12:18</t>
         </is>
       </c>
       <c r="AA60" t="inlineStr">
@@ -7383,7 +7394,7 @@
       </c>
       <c r="AB60" t="inlineStr">
         <is>
-          <t>16:41</t>
+          <t>12:18</t>
         </is>
       </c>
       <c r="AD60" t="b">
@@ -7410,10 +7421,10 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>111426315</v>
+        <v>111423417</v>
       </c>
       <c r="B61" t="n">
-        <v>89845</v>
+        <v>94134</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -7422,25 +7433,25 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E61" t="n">
-        <v>1209</v>
+        <v>53</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I61" t="inlineStr"/>
@@ -7451,10 +7462,10 @@
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>550958.3735980184</v>
+        <v>550901.6754341319</v>
       </c>
       <c r="R61" t="n">
-        <v>7001915.437287232</v>
+        <v>7001978.762844464</v>
       </c>
       <c r="S61" t="n">
         <v>25</v>
@@ -7486,7 +7497,7 @@
       </c>
       <c r="Z61" t="inlineStr">
         <is>
-          <t>16:07</t>
+          <t>13:55</t>
         </is>
       </c>
       <c r="AA61" t="inlineStr">
@@ -7496,7 +7507,7 @@
       </c>
       <c r="AB61" t="inlineStr">
         <is>
-          <t>16:07</t>
+          <t>13:55</t>
         </is>
       </c>
       <c r="AD61" t="b">
@@ -7523,10 +7534,10 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>111421528</v>
+        <v>111425793</v>
       </c>
       <c r="B62" t="n">
-        <v>78578</v>
+        <v>98535</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -7535,25 +7546,25 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E62" t="n">
-        <v>6458</v>
+        <v>222498</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I62" t="inlineStr"/>
@@ -7564,10 +7575,10 @@
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>550826.5844548051</v>
+        <v>550964.3063330664</v>
       </c>
       <c r="R62" t="n">
-        <v>7002088.830120047</v>
+        <v>7001941.308390027</v>
       </c>
       <c r="S62" t="n">
         <v>25</v>
@@ -7599,7 +7610,7 @@
       </c>
       <c r="Z62" t="inlineStr">
         <is>
-          <t>12:18</t>
+          <t>15:34</t>
         </is>
       </c>
       <c r="AA62" t="inlineStr">
@@ -7609,7 +7620,7 @@
       </c>
       <c r="AB62" t="inlineStr">
         <is>
-          <t>12:18</t>
+          <t>15:34</t>
         </is>
       </c>
       <c r="AD62" t="b">
@@ -7636,10 +7647,10 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>111425527</v>
+        <v>111425786</v>
       </c>
       <c r="B63" t="n">
-        <v>99413</v>
+        <v>98446</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -7652,21 +7663,21 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>221235</v>
+        <v>222771</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Vårärt</t>
+          <t>Svart trolldruva</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Lathyrus vernus</t>
+          <t>Actaea spicata</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>(L.) Bernh.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I63" t="inlineStr"/>
@@ -7677,10 +7688,10 @@
         </is>
       </c>
       <c r="Q63" t="n">
-        <v>550954.7515832841</v>
+        <v>550964.3063330664</v>
       </c>
       <c r="R63" t="n">
-        <v>7001915.380264779</v>
+        <v>7001941.308390027</v>
       </c>
       <c r="S63" t="n">
         <v>25</v>
@@ -7712,7 +7723,7 @@
       </c>
       <c r="Z63" t="inlineStr">
         <is>
-          <t>15:16</t>
+          <t>15:34</t>
         </is>
       </c>
       <c r="AA63" t="inlineStr">
@@ -7722,7 +7733,7 @@
       </c>
       <c r="AB63" t="inlineStr">
         <is>
-          <t>15:16</t>
+          <t>15:34</t>
         </is>
       </c>
       <c r="AD63" t="b">
@@ -7749,10 +7760,10 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>111424650</v>
+        <v>111421391</v>
       </c>
       <c r="B64" t="n">
-        <v>96348</v>
+        <v>78578</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -7761,25 +7772,25 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E64" t="n">
-        <v>220787</v>
+        <v>6458</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I64" t="inlineStr"/>
@@ -7790,10 +7801,10 @@
         </is>
       </c>
       <c r="Q64" t="n">
-        <v>551057.4223798013</v>
+        <v>550825.6664593286</v>
       </c>
       <c r="R64" t="n">
-        <v>7002009.706558069</v>
+        <v>7002060.778115767</v>
       </c>
       <c r="S64" t="n">
         <v>25</v>
@@ -7825,7 +7836,7 @@
       </c>
       <c r="Z64" t="inlineStr">
         <is>
-          <t>14:55</t>
+          <t>12:18</t>
         </is>
       </c>
       <c r="AA64" t="inlineStr">
@@ -7835,7 +7846,12 @@
       </c>
       <c r="AB64" t="inlineStr">
         <is>
-          <t>14:55</t>
+          <t>12:18</t>
+        </is>
+      </c>
+      <c r="AC64" t="inlineStr">
+        <is>
+          <t>På asp</t>
         </is>
       </c>
       <c r="AD64" t="b">
@@ -7862,10 +7878,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>111425951</v>
+        <v>111424144</v>
       </c>
       <c r="B65" t="n">
-        <v>99413</v>
+        <v>95532</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -7878,21 +7894,21 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>221235</v>
+        <v>221945</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Vårärt</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Lathyrus vernus</t>
+          <t>Lycopodium annotinum</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>(L.) Bernh.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I65" t="inlineStr"/>
@@ -7903,10 +7919,10 @@
         </is>
       </c>
       <c r="Q65" t="n">
-        <v>550955.3723719715</v>
+        <v>551057.4254629152</v>
       </c>
       <c r="R65" t="n">
-        <v>7001933.479667452</v>
+        <v>7002095.629051142</v>
       </c>
       <c r="S65" t="n">
         <v>25</v>
@@ -7938,7 +7954,7 @@
       </c>
       <c r="Z65" t="inlineStr">
         <is>
-          <t>15:34</t>
+          <t>13:55</t>
         </is>
       </c>
       <c r="AA65" t="inlineStr">
@@ -7948,7 +7964,7 @@
       </c>
       <c r="AB65" t="inlineStr">
         <is>
-          <t>15:34</t>
+          <t>13:55</t>
         </is>
       </c>
       <c r="AD65" t="b">
@@ -7975,10 +7991,10 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>111423460</v>
+        <v>111421571</v>
       </c>
       <c r="B66" t="n">
-        <v>98535</v>
+        <v>78605</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -7991,21 +8007,21 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>222498</v>
+        <v>6462</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I66" t="inlineStr"/>
@@ -8016,10 +8032,10 @@
         </is>
       </c>
       <c r="Q66" t="n">
-        <v>550919.8847323675</v>
+        <v>550832.3776022838</v>
       </c>
       <c r="R66" t="n">
-        <v>7001972.718000742</v>
+        <v>7002094.799920618</v>
       </c>
       <c r="S66" t="n">
         <v>25</v>
@@ -8051,7 +8067,7 @@
       </c>
       <c r="Z66" t="inlineStr">
         <is>
-          <t>13:55</t>
+          <t>12:18</t>
         </is>
       </c>
       <c r="AA66" t="inlineStr">
@@ -8061,7 +8077,7 @@
       </c>
       <c r="AB66" t="inlineStr">
         <is>
-          <t>13:55</t>
+          <t>12:18</t>
         </is>
       </c>
       <c r="AD66" t="b">
@@ -8088,10 +8104,10 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>111423236</v>
+        <v>111420595</v>
       </c>
       <c r="B67" t="n">
-        <v>94134</v>
+        <v>96348</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -8100,25 +8116,25 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E67" t="n">
-        <v>53</v>
+        <v>220787</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I67" t="inlineStr"/>
@@ -8129,10 +8145,10 @@
         </is>
       </c>
       <c r="Q67" t="n">
-        <v>550869.8149192812</v>
+        <v>550711.6321998269</v>
       </c>
       <c r="R67" t="n">
-        <v>7001960.172576382</v>
+        <v>7002171.138182109</v>
       </c>
       <c r="S67" t="n">
         <v>25</v>
@@ -8164,7 +8180,7 @@
       </c>
       <c r="Z67" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>11:47</t>
         </is>
       </c>
       <c r="AA67" t="inlineStr">
@@ -8174,7 +8190,7 @@
       </c>
       <c r="AB67" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>11:47</t>
         </is>
       </c>
       <c r="AD67" t="b">
@@ -8201,10 +8217,10 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>111428138</v>
+        <v>111423113</v>
       </c>
       <c r="B68" t="n">
-        <v>96348</v>
+        <v>99413</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -8213,28 +8229,32 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E68" t="n">
-        <v>220787</v>
+        <v>221235</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Vårärt</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lathyrus vernus</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I68" t="inlineStr"/>
+          <t>(L.) Bernh.</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="K68" t="inlineStr"/>
       <c r="P68" t="inlineStr">
         <is>
@@ -8242,10 +8262,10 @@
         </is>
       </c>
       <c r="Q68" t="n">
-        <v>550809.7857848165</v>
+        <v>550880.707108345</v>
       </c>
       <c r="R68" t="n">
-        <v>7001918.528248113</v>
+        <v>7001987.477793725</v>
       </c>
       <c r="S68" t="n">
         <v>25</v>
@@ -8277,7 +8297,7 @@
       </c>
       <c r="Z68" t="inlineStr">
         <is>
-          <t>17:39</t>
+          <t>13:40</t>
         </is>
       </c>
       <c r="AA68" t="inlineStr">
@@ -8287,7 +8307,7 @@
       </c>
       <c r="AB68" t="inlineStr">
         <is>
-          <t>17:39</t>
+          <t>13:40</t>
         </is>
       </c>
       <c r="AD68" t="b">
@@ -8314,10 +8334,10 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>111420595</v>
+        <v>111423560</v>
       </c>
       <c r="B69" t="n">
-        <v>96348</v>
+        <v>94134</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -8326,25 +8346,25 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E69" t="n">
-        <v>220787</v>
+        <v>53</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I69" t="inlineStr"/>
@@ -8355,10 +8375,10 @@
         </is>
       </c>
       <c r="Q69" t="n">
-        <v>550711.6321998269</v>
+        <v>550948.589889885</v>
       </c>
       <c r="R69" t="n">
-        <v>7002171.138182109</v>
+        <v>7001990.354570261</v>
       </c>
       <c r="S69" t="n">
         <v>25</v>
@@ -8390,7 +8410,7 @@
       </c>
       <c r="Z69" t="inlineStr">
         <is>
-          <t>11:47</t>
+          <t>13:55</t>
         </is>
       </c>
       <c r="AA69" t="inlineStr">
@@ -8400,7 +8420,7 @@
       </c>
       <c r="AB69" t="inlineStr">
         <is>
-          <t>11:47</t>
+          <t>13:55</t>
         </is>
       </c>
       <c r="AD69" t="b">
@@ -8427,10 +8447,10 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>111420869</v>
+        <v>111425037</v>
       </c>
       <c r="B70" t="n">
-        <v>89405</v>
+        <v>89845</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -8439,25 +8459,25 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E70" t="n">
-        <v>1202</v>
+        <v>1209</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I70" t="inlineStr"/>
@@ -8468,10 +8488,10 @@
         </is>
       </c>
       <c r="Q70" t="n">
-        <v>550741.937658608</v>
+        <v>551037.0775894802</v>
       </c>
       <c r="R70" t="n">
-        <v>7002115.539248759</v>
+        <v>7001950.143101228</v>
       </c>
       <c r="S70" t="n">
         <v>25</v>
@@ -8503,7 +8523,7 @@
       </c>
       <c r="Z70" t="inlineStr">
         <is>
-          <t>11:56</t>
+          <t>15:16</t>
         </is>
       </c>
       <c r="AA70" t="inlineStr">
@@ -8513,7 +8533,7 @@
       </c>
       <c r="AB70" t="inlineStr">
         <is>
-          <t>11:56</t>
+          <t>15:16</t>
         </is>
       </c>
       <c r="AD70" t="b">
@@ -8540,10 +8560,10 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>111422067</v>
+        <v>111424030</v>
       </c>
       <c r="B71" t="n">
-        <v>77515</v>
+        <v>78578</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -8556,21 +8576,21 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I71" t="inlineStr"/>
@@ -8581,10 +8601,10 @@
         </is>
       </c>
       <c r="Q71" t="n">
-        <v>550845.9433502604</v>
+        <v>551011.8102739404</v>
       </c>
       <c r="R71" t="n">
-        <v>7002124.859161366</v>
+        <v>7002059.18440557</v>
       </c>
       <c r="S71" t="n">
         <v>25</v>
@@ -8616,7 +8636,7 @@
       </c>
       <c r="Z71" t="inlineStr">
         <is>
-          <t>12:18</t>
+          <t>13:55</t>
         </is>
       </c>
       <c r="AA71" t="inlineStr">
@@ -8626,12 +8646,12 @@
       </c>
       <c r="AB71" t="inlineStr">
         <is>
-          <t>12:18</t>
+          <t>13:55</t>
         </is>
       </c>
       <c r="AC71" t="inlineStr">
         <is>
-          <t>På tall</t>
+          <t>På björk</t>
         </is>
       </c>
       <c r="AD71" t="b">
@@ -8658,10 +8678,10 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>111423943</v>
+        <v>111420477</v>
       </c>
       <c r="B72" t="n">
-        <v>77267</v>
+        <v>89405</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -8674,21 +8694,21 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>6446</v>
+        <v>1202</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I72" t="inlineStr"/>
@@ -8699,10 +8719,10 @@
         </is>
       </c>
       <c r="Q72" t="n">
-        <v>550983.7409033215</v>
+        <v>550727.9291679059</v>
       </c>
       <c r="R72" t="n">
-        <v>7002058.742119073</v>
+        <v>7002200.33458891</v>
       </c>
       <c r="S72" t="n">
         <v>25</v>
@@ -8734,7 +8754,7 @@
       </c>
       <c r="Z72" t="inlineStr">
         <is>
-          <t>13:55</t>
+          <t>11:36</t>
         </is>
       </c>
       <c r="AA72" t="inlineStr">
@@ -8744,7 +8764,7 @@
       </c>
       <c r="AB72" t="inlineStr">
         <is>
-          <t>13:55</t>
+          <t>11:36</t>
         </is>
       </c>
       <c r="AD72" t="b">
@@ -8771,7 +8791,7 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>111421391</v>
+        <v>111425313</v>
       </c>
       <c r="B73" t="n">
         <v>78578</v>
@@ -8812,10 +8832,10 @@
         </is>
       </c>
       <c r="Q73" t="n">
-        <v>550825.6664593286</v>
+        <v>550974.800833688</v>
       </c>
       <c r="R73" t="n">
-        <v>7002060.778115767</v>
+        <v>7001907.55558978</v>
       </c>
       <c r="S73" t="n">
         <v>25</v>
@@ -8847,7 +8867,7 @@
       </c>
       <c r="Z73" t="inlineStr">
         <is>
-          <t>12:18</t>
+          <t>15:16</t>
         </is>
       </c>
       <c r="AA73" t="inlineStr">
@@ -8857,12 +8877,7 @@
       </c>
       <c r="AB73" t="inlineStr">
         <is>
-          <t>12:18</t>
-        </is>
-      </c>
-      <c r="AC73" t="inlineStr">
-        <is>
-          <t>På asp</t>
+          <t>15:16</t>
         </is>
       </c>
       <c r="AD73" t="b">
@@ -8889,10 +8904,10 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>111420477</v>
+        <v>111424910</v>
       </c>
       <c r="B74" t="n">
-        <v>89405</v>
+        <v>78578</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -8905,21 +8920,21 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>1202</v>
+        <v>6458</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I74" t="inlineStr"/>
@@ -8930,10 +8945,10 @@
         </is>
       </c>
       <c r="Q74" t="n">
-        <v>550727.9291679059</v>
+        <v>551057.2480807917</v>
       </c>
       <c r="R74" t="n">
-        <v>7002200.33458891</v>
+        <v>7001934.632864759</v>
       </c>
       <c r="S74" t="n">
         <v>25</v>
@@ -8965,7 +8980,7 @@
       </c>
       <c r="Z74" t="inlineStr">
         <is>
-          <t>11:36</t>
+          <t>14:55</t>
         </is>
       </c>
       <c r="AA74" t="inlineStr">
@@ -8975,7 +8990,12 @@
       </c>
       <c r="AB74" t="inlineStr">
         <is>
-          <t>11:36</t>
+          <t>14:55</t>
+        </is>
+      </c>
+      <c r="AC74" t="inlineStr">
+        <is>
+          <t>På asp</t>
         </is>
       </c>
       <c r="AD74" t="b">
@@ -9002,10 +9022,10 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>111424030</v>
+        <v>111427034</v>
       </c>
       <c r="B75" t="n">
-        <v>78578</v>
+        <v>96348</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -9014,25 +9034,25 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E75" t="n">
-        <v>6458</v>
+        <v>220787</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I75" t="inlineStr"/>
@@ -9043,10 +9063,10 @@
         </is>
       </c>
       <c r="Q75" t="n">
-        <v>551011.8102739404</v>
+        <v>550961.4004867796</v>
       </c>
       <c r="R75" t="n">
-        <v>7002059.18440557</v>
+        <v>7001924.529771334</v>
       </c>
       <c r="S75" t="n">
         <v>25</v>
@@ -9078,7 +9098,7 @@
       </c>
       <c r="Z75" t="inlineStr">
         <is>
-          <t>13:55</t>
+          <t>16:41</t>
         </is>
       </c>
       <c r="AA75" t="inlineStr">
@@ -9088,12 +9108,7 @@
       </c>
       <c r="AB75" t="inlineStr">
         <is>
-          <t>13:55</t>
-        </is>
-      </c>
-      <c r="AC75" t="inlineStr">
-        <is>
-          <t>På björk</t>
+          <t>16:41</t>
         </is>
       </c>
       <c r="AD75" t="b">
@@ -9120,10 +9135,10 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>111424976</v>
+        <v>111426562</v>
       </c>
       <c r="B76" t="n">
-        <v>78578</v>
+        <v>96348</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -9132,25 +9147,25 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E76" t="n">
-        <v>6458</v>
+        <v>220787</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I76" t="inlineStr"/>
@@ -9161,10 +9176,10 @@
         </is>
       </c>
       <c r="Q76" t="n">
-        <v>551037.0775894802</v>
+        <v>550976.2344434585</v>
       </c>
       <c r="R76" t="n">
-        <v>7001950.143101228</v>
+        <v>7001931.546968644</v>
       </c>
       <c r="S76" t="n">
         <v>25</v>
@@ -9196,7 +9211,7 @@
       </c>
       <c r="Z76" t="inlineStr">
         <is>
-          <t>14:55</t>
+          <t>16:17</t>
         </is>
       </c>
       <c r="AA76" t="inlineStr">
@@ -9206,12 +9221,7 @@
       </c>
       <c r="AB76" t="inlineStr">
         <is>
-          <t>14:55</t>
-        </is>
-      </c>
-      <c r="AC76" t="inlineStr">
-        <is>
-          <t>På asp</t>
+          <t>16:17</t>
         </is>
       </c>
       <c r="AD76" t="b">
@@ -9238,10 +9248,10 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>111424910</v>
+        <v>111424441</v>
       </c>
       <c r="B77" t="n">
-        <v>78578</v>
+        <v>96348</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -9250,25 +9260,25 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E77" t="n">
-        <v>6458</v>
+        <v>220787</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I77" t="inlineStr"/>
@@ -9279,10 +9289,10 @@
         </is>
       </c>
       <c r="Q77" t="n">
-        <v>551057.2480807917</v>
+        <v>551054.6486243291</v>
       </c>
       <c r="R77" t="n">
-        <v>7001934.632864759</v>
+        <v>7002070.713193813</v>
       </c>
       <c r="S77" t="n">
         <v>25</v>
@@ -9314,7 +9324,7 @@
       </c>
       <c r="Z77" t="inlineStr">
         <is>
-          <t>14:55</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA77" t="inlineStr">
@@ -9324,12 +9334,7 @@
       </c>
       <c r="AB77" t="inlineStr">
         <is>
-          <t>14:55</t>
-        </is>
-      </c>
-      <c r="AC77" t="inlineStr">
-        <is>
-          <t>På asp</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD77" t="b">
@@ -9356,10 +9361,10 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>111423343</v>
+        <v>111421476</v>
       </c>
       <c r="B78" t="n">
-        <v>98535</v>
+        <v>77186</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -9368,25 +9373,25 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E78" t="n">
-        <v>222498</v>
+        <v>353</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Dvärgbägarlav</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Cladonia parasitica</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Hoffm.) Hoffm.</t>
         </is>
       </c>
       <c r="I78" t="inlineStr"/>
@@ -9397,10 +9402,10 @@
         </is>
       </c>
       <c r="Q78" t="n">
-        <v>550911.6997848416</v>
+        <v>550808.5392307156</v>
       </c>
       <c r="R78" t="n">
-        <v>7001974.850411222</v>
+        <v>7002084.47682756</v>
       </c>
       <c r="S78" t="n">
         <v>25</v>
@@ -9432,7 +9437,7 @@
       </c>
       <c r="Z78" t="inlineStr">
         <is>
-          <t>13:55</t>
+          <t>12:18</t>
         </is>
       </c>
       <c r="AA78" t="inlineStr">
@@ -9442,7 +9447,7 @@
       </c>
       <c r="AB78" t="inlineStr">
         <is>
-          <t>13:55</t>
+          <t>12:18</t>
         </is>
       </c>
       <c r="AD78" t="b">
@@ -9469,10 +9474,10 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>111423749</v>
+        <v>111423236</v>
       </c>
       <c r="B79" t="n">
-        <v>78578</v>
+        <v>94134</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -9485,21 +9490,21 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>6458</v>
+        <v>53</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I79" t="inlineStr"/>
@@ -9510,10 +9515,10 @@
         </is>
       </c>
       <c r="Q79" t="n">
-        <v>550953.7324835873</v>
+        <v>550869.8149192812</v>
       </c>
       <c r="R79" t="n">
-        <v>7002066.409536021</v>
+        <v>7001960.172576382</v>
       </c>
       <c r="S79" t="n">
         <v>25</v>
@@ -9545,7 +9550,7 @@
       </c>
       <c r="Z79" t="inlineStr">
         <is>
-          <t>13:55</t>
+          <t>13:40</t>
         </is>
       </c>
       <c r="AA79" t="inlineStr">
@@ -9555,12 +9560,7 @@
       </c>
       <c r="AB79" t="inlineStr">
         <is>
-          <t>13:55</t>
-        </is>
-      </c>
-      <c r="AC79" t="inlineStr">
-        <is>
-          <t>På asp</t>
+          <t>13:40</t>
         </is>
       </c>
       <c r="AD79" t="b">

--- a/artfynd/A 57003-2022.xlsx
+++ b/artfynd/A 57003-2022.xlsx
@@ -1186,10 +1186,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111420869</v>
+        <v>111420481</v>
       </c>
       <c r="B6" t="n">
-        <v>89405</v>
+        <v>96381</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1198,25 +1198,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>1202</v>
+        <v>219874</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Nattviol</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Platanthera bifolia</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1227,10 +1227,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>550741.937658608</v>
+        <v>550727.9291679059</v>
       </c>
       <c r="R6" t="n">
-        <v>7002115.539248759</v>
+        <v>7002200.33458891</v>
       </c>
       <c r="S6" t="n">
         <v>25</v>
@@ -1262,7 +1262,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>11:56</t>
+          <t>11:36</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -1272,7 +1272,7 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>11:56</t>
+          <t>11:36</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1299,10 +1299,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111420481</v>
+        <v>111422950</v>
       </c>
       <c r="B7" t="n">
-        <v>96381</v>
+        <v>96348</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1311,25 +1311,25 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>219874</v>
+        <v>220787</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Nattviol</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Platanthera bifolia</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1340,10 +1340,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>550727.9291679059</v>
+        <v>550849.6384025981</v>
       </c>
       <c r="R7" t="n">
-        <v>7002200.33458891</v>
+        <v>7001976.135959106</v>
       </c>
       <c r="S7" t="n">
         <v>25</v>
@@ -1375,7 +1375,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>11:36</t>
+          <t>13:40</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -1385,7 +1385,7 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>11:36</t>
+          <t>13:40</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1412,10 +1412,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111420310</v>
+        <v>111423943</v>
       </c>
       <c r="B8" t="n">
-        <v>96348</v>
+        <v>77267</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1424,25 +1424,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>220787</v>
+        <v>6446</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1453,10 +1453,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>550710.25923741</v>
+        <v>550983.7409033215</v>
       </c>
       <c r="R8" t="n">
-        <v>7002200.962073827</v>
+        <v>7002058.742119073</v>
       </c>
       <c r="S8" t="n">
         <v>25</v>
@@ -1488,7 +1488,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>11:25</t>
+          <t>13:55</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -1498,7 +1498,7 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>11:25</t>
+          <t>13:55</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1525,10 +1525,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111424650</v>
+        <v>111426042</v>
       </c>
       <c r="B9" t="n">
-        <v>96348</v>
+        <v>98535</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1537,25 +1537,25 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>220787</v>
+        <v>222498</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1566,10 +1566,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>551057.4223798013</v>
+        <v>550956.02874151</v>
       </c>
       <c r="R9" t="n">
-        <v>7002009.706558069</v>
+        <v>7001949.318344167</v>
       </c>
       <c r="S9" t="n">
         <v>25</v>
@@ -1601,7 +1601,7 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>14:55</t>
+          <t>15:34</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -1611,7 +1611,7 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>14:55</t>
+          <t>15:34</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1638,10 +1638,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111427787</v>
+        <v>111422303</v>
       </c>
       <c r="B10" t="n">
-        <v>98535</v>
+        <v>89405</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1650,25 +1650,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>222498</v>
+        <v>1202</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1679,10 +1679,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>550907.3809405958</v>
+        <v>550866.5625217154</v>
       </c>
       <c r="R10" t="n">
-        <v>7001932.724492302</v>
+        <v>7002138.297294092</v>
       </c>
       <c r="S10" t="n">
         <v>25</v>
@@ -1714,7 +1714,7 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>16:41</t>
+          <t>12:18</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -1724,7 +1724,7 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>16:41</t>
+          <t>12:18</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1751,10 +1751,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111423255</v>
+        <v>111423316</v>
       </c>
       <c r="B11" t="n">
-        <v>98535</v>
+        <v>96348</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1763,25 +1763,25 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>222498</v>
+        <v>220787</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1792,10 +1792,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>550869.8149192812</v>
+        <v>550887.953173755</v>
       </c>
       <c r="R11" t="n">
-        <v>7001960.172576382</v>
+        <v>7001958.648759932</v>
       </c>
       <c r="S11" t="n">
         <v>25</v>
@@ -1827,7 +1827,7 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>13:55</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
@@ -1837,7 +1837,7 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>13:55</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1864,10 +1864,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111424253</v>
+        <v>111422600</v>
       </c>
       <c r="B12" t="n">
-        <v>89965</v>
+        <v>77186</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1876,25 +1876,25 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>760</v>
+        <v>353</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Doftticka</t>
+          <t>Dvärgbägarlav</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Haploporus odorus</t>
+          <t>Cladonia parasitica</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Sommerf.) Bondartsev &amp; Singer</t>
+          <t>(Hoffm.) Hoffm.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1905,10 +1905,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>551048.5278099331</v>
+        <v>550737.1374797915</v>
       </c>
       <c r="R12" t="n">
-        <v>7002085.539900199</v>
+        <v>7002017.332277133</v>
       </c>
       <c r="S12" t="n">
         <v>25</v>
@@ -1940,7 +1940,7 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>13:55</t>
+          <t>12:18</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
@@ -1950,12 +1950,7 @@
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>13:55</t>
-        </is>
-      </c>
-      <c r="AC12" t="inlineStr">
-        <is>
-          <t>Liten väldoftande fruktkropp på sälg som fallit</t>
+          <t>12:18</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1982,10 +1977,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111422023</v>
+        <v>111424650</v>
       </c>
       <c r="B13" t="n">
-        <v>90666</v>
+        <v>96348</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1994,25 +1989,25 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>4364</v>
+        <v>220787</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -2023,10 +2018,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>550845.9433502604</v>
+        <v>551057.4223798013</v>
       </c>
       <c r="R13" t="n">
-        <v>7002124.859161366</v>
+        <v>7002009.706558069</v>
       </c>
       <c r="S13" t="n">
         <v>25</v>
@@ -2058,7 +2053,7 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>12:18</t>
+          <t>14:55</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
@@ -2068,7 +2063,7 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>12:18</t>
+          <t>14:55</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2095,10 +2090,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111420660</v>
+        <v>111423749</v>
       </c>
       <c r="B14" t="n">
-        <v>77267</v>
+        <v>78578</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2111,21 +2106,21 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>6446</v>
+        <v>6458</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2136,10 +2131,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>550733.9986858405</v>
+        <v>550953.7324835873</v>
       </c>
       <c r="R14" t="n">
-        <v>7002188.6724778</v>
+        <v>7002066.409536021</v>
       </c>
       <c r="S14" t="n">
         <v>25</v>
@@ -2171,7 +2166,7 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>11:51</t>
+          <t>13:55</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
@@ -2181,7 +2176,12 @@
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>11:51</t>
+          <t>13:55</t>
+        </is>
+      </c>
+      <c r="AC14" t="inlineStr">
+        <is>
+          <t>På asp</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2208,10 +2208,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111426396</v>
+        <v>111426486</v>
       </c>
       <c r="B15" t="n">
-        <v>103396</v>
+        <v>98446</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2220,25 +2220,25 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>674</v>
+        <v>222771</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Myskmåra</t>
+          <t>Svart trolldruva</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Galium triflorum</t>
+          <t>Actaea spicata</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Michx.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2249,10 +2249,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>550951.5040298713</v>
+        <v>550941.2588680513</v>
       </c>
       <c r="R15" t="n">
-        <v>7001920.303799121</v>
+        <v>7001938.232138845</v>
       </c>
       <c r="S15" t="n">
         <v>25</v>
@@ -2321,10 +2321,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111426302</v>
+        <v>111425527</v>
       </c>
       <c r="B16" t="n">
-        <v>89686</v>
+        <v>99413</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2333,25 +2333,25 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>658</v>
+        <v>221235</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Vårärt</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Lathyrus vernus</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(L.) Bernh.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2362,10 +2362,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>550960.5946457037</v>
+        <v>550954.7515832841</v>
       </c>
       <c r="R16" t="n">
-        <v>7001918.185706819</v>
+        <v>7001915.380264779</v>
       </c>
       <c r="S16" t="n">
         <v>25</v>
@@ -2397,7 +2397,7 @@
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>16:07</t>
+          <t>15:16</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
@@ -2407,7 +2407,7 @@
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>16:07</t>
+          <t>15:16</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2434,10 +2434,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111422950</v>
+        <v>111427787</v>
       </c>
       <c r="B17" t="n">
-        <v>96348</v>
+        <v>98535</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2446,25 +2446,25 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>220787</v>
+        <v>222498</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2475,10 +2475,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>550849.6384025981</v>
+        <v>550907.3809405958</v>
       </c>
       <c r="R17" t="n">
-        <v>7001976.135959106</v>
+        <v>7001932.724492302</v>
       </c>
       <c r="S17" t="n">
         <v>25</v>
@@ -2510,7 +2510,7 @@
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>16:41</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
@@ -2520,7 +2520,7 @@
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>16:41</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2547,10 +2547,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111424960</v>
+        <v>111426015</v>
       </c>
       <c r="B18" t="n">
-        <v>94134</v>
+        <v>98446</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2559,25 +2559,25 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>53</v>
+        <v>222771</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Svart trolldruva</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Actaea spicata</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2588,10 +2588,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>551037.0775894802</v>
+        <v>550956.02874151</v>
       </c>
       <c r="R18" t="n">
-        <v>7001950.143101228</v>
+        <v>7001949.318344167</v>
       </c>
       <c r="S18" t="n">
         <v>25</v>
@@ -2623,7 +2623,7 @@
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>14:55</t>
+          <t>15:34</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
@@ -2633,7 +2633,7 @@
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>14:55</t>
+          <t>15:34</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2660,10 +2660,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111426015</v>
+        <v>111424976</v>
       </c>
       <c r="B19" t="n">
-        <v>98446</v>
+        <v>78578</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2672,25 +2672,25 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>222771</v>
+        <v>6458</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Svart trolldruva</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Actaea spicata</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2701,10 +2701,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>550956.02874151</v>
+        <v>551037.0775894802</v>
       </c>
       <c r="R19" t="n">
-        <v>7001949.318344167</v>
+        <v>7001950.143101228</v>
       </c>
       <c r="S19" t="n">
         <v>25</v>
@@ -2736,7 +2736,7 @@
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>15:34</t>
+          <t>14:55</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
@@ -2746,7 +2746,12 @@
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>15:34</t>
+          <t>14:55</t>
+        </is>
+      </c>
+      <c r="AC19" t="inlineStr">
+        <is>
+          <t>På asp</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2886,10 +2891,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111424331</v>
+        <v>111427617</v>
       </c>
       <c r="B21" t="n">
-        <v>78605</v>
+        <v>98535</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2902,21 +2907,21 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>6462</v>
+        <v>222498</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2927,10 +2932,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>551041.1344693471</v>
+        <v>550925.5549388798</v>
       </c>
       <c r="R21" t="n">
-        <v>7002037.487754084</v>
+        <v>7001928.940230627</v>
       </c>
       <c r="S21" t="n">
         <v>25</v>
@@ -2962,7 +2967,7 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>16:41</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
@@ -2972,7 +2977,7 @@
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>16:41</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -2999,10 +3004,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111421283</v>
+        <v>111424910</v>
       </c>
       <c r="B22" t="n">
-        <v>96348</v>
+        <v>78578</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3011,25 +3016,25 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>220787</v>
+        <v>6458</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -3040,10 +3045,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>550786.6251378106</v>
+        <v>551057.2480807917</v>
       </c>
       <c r="R22" t="n">
-        <v>7002066.94856437</v>
+        <v>7001934.632864759</v>
       </c>
       <c r="S22" t="n">
         <v>25</v>
@@ -3075,7 +3080,7 @@
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>12:18</t>
+          <t>14:55</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
@@ -3085,7 +3090,12 @@
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>12:18</t>
+          <t>14:55</t>
+        </is>
+      </c>
+      <c r="AC22" t="inlineStr">
+        <is>
+          <t>På asp</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3112,10 +3122,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111427222</v>
+        <v>111423417</v>
       </c>
       <c r="B23" t="n">
-        <v>98535</v>
+        <v>94134</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3124,25 +3134,25 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>222498</v>
+        <v>53</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -3153,10 +3163,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>550980.9358707955</v>
+        <v>550901.6754341319</v>
       </c>
       <c r="R23" t="n">
-        <v>7001891.823664788</v>
+        <v>7001978.762844464</v>
       </c>
       <c r="S23" t="n">
         <v>25</v>
@@ -3188,7 +3198,7 @@
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>16:41</t>
+          <t>13:55</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
@@ -3198,7 +3208,7 @@
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>16:41</t>
+          <t>13:55</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3225,10 +3235,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111425553</v>
+        <v>111422023</v>
       </c>
       <c r="B24" t="n">
-        <v>103396</v>
+        <v>90666</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3237,25 +3247,25 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>674</v>
+        <v>4364</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Myskmåra</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Galium triflorum</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Michx.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -3266,10 +3276,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>550954.7515832841</v>
+        <v>550845.9433502604</v>
       </c>
       <c r="R24" t="n">
-        <v>7001915.380264779</v>
+        <v>7002124.859161366</v>
       </c>
       <c r="S24" t="n">
         <v>25</v>
@@ -3301,7 +3311,7 @@
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>15:16</t>
+          <t>12:18</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
@@ -3311,7 +3321,7 @@
       </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>15:16</t>
+          <t>12:18</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3338,10 +3348,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111427617</v>
+        <v>111420835</v>
       </c>
       <c r="B25" t="n">
-        <v>98535</v>
+        <v>96348</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3350,25 +3360,25 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>222498</v>
+        <v>220787</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3379,10 +3389,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>550925.5549388798</v>
+        <v>550732.0319218244</v>
       </c>
       <c r="R25" t="n">
-        <v>7001928.940230627</v>
+        <v>7002198.590094371</v>
       </c>
       <c r="S25" t="n">
         <v>25</v>
@@ -3414,7 +3424,7 @@
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>16:41</t>
+          <t>11:56</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
@@ -3424,7 +3434,7 @@
       </c>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>16:41</t>
+          <t>11:56</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3451,10 +3461,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111425951</v>
+        <v>111420310</v>
       </c>
       <c r="B26" t="n">
-        <v>99413</v>
+        <v>96348</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3463,25 +3473,25 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>221235</v>
+        <v>220787</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Vårärt</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Lathyrus vernus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(L.) Bernh.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
@@ -3492,10 +3502,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>550955.3723719715</v>
+        <v>550710.25923741</v>
       </c>
       <c r="R26" t="n">
-        <v>7001933.479667452</v>
+        <v>7002200.962073827</v>
       </c>
       <c r="S26" t="n">
         <v>25</v>
@@ -3527,7 +3537,7 @@
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>15:34</t>
+          <t>11:25</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
@@ -3537,7 +3547,7 @@
       </c>
       <c r="AB26" t="inlineStr">
         <is>
-          <t>15:34</t>
+          <t>11:25</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -3564,10 +3574,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111426042</v>
+        <v>111426031</v>
       </c>
       <c r="B27" t="n">
-        <v>98535</v>
+        <v>99413</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3580,21 +3590,21 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>222498</v>
+        <v>221235</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Vårärt</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Lathyrus vernus</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(L.) Bernh.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -3677,10 +3687,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111424256</v>
+        <v>111426302</v>
       </c>
       <c r="B28" t="n">
-        <v>78605</v>
+        <v>89686</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3689,25 +3699,25 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>6462</v>
+        <v>658</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
@@ -3718,10 +3728,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>551048.5278099331</v>
+        <v>550960.5946457037</v>
       </c>
       <c r="R28" t="n">
-        <v>7002085.539900199</v>
+        <v>7001918.185706819</v>
       </c>
       <c r="S28" t="n">
         <v>25</v>
@@ -3753,7 +3763,7 @@
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>13:55</t>
+          <t>16:07</t>
         </is>
       </c>
       <c r="AA28" t="inlineStr">
@@ -3763,7 +3773,7 @@
       </c>
       <c r="AB28" t="inlineStr">
         <is>
-          <t>13:55</t>
+          <t>16:07</t>
         </is>
       </c>
       <c r="AD28" t="b">
@@ -3790,10 +3800,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111423749</v>
+        <v>111425926</v>
       </c>
       <c r="B29" t="n">
-        <v>78578</v>
+        <v>98446</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3802,25 +3812,25 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>6458</v>
+        <v>222771</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Svart trolldruva</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Actaea spicata</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
@@ -3831,10 +3841,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>550953.7324835873</v>
+        <v>550954.7515832841</v>
       </c>
       <c r="R29" t="n">
-        <v>7002066.409536021</v>
+        <v>7001915.380264779</v>
       </c>
       <c r="S29" t="n">
         <v>25</v>
@@ -3866,7 +3876,7 @@
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>13:55</t>
+          <t>15:34</t>
         </is>
       </c>
       <c r="AA29" t="inlineStr">
@@ -3876,12 +3886,7 @@
       </c>
       <c r="AB29" t="inlineStr">
         <is>
-          <t>13:55</t>
-        </is>
-      </c>
-      <c r="AC29" t="inlineStr">
-        <is>
-          <t>På asp</t>
+          <t>15:34</t>
         </is>
       </c>
       <c r="AD29" t="b">
@@ -3908,10 +3913,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111420835</v>
+        <v>111425951</v>
       </c>
       <c r="B30" t="n">
-        <v>96348</v>
+        <v>99413</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3920,25 +3925,25 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>220787</v>
+        <v>221235</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Vårärt</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lathyrus vernus</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(L.) Bernh.</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
@@ -3949,10 +3954,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>550732.0319218244</v>
+        <v>550955.3723719715</v>
       </c>
       <c r="R30" t="n">
-        <v>7002198.590094371</v>
+        <v>7001933.479667452</v>
       </c>
       <c r="S30" t="n">
         <v>25</v>
@@ -3984,7 +3989,7 @@
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>11:56</t>
+          <t>15:34</t>
         </is>
       </c>
       <c r="AA30" t="inlineStr">
@@ -3994,7 +3999,7 @@
       </c>
       <c r="AB30" t="inlineStr">
         <is>
-          <t>11:56</t>
+          <t>15:34</t>
         </is>
       </c>
       <c r="AD30" t="b">
@@ -4021,10 +4026,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>111423943</v>
+        <v>111423236</v>
       </c>
       <c r="B31" t="n">
-        <v>77267</v>
+        <v>94134</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -4037,21 +4042,21 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>6446</v>
+        <v>53</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
@@ -4062,10 +4067,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>550983.7409033215</v>
+        <v>550869.8149192812</v>
       </c>
       <c r="R31" t="n">
-        <v>7002058.742119073</v>
+        <v>7001960.172576382</v>
       </c>
       <c r="S31" t="n">
         <v>25</v>
@@ -4097,7 +4102,7 @@
       </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>13:55</t>
+          <t>13:40</t>
         </is>
       </c>
       <c r="AA31" t="inlineStr">
@@ -4107,7 +4112,7 @@
       </c>
       <c r="AB31" t="inlineStr">
         <is>
-          <t>13:55</t>
+          <t>13:40</t>
         </is>
       </c>
       <c r="AD31" t="b">
@@ -4134,10 +4139,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>111427612</v>
+        <v>111420595</v>
       </c>
       <c r="B32" t="n">
-        <v>98446</v>
+        <v>96348</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4146,25 +4151,25 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>222771</v>
+        <v>220787</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Svart trolldruva</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Actaea spicata</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
@@ -4175,10 +4180,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>550925.5549388798</v>
+        <v>550711.6321998269</v>
       </c>
       <c r="R32" t="n">
-        <v>7001928.940230627</v>
+        <v>7002171.138182109</v>
       </c>
       <c r="S32" t="n">
         <v>25</v>
@@ -4210,7 +4215,7 @@
       </c>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>16:41</t>
+          <t>11:47</t>
         </is>
       </c>
       <c r="AA32" t="inlineStr">
@@ -4220,7 +4225,7 @@
       </c>
       <c r="AB32" t="inlineStr">
         <is>
-          <t>16:41</t>
+          <t>11:47</t>
         </is>
       </c>
       <c r="AD32" t="b">
@@ -4247,10 +4252,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>111424976</v>
+        <v>111425553</v>
       </c>
       <c r="B33" t="n">
-        <v>78578</v>
+        <v>103396</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4263,21 +4268,21 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>6458</v>
+        <v>674</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Myskmåra</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Galium triflorum</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>Michx.</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
@@ -4288,10 +4293,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>551037.0775894802</v>
+        <v>550954.7515832841</v>
       </c>
       <c r="R33" t="n">
-        <v>7001950.143101228</v>
+        <v>7001915.380264779</v>
       </c>
       <c r="S33" t="n">
         <v>25</v>
@@ -4323,7 +4328,7 @@
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>14:55</t>
+          <t>15:16</t>
         </is>
       </c>
       <c r="AA33" t="inlineStr">
@@ -4333,12 +4338,7 @@
       </c>
       <c r="AB33" t="inlineStr">
         <is>
-          <t>14:55</t>
-        </is>
-      </c>
-      <c r="AC33" t="inlineStr">
-        <is>
-          <t>På asp</t>
+          <t>15:16</t>
         </is>
       </c>
       <c r="AD33" t="b">
@@ -4365,10 +4365,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>111425285</v>
+        <v>111423113</v>
       </c>
       <c r="B34" t="n">
-        <v>98535</v>
+        <v>99413</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4381,24 +4381,28 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>222498</v>
+        <v>221235</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Vårärt</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Lathyrus vernus</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Schreb.</t>
-        </is>
-      </c>
-      <c r="I34" t="inlineStr"/>
+          <t>(L.) Bernh.</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="K34" t="inlineStr"/>
       <c r="P34" t="inlineStr">
         <is>
@@ -4406,10 +4410,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>550974.800833688</v>
+        <v>550880.707108345</v>
       </c>
       <c r="R34" t="n">
-        <v>7001907.55558978</v>
+        <v>7001987.477793725</v>
       </c>
       <c r="S34" t="n">
         <v>25</v>
@@ -4441,7 +4445,7 @@
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>15:16</t>
+          <t>13:40</t>
         </is>
       </c>
       <c r="AA34" t="inlineStr">
@@ -4451,7 +4455,7 @@
       </c>
       <c r="AB34" t="inlineStr">
         <is>
-          <t>15:16</t>
+          <t>13:40</t>
         </is>
       </c>
       <c r="AD34" t="b">
@@ -4478,10 +4482,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>111426315</v>
+        <v>111426308</v>
       </c>
       <c r="B35" t="n">
-        <v>89845</v>
+        <v>89405</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4490,25 +4494,25 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>1209</v>
+        <v>1202</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
@@ -4591,10 +4595,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>111421480</v>
+        <v>111426562</v>
       </c>
       <c r="B36" t="n">
-        <v>78107</v>
+        <v>96348</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4603,25 +4607,25 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>6453</v>
+        <v>220787</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
@@ -4632,10 +4636,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>550808.5392307156</v>
+        <v>550976.2344434585</v>
       </c>
       <c r="R36" t="n">
-        <v>7002084.47682756</v>
+        <v>7001931.546968644</v>
       </c>
       <c r="S36" t="n">
         <v>25</v>
@@ -4667,7 +4671,7 @@
       </c>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>12:18</t>
+          <t>16:17</t>
         </is>
       </c>
       <c r="AA36" t="inlineStr">
@@ -4677,7 +4681,7 @@
       </c>
       <c r="AB36" t="inlineStr">
         <is>
-          <t>12:18</t>
+          <t>16:17</t>
         </is>
       </c>
       <c r="AD36" t="b">
@@ -4704,10 +4708,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>111427779</v>
+        <v>111420645</v>
       </c>
       <c r="B37" t="n">
-        <v>98446</v>
+        <v>96348</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4716,25 +4720,25 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>222771</v>
+        <v>220787</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Svart trolldruva</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Actaea spicata</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
@@ -4745,10 +4749,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>550907.3809405958</v>
+        <v>550733.9986858405</v>
       </c>
       <c r="R37" t="n">
-        <v>7001932.724492302</v>
+        <v>7002188.6724778</v>
       </c>
       <c r="S37" t="n">
         <v>25</v>
@@ -4780,7 +4784,7 @@
       </c>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>16:41</t>
+          <t>11:51</t>
         </is>
       </c>
       <c r="AA37" t="inlineStr">
@@ -4790,7 +4794,7 @@
       </c>
       <c r="AB37" t="inlineStr">
         <is>
-          <t>16:41</t>
+          <t>11:51</t>
         </is>
       </c>
       <c r="AD37" t="b">
@@ -4817,10 +4821,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>111420645</v>
+        <v>111422067</v>
       </c>
       <c r="B38" t="n">
-        <v>96348</v>
+        <v>77515</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -4829,25 +4833,25 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>220787</v>
+        <v>6425</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
@@ -4858,10 +4862,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>550733.9986858405</v>
+        <v>550845.9433502604</v>
       </c>
       <c r="R38" t="n">
-        <v>7002188.6724778</v>
+        <v>7002124.859161366</v>
       </c>
       <c r="S38" t="n">
         <v>25</v>
@@ -4893,7 +4897,7 @@
       </c>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>11:51</t>
+          <t>12:18</t>
         </is>
       </c>
       <c r="AA38" t="inlineStr">
@@ -4903,7 +4907,12 @@
       </c>
       <c r="AB38" t="inlineStr">
         <is>
-          <t>11:51</t>
+          <t>12:18</t>
+        </is>
+      </c>
+      <c r="AC38" t="inlineStr">
+        <is>
+          <t>På tall</t>
         </is>
       </c>
       <c r="AD38" t="b">
@@ -4930,10 +4939,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>111420859</v>
+        <v>111427222</v>
       </c>
       <c r="B39" t="n">
-        <v>89686</v>
+        <v>98535</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -4942,25 +4951,25 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>658</v>
+        <v>222498</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
@@ -4971,10 +4980,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>550742.1573915739</v>
+        <v>550980.9358707955</v>
       </c>
       <c r="R39" t="n">
-        <v>7002101.524058201</v>
+        <v>7001891.823664788</v>
       </c>
       <c r="S39" t="n">
         <v>25</v>
@@ -5006,7 +5015,7 @@
       </c>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>11:56</t>
+          <t>16:41</t>
         </is>
       </c>
       <c r="AA39" t="inlineStr">
@@ -5016,7 +5025,7 @@
       </c>
       <c r="AB39" t="inlineStr">
         <is>
-          <t>11:56</t>
+          <t>16:41</t>
         </is>
       </c>
       <c r="AD39" t="b">
@@ -5043,10 +5052,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>111421054</v>
+        <v>111427612</v>
       </c>
       <c r="B40" t="n">
-        <v>96348</v>
+        <v>98446</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -5055,25 +5064,25 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>220787</v>
+        <v>222771</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Svart trolldruva</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Actaea spicata</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
@@ -5084,10 +5093,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>550741.937658608</v>
+        <v>550925.5549388798</v>
       </c>
       <c r="R40" t="n">
-        <v>7002115.539248759</v>
+        <v>7001928.940230627</v>
       </c>
       <c r="S40" t="n">
         <v>25</v>
@@ -5119,7 +5128,7 @@
       </c>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>12:09</t>
+          <t>16:41</t>
         </is>
       </c>
       <c r="AA40" t="inlineStr">
@@ -5129,7 +5138,7 @@
       </c>
       <c r="AB40" t="inlineStr">
         <is>
-          <t>12:09</t>
+          <t>16:41</t>
         </is>
       </c>
       <c r="AD40" t="b">
@@ -5156,7 +5165,7 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>111423343</v>
+        <v>111425793</v>
       </c>
       <c r="B41" t="n">
         <v>98535</v>
@@ -5197,10 +5206,10 @@
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>550911.6997848416</v>
+        <v>550964.3063330664</v>
       </c>
       <c r="R41" t="n">
-        <v>7001974.850411222</v>
+        <v>7001941.308390027</v>
       </c>
       <c r="S41" t="n">
         <v>25</v>
@@ -5232,7 +5241,7 @@
       </c>
       <c r="Z41" t="inlineStr">
         <is>
-          <t>13:55</t>
+          <t>15:34</t>
         </is>
       </c>
       <c r="AA41" t="inlineStr">
@@ -5242,7 +5251,7 @@
       </c>
       <c r="AB41" t="inlineStr">
         <is>
-          <t>13:55</t>
+          <t>15:34</t>
         </is>
       </c>
       <c r="AD41" t="b">
@@ -5269,10 +5278,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>111425614</v>
+        <v>111426315</v>
       </c>
       <c r="B42" t="n">
-        <v>98446</v>
+        <v>89845</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -5281,25 +5290,25 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>222771</v>
+        <v>1209</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Svart trolldruva</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Actaea spicata</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I42" t="inlineStr"/>
@@ -5310,10 +5319,10 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>550954.7515832841</v>
+        <v>550958.3735980184</v>
       </c>
       <c r="R42" t="n">
-        <v>7001915.380264779</v>
+        <v>7001915.437287232</v>
       </c>
       <c r="S42" t="n">
         <v>25</v>
@@ -5345,7 +5354,7 @@
       </c>
       <c r="Z42" t="inlineStr">
         <is>
-          <t>15:34</t>
+          <t>16:07</t>
         </is>
       </c>
       <c r="AA42" t="inlineStr">
@@ -5355,7 +5364,7 @@
       </c>
       <c r="AB42" t="inlineStr">
         <is>
-          <t>15:34</t>
+          <t>16:07</t>
         </is>
       </c>
       <c r="AD42" t="b">
@@ -5382,10 +5391,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>111426308</v>
+        <v>111425037</v>
       </c>
       <c r="B43" t="n">
-        <v>89405</v>
+        <v>89845</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -5394,25 +5403,25 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>1202</v>
+        <v>1209</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
@@ -5423,10 +5432,10 @@
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>550958.3735980184</v>
+        <v>551037.0775894802</v>
       </c>
       <c r="R43" t="n">
-        <v>7001915.437287232</v>
+        <v>7001950.143101228</v>
       </c>
       <c r="S43" t="n">
         <v>25</v>
@@ -5458,7 +5467,7 @@
       </c>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>16:07</t>
+          <t>15:16</t>
         </is>
       </c>
       <c r="AA43" t="inlineStr">
@@ -5468,7 +5477,7 @@
       </c>
       <c r="AB43" t="inlineStr">
         <is>
-          <t>16:07</t>
+          <t>15:16</t>
         </is>
       </c>
       <c r="AD43" t="b">
@@ -5495,10 +5504,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>111424103</v>
+        <v>111420869</v>
       </c>
       <c r="B44" t="n">
-        <v>94134</v>
+        <v>89405</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -5511,21 +5520,21 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>53</v>
+        <v>1202</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I44" t="inlineStr"/>
@@ -5536,10 +5545,10 @@
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>551037.3771583335</v>
+        <v>550741.937658608</v>
       </c>
       <c r="R44" t="n">
-        <v>7002103.452742142</v>
+        <v>7002115.539248759</v>
       </c>
       <c r="S44" t="n">
         <v>25</v>
@@ -5571,7 +5580,7 @@
       </c>
       <c r="Z44" t="inlineStr">
         <is>
-          <t>13:55</t>
+          <t>11:56</t>
         </is>
       </c>
       <c r="AA44" t="inlineStr">
@@ -5581,7 +5590,7 @@
       </c>
       <c r="AB44" t="inlineStr">
         <is>
-          <t>13:55</t>
+          <t>11:56</t>
         </is>
       </c>
       <c r="AD44" t="b">
@@ -5608,10 +5617,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>111422303</v>
+        <v>111421476</v>
       </c>
       <c r="B45" t="n">
-        <v>89405</v>
+        <v>77186</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -5624,21 +5633,21 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>1202</v>
+        <v>353</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Dvärgbägarlav</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Cladonia parasitica</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Hoffm.) Hoffm.</t>
         </is>
       </c>
       <c r="I45" t="inlineStr"/>
@@ -5649,10 +5658,10 @@
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>550866.5625217154</v>
+        <v>550808.5392307156</v>
       </c>
       <c r="R45" t="n">
-        <v>7002138.297294092</v>
+        <v>7002084.47682756</v>
       </c>
       <c r="S45" t="n">
         <v>25</v>
@@ -5721,10 +5730,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>111420370</v>
+        <v>111423255</v>
       </c>
       <c r="B46" t="n">
-        <v>96348</v>
+        <v>98535</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -5733,25 +5742,25 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>220787</v>
+        <v>222498</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I46" t="inlineStr"/>
@@ -5762,10 +5771,10 @@
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>550722.7296859198</v>
+        <v>550869.8149192812</v>
       </c>
       <c r="R46" t="n">
-        <v>7002214.271300747</v>
+        <v>7001960.172576382</v>
       </c>
       <c r="S46" t="n">
         <v>25</v>
@@ -5797,7 +5806,7 @@
       </c>
       <c r="Z46" t="inlineStr">
         <is>
-          <t>11:36</t>
+          <t>13:40</t>
         </is>
       </c>
       <c r="AA46" t="inlineStr">
@@ -5807,7 +5816,7 @@
       </c>
       <c r="AB46" t="inlineStr">
         <is>
-          <t>11:36</t>
+          <t>13:40</t>
         </is>
       </c>
       <c r="AD46" t="b">
@@ -5834,7 +5843,7 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>111426031</v>
+        <v>111425789</v>
       </c>
       <c r="B47" t="n">
         <v>99413</v>
@@ -5875,10 +5884,10 @@
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>550956.02874151</v>
+        <v>550964.3063330664</v>
       </c>
       <c r="R47" t="n">
-        <v>7001949.318344167</v>
+        <v>7001941.308390027</v>
       </c>
       <c r="S47" t="n">
         <v>25</v>
@@ -5947,10 +5956,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>111425789</v>
+        <v>111421283</v>
       </c>
       <c r="B48" t="n">
-        <v>99413</v>
+        <v>96348</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -5959,25 +5968,25 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>221235</v>
+        <v>220787</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Vårärt</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Lathyrus vernus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>(L.) Bernh.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I48" t="inlineStr"/>
@@ -5988,10 +5997,10 @@
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>550964.3063330664</v>
+        <v>550786.6251378106</v>
       </c>
       <c r="R48" t="n">
-        <v>7001941.308390027</v>
+        <v>7002066.94856437</v>
       </c>
       <c r="S48" t="n">
         <v>25</v>
@@ -6023,7 +6032,7 @@
       </c>
       <c r="Z48" t="inlineStr">
         <is>
-          <t>15:34</t>
+          <t>12:18</t>
         </is>
       </c>
       <c r="AA48" t="inlineStr">
@@ -6033,7 +6042,7 @@
       </c>
       <c r="AB48" t="inlineStr">
         <is>
-          <t>15:34</t>
+          <t>12:18</t>
         </is>
       </c>
       <c r="AD48" t="b">
@@ -6060,10 +6069,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>111423460</v>
+        <v>111420859</v>
       </c>
       <c r="B49" t="n">
-        <v>98535</v>
+        <v>89686</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -6072,25 +6081,25 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>222498</v>
+        <v>658</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
@@ -6101,10 +6110,10 @@
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>550919.8847323675</v>
+        <v>550742.1573915739</v>
       </c>
       <c r="R49" t="n">
-        <v>7001972.718000742</v>
+        <v>7002101.524058201</v>
       </c>
       <c r="S49" t="n">
         <v>25</v>
@@ -6136,7 +6145,7 @@
       </c>
       <c r="Z49" t="inlineStr">
         <is>
-          <t>13:55</t>
+          <t>11:56</t>
         </is>
       </c>
       <c r="AA49" t="inlineStr">
@@ -6146,7 +6155,7 @@
       </c>
       <c r="AB49" t="inlineStr">
         <is>
-          <t>13:55</t>
+          <t>11:56</t>
         </is>
       </c>
       <c r="AD49" t="b">
@@ -6173,10 +6182,10 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>111428138</v>
+        <v>111424331</v>
       </c>
       <c r="B50" t="n">
-        <v>96348</v>
+        <v>78605</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -6185,25 +6194,25 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>220787</v>
+        <v>6462</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I50" t="inlineStr"/>
@@ -6214,10 +6223,10 @@
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>550809.7857848165</v>
+        <v>551041.1344693471</v>
       </c>
       <c r="R50" t="n">
-        <v>7001918.528248113</v>
+        <v>7002037.487754084</v>
       </c>
       <c r="S50" t="n">
         <v>25</v>
@@ -6249,7 +6258,7 @@
       </c>
       <c r="Z50" t="inlineStr">
         <is>
-          <t>17:39</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA50" t="inlineStr">
@@ -6259,7 +6268,7 @@
       </c>
       <c r="AB50" t="inlineStr">
         <is>
-          <t>17:39</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD50" t="b">
@@ -6286,7 +6295,7 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>111425959</v>
+        <v>111423460</v>
       </c>
       <c r="B51" t="n">
         <v>98535</v>
@@ -6327,10 +6336,10 @@
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>550955.3723719715</v>
+        <v>550919.8847323675</v>
       </c>
       <c r="R51" t="n">
-        <v>7001933.479667452</v>
+        <v>7001972.718000742</v>
       </c>
       <c r="S51" t="n">
         <v>25</v>
@@ -6362,7 +6371,7 @@
       </c>
       <c r="Z51" t="inlineStr">
         <is>
-          <t>15:34</t>
+          <t>13:55</t>
         </is>
       </c>
       <c r="AA51" t="inlineStr">
@@ -6372,7 +6381,7 @@
       </c>
       <c r="AB51" t="inlineStr">
         <is>
-          <t>15:34</t>
+          <t>13:55</t>
         </is>
       </c>
       <c r="AD51" t="b">
@@ -6399,10 +6408,10 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>111427126</v>
+        <v>111425889</v>
       </c>
       <c r="B52" t="n">
-        <v>78578</v>
+        <v>98446</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -6411,25 +6420,25 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>6458</v>
+        <v>222771</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Svart trolldruva</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Actaea spicata</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I52" t="inlineStr"/>
@@ -6440,10 +6449,10 @@
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>550960.5946457037</v>
+        <v>550964.3063330664</v>
       </c>
       <c r="R52" t="n">
-        <v>7001918.185706819</v>
+        <v>7001941.308390027</v>
       </c>
       <c r="S52" t="n">
         <v>25</v>
@@ -6475,7 +6484,7 @@
       </c>
       <c r="Z52" t="inlineStr">
         <is>
-          <t>16:41</t>
+          <t>15:34</t>
         </is>
       </c>
       <c r="AA52" t="inlineStr">
@@ -6485,7 +6494,7 @@
       </c>
       <c r="AB52" t="inlineStr">
         <is>
-          <t>16:41</t>
+          <t>15:34</t>
         </is>
       </c>
       <c r="AD52" t="b">
@@ -6512,10 +6521,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>111426486</v>
+        <v>111425548</v>
       </c>
       <c r="B53" t="n">
-        <v>98446</v>
+        <v>98535</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -6528,21 +6537,21 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>222771</v>
+        <v>222498</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Svart trolldruva</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Actaea spicata</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I53" t="inlineStr"/>
@@ -6553,10 +6562,10 @@
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>550941.2588680513</v>
+        <v>550954.7515832841</v>
       </c>
       <c r="R53" t="n">
-        <v>7001938.232138845</v>
+        <v>7001915.380264779</v>
       </c>
       <c r="S53" t="n">
         <v>25</v>
@@ -6588,7 +6597,7 @@
       </c>
       <c r="Z53" t="inlineStr">
         <is>
-          <t>16:08</t>
+          <t>15:16</t>
         </is>
       </c>
       <c r="AA53" t="inlineStr">
@@ -6598,7 +6607,7 @@
       </c>
       <c r="AB53" t="inlineStr">
         <is>
-          <t>16:08</t>
+          <t>15:16</t>
         </is>
       </c>
       <c r="AD53" t="b">
@@ -6625,10 +6634,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>111425158</v>
+        <v>111423343</v>
       </c>
       <c r="B54" t="n">
-        <v>89845</v>
+        <v>98535</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -6637,25 +6646,25 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>1209</v>
+        <v>222498</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I54" t="inlineStr"/>
@@ -6666,10 +6675,10 @@
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>551009.5203002443</v>
+        <v>550911.6997848416</v>
       </c>
       <c r="R54" t="n">
-        <v>7001917.147422009</v>
+        <v>7001974.850411222</v>
       </c>
       <c r="S54" t="n">
         <v>25</v>
@@ -6701,7 +6710,7 @@
       </c>
       <c r="Z54" t="inlineStr">
         <is>
-          <t>15:16</t>
+          <t>13:55</t>
         </is>
       </c>
       <c r="AA54" t="inlineStr">
@@ -6711,7 +6720,7 @@
       </c>
       <c r="AB54" t="inlineStr">
         <is>
-          <t>15:16</t>
+          <t>13:55</t>
         </is>
       </c>
       <c r="AD54" t="b">
@@ -6738,10 +6747,10 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>111427783</v>
+        <v>111424256</v>
       </c>
       <c r="B55" t="n">
-        <v>99413</v>
+        <v>78605</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -6754,21 +6763,21 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>221235</v>
+        <v>6462</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Vårärt</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Lathyrus vernus</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>(L.) Bernh.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I55" t="inlineStr"/>
@@ -6779,10 +6788,10 @@
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>550907.3809405958</v>
+        <v>551048.5278099331</v>
       </c>
       <c r="R55" t="n">
-        <v>7001932.724492302</v>
+        <v>7002085.539900199</v>
       </c>
       <c r="S55" t="n">
         <v>25</v>
@@ -6814,7 +6823,7 @@
       </c>
       <c r="Z55" t="inlineStr">
         <is>
-          <t>16:41</t>
+          <t>13:55</t>
         </is>
       </c>
       <c r="AA55" t="inlineStr">
@@ -6824,7 +6833,7 @@
       </c>
       <c r="AB55" t="inlineStr">
         <is>
-          <t>16:41</t>
+          <t>13:55</t>
         </is>
       </c>
       <c r="AD55" t="b">
@@ -6851,7 +6860,7 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>111425527</v>
+        <v>111427783</v>
       </c>
       <c r="B56" t="n">
         <v>99413</v>
@@ -6892,10 +6901,10 @@
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>550954.7515832841</v>
+        <v>550907.3809405958</v>
       </c>
       <c r="R56" t="n">
-        <v>7001915.380264779</v>
+        <v>7001932.724492302</v>
       </c>
       <c r="S56" t="n">
         <v>25</v>
@@ -6927,7 +6936,7 @@
       </c>
       <c r="Z56" t="inlineStr">
         <is>
-          <t>15:16</t>
+          <t>16:41</t>
         </is>
       </c>
       <c r="AA56" t="inlineStr">
@@ -6937,7 +6946,7 @@
       </c>
       <c r="AB56" t="inlineStr">
         <is>
-          <t>15:16</t>
+          <t>16:41</t>
         </is>
       </c>
       <c r="AD56" t="b">
@@ -6964,10 +6973,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>111423316</v>
+        <v>111425313</v>
       </c>
       <c r="B57" t="n">
-        <v>96348</v>
+        <v>78578</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -6976,25 +6985,25 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E57" t="n">
-        <v>220787</v>
+        <v>6458</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I57" t="inlineStr"/>
@@ -7005,10 +7014,10 @@
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>550887.953173755</v>
+        <v>550974.800833688</v>
       </c>
       <c r="R57" t="n">
-        <v>7001958.648759932</v>
+        <v>7001907.55558978</v>
       </c>
       <c r="S57" t="n">
         <v>25</v>
@@ -7040,7 +7049,7 @@
       </c>
       <c r="Z57" t="inlineStr">
         <is>
-          <t>13:55</t>
+          <t>15:16</t>
         </is>
       </c>
       <c r="AA57" t="inlineStr">
@@ -7050,7 +7059,7 @@
       </c>
       <c r="AB57" t="inlineStr">
         <is>
-          <t>13:55</t>
+          <t>15:16</t>
         </is>
       </c>
       <c r="AD57" t="b">
@@ -7077,10 +7086,10 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>111425548</v>
+        <v>111426396</v>
       </c>
       <c r="B58" t="n">
-        <v>98535</v>
+        <v>103396</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -7089,25 +7098,25 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E58" t="n">
-        <v>222498</v>
+        <v>674</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Myskmåra</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Galium triflorum</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>Michx.</t>
         </is>
       </c>
       <c r="I58" t="inlineStr"/>
@@ -7118,10 +7127,10 @@
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>550954.7515832841</v>
+        <v>550951.5040298713</v>
       </c>
       <c r="R58" t="n">
-        <v>7001915.380264779</v>
+        <v>7001920.303799121</v>
       </c>
       <c r="S58" t="n">
         <v>25</v>
@@ -7153,7 +7162,7 @@
       </c>
       <c r="Z58" t="inlineStr">
         <is>
-          <t>15:16</t>
+          <t>16:08</t>
         </is>
       </c>
       <c r="AA58" t="inlineStr">
@@ -7163,7 +7172,7 @@
       </c>
       <c r="AB58" t="inlineStr">
         <is>
-          <t>15:16</t>
+          <t>16:08</t>
         </is>
       </c>
       <c r="AD58" t="b">
@@ -7190,10 +7199,10 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>111422067</v>
+        <v>111425158</v>
       </c>
       <c r="B59" t="n">
-        <v>77515</v>
+        <v>89845</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -7202,25 +7211,25 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E59" t="n">
-        <v>6425</v>
+        <v>1209</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I59" t="inlineStr"/>
@@ -7231,10 +7240,10 @@
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>550845.9433502604</v>
+        <v>551009.5203002443</v>
       </c>
       <c r="R59" t="n">
-        <v>7002124.859161366</v>
+        <v>7001917.147422009</v>
       </c>
       <c r="S59" t="n">
         <v>25</v>
@@ -7266,7 +7275,7 @@
       </c>
       <c r="Z59" t="inlineStr">
         <is>
-          <t>12:18</t>
+          <t>15:16</t>
         </is>
       </c>
       <c r="AA59" t="inlineStr">
@@ -7276,12 +7285,7 @@
       </c>
       <c r="AB59" t="inlineStr">
         <is>
-          <t>12:18</t>
-        </is>
-      </c>
-      <c r="AC59" t="inlineStr">
-        <is>
-          <t>På tall</t>
+          <t>15:16</t>
         </is>
       </c>
       <c r="AD59" t="b">
@@ -7308,10 +7312,10 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>111422600</v>
+        <v>111425285</v>
       </c>
       <c r="B60" t="n">
-        <v>77186</v>
+        <v>98535</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -7320,25 +7324,25 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E60" t="n">
-        <v>353</v>
+        <v>222498</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Dvärgbägarlav</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Cladonia parasitica</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>(Hoffm.) Hoffm.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I60" t="inlineStr"/>
@@ -7349,10 +7353,10 @@
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>550737.1374797915</v>
+        <v>550974.800833688</v>
       </c>
       <c r="R60" t="n">
-        <v>7002017.332277133</v>
+        <v>7001907.55558978</v>
       </c>
       <c r="S60" t="n">
         <v>25</v>
@@ -7384,7 +7388,7 @@
       </c>
       <c r="Z60" t="inlineStr">
         <is>
-          <t>12:18</t>
+          <t>15:16</t>
         </is>
       </c>
       <c r="AA60" t="inlineStr">
@@ -7394,7 +7398,7 @@
       </c>
       <c r="AB60" t="inlineStr">
         <is>
-          <t>12:18</t>
+          <t>15:16</t>
         </is>
       </c>
       <c r="AD60" t="b">
@@ -7421,10 +7425,10 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>111423417</v>
+        <v>111421480</v>
       </c>
       <c r="B61" t="n">
-        <v>94134</v>
+        <v>78107</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -7437,21 +7441,21 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>53</v>
+        <v>6453</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I61" t="inlineStr"/>
@@ -7462,10 +7466,10 @@
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>550901.6754341319</v>
+        <v>550808.5392307156</v>
       </c>
       <c r="R61" t="n">
-        <v>7001978.762844464</v>
+        <v>7002084.47682756</v>
       </c>
       <c r="S61" t="n">
         <v>25</v>
@@ -7497,7 +7501,7 @@
       </c>
       <c r="Z61" t="inlineStr">
         <is>
-          <t>13:55</t>
+          <t>12:18</t>
         </is>
       </c>
       <c r="AA61" t="inlineStr">
@@ -7507,7 +7511,7 @@
       </c>
       <c r="AB61" t="inlineStr">
         <is>
-          <t>13:55</t>
+          <t>12:18</t>
         </is>
       </c>
       <c r="AD61" t="b">
@@ -7534,10 +7538,10 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>111425793</v>
+        <v>111421054</v>
       </c>
       <c r="B62" t="n">
-        <v>98535</v>
+        <v>96348</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -7546,25 +7550,25 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E62" t="n">
-        <v>222498</v>
+        <v>220787</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I62" t="inlineStr"/>
@@ -7575,10 +7579,10 @@
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>550964.3063330664</v>
+        <v>550741.937658608</v>
       </c>
       <c r="R62" t="n">
-        <v>7001941.308390027</v>
+        <v>7002115.539248759</v>
       </c>
       <c r="S62" t="n">
         <v>25</v>
@@ -7610,7 +7614,7 @@
       </c>
       <c r="Z62" t="inlineStr">
         <is>
-          <t>15:34</t>
+          <t>12:09</t>
         </is>
       </c>
       <c r="AA62" t="inlineStr">
@@ -7620,7 +7624,7 @@
       </c>
       <c r="AB62" t="inlineStr">
         <is>
-          <t>15:34</t>
+          <t>12:09</t>
         </is>
       </c>
       <c r="AD62" t="b">
@@ -7647,10 +7651,10 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>111425786</v>
+        <v>111424144</v>
       </c>
       <c r="B63" t="n">
-        <v>98446</v>
+        <v>95532</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -7663,16 +7667,16 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>222771</v>
+        <v>221945</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Svart trolldruva</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Actaea spicata</t>
+          <t>Lycopodium annotinum</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
@@ -7688,10 +7692,10 @@
         </is>
       </c>
       <c r="Q63" t="n">
-        <v>550964.3063330664</v>
+        <v>551057.4254629152</v>
       </c>
       <c r="R63" t="n">
-        <v>7001941.308390027</v>
+        <v>7002095.629051142</v>
       </c>
       <c r="S63" t="n">
         <v>25</v>
@@ -7723,7 +7727,7 @@
       </c>
       <c r="Z63" t="inlineStr">
         <is>
-          <t>15:34</t>
+          <t>13:55</t>
         </is>
       </c>
       <c r="AA63" t="inlineStr">
@@ -7733,7 +7737,7 @@
       </c>
       <c r="AB63" t="inlineStr">
         <is>
-          <t>15:34</t>
+          <t>13:55</t>
         </is>
       </c>
       <c r="AD63" t="b">
@@ -7760,10 +7764,10 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>111421391</v>
+        <v>111424103</v>
       </c>
       <c r="B64" t="n">
-        <v>78578</v>
+        <v>94134</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -7776,21 +7780,21 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>6458</v>
+        <v>53</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I64" t="inlineStr"/>
@@ -7801,10 +7805,10 @@
         </is>
       </c>
       <c r="Q64" t="n">
-        <v>550825.6664593286</v>
+        <v>551037.3771583335</v>
       </c>
       <c r="R64" t="n">
-        <v>7002060.778115767</v>
+        <v>7002103.452742142</v>
       </c>
       <c r="S64" t="n">
         <v>25</v>
@@ -7836,7 +7840,7 @@
       </c>
       <c r="Z64" t="inlineStr">
         <is>
-          <t>12:18</t>
+          <t>13:55</t>
         </is>
       </c>
       <c r="AA64" t="inlineStr">
@@ -7846,12 +7850,7 @@
       </c>
       <c r="AB64" t="inlineStr">
         <is>
-          <t>12:18</t>
-        </is>
-      </c>
-      <c r="AC64" t="inlineStr">
-        <is>
-          <t>På asp</t>
+          <t>13:55</t>
         </is>
       </c>
       <c r="AD64" t="b">
@@ -7878,10 +7877,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>111424144</v>
+        <v>111427779</v>
       </c>
       <c r="B65" t="n">
-        <v>95532</v>
+        <v>98446</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -7894,16 +7893,16 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>221945</v>
+        <v>222771</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Svart trolldruva</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Lycopodium annotinum</t>
+          <t>Actaea spicata</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
@@ -7919,10 +7918,10 @@
         </is>
       </c>
       <c r="Q65" t="n">
-        <v>551057.4254629152</v>
+        <v>550907.3809405958</v>
       </c>
       <c r="R65" t="n">
-        <v>7002095.629051142</v>
+        <v>7001932.724492302</v>
       </c>
       <c r="S65" t="n">
         <v>25</v>
@@ -7954,7 +7953,7 @@
       </c>
       <c r="Z65" t="inlineStr">
         <is>
-          <t>13:55</t>
+          <t>16:41</t>
         </is>
       </c>
       <c r="AA65" t="inlineStr">
@@ -7964,7 +7963,7 @@
       </c>
       <c r="AB65" t="inlineStr">
         <is>
-          <t>13:55</t>
+          <t>16:41</t>
         </is>
       </c>
       <c r="AD65" t="b">
@@ -7991,10 +7990,10 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>111421571</v>
+        <v>111424960</v>
       </c>
       <c r="B66" t="n">
-        <v>78605</v>
+        <v>94134</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -8003,25 +8002,25 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E66" t="n">
-        <v>6462</v>
+        <v>53</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I66" t="inlineStr"/>
@@ -8032,10 +8031,10 @@
         </is>
       </c>
       <c r="Q66" t="n">
-        <v>550832.3776022838</v>
+        <v>551037.0775894802</v>
       </c>
       <c r="R66" t="n">
-        <v>7002094.799920618</v>
+        <v>7001950.143101228</v>
       </c>
       <c r="S66" t="n">
         <v>25</v>
@@ -8067,7 +8066,7 @@
       </c>
       <c r="Z66" t="inlineStr">
         <is>
-          <t>12:18</t>
+          <t>14:55</t>
         </is>
       </c>
       <c r="AA66" t="inlineStr">
@@ -8077,7 +8076,7 @@
       </c>
       <c r="AB66" t="inlineStr">
         <is>
-          <t>12:18</t>
+          <t>14:55</t>
         </is>
       </c>
       <c r="AD66" t="b">
@@ -8104,7 +8103,7 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>111420595</v>
+        <v>111420370</v>
       </c>
       <c r="B67" t="n">
         <v>96348</v>
@@ -8145,10 +8144,10 @@
         </is>
       </c>
       <c r="Q67" t="n">
-        <v>550711.6321998269</v>
+        <v>550722.7296859198</v>
       </c>
       <c r="R67" t="n">
-        <v>7002171.138182109</v>
+        <v>7002214.271300747</v>
       </c>
       <c r="S67" t="n">
         <v>25</v>
@@ -8180,7 +8179,7 @@
       </c>
       <c r="Z67" t="inlineStr">
         <is>
-          <t>11:47</t>
+          <t>11:36</t>
         </is>
       </c>
       <c r="AA67" t="inlineStr">
@@ -8190,7 +8189,7 @@
       </c>
       <c r="AB67" t="inlineStr">
         <is>
-          <t>11:47</t>
+          <t>11:36</t>
         </is>
       </c>
       <c r="AD67" t="b">
@@ -8217,10 +8216,10 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>111423113</v>
+        <v>111424030</v>
       </c>
       <c r="B68" t="n">
-        <v>99413</v>
+        <v>78578</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -8229,32 +8228,28 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E68" t="n">
-        <v>221235</v>
+        <v>6458</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Vårärt</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Lathyrus vernus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>(L.) Bernh.</t>
-        </is>
-      </c>
-      <c r="I68" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+          <t>(L.) Hoffm.</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
       <c r="P68" t="inlineStr">
         <is>
@@ -8262,10 +8257,10 @@
         </is>
       </c>
       <c r="Q68" t="n">
-        <v>550880.707108345</v>
+        <v>551011.8102739404</v>
       </c>
       <c r="R68" t="n">
-        <v>7001987.477793725</v>
+        <v>7002059.18440557</v>
       </c>
       <c r="S68" t="n">
         <v>25</v>
@@ -8297,7 +8292,7 @@
       </c>
       <c r="Z68" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>13:55</t>
         </is>
       </c>
       <c r="AA68" t="inlineStr">
@@ -8307,7 +8302,12 @@
       </c>
       <c r="AB68" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>13:55</t>
+        </is>
+      </c>
+      <c r="AC68" t="inlineStr">
+        <is>
+          <t>På björk</t>
         </is>
       </c>
       <c r="AD68" t="b">
@@ -8334,10 +8334,10 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>111423560</v>
+        <v>111425959</v>
       </c>
       <c r="B69" t="n">
-        <v>94134</v>
+        <v>98535</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -8346,25 +8346,25 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E69" t="n">
-        <v>53</v>
+        <v>222498</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I69" t="inlineStr"/>
@@ -8375,10 +8375,10 @@
         </is>
       </c>
       <c r="Q69" t="n">
-        <v>550948.589889885</v>
+        <v>550955.3723719715</v>
       </c>
       <c r="R69" t="n">
-        <v>7001990.354570261</v>
+        <v>7001933.479667452</v>
       </c>
       <c r="S69" t="n">
         <v>25</v>
@@ -8410,7 +8410,7 @@
       </c>
       <c r="Z69" t="inlineStr">
         <is>
-          <t>13:55</t>
+          <t>15:34</t>
         </is>
       </c>
       <c r="AA69" t="inlineStr">
@@ -8420,7 +8420,7 @@
       </c>
       <c r="AB69" t="inlineStr">
         <is>
-          <t>13:55</t>
+          <t>15:34</t>
         </is>
       </c>
       <c r="AD69" t="b">
@@ -8447,10 +8447,10 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>111425037</v>
+        <v>111427126</v>
       </c>
       <c r="B70" t="n">
-        <v>89845</v>
+        <v>78578</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -8459,25 +8459,25 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E70" t="n">
-        <v>1209</v>
+        <v>6458</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I70" t="inlineStr"/>
@@ -8488,10 +8488,10 @@
         </is>
       </c>
       <c r="Q70" t="n">
-        <v>551037.0775894802</v>
+        <v>550960.5946457037</v>
       </c>
       <c r="R70" t="n">
-        <v>7001950.143101228</v>
+        <v>7001918.185706819</v>
       </c>
       <c r="S70" t="n">
         <v>25</v>
@@ -8523,7 +8523,7 @@
       </c>
       <c r="Z70" t="inlineStr">
         <is>
-          <t>15:16</t>
+          <t>16:41</t>
         </is>
       </c>
       <c r="AA70" t="inlineStr">
@@ -8533,7 +8533,7 @@
       </c>
       <c r="AB70" t="inlineStr">
         <is>
-          <t>15:16</t>
+          <t>16:41</t>
         </is>
       </c>
       <c r="AD70" t="b">
@@ -8560,10 +8560,10 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>111424030</v>
+        <v>111427034</v>
       </c>
       <c r="B71" t="n">
-        <v>78578</v>
+        <v>96348</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -8572,25 +8572,25 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E71" t="n">
-        <v>6458</v>
+        <v>220787</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I71" t="inlineStr"/>
@@ -8601,10 +8601,10 @@
         </is>
       </c>
       <c r="Q71" t="n">
-        <v>551011.8102739404</v>
+        <v>550961.4004867796</v>
       </c>
       <c r="R71" t="n">
-        <v>7002059.18440557</v>
+        <v>7001924.529771334</v>
       </c>
       <c r="S71" t="n">
         <v>25</v>
@@ -8636,7 +8636,7 @@
       </c>
       <c r="Z71" t="inlineStr">
         <is>
-          <t>13:55</t>
+          <t>16:41</t>
         </is>
       </c>
       <c r="AA71" t="inlineStr">
@@ -8646,12 +8646,7 @@
       </c>
       <c r="AB71" t="inlineStr">
         <is>
-          <t>13:55</t>
-        </is>
-      </c>
-      <c r="AC71" t="inlineStr">
-        <is>
-          <t>På björk</t>
+          <t>16:41</t>
         </is>
       </c>
       <c r="AD71" t="b">
@@ -8678,10 +8673,10 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>111420477</v>
+        <v>111421571</v>
       </c>
       <c r="B72" t="n">
-        <v>89405</v>
+        <v>78605</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -8690,25 +8685,25 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E72" t="n">
-        <v>1202</v>
+        <v>6462</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I72" t="inlineStr"/>
@@ -8719,10 +8714,10 @@
         </is>
       </c>
       <c r="Q72" t="n">
-        <v>550727.9291679059</v>
+        <v>550832.3776022838</v>
       </c>
       <c r="R72" t="n">
-        <v>7002200.33458891</v>
+        <v>7002094.799920618</v>
       </c>
       <c r="S72" t="n">
         <v>25</v>
@@ -8754,7 +8749,7 @@
       </c>
       <c r="Z72" t="inlineStr">
         <is>
-          <t>11:36</t>
+          <t>12:18</t>
         </is>
       </c>
       <c r="AA72" t="inlineStr">
@@ -8764,7 +8759,7 @@
       </c>
       <c r="AB72" t="inlineStr">
         <is>
-          <t>11:36</t>
+          <t>12:18</t>
         </is>
       </c>
       <c r="AD72" t="b">
@@ -8791,10 +8786,10 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>111425313</v>
+        <v>111420477</v>
       </c>
       <c r="B73" t="n">
-        <v>78578</v>
+        <v>89405</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -8807,21 +8802,21 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>6458</v>
+        <v>1202</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I73" t="inlineStr"/>
@@ -8832,10 +8827,10 @@
         </is>
       </c>
       <c r="Q73" t="n">
-        <v>550974.800833688</v>
+        <v>550727.9291679059</v>
       </c>
       <c r="R73" t="n">
-        <v>7001907.55558978</v>
+        <v>7002200.33458891</v>
       </c>
       <c r="S73" t="n">
         <v>25</v>
@@ -8867,7 +8862,7 @@
       </c>
       <c r="Z73" t="inlineStr">
         <is>
-          <t>15:16</t>
+          <t>11:36</t>
         </is>
       </c>
       <c r="AA73" t="inlineStr">
@@ -8877,7 +8872,7 @@
       </c>
       <c r="AB73" t="inlineStr">
         <is>
-          <t>15:16</t>
+          <t>11:36</t>
         </is>
       </c>
       <c r="AD73" t="b">
@@ -8904,10 +8899,10 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>111424910</v>
+        <v>111420660</v>
       </c>
       <c r="B74" t="n">
-        <v>78578</v>
+        <v>77267</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -8920,21 +8915,21 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>6458</v>
+        <v>6446</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I74" t="inlineStr"/>
@@ -8945,10 +8940,10 @@
         </is>
       </c>
       <c r="Q74" t="n">
-        <v>551057.2480807917</v>
+        <v>550733.9986858405</v>
       </c>
       <c r="R74" t="n">
-        <v>7001934.632864759</v>
+        <v>7002188.6724778</v>
       </c>
       <c r="S74" t="n">
         <v>25</v>
@@ -8980,7 +8975,7 @@
       </c>
       <c r="Z74" t="inlineStr">
         <is>
-          <t>14:55</t>
+          <t>11:51</t>
         </is>
       </c>
       <c r="AA74" t="inlineStr">
@@ -8990,12 +8985,7 @@
       </c>
       <c r="AB74" t="inlineStr">
         <is>
-          <t>14:55</t>
-        </is>
-      </c>
-      <c r="AC74" t="inlineStr">
-        <is>
-          <t>På asp</t>
+          <t>11:51</t>
         </is>
       </c>
       <c r="AD74" t="b">
@@ -9022,10 +9012,10 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>111427034</v>
+        <v>111424253</v>
       </c>
       <c r="B75" t="n">
-        <v>96348</v>
+        <v>89965</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -9038,21 +9028,21 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>220787</v>
+        <v>760</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Doftticka</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Haploporus odorus</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Sommerf.) Bondartsev &amp; Singer</t>
         </is>
       </c>
       <c r="I75" t="inlineStr"/>
@@ -9063,10 +9053,10 @@
         </is>
       </c>
       <c r="Q75" t="n">
-        <v>550961.4004867796</v>
+        <v>551048.5278099331</v>
       </c>
       <c r="R75" t="n">
-        <v>7001924.529771334</v>
+        <v>7002085.539900199</v>
       </c>
       <c r="S75" t="n">
         <v>25</v>
@@ -9098,7 +9088,7 @@
       </c>
       <c r="Z75" t="inlineStr">
         <is>
-          <t>16:41</t>
+          <t>13:55</t>
         </is>
       </c>
       <c r="AA75" t="inlineStr">
@@ -9108,7 +9098,12 @@
       </c>
       <c r="AB75" t="inlineStr">
         <is>
-          <t>16:41</t>
+          <t>13:55</t>
+        </is>
+      </c>
+      <c r="AC75" t="inlineStr">
+        <is>
+          <t>Liten väldoftande fruktkropp på sälg som fallit</t>
         </is>
       </c>
       <c r="AD75" t="b">
@@ -9135,10 +9130,10 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>111426562</v>
+        <v>111423560</v>
       </c>
       <c r="B76" t="n">
-        <v>96348</v>
+        <v>94134</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -9147,25 +9142,25 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E76" t="n">
-        <v>220787</v>
+        <v>53</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I76" t="inlineStr"/>
@@ -9176,10 +9171,10 @@
         </is>
       </c>
       <c r="Q76" t="n">
-        <v>550976.2344434585</v>
+        <v>550948.589889885</v>
       </c>
       <c r="R76" t="n">
-        <v>7001931.546968644</v>
+        <v>7001990.354570261</v>
       </c>
       <c r="S76" t="n">
         <v>25</v>
@@ -9211,7 +9206,7 @@
       </c>
       <c r="Z76" t="inlineStr">
         <is>
-          <t>16:17</t>
+          <t>13:55</t>
         </is>
       </c>
       <c r="AA76" t="inlineStr">
@@ -9221,7 +9216,7 @@
       </c>
       <c r="AB76" t="inlineStr">
         <is>
-          <t>16:17</t>
+          <t>13:55</t>
         </is>
       </c>
       <c r="AD76" t="b">
@@ -9361,10 +9356,10 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>111421476</v>
+        <v>111428138</v>
       </c>
       <c r="B78" t="n">
-        <v>77186</v>
+        <v>96348</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -9373,25 +9368,25 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E78" t="n">
-        <v>353</v>
+        <v>220787</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Dvärgbägarlav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>Cladonia parasitica</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>(Hoffm.) Hoffm.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I78" t="inlineStr"/>
@@ -9402,10 +9397,10 @@
         </is>
       </c>
       <c r="Q78" t="n">
-        <v>550808.5392307156</v>
+        <v>550809.7857848165</v>
       </c>
       <c r="R78" t="n">
-        <v>7002084.47682756</v>
+        <v>7001918.528248113</v>
       </c>
       <c r="S78" t="n">
         <v>25</v>
@@ -9437,7 +9432,7 @@
       </c>
       <c r="Z78" t="inlineStr">
         <is>
-          <t>12:18</t>
+          <t>17:39</t>
         </is>
       </c>
       <c r="AA78" t="inlineStr">
@@ -9447,7 +9442,7 @@
       </c>
       <c r="AB78" t="inlineStr">
         <is>
-          <t>12:18</t>
+          <t>17:39</t>
         </is>
       </c>
       <c r="AD78" t="b">
@@ -9474,10 +9469,10 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>111423236</v>
+        <v>111421391</v>
       </c>
       <c r="B79" t="n">
-        <v>94134</v>
+        <v>78578</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -9490,21 +9485,21 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>53</v>
+        <v>6458</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I79" t="inlineStr"/>
@@ -9515,10 +9510,10 @@
         </is>
       </c>
       <c r="Q79" t="n">
-        <v>550869.8149192812</v>
+        <v>550825.6664593286</v>
       </c>
       <c r="R79" t="n">
-        <v>7001960.172576382</v>
+        <v>7002060.778115767</v>
       </c>
       <c r="S79" t="n">
         <v>25</v>
@@ -9550,7 +9545,7 @@
       </c>
       <c r="Z79" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>12:18</t>
         </is>
       </c>
       <c r="AA79" t="inlineStr">
@@ -9560,7 +9555,12 @@
       </c>
       <c r="AB79" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>12:18</t>
+        </is>
+      </c>
+      <c r="AC79" t="inlineStr">
+        <is>
+          <t>På asp</t>
         </is>
       </c>
       <c r="AD79" t="b">

--- a/artfynd/A 57003-2022.xlsx
+++ b/artfynd/A 57003-2022.xlsx
@@ -1186,10 +1186,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111420481</v>
+        <v>111426042</v>
       </c>
       <c r="B6" t="n">
-        <v>96381</v>
+        <v>98535</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1202,21 +1202,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>219874</v>
+        <v>222498</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Nattviol</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Platanthera bifolia</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1227,10 +1227,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>550727.9291679059</v>
+        <v>550956.02874151</v>
       </c>
       <c r="R6" t="n">
-        <v>7002200.33458891</v>
+        <v>7001949.318344167</v>
       </c>
       <c r="S6" t="n">
         <v>25</v>
@@ -1262,7 +1262,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>11:36</t>
+          <t>15:34</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -1272,7 +1272,7 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>11:36</t>
+          <t>15:34</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1299,10 +1299,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111422950</v>
+        <v>111420481</v>
       </c>
       <c r="B7" t="n">
-        <v>96348</v>
+        <v>96381</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1311,25 +1311,25 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>220787</v>
+        <v>219874</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Nattviol</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Platanthera bifolia</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1340,10 +1340,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>550849.6384025981</v>
+        <v>550727.9291679059</v>
       </c>
       <c r="R7" t="n">
-        <v>7001976.135959106</v>
+        <v>7002200.33458891</v>
       </c>
       <c r="S7" t="n">
         <v>25</v>
@@ -1375,7 +1375,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>11:36</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -1385,7 +1385,7 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>11:36</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1412,10 +1412,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111423943</v>
+        <v>111422950</v>
       </c>
       <c r="B8" t="n">
-        <v>77267</v>
+        <v>96348</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1424,25 +1424,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6446</v>
+        <v>220787</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1453,10 +1453,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>550983.7409033215</v>
+        <v>550849.6384025981</v>
       </c>
       <c r="R8" t="n">
-        <v>7002058.742119073</v>
+        <v>7001976.135959106</v>
       </c>
       <c r="S8" t="n">
         <v>25</v>
@@ -1488,7 +1488,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>13:55</t>
+          <t>13:40</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -1498,7 +1498,7 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>13:55</t>
+          <t>13:40</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1525,10 +1525,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111426042</v>
+        <v>111423943</v>
       </c>
       <c r="B9" t="n">
-        <v>98535</v>
+        <v>77267</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1537,25 +1537,25 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>222498</v>
+        <v>6446</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1566,10 +1566,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>550956.02874151</v>
+        <v>550983.7409033215</v>
       </c>
       <c r="R9" t="n">
-        <v>7001949.318344167</v>
+        <v>7002058.742119073</v>
       </c>
       <c r="S9" t="n">
         <v>25</v>
@@ -1601,7 +1601,7 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>15:34</t>
+          <t>13:55</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -1611,7 +1611,7 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>15:34</t>
+          <t>13:55</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -4939,10 +4939,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>111427222</v>
+        <v>111420869</v>
       </c>
       <c r="B39" t="n">
-        <v>98535</v>
+        <v>89405</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -4951,25 +4951,25 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>222498</v>
+        <v>1202</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
@@ -4980,10 +4980,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>550980.9358707955</v>
+        <v>550741.937658608</v>
       </c>
       <c r="R39" t="n">
-        <v>7001891.823664788</v>
+        <v>7002115.539248759</v>
       </c>
       <c r="S39" t="n">
         <v>25</v>
@@ -5015,7 +5015,7 @@
       </c>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>16:41</t>
+          <t>11:56</t>
         </is>
       </c>
       <c r="AA39" t="inlineStr">
@@ -5025,7 +5025,7 @@
       </c>
       <c r="AB39" t="inlineStr">
         <is>
-          <t>16:41</t>
+          <t>11:56</t>
         </is>
       </c>
       <c r="AD39" t="b">
@@ -5052,10 +5052,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>111427612</v>
+        <v>111421476</v>
       </c>
       <c r="B40" t="n">
-        <v>98446</v>
+        <v>77186</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -5064,25 +5064,25 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>222771</v>
+        <v>353</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Svart trolldruva</t>
+          <t>Dvärgbägarlav</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Actaea spicata</t>
+          <t>Cladonia parasitica</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Hoffm.) Hoffm.</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
@@ -5093,10 +5093,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>550925.5549388798</v>
+        <v>550808.5392307156</v>
       </c>
       <c r="R40" t="n">
-        <v>7001928.940230627</v>
+        <v>7002084.47682756</v>
       </c>
       <c r="S40" t="n">
         <v>25</v>
@@ -5128,7 +5128,7 @@
       </c>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>16:41</t>
+          <t>12:18</t>
         </is>
       </c>
       <c r="AA40" t="inlineStr">
@@ -5138,7 +5138,7 @@
       </c>
       <c r="AB40" t="inlineStr">
         <is>
-          <t>16:41</t>
+          <t>12:18</t>
         </is>
       </c>
       <c r="AD40" t="b">
@@ -5165,7 +5165,7 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>111425793</v>
+        <v>111423255</v>
       </c>
       <c r="B41" t="n">
         <v>98535</v>
@@ -5206,10 +5206,10 @@
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>550964.3063330664</v>
+        <v>550869.8149192812</v>
       </c>
       <c r="R41" t="n">
-        <v>7001941.308390027</v>
+        <v>7001960.172576382</v>
       </c>
       <c r="S41" t="n">
         <v>25</v>
@@ -5241,7 +5241,7 @@
       </c>
       <c r="Z41" t="inlineStr">
         <is>
-          <t>15:34</t>
+          <t>13:40</t>
         </is>
       </c>
       <c r="AA41" t="inlineStr">
@@ -5251,7 +5251,7 @@
       </c>
       <c r="AB41" t="inlineStr">
         <is>
-          <t>15:34</t>
+          <t>13:40</t>
         </is>
       </c>
       <c r="AD41" t="b">
@@ -5278,10 +5278,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>111426315</v>
+        <v>111425789</v>
       </c>
       <c r="B42" t="n">
-        <v>89845</v>
+        <v>99413</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -5290,25 +5290,25 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>1209</v>
+        <v>221235</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Vårärt</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Lathyrus vernus</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(L.) Bernh.</t>
         </is>
       </c>
       <c r="I42" t="inlineStr"/>
@@ -5319,10 +5319,10 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>550958.3735980184</v>
+        <v>550964.3063330664</v>
       </c>
       <c r="R42" t="n">
-        <v>7001915.437287232</v>
+        <v>7001941.308390027</v>
       </c>
       <c r="S42" t="n">
         <v>25</v>
@@ -5354,7 +5354,7 @@
       </c>
       <c r="Z42" t="inlineStr">
         <is>
-          <t>16:07</t>
+          <t>15:34</t>
         </is>
       </c>
       <c r="AA42" t="inlineStr">
@@ -5364,7 +5364,7 @@
       </c>
       <c r="AB42" t="inlineStr">
         <is>
-          <t>16:07</t>
+          <t>15:34</t>
         </is>
       </c>
       <c r="AD42" t="b">
@@ -5391,10 +5391,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>111425037</v>
+        <v>111427222</v>
       </c>
       <c r="B43" t="n">
-        <v>89845</v>
+        <v>98535</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -5403,25 +5403,25 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>1209</v>
+        <v>222498</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
@@ -5432,10 +5432,10 @@
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>551037.0775894802</v>
+        <v>550980.9358707955</v>
       </c>
       <c r="R43" t="n">
-        <v>7001950.143101228</v>
+        <v>7001891.823664788</v>
       </c>
       <c r="S43" t="n">
         <v>25</v>
@@ -5467,7 +5467,7 @@
       </c>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>15:16</t>
+          <t>16:41</t>
         </is>
       </c>
       <c r="AA43" t="inlineStr">
@@ -5477,7 +5477,7 @@
       </c>
       <c r="AB43" t="inlineStr">
         <is>
-          <t>15:16</t>
+          <t>16:41</t>
         </is>
       </c>
       <c r="AD43" t="b">
@@ -5504,10 +5504,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>111420869</v>
+        <v>111427612</v>
       </c>
       <c r="B44" t="n">
-        <v>89405</v>
+        <v>98446</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -5516,25 +5516,25 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>1202</v>
+        <v>222771</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Svart trolldruva</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Actaea spicata</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I44" t="inlineStr"/>
@@ -5545,10 +5545,10 @@
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>550741.937658608</v>
+        <v>550925.5549388798</v>
       </c>
       <c r="R44" t="n">
-        <v>7002115.539248759</v>
+        <v>7001928.940230627</v>
       </c>
       <c r="S44" t="n">
         <v>25</v>
@@ -5580,7 +5580,7 @@
       </c>
       <c r="Z44" t="inlineStr">
         <is>
-          <t>11:56</t>
+          <t>16:41</t>
         </is>
       </c>
       <c r="AA44" t="inlineStr">
@@ -5590,7 +5590,7 @@
       </c>
       <c r="AB44" t="inlineStr">
         <is>
-          <t>11:56</t>
+          <t>16:41</t>
         </is>
       </c>
       <c r="AD44" t="b">
@@ -5617,10 +5617,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>111421476</v>
+        <v>111425793</v>
       </c>
       <c r="B45" t="n">
-        <v>77186</v>
+        <v>98535</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -5629,25 +5629,25 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>353</v>
+        <v>222498</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Dvärgbägarlav</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Cladonia parasitica</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>(Hoffm.) Hoffm.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I45" t="inlineStr"/>
@@ -5658,10 +5658,10 @@
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>550808.5392307156</v>
+        <v>550964.3063330664</v>
       </c>
       <c r="R45" t="n">
-        <v>7002084.47682756</v>
+        <v>7001941.308390027</v>
       </c>
       <c r="S45" t="n">
         <v>25</v>
@@ -5693,7 +5693,7 @@
       </c>
       <c r="Z45" t="inlineStr">
         <is>
-          <t>12:18</t>
+          <t>15:34</t>
         </is>
       </c>
       <c r="AA45" t="inlineStr">
@@ -5703,7 +5703,7 @@
       </c>
       <c r="AB45" t="inlineStr">
         <is>
-          <t>12:18</t>
+          <t>15:34</t>
         </is>
       </c>
       <c r="AD45" t="b">
@@ -5730,10 +5730,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>111423255</v>
+        <v>111426315</v>
       </c>
       <c r="B46" t="n">
-        <v>98535</v>
+        <v>89845</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -5742,25 +5742,25 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>222498</v>
+        <v>1209</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I46" t="inlineStr"/>
@@ -5771,10 +5771,10 @@
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>550869.8149192812</v>
+        <v>550958.3735980184</v>
       </c>
       <c r="R46" t="n">
-        <v>7001960.172576382</v>
+        <v>7001915.437287232</v>
       </c>
       <c r="S46" t="n">
         <v>25</v>
@@ -5806,7 +5806,7 @@
       </c>
       <c r="Z46" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>16:07</t>
         </is>
       </c>
       <c r="AA46" t="inlineStr">
@@ -5816,7 +5816,7 @@
       </c>
       <c r="AB46" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>16:07</t>
         </is>
       </c>
       <c r="AD46" t="b">
@@ -5843,10 +5843,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>111425789</v>
+        <v>111425037</v>
       </c>
       <c r="B47" t="n">
-        <v>99413</v>
+        <v>89845</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -5855,25 +5855,25 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>221235</v>
+        <v>1209</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Vårärt</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Lathyrus vernus</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>(L.) Bernh.</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I47" t="inlineStr"/>
@@ -5884,10 +5884,10 @@
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>550964.3063330664</v>
+        <v>551037.0775894802</v>
       </c>
       <c r="R47" t="n">
-        <v>7001941.308390027</v>
+        <v>7001950.143101228</v>
       </c>
       <c r="S47" t="n">
         <v>25</v>
@@ -5919,7 +5919,7 @@
       </c>
       <c r="Z47" t="inlineStr">
         <is>
-          <t>15:34</t>
+          <t>15:16</t>
         </is>
       </c>
       <c r="AA47" t="inlineStr">
@@ -5929,7 +5929,7 @@
       </c>
       <c r="AB47" t="inlineStr">
         <is>
-          <t>15:34</t>
+          <t>15:16</t>
         </is>
       </c>
       <c r="AD47" t="b">
@@ -8103,10 +8103,10 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>111420370</v>
+        <v>111424030</v>
       </c>
       <c r="B67" t="n">
-        <v>96348</v>
+        <v>78578</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -8115,25 +8115,25 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E67" t="n">
-        <v>220787</v>
+        <v>6458</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I67" t="inlineStr"/>
@@ -8144,10 +8144,10 @@
         </is>
       </c>
       <c r="Q67" t="n">
-        <v>550722.7296859198</v>
+        <v>551011.8102739404</v>
       </c>
       <c r="R67" t="n">
-        <v>7002214.271300747</v>
+        <v>7002059.18440557</v>
       </c>
       <c r="S67" t="n">
         <v>25</v>
@@ -8179,7 +8179,7 @@
       </c>
       <c r="Z67" t="inlineStr">
         <is>
-          <t>11:36</t>
+          <t>13:55</t>
         </is>
       </c>
       <c r="AA67" t="inlineStr">
@@ -8189,7 +8189,12 @@
       </c>
       <c r="AB67" t="inlineStr">
         <is>
-          <t>11:36</t>
+          <t>13:55</t>
+        </is>
+      </c>
+      <c r="AC67" t="inlineStr">
+        <is>
+          <t>På björk</t>
         </is>
       </c>
       <c r="AD67" t="b">
@@ -8216,10 +8221,10 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>111424030</v>
+        <v>111420370</v>
       </c>
       <c r="B68" t="n">
-        <v>78578</v>
+        <v>96348</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -8228,25 +8233,25 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E68" t="n">
-        <v>6458</v>
+        <v>220787</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I68" t="inlineStr"/>
@@ -8257,10 +8262,10 @@
         </is>
       </c>
       <c r="Q68" t="n">
-        <v>551011.8102739404</v>
+        <v>550722.7296859198</v>
       </c>
       <c r="R68" t="n">
-        <v>7002059.18440557</v>
+        <v>7002214.271300747</v>
       </c>
       <c r="S68" t="n">
         <v>25</v>
@@ -8292,7 +8297,7 @@
       </c>
       <c r="Z68" t="inlineStr">
         <is>
-          <t>13:55</t>
+          <t>11:36</t>
         </is>
       </c>
       <c r="AA68" t="inlineStr">
@@ -8302,12 +8307,7 @@
       </c>
       <c r="AB68" t="inlineStr">
         <is>
-          <t>13:55</t>
-        </is>
-      </c>
-      <c r="AC68" t="inlineStr">
-        <is>
-          <t>På björk</t>
+          <t>11:36</t>
         </is>
       </c>
       <c r="AD68" t="b">
@@ -9130,10 +9130,10 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>111423560</v>
+        <v>111421391</v>
       </c>
       <c r="B76" t="n">
-        <v>94134</v>
+        <v>78578</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -9146,21 +9146,21 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>53</v>
+        <v>6458</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I76" t="inlineStr"/>
@@ -9171,10 +9171,10 @@
         </is>
       </c>
       <c r="Q76" t="n">
-        <v>550948.589889885</v>
+        <v>550825.6664593286</v>
       </c>
       <c r="R76" t="n">
-        <v>7001990.354570261</v>
+        <v>7002060.778115767</v>
       </c>
       <c r="S76" t="n">
         <v>25</v>
@@ -9206,7 +9206,7 @@
       </c>
       <c r="Z76" t="inlineStr">
         <is>
-          <t>13:55</t>
+          <t>12:18</t>
         </is>
       </c>
       <c r="AA76" t="inlineStr">
@@ -9216,7 +9216,12 @@
       </c>
       <c r="AB76" t="inlineStr">
         <is>
-          <t>13:55</t>
+          <t>12:18</t>
+        </is>
+      </c>
+      <c r="AC76" t="inlineStr">
+        <is>
+          <t>På asp</t>
         </is>
       </c>
       <c r="AD76" t="b">
@@ -9243,10 +9248,10 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>111424441</v>
+        <v>111423560</v>
       </c>
       <c r="B77" t="n">
-        <v>96348</v>
+        <v>94134</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -9255,25 +9260,25 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E77" t="n">
-        <v>220787</v>
+        <v>53</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I77" t="inlineStr"/>
@@ -9284,10 +9289,10 @@
         </is>
       </c>
       <c r="Q77" t="n">
-        <v>551054.6486243291</v>
+        <v>550948.589889885</v>
       </c>
       <c r="R77" t="n">
-        <v>7002070.713193813</v>
+        <v>7001990.354570261</v>
       </c>
       <c r="S77" t="n">
         <v>25</v>
@@ -9319,7 +9324,7 @@
       </c>
       <c r="Z77" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>13:55</t>
         </is>
       </c>
       <c r="AA77" t="inlineStr">
@@ -9329,7 +9334,7 @@
       </c>
       <c r="AB77" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>13:55</t>
         </is>
       </c>
       <c r="AD77" t="b">
@@ -9356,7 +9361,7 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>111428138</v>
+        <v>111424441</v>
       </c>
       <c r="B78" t="n">
         <v>96348</v>
@@ -9397,10 +9402,10 @@
         </is>
       </c>
       <c r="Q78" t="n">
-        <v>550809.7857848165</v>
+        <v>551054.6486243291</v>
       </c>
       <c r="R78" t="n">
-        <v>7001918.528248113</v>
+        <v>7002070.713193813</v>
       </c>
       <c r="S78" t="n">
         <v>25</v>
@@ -9432,7 +9437,7 @@
       </c>
       <c r="Z78" t="inlineStr">
         <is>
-          <t>17:39</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA78" t="inlineStr">
@@ -9442,7 +9447,7 @@
       </c>
       <c r="AB78" t="inlineStr">
         <is>
-          <t>17:39</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD78" t="b">
@@ -9469,10 +9474,10 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>111421391</v>
+        <v>111428138</v>
       </c>
       <c r="B79" t="n">
-        <v>78578</v>
+        <v>96348</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -9481,25 +9486,25 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E79" t="n">
-        <v>6458</v>
+        <v>220787</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I79" t="inlineStr"/>
@@ -9510,10 +9515,10 @@
         </is>
       </c>
       <c r="Q79" t="n">
-        <v>550825.6664593286</v>
+        <v>550809.7857848165</v>
       </c>
       <c r="R79" t="n">
-        <v>7002060.778115767</v>
+        <v>7001918.528248113</v>
       </c>
       <c r="S79" t="n">
         <v>25</v>
@@ -9545,7 +9550,7 @@
       </c>
       <c r="Z79" t="inlineStr">
         <is>
-          <t>12:18</t>
+          <t>17:39</t>
         </is>
       </c>
       <c r="AA79" t="inlineStr">
@@ -9555,12 +9560,7 @@
       </c>
       <c r="AB79" t="inlineStr">
         <is>
-          <t>12:18</t>
-        </is>
-      </c>
-      <c r="AC79" t="inlineStr">
-        <is>
-          <t>På asp</t>
+          <t>17:39</t>
         </is>
       </c>
       <c r="AD79" t="b">

--- a/artfynd/A 57003-2022.xlsx
+++ b/artfynd/A 57003-2022.xlsx
@@ -1186,10 +1186,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111426042</v>
+        <v>111420645</v>
       </c>
       <c r="B6" t="n">
-        <v>98535</v>
+        <v>96348</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1198,25 +1198,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>222498</v>
+        <v>220787</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1227,10 +1227,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>550956.02874151</v>
+        <v>550733.9986858405</v>
       </c>
       <c r="R6" t="n">
-        <v>7001949.318344167</v>
+        <v>7002188.6724778</v>
       </c>
       <c r="S6" t="n">
         <v>25</v>
@@ -1262,7 +1262,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>15:34</t>
+          <t>11:51</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -1272,7 +1272,7 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>15:34</t>
+          <t>11:51</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1299,10 +1299,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111420481</v>
+        <v>111422023</v>
       </c>
       <c r="B7" t="n">
-        <v>96381</v>
+        <v>90666</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1315,21 +1315,21 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>219874</v>
+        <v>4364</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Nattviol</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Platanthera bifolia</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1340,10 +1340,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>550727.9291679059</v>
+        <v>550845.9433502604</v>
       </c>
       <c r="R7" t="n">
-        <v>7002200.33458891</v>
+        <v>7002124.859161366</v>
       </c>
       <c r="S7" t="n">
         <v>25</v>
@@ -1375,7 +1375,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>11:36</t>
+          <t>12:18</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -1385,7 +1385,7 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>11:36</t>
+          <t>12:18</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1412,10 +1412,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111422950</v>
+        <v>111424144</v>
       </c>
       <c r="B8" t="n">
-        <v>96348</v>
+        <v>95532</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1424,25 +1424,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>220787</v>
+        <v>221945</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lycopodium annotinum</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1453,10 +1453,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>550849.6384025981</v>
+        <v>551057.4254629152</v>
       </c>
       <c r="R8" t="n">
-        <v>7001976.135959106</v>
+        <v>7002095.629051142</v>
       </c>
       <c r="S8" t="n">
         <v>25</v>
@@ -1488,7 +1488,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>13:55</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -1498,7 +1498,7 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>13:55</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1525,10 +1525,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111423943</v>
+        <v>111424976</v>
       </c>
       <c r="B9" t="n">
-        <v>77267</v>
+        <v>78578</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1541,21 +1541,21 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6446</v>
+        <v>6458</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1566,10 +1566,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>550983.7409033215</v>
+        <v>551037.0775894802</v>
       </c>
       <c r="R9" t="n">
-        <v>7002058.742119073</v>
+        <v>7001950.143101228</v>
       </c>
       <c r="S9" t="n">
         <v>25</v>
@@ -1601,7 +1601,7 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>13:55</t>
+          <t>14:55</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -1611,7 +1611,12 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>13:55</t>
+          <t>14:55</t>
+        </is>
+      </c>
+      <c r="AC9" t="inlineStr">
+        <is>
+          <t>På asp</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1638,10 +1643,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111422303</v>
+        <v>111421054</v>
       </c>
       <c r="B10" t="n">
-        <v>89405</v>
+        <v>96348</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1650,25 +1655,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>1202</v>
+        <v>220787</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1679,10 +1684,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>550866.5625217154</v>
+        <v>550741.937658608</v>
       </c>
       <c r="R10" t="n">
-        <v>7002138.297294092</v>
+        <v>7002115.539248759</v>
       </c>
       <c r="S10" t="n">
         <v>25</v>
@@ -1714,7 +1719,7 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>12:18</t>
+          <t>12:09</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -1724,7 +1729,7 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>12:18</t>
+          <t>12:09</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1751,10 +1756,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111423316</v>
+        <v>111420660</v>
       </c>
       <c r="B11" t="n">
-        <v>96348</v>
+        <v>77267</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1763,25 +1768,25 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>220787</v>
+        <v>6446</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1792,10 +1797,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>550887.953173755</v>
+        <v>550733.9986858405</v>
       </c>
       <c r="R11" t="n">
-        <v>7001958.648759932</v>
+        <v>7002188.6724778</v>
       </c>
       <c r="S11" t="n">
         <v>25</v>
@@ -1827,7 +1832,7 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>13:55</t>
+          <t>11:51</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
@@ -1837,7 +1842,7 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>13:55</t>
+          <t>11:51</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1864,10 +1869,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111422600</v>
+        <v>111425959</v>
       </c>
       <c r="B12" t="n">
-        <v>77186</v>
+        <v>98535</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1876,25 +1881,25 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>353</v>
+        <v>222498</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Dvärgbägarlav</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Cladonia parasitica</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Hoffm.) Hoffm.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1905,10 +1910,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>550737.1374797915</v>
+        <v>550955.3723719715</v>
       </c>
       <c r="R12" t="n">
-        <v>7002017.332277133</v>
+        <v>7001933.479667452</v>
       </c>
       <c r="S12" t="n">
         <v>25</v>
@@ -1940,7 +1945,7 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>12:18</t>
+          <t>15:34</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
@@ -1950,7 +1955,7 @@
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>12:18</t>
+          <t>15:34</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1977,10 +1982,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111424650</v>
+        <v>111426308</v>
       </c>
       <c r="B13" t="n">
-        <v>96348</v>
+        <v>89405</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1989,25 +1994,25 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>220787</v>
+        <v>1202</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -2018,10 +2023,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>551057.4223798013</v>
+        <v>550958.3735980184</v>
       </c>
       <c r="R13" t="n">
-        <v>7002009.706558069</v>
+        <v>7001915.437287232</v>
       </c>
       <c r="S13" t="n">
         <v>25</v>
@@ -2053,7 +2058,7 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>14:55</t>
+          <t>16:07</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
@@ -2063,7 +2068,7 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>14:55</t>
+          <t>16:07</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2090,10 +2095,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111423749</v>
+        <v>111425793</v>
       </c>
       <c r="B14" t="n">
-        <v>78578</v>
+        <v>98535</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2102,25 +2107,25 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>6458</v>
+        <v>222498</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2131,10 +2136,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>550953.7324835873</v>
+        <v>550964.3063330664</v>
       </c>
       <c r="R14" t="n">
-        <v>7002066.409536021</v>
+        <v>7001941.308390027</v>
       </c>
       <c r="S14" t="n">
         <v>25</v>
@@ -2166,7 +2171,7 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>13:55</t>
+          <t>15:34</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
@@ -2176,12 +2181,7 @@
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>13:55</t>
-        </is>
-      </c>
-      <c r="AC14" t="inlineStr">
-        <is>
-          <t>På asp</t>
+          <t>15:34</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2208,10 +2208,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111426486</v>
+        <v>111420481</v>
       </c>
       <c r="B15" t="n">
-        <v>98446</v>
+        <v>96381</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2224,21 +2224,21 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>222771</v>
+        <v>219874</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Svart trolldruva</t>
+          <t>Nattviol</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Actaea spicata</t>
+          <t>Platanthera bifolia</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2249,10 +2249,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>550941.2588680513</v>
+        <v>550727.9291679059</v>
       </c>
       <c r="R15" t="n">
-        <v>7001938.232138845</v>
+        <v>7002200.33458891</v>
       </c>
       <c r="S15" t="n">
         <v>25</v>
@@ -2284,7 +2284,7 @@
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>16:08</t>
+          <t>11:36</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
@@ -2294,7 +2294,7 @@
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>16:08</t>
+          <t>11:36</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2321,10 +2321,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111425527</v>
+        <v>111424910</v>
       </c>
       <c r="B16" t="n">
-        <v>99413</v>
+        <v>78578</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2333,25 +2333,25 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>221235</v>
+        <v>6458</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Vårärt</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Lathyrus vernus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(L.) Bernh.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2362,10 +2362,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>550954.7515832841</v>
+        <v>551057.2480807917</v>
       </c>
       <c r="R16" t="n">
-        <v>7001915.380264779</v>
+        <v>7001934.632864759</v>
       </c>
       <c r="S16" t="n">
         <v>25</v>
@@ -2397,7 +2397,7 @@
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>15:16</t>
+          <t>14:55</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
@@ -2407,7 +2407,12 @@
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>15:16</t>
+          <t>14:55</t>
+        </is>
+      </c>
+      <c r="AC16" t="inlineStr">
+        <is>
+          <t>På asp</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2434,10 +2439,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111427787</v>
+        <v>111421283</v>
       </c>
       <c r="B17" t="n">
-        <v>98535</v>
+        <v>96348</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2446,25 +2451,25 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>222498</v>
+        <v>220787</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2475,10 +2480,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>550907.3809405958</v>
+        <v>550786.6251378106</v>
       </c>
       <c r="R17" t="n">
-        <v>7001932.724492302</v>
+        <v>7002066.94856437</v>
       </c>
       <c r="S17" t="n">
         <v>25</v>
@@ -2510,7 +2515,7 @@
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>16:41</t>
+          <t>12:18</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
@@ -2520,7 +2525,7 @@
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>16:41</t>
+          <t>12:18</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2547,10 +2552,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111426015</v>
+        <v>111420370</v>
       </c>
       <c r="B18" t="n">
-        <v>98446</v>
+        <v>96348</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2559,25 +2564,25 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>222771</v>
+        <v>220787</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Svart trolldruva</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Actaea spicata</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2588,10 +2593,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>550956.02874151</v>
+        <v>550722.7296859198</v>
       </c>
       <c r="R18" t="n">
-        <v>7001949.318344167</v>
+        <v>7002214.271300747</v>
       </c>
       <c r="S18" t="n">
         <v>25</v>
@@ -2623,7 +2628,7 @@
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>15:34</t>
+          <t>11:36</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
@@ -2633,7 +2638,7 @@
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>15:34</t>
+          <t>11:36</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2660,10 +2665,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111424976</v>
+        <v>111423113</v>
       </c>
       <c r="B19" t="n">
-        <v>78578</v>
+        <v>99413</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2672,28 +2677,32 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>6458</v>
+        <v>221235</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Vårärt</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Lathyrus vernus</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr"/>
+          <t>(L.) Bernh.</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="K19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
@@ -2701,10 +2710,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>551037.0775894802</v>
+        <v>550880.707108345</v>
       </c>
       <c r="R19" t="n">
-        <v>7001950.143101228</v>
+        <v>7001987.477793725</v>
       </c>
       <c r="S19" t="n">
         <v>25</v>
@@ -2736,7 +2745,7 @@
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>14:55</t>
+          <t>13:40</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
@@ -2746,12 +2755,7 @@
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>14:55</t>
-        </is>
-      </c>
-      <c r="AC19" t="inlineStr">
-        <is>
-          <t>På asp</t>
+          <t>13:40</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2778,10 +2782,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111421528</v>
+        <v>111423236</v>
       </c>
       <c r="B20" t="n">
-        <v>78578</v>
+        <v>94134</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2794,21 +2798,21 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>6458</v>
+        <v>53</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2819,10 +2823,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>550826.5844548051</v>
+        <v>550869.8149192812</v>
       </c>
       <c r="R20" t="n">
-        <v>7002088.830120047</v>
+        <v>7001960.172576382</v>
       </c>
       <c r="S20" t="n">
         <v>25</v>
@@ -2854,7 +2858,7 @@
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>12:18</t>
+          <t>13:40</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
@@ -2864,7 +2868,7 @@
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>12:18</t>
+          <t>13:40</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2891,10 +2895,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111427617</v>
+        <v>111425789</v>
       </c>
       <c r="B21" t="n">
-        <v>98535</v>
+        <v>99413</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2907,21 +2911,21 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>222498</v>
+        <v>221235</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Vårärt</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Lathyrus vernus</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(L.) Bernh.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2932,10 +2936,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>550925.5549388798</v>
+        <v>550964.3063330664</v>
       </c>
       <c r="R21" t="n">
-        <v>7001928.940230627</v>
+        <v>7001941.308390027</v>
       </c>
       <c r="S21" t="n">
         <v>25</v>
@@ -2967,7 +2971,7 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>16:41</t>
+          <t>15:34</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
@@ -2977,7 +2981,7 @@
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>16:41</t>
+          <t>15:34</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -3004,10 +3008,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111424910</v>
+        <v>111425786</v>
       </c>
       <c r="B22" t="n">
-        <v>78578</v>
+        <v>98446</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3016,25 +3020,25 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>6458</v>
+        <v>222771</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Svart trolldruva</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Actaea spicata</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -3045,10 +3049,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>551057.2480807917</v>
+        <v>550964.3063330664</v>
       </c>
       <c r="R22" t="n">
-        <v>7001934.632864759</v>
+        <v>7001941.308390027</v>
       </c>
       <c r="S22" t="n">
         <v>25</v>
@@ -3080,7 +3084,7 @@
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>14:55</t>
+          <t>15:34</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
@@ -3090,12 +3094,7 @@
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>14:55</t>
-        </is>
-      </c>
-      <c r="AC22" t="inlineStr">
-        <is>
-          <t>På asp</t>
+          <t>15:34</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3122,10 +3121,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111423417</v>
+        <v>111420310</v>
       </c>
       <c r="B23" t="n">
-        <v>94134</v>
+        <v>96348</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3134,25 +3133,25 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>53</v>
+        <v>220787</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -3163,10 +3162,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>550901.6754341319</v>
+        <v>550710.25923741</v>
       </c>
       <c r="R23" t="n">
-        <v>7001978.762844464</v>
+        <v>7002200.962073827</v>
       </c>
       <c r="S23" t="n">
         <v>25</v>
@@ -3198,7 +3197,7 @@
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>13:55</t>
+          <t>11:25</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
@@ -3208,7 +3207,7 @@
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>13:55</t>
+          <t>11:25</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3235,10 +3234,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111422023</v>
+        <v>111422303</v>
       </c>
       <c r="B24" t="n">
-        <v>90666</v>
+        <v>89405</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3247,25 +3246,25 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>4364</v>
+        <v>1202</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -3276,10 +3275,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>550845.9433502604</v>
+        <v>550866.5625217154</v>
       </c>
       <c r="R24" t="n">
-        <v>7002124.859161366</v>
+        <v>7002138.297294092</v>
       </c>
       <c r="S24" t="n">
         <v>25</v>
@@ -3348,7 +3347,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111420835</v>
+        <v>111426562</v>
       </c>
       <c r="B25" t="n">
         <v>96348</v>
@@ -3389,10 +3388,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>550732.0319218244</v>
+        <v>550976.2344434585</v>
       </c>
       <c r="R25" t="n">
-        <v>7002198.590094371</v>
+        <v>7001931.546968644</v>
       </c>
       <c r="S25" t="n">
         <v>25</v>
@@ -3424,7 +3423,7 @@
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>11:56</t>
+          <t>16:17</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
@@ -3434,7 +3433,7 @@
       </c>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>11:56</t>
+          <t>16:17</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3461,10 +3460,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111420310</v>
+        <v>111421391</v>
       </c>
       <c r="B26" t="n">
-        <v>96348</v>
+        <v>78578</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3473,25 +3472,25 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>220787</v>
+        <v>6458</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
@@ -3502,10 +3501,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>550710.25923741</v>
+        <v>550825.6664593286</v>
       </c>
       <c r="R26" t="n">
-        <v>7002200.962073827</v>
+        <v>7002060.778115767</v>
       </c>
       <c r="S26" t="n">
         <v>25</v>
@@ -3537,7 +3536,7 @@
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>11:25</t>
+          <t>12:18</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
@@ -3547,7 +3546,12 @@
       </c>
       <c r="AB26" t="inlineStr">
         <is>
-          <t>11:25</t>
+          <t>12:18</t>
+        </is>
+      </c>
+      <c r="AC26" t="inlineStr">
+        <is>
+          <t>På asp</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -3574,10 +3578,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111426031</v>
+        <v>111421528</v>
       </c>
       <c r="B27" t="n">
-        <v>99413</v>
+        <v>78578</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3586,25 +3590,25 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>221235</v>
+        <v>6458</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Vårärt</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Lathyrus vernus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(L.) Bernh.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -3615,10 +3619,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>550956.02874151</v>
+        <v>550826.5844548051</v>
       </c>
       <c r="R27" t="n">
-        <v>7001949.318344167</v>
+        <v>7002088.830120047</v>
       </c>
       <c r="S27" t="n">
         <v>25</v>
@@ -3650,7 +3654,7 @@
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>15:34</t>
+          <t>12:18</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
@@ -3660,7 +3664,7 @@
       </c>
       <c r="AB27" t="inlineStr">
         <is>
-          <t>15:34</t>
+          <t>12:18</t>
         </is>
       </c>
       <c r="AD27" t="b">
@@ -3687,10 +3691,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111426302</v>
+        <v>111421571</v>
       </c>
       <c r="B28" t="n">
-        <v>89686</v>
+        <v>78605</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3699,25 +3703,25 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>658</v>
+        <v>6462</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
@@ -3728,10 +3732,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>550960.5946457037</v>
+        <v>550832.3776022838</v>
       </c>
       <c r="R28" t="n">
-        <v>7001918.185706819</v>
+        <v>7002094.799920618</v>
       </c>
       <c r="S28" t="n">
         <v>25</v>
@@ -3763,7 +3767,7 @@
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>16:07</t>
+          <t>12:18</t>
         </is>
       </c>
       <c r="AA28" t="inlineStr">
@@ -3773,7 +3777,7 @@
       </c>
       <c r="AB28" t="inlineStr">
         <is>
-          <t>16:07</t>
+          <t>12:18</t>
         </is>
       </c>
       <c r="AD28" t="b">
@@ -3800,10 +3804,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111425926</v>
+        <v>111423316</v>
       </c>
       <c r="B29" t="n">
-        <v>98446</v>
+        <v>96348</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3812,25 +3816,25 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>222771</v>
+        <v>220787</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Svart trolldruva</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Actaea spicata</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
@@ -3841,10 +3845,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>550954.7515832841</v>
+        <v>550887.953173755</v>
       </c>
       <c r="R29" t="n">
-        <v>7001915.380264779</v>
+        <v>7001958.648759932</v>
       </c>
       <c r="S29" t="n">
         <v>25</v>
@@ -3876,7 +3880,7 @@
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>15:34</t>
+          <t>13:55</t>
         </is>
       </c>
       <c r="AA29" t="inlineStr">
@@ -3886,7 +3890,7 @@
       </c>
       <c r="AB29" t="inlineStr">
         <is>
-          <t>15:34</t>
+          <t>13:55</t>
         </is>
       </c>
       <c r="AD29" t="b">
@@ -3913,7 +3917,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111425951</v>
+        <v>111425527</v>
       </c>
       <c r="B30" t="n">
         <v>99413</v>
@@ -3954,10 +3958,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>550955.3723719715</v>
+        <v>550954.7515832841</v>
       </c>
       <c r="R30" t="n">
-        <v>7001933.479667452</v>
+        <v>7001915.380264779</v>
       </c>
       <c r="S30" t="n">
         <v>25</v>
@@ -3989,7 +3993,7 @@
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>15:34</t>
+          <t>15:16</t>
         </is>
       </c>
       <c r="AA30" t="inlineStr">
@@ -3999,7 +4003,7 @@
       </c>
       <c r="AB30" t="inlineStr">
         <is>
-          <t>15:34</t>
+          <t>15:16</t>
         </is>
       </c>
       <c r="AD30" t="b">
@@ -4026,10 +4030,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>111423236</v>
+        <v>111426031</v>
       </c>
       <c r="B31" t="n">
-        <v>94134</v>
+        <v>99413</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -4038,25 +4042,25 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>53</v>
+        <v>221235</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Vårärt</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Lathyrus vernus</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>(L.) Bernh.</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
@@ -4067,10 +4071,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>550869.8149192812</v>
+        <v>550956.02874151</v>
       </c>
       <c r="R31" t="n">
-        <v>7001960.172576382</v>
+        <v>7001949.318344167</v>
       </c>
       <c r="S31" t="n">
         <v>25</v>
@@ -4102,7 +4106,7 @@
       </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>15:34</t>
         </is>
       </c>
       <c r="AA31" t="inlineStr">
@@ -4112,7 +4116,7 @@
       </c>
       <c r="AB31" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>15:34</t>
         </is>
       </c>
       <c r="AD31" t="b">
@@ -4139,10 +4143,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>111420595</v>
+        <v>111426015</v>
       </c>
       <c r="B32" t="n">
-        <v>96348</v>
+        <v>98446</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4151,25 +4155,25 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>220787</v>
+        <v>222771</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Svart trolldruva</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Actaea spicata</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
@@ -4180,10 +4184,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>550711.6321998269</v>
+        <v>550956.02874151</v>
       </c>
       <c r="R32" t="n">
-        <v>7002171.138182109</v>
+        <v>7001949.318344167</v>
       </c>
       <c r="S32" t="n">
         <v>25</v>
@@ -4215,7 +4219,7 @@
       </c>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>11:47</t>
+          <t>15:34</t>
         </is>
       </c>
       <c r="AA32" t="inlineStr">
@@ -4225,7 +4229,7 @@
       </c>
       <c r="AB32" t="inlineStr">
         <is>
-          <t>11:47</t>
+          <t>15:34</t>
         </is>
       </c>
       <c r="AD32" t="b">
@@ -4252,10 +4256,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>111425553</v>
+        <v>111425926</v>
       </c>
       <c r="B33" t="n">
-        <v>103396</v>
+        <v>98446</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4264,25 +4268,25 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>674</v>
+        <v>222771</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Myskmåra</t>
+          <t>Svart trolldruva</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Galium triflorum</t>
+          <t>Actaea spicata</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Michx.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
@@ -4328,7 +4332,7 @@
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>15:16</t>
+          <t>15:34</t>
         </is>
       </c>
       <c r="AA33" t="inlineStr">
@@ -4338,7 +4342,7 @@
       </c>
       <c r="AB33" t="inlineStr">
         <is>
-          <t>15:16</t>
+          <t>15:34</t>
         </is>
       </c>
       <c r="AD33" t="b">
@@ -4365,10 +4369,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>111423113</v>
+        <v>111423417</v>
       </c>
       <c r="B34" t="n">
-        <v>99413</v>
+        <v>94134</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4377,32 +4381,28 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>221235</v>
+        <v>53</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Vårärt</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Lathyrus vernus</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(L.) Bernh.</t>
-        </is>
-      </c>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+          <t>(Nees ex Lindenb.) Meyl.</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
       <c r="P34" t="inlineStr">
         <is>
@@ -4410,10 +4410,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>550880.707108345</v>
+        <v>550901.6754341319</v>
       </c>
       <c r="R34" t="n">
-        <v>7001987.477793725</v>
+        <v>7001978.762844464</v>
       </c>
       <c r="S34" t="n">
         <v>25</v>
@@ -4445,7 +4445,7 @@
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>13:55</t>
         </is>
       </c>
       <c r="AA34" t="inlineStr">
@@ -4455,7 +4455,7 @@
       </c>
       <c r="AB34" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>13:55</t>
         </is>
       </c>
       <c r="AD34" t="b">
@@ -4482,10 +4482,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>111426308</v>
+        <v>111424030</v>
       </c>
       <c r="B35" t="n">
-        <v>89405</v>
+        <v>78578</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4498,21 +4498,21 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>1202</v>
+        <v>6458</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
@@ -4523,10 +4523,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>550958.3735980184</v>
+        <v>551011.8102739404</v>
       </c>
       <c r="R35" t="n">
-        <v>7001915.437287232</v>
+        <v>7002059.18440557</v>
       </c>
       <c r="S35" t="n">
         <v>25</v>
@@ -4558,7 +4558,7 @@
       </c>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>16:07</t>
+          <t>13:55</t>
         </is>
       </c>
       <c r="AA35" t="inlineStr">
@@ -4568,7 +4568,12 @@
       </c>
       <c r="AB35" t="inlineStr">
         <is>
-          <t>16:07</t>
+          <t>13:55</t>
+        </is>
+      </c>
+      <c r="AC35" t="inlineStr">
+        <is>
+          <t>På björk</t>
         </is>
       </c>
       <c r="AD35" t="b">
@@ -4595,7 +4600,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>111426562</v>
+        <v>111424441</v>
       </c>
       <c r="B36" t="n">
         <v>96348</v>
@@ -4636,10 +4641,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>550976.2344434585</v>
+        <v>551054.6486243291</v>
       </c>
       <c r="R36" t="n">
-        <v>7001931.546968644</v>
+        <v>7002070.713193813</v>
       </c>
       <c r="S36" t="n">
         <v>25</v>
@@ -4671,7 +4676,7 @@
       </c>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>16:17</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA36" t="inlineStr">
@@ -4681,7 +4686,7 @@
       </c>
       <c r="AB36" t="inlineStr">
         <is>
-          <t>16:17</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD36" t="b">
@@ -4708,10 +4713,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>111420645</v>
+        <v>111420477</v>
       </c>
       <c r="B37" t="n">
-        <v>96348</v>
+        <v>89405</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4720,25 +4725,25 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>220787</v>
+        <v>1202</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
@@ -4749,10 +4754,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>550733.9986858405</v>
+        <v>550727.9291679059</v>
       </c>
       <c r="R37" t="n">
-        <v>7002188.6724778</v>
+        <v>7002200.33458891</v>
       </c>
       <c r="S37" t="n">
         <v>25</v>
@@ -4784,7 +4789,7 @@
       </c>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>11:51</t>
+          <t>11:36</t>
         </is>
       </c>
       <c r="AA37" t="inlineStr">
@@ -4794,7 +4799,7 @@
       </c>
       <c r="AB37" t="inlineStr">
         <is>
-          <t>11:51</t>
+          <t>11:36</t>
         </is>
       </c>
       <c r="AD37" t="b">
@@ -4821,10 +4826,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>111422067</v>
+        <v>111422950</v>
       </c>
       <c r="B38" t="n">
-        <v>77515</v>
+        <v>96348</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -4833,25 +4838,25 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>6425</v>
+        <v>220787</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
@@ -4862,10 +4867,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>550845.9433502604</v>
+        <v>550849.6384025981</v>
       </c>
       <c r="R38" t="n">
-        <v>7002124.859161366</v>
+        <v>7001976.135959106</v>
       </c>
       <c r="S38" t="n">
         <v>25</v>
@@ -4897,7 +4902,7 @@
       </c>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>12:18</t>
+          <t>13:40</t>
         </is>
       </c>
       <c r="AA38" t="inlineStr">
@@ -4907,12 +4912,7 @@
       </c>
       <c r="AB38" t="inlineStr">
         <is>
-          <t>12:18</t>
-        </is>
-      </c>
-      <c r="AC38" t="inlineStr">
-        <is>
-          <t>På tall</t>
+          <t>13:40</t>
         </is>
       </c>
       <c r="AD38" t="b">
@@ -4939,10 +4939,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>111420869</v>
+        <v>111425285</v>
       </c>
       <c r="B39" t="n">
-        <v>89405</v>
+        <v>98535</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -4951,25 +4951,25 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>1202</v>
+        <v>222498</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
@@ -4980,10 +4980,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>550741.937658608</v>
+        <v>550974.800833688</v>
       </c>
       <c r="R39" t="n">
-        <v>7002115.539248759</v>
+        <v>7001907.55558978</v>
       </c>
       <c r="S39" t="n">
         <v>25</v>
@@ -5015,7 +5015,7 @@
       </c>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>11:56</t>
+          <t>15:16</t>
         </is>
       </c>
       <c r="AA39" t="inlineStr">
@@ -5025,7 +5025,7 @@
       </c>
       <c r="AB39" t="inlineStr">
         <is>
-          <t>11:56</t>
+          <t>15:16</t>
         </is>
       </c>
       <c r="AD39" t="b">
@@ -5052,10 +5052,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>111421476</v>
+        <v>111425548</v>
       </c>
       <c r="B40" t="n">
-        <v>77186</v>
+        <v>98535</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -5064,25 +5064,25 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>353</v>
+        <v>222498</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Dvärgbägarlav</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Cladonia parasitica</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(Hoffm.) Hoffm.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
@@ -5093,10 +5093,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>550808.5392307156</v>
+        <v>550954.7515832841</v>
       </c>
       <c r="R40" t="n">
-        <v>7002084.47682756</v>
+        <v>7001915.380264779</v>
       </c>
       <c r="S40" t="n">
         <v>25</v>
@@ -5128,7 +5128,7 @@
       </c>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>12:18</t>
+          <t>15:16</t>
         </is>
       </c>
       <c r="AA40" t="inlineStr">
@@ -5138,7 +5138,7 @@
       </c>
       <c r="AB40" t="inlineStr">
         <is>
-          <t>12:18</t>
+          <t>15:16</t>
         </is>
       </c>
       <c r="AD40" t="b">
@@ -5165,10 +5165,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>111423255</v>
+        <v>111425553</v>
       </c>
       <c r="B41" t="n">
-        <v>98535</v>
+        <v>103396</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -5177,25 +5177,25 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>222498</v>
+        <v>674</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Myskmåra</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Galium triflorum</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>Michx.</t>
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
@@ -5206,10 +5206,10 @@
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>550869.8149192812</v>
+        <v>550954.7515832841</v>
       </c>
       <c r="R41" t="n">
-        <v>7001960.172576382</v>
+        <v>7001915.380264779</v>
       </c>
       <c r="S41" t="n">
         <v>25</v>
@@ -5241,7 +5241,7 @@
       </c>
       <c r="Z41" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>15:16</t>
         </is>
       </c>
       <c r="AA41" t="inlineStr">
@@ -5251,7 +5251,7 @@
       </c>
       <c r="AB41" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>15:16</t>
         </is>
       </c>
       <c r="AD41" t="b">
@@ -5278,7 +5278,7 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>111425789</v>
+        <v>111425951</v>
       </c>
       <c r="B42" t="n">
         <v>99413</v>
@@ -5319,10 +5319,10 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>550964.3063330664</v>
+        <v>550955.3723719715</v>
       </c>
       <c r="R42" t="n">
-        <v>7001941.308390027</v>
+        <v>7001933.479667452</v>
       </c>
       <c r="S42" t="n">
         <v>25</v>
@@ -5391,10 +5391,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>111427222</v>
+        <v>111427783</v>
       </c>
       <c r="B43" t="n">
-        <v>98535</v>
+        <v>99413</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -5407,21 +5407,21 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>222498</v>
+        <v>221235</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Vårärt</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Lathyrus vernus</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(L.) Bernh.</t>
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
@@ -5432,10 +5432,10 @@
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>550980.9358707955</v>
+        <v>550907.3809405958</v>
       </c>
       <c r="R43" t="n">
-        <v>7001891.823664788</v>
+        <v>7001932.724492302</v>
       </c>
       <c r="S43" t="n">
         <v>25</v>
@@ -5504,7 +5504,7 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>111427612</v>
+        <v>111427779</v>
       </c>
       <c r="B44" t="n">
         <v>98446</v>
@@ -5545,10 +5545,10 @@
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>550925.5549388798</v>
+        <v>550907.3809405958</v>
       </c>
       <c r="R44" t="n">
-        <v>7001928.940230627</v>
+        <v>7001932.724492302</v>
       </c>
       <c r="S44" t="n">
         <v>25</v>
@@ -5617,10 +5617,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>111425793</v>
+        <v>111422067</v>
       </c>
       <c r="B45" t="n">
-        <v>98535</v>
+        <v>77515</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -5629,25 +5629,25 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>222498</v>
+        <v>6425</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I45" t="inlineStr"/>
@@ -5658,10 +5658,10 @@
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>550964.3063330664</v>
+        <v>550845.9433502604</v>
       </c>
       <c r="R45" t="n">
-        <v>7001941.308390027</v>
+        <v>7002124.859161366</v>
       </c>
       <c r="S45" t="n">
         <v>25</v>
@@ -5693,7 +5693,7 @@
       </c>
       <c r="Z45" t="inlineStr">
         <is>
-          <t>15:34</t>
+          <t>12:18</t>
         </is>
       </c>
       <c r="AA45" t="inlineStr">
@@ -5703,7 +5703,12 @@
       </c>
       <c r="AB45" t="inlineStr">
         <is>
-          <t>15:34</t>
+          <t>12:18</t>
+        </is>
+      </c>
+      <c r="AC45" t="inlineStr">
+        <is>
+          <t>På tall</t>
         </is>
       </c>
       <c r="AD45" t="b">
@@ -5730,10 +5735,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>111426315</v>
+        <v>111420835</v>
       </c>
       <c r="B46" t="n">
-        <v>89845</v>
+        <v>96348</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -5746,21 +5751,21 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>1209</v>
+        <v>220787</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I46" t="inlineStr"/>
@@ -5771,10 +5776,10 @@
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>550958.3735980184</v>
+        <v>550732.0319218244</v>
       </c>
       <c r="R46" t="n">
-        <v>7001915.437287232</v>
+        <v>7002198.590094371</v>
       </c>
       <c r="S46" t="n">
         <v>25</v>
@@ -5806,7 +5811,7 @@
       </c>
       <c r="Z46" t="inlineStr">
         <is>
-          <t>16:07</t>
+          <t>11:56</t>
         </is>
       </c>
       <c r="AA46" t="inlineStr">
@@ -5816,7 +5821,7 @@
       </c>
       <c r="AB46" t="inlineStr">
         <is>
-          <t>16:07</t>
+          <t>11:56</t>
         </is>
       </c>
       <c r="AD46" t="b">
@@ -5843,10 +5848,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>111425037</v>
+        <v>111423343</v>
       </c>
       <c r="B47" t="n">
-        <v>89845</v>
+        <v>98535</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -5855,25 +5860,25 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>1209</v>
+        <v>222498</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I47" t="inlineStr"/>
@@ -5884,10 +5889,10 @@
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>551037.0775894802</v>
+        <v>550911.6997848416</v>
       </c>
       <c r="R47" t="n">
-        <v>7001950.143101228</v>
+        <v>7001974.850411222</v>
       </c>
       <c r="S47" t="n">
         <v>25</v>
@@ -5919,7 +5924,7 @@
       </c>
       <c r="Z47" t="inlineStr">
         <is>
-          <t>15:16</t>
+          <t>13:55</t>
         </is>
       </c>
       <c r="AA47" t="inlineStr">
@@ -5929,7 +5934,7 @@
       </c>
       <c r="AB47" t="inlineStr">
         <is>
-          <t>15:16</t>
+          <t>13:55</t>
         </is>
       </c>
       <c r="AD47" t="b">
@@ -5956,10 +5961,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>111421283</v>
+        <v>111423460</v>
       </c>
       <c r="B48" t="n">
-        <v>96348</v>
+        <v>98535</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -5968,25 +5973,25 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>220787</v>
+        <v>222498</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I48" t="inlineStr"/>
@@ -5997,10 +6002,10 @@
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>550786.6251378106</v>
+        <v>550919.8847323675</v>
       </c>
       <c r="R48" t="n">
-        <v>7002066.94856437</v>
+        <v>7001972.718000742</v>
       </c>
       <c r="S48" t="n">
         <v>25</v>
@@ -6032,7 +6037,7 @@
       </c>
       <c r="Z48" t="inlineStr">
         <is>
-          <t>12:18</t>
+          <t>13:55</t>
         </is>
       </c>
       <c r="AA48" t="inlineStr">
@@ -6042,7 +6047,7 @@
       </c>
       <c r="AB48" t="inlineStr">
         <is>
-          <t>12:18</t>
+          <t>13:55</t>
         </is>
       </c>
       <c r="AD48" t="b">
@@ -6069,10 +6074,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>111420859</v>
+        <v>111427787</v>
       </c>
       <c r="B49" t="n">
-        <v>89686</v>
+        <v>98535</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -6081,25 +6086,25 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>658</v>
+        <v>222498</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
@@ -6110,10 +6115,10 @@
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>550742.1573915739</v>
+        <v>550907.3809405958</v>
       </c>
       <c r="R49" t="n">
-        <v>7002101.524058201</v>
+        <v>7001932.724492302</v>
       </c>
       <c r="S49" t="n">
         <v>25</v>
@@ -6145,7 +6150,7 @@
       </c>
       <c r="Z49" t="inlineStr">
         <is>
-          <t>11:56</t>
+          <t>16:41</t>
         </is>
       </c>
       <c r="AA49" t="inlineStr">
@@ -6155,7 +6160,7 @@
       </c>
       <c r="AB49" t="inlineStr">
         <is>
-          <t>11:56</t>
+          <t>16:41</t>
         </is>
       </c>
       <c r="AD49" t="b">
@@ -6182,10 +6187,10 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>111424331</v>
+        <v>111426396</v>
       </c>
       <c r="B50" t="n">
-        <v>78605</v>
+        <v>103396</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -6194,25 +6199,25 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>6462</v>
+        <v>674</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Myskmåra</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Galium triflorum</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>Michx.</t>
         </is>
       </c>
       <c r="I50" t="inlineStr"/>
@@ -6223,10 +6228,10 @@
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>551041.1344693471</v>
+        <v>550951.5040298713</v>
       </c>
       <c r="R50" t="n">
-        <v>7002037.487754084</v>
+        <v>7001920.303799121</v>
       </c>
       <c r="S50" t="n">
         <v>25</v>
@@ -6258,7 +6263,7 @@
       </c>
       <c r="Z50" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>16:08</t>
         </is>
       </c>
       <c r="AA50" t="inlineStr">
@@ -6268,7 +6273,7 @@
       </c>
       <c r="AB50" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>16:08</t>
         </is>
       </c>
       <c r="AD50" t="b">
@@ -6295,10 +6300,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>111423460</v>
+        <v>111427612</v>
       </c>
       <c r="B51" t="n">
-        <v>98535</v>
+        <v>98446</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -6311,21 +6316,21 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>222498</v>
+        <v>222771</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Svart trolldruva</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Actaea spicata</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I51" t="inlineStr"/>
@@ -6336,10 +6341,10 @@
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>550919.8847323675</v>
+        <v>550925.5549388798</v>
       </c>
       <c r="R51" t="n">
-        <v>7001972.718000742</v>
+        <v>7001928.940230627</v>
       </c>
       <c r="S51" t="n">
         <v>25</v>
@@ -6371,7 +6376,7 @@
       </c>
       <c r="Z51" t="inlineStr">
         <is>
-          <t>13:55</t>
+          <t>16:41</t>
         </is>
       </c>
       <c r="AA51" t="inlineStr">
@@ -6381,7 +6386,7 @@
       </c>
       <c r="AB51" t="inlineStr">
         <is>
-          <t>13:55</t>
+          <t>16:41</t>
         </is>
       </c>
       <c r="AD51" t="b">
@@ -6408,10 +6413,10 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>111425889</v>
+        <v>111425313</v>
       </c>
       <c r="B52" t="n">
-        <v>98446</v>
+        <v>78578</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -6420,25 +6425,25 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>222771</v>
+        <v>6458</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Svart trolldruva</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Actaea spicata</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I52" t="inlineStr"/>
@@ -6449,10 +6454,10 @@
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>550964.3063330664</v>
+        <v>550974.800833688</v>
       </c>
       <c r="R52" t="n">
-        <v>7001941.308390027</v>
+        <v>7001907.55558978</v>
       </c>
       <c r="S52" t="n">
         <v>25</v>
@@ -6484,7 +6489,7 @@
       </c>
       <c r="Z52" t="inlineStr">
         <is>
-          <t>15:34</t>
+          <t>15:16</t>
         </is>
       </c>
       <c r="AA52" t="inlineStr">
@@ -6494,7 +6499,7 @@
       </c>
       <c r="AB52" t="inlineStr">
         <is>
-          <t>15:34</t>
+          <t>15:16</t>
         </is>
       </c>
       <c r="AD52" t="b">
@@ -6521,10 +6526,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>111425548</v>
+        <v>111426315</v>
       </c>
       <c r="B53" t="n">
-        <v>98535</v>
+        <v>89845</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -6533,25 +6538,25 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>222498</v>
+        <v>1209</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I53" t="inlineStr"/>
@@ -6562,10 +6567,10 @@
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>550954.7515832841</v>
+        <v>550958.3735980184</v>
       </c>
       <c r="R53" t="n">
-        <v>7001915.380264779</v>
+        <v>7001915.437287232</v>
       </c>
       <c r="S53" t="n">
         <v>25</v>
@@ -6597,7 +6602,7 @@
       </c>
       <c r="Z53" t="inlineStr">
         <is>
-          <t>15:16</t>
+          <t>16:07</t>
         </is>
       </c>
       <c r="AA53" t="inlineStr">
@@ -6607,7 +6612,7 @@
       </c>
       <c r="AB53" t="inlineStr">
         <is>
-          <t>15:16</t>
+          <t>16:07</t>
         </is>
       </c>
       <c r="AD53" t="b">
@@ -6634,10 +6639,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>111423343</v>
+        <v>111426302</v>
       </c>
       <c r="B54" t="n">
-        <v>98535</v>
+        <v>89686</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -6646,25 +6651,25 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>222498</v>
+        <v>658</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I54" t="inlineStr"/>
@@ -6675,10 +6680,10 @@
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>550911.6997848416</v>
+        <v>550960.5946457037</v>
       </c>
       <c r="R54" t="n">
-        <v>7001974.850411222</v>
+        <v>7001918.185706819</v>
       </c>
       <c r="S54" t="n">
         <v>25</v>
@@ -6710,7 +6715,7 @@
       </c>
       <c r="Z54" t="inlineStr">
         <is>
-          <t>13:55</t>
+          <t>16:07</t>
         </is>
       </c>
       <c r="AA54" t="inlineStr">
@@ -6720,7 +6725,7 @@
       </c>
       <c r="AB54" t="inlineStr">
         <is>
-          <t>13:55</t>
+          <t>16:07</t>
         </is>
       </c>
       <c r="AD54" t="b">
@@ -6747,10 +6752,10 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>111424256</v>
+        <v>111423560</v>
       </c>
       <c r="B55" t="n">
-        <v>78605</v>
+        <v>94134</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -6759,25 +6764,25 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>6462</v>
+        <v>53</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I55" t="inlineStr"/>
@@ -6788,10 +6793,10 @@
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>551048.5278099331</v>
+        <v>550948.589889885</v>
       </c>
       <c r="R55" t="n">
-        <v>7002085.539900199</v>
+        <v>7001990.354570261</v>
       </c>
       <c r="S55" t="n">
         <v>25</v>
@@ -6860,10 +6865,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>111427783</v>
+        <v>111423943</v>
       </c>
       <c r="B56" t="n">
-        <v>99413</v>
+        <v>77267</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -6872,25 +6877,25 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>221235</v>
+        <v>6446</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Vårärt</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Lathyrus vernus</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>(L.) Bernh.</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I56" t="inlineStr"/>
@@ -6901,10 +6906,10 @@
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>550907.3809405958</v>
+        <v>550983.7409033215</v>
       </c>
       <c r="R56" t="n">
-        <v>7001932.724492302</v>
+        <v>7002058.742119073</v>
       </c>
       <c r="S56" t="n">
         <v>25</v>
@@ -6936,7 +6941,7 @@
       </c>
       <c r="Z56" t="inlineStr">
         <is>
-          <t>16:41</t>
+          <t>13:55</t>
         </is>
       </c>
       <c r="AA56" t="inlineStr">
@@ -6946,7 +6951,7 @@
       </c>
       <c r="AB56" t="inlineStr">
         <is>
-          <t>16:41</t>
+          <t>13:55</t>
         </is>
       </c>
       <c r="AD56" t="b">
@@ -6973,10 +6978,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>111425313</v>
+        <v>111420869</v>
       </c>
       <c r="B57" t="n">
-        <v>78578</v>
+        <v>89405</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -6989,21 +6994,21 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>6458</v>
+        <v>1202</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I57" t="inlineStr"/>
@@ -7014,10 +7019,10 @@
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>550974.800833688</v>
+        <v>550741.937658608</v>
       </c>
       <c r="R57" t="n">
-        <v>7001907.55558978</v>
+        <v>7002115.539248759</v>
       </c>
       <c r="S57" t="n">
         <v>25</v>
@@ -7049,7 +7054,7 @@
       </c>
       <c r="Z57" t="inlineStr">
         <is>
-          <t>15:16</t>
+          <t>11:56</t>
         </is>
       </c>
       <c r="AA57" t="inlineStr">
@@ -7059,7 +7064,7 @@
       </c>
       <c r="AB57" t="inlineStr">
         <is>
-          <t>15:16</t>
+          <t>11:56</t>
         </is>
       </c>
       <c r="AD57" t="b">
@@ -7086,10 +7091,10 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>111426396</v>
+        <v>111421480</v>
       </c>
       <c r="B58" t="n">
-        <v>103396</v>
+        <v>78107</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -7102,21 +7107,21 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>674</v>
+        <v>6453</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Myskmåra</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Galium triflorum</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Michx.</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I58" t="inlineStr"/>
@@ -7127,10 +7132,10 @@
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>550951.5040298713</v>
+        <v>550808.5392307156</v>
       </c>
       <c r="R58" t="n">
-        <v>7001920.303799121</v>
+        <v>7002084.47682756</v>
       </c>
       <c r="S58" t="n">
         <v>25</v>
@@ -7162,7 +7167,7 @@
       </c>
       <c r="Z58" t="inlineStr">
         <is>
-          <t>16:08</t>
+          <t>12:18</t>
         </is>
       </c>
       <c r="AA58" t="inlineStr">
@@ -7172,7 +7177,7 @@
       </c>
       <c r="AB58" t="inlineStr">
         <is>
-          <t>16:08</t>
+          <t>12:18</t>
         </is>
       </c>
       <c r="AD58" t="b">
@@ -7199,10 +7204,10 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>111425158</v>
+        <v>111422600</v>
       </c>
       <c r="B59" t="n">
-        <v>89845</v>
+        <v>77186</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -7211,25 +7216,25 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E59" t="n">
-        <v>1209</v>
+        <v>353</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Dvärgbägarlav</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Cladonia parasitica</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(Hoffm.) Hoffm.</t>
         </is>
       </c>
       <c r="I59" t="inlineStr"/>
@@ -7240,10 +7245,10 @@
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>551009.5203002443</v>
+        <v>550737.1374797915</v>
       </c>
       <c r="R59" t="n">
-        <v>7001917.147422009</v>
+        <v>7002017.332277133</v>
       </c>
       <c r="S59" t="n">
         <v>25</v>
@@ -7275,7 +7280,7 @@
       </c>
       <c r="Z59" t="inlineStr">
         <is>
-          <t>15:16</t>
+          <t>12:18</t>
         </is>
       </c>
       <c r="AA59" t="inlineStr">
@@ -7285,7 +7290,7 @@
       </c>
       <c r="AB59" t="inlineStr">
         <is>
-          <t>15:16</t>
+          <t>12:18</t>
         </is>
       </c>
       <c r="AD59" t="b">
@@ -7312,7 +7317,7 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>111425285</v>
+        <v>111423255</v>
       </c>
       <c r="B60" t="n">
         <v>98535</v>
@@ -7353,10 +7358,10 @@
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>550974.800833688</v>
+        <v>550869.8149192812</v>
       </c>
       <c r="R60" t="n">
-        <v>7001907.55558978</v>
+        <v>7001960.172576382</v>
       </c>
       <c r="S60" t="n">
         <v>25</v>
@@ -7388,7 +7393,7 @@
       </c>
       <c r="Z60" t="inlineStr">
         <is>
-          <t>15:16</t>
+          <t>13:40</t>
         </is>
       </c>
       <c r="AA60" t="inlineStr">
@@ -7398,7 +7403,7 @@
       </c>
       <c r="AB60" t="inlineStr">
         <is>
-          <t>15:16</t>
+          <t>13:40</t>
         </is>
       </c>
       <c r="AD60" t="b">
@@ -7425,10 +7430,10 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>111421480</v>
+        <v>111425158</v>
       </c>
       <c r="B61" t="n">
-        <v>78107</v>
+        <v>89845</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -7437,25 +7442,25 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E61" t="n">
-        <v>6453</v>
+        <v>1209</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I61" t="inlineStr"/>
@@ -7466,10 +7471,10 @@
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>550808.5392307156</v>
+        <v>551009.5203002443</v>
       </c>
       <c r="R61" t="n">
-        <v>7002084.47682756</v>
+        <v>7001917.147422009</v>
       </c>
       <c r="S61" t="n">
         <v>25</v>
@@ -7501,7 +7506,7 @@
       </c>
       <c r="Z61" t="inlineStr">
         <is>
-          <t>12:18</t>
+          <t>15:16</t>
         </is>
       </c>
       <c r="AA61" t="inlineStr">
@@ -7511,7 +7516,7 @@
       </c>
       <c r="AB61" t="inlineStr">
         <is>
-          <t>12:18</t>
+          <t>15:16</t>
         </is>
       </c>
       <c r="AD61" t="b">
@@ -7538,10 +7543,10 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>111421054</v>
+        <v>111425037</v>
       </c>
       <c r="B62" t="n">
-        <v>96348</v>
+        <v>89845</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -7554,21 +7559,21 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>220787</v>
+        <v>1209</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I62" t="inlineStr"/>
@@ -7579,10 +7584,10 @@
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>550741.937658608</v>
+        <v>551037.0775894802</v>
       </c>
       <c r="R62" t="n">
-        <v>7002115.539248759</v>
+        <v>7001950.143101228</v>
       </c>
       <c r="S62" t="n">
         <v>25</v>
@@ -7614,7 +7619,7 @@
       </c>
       <c r="Z62" t="inlineStr">
         <is>
-          <t>12:09</t>
+          <t>15:16</t>
         </is>
       </c>
       <c r="AA62" t="inlineStr">
@@ -7624,7 +7629,7 @@
       </c>
       <c r="AB62" t="inlineStr">
         <is>
-          <t>12:09</t>
+          <t>15:16</t>
         </is>
       </c>
       <c r="AD62" t="b">
@@ -7651,10 +7656,10 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>111424144</v>
+        <v>111420595</v>
       </c>
       <c r="B63" t="n">
-        <v>95532</v>
+        <v>96348</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -7663,25 +7668,25 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E63" t="n">
-        <v>221945</v>
+        <v>220787</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Lycopodium annotinum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I63" t="inlineStr"/>
@@ -7692,10 +7697,10 @@
         </is>
       </c>
       <c r="Q63" t="n">
-        <v>551057.4254629152</v>
+        <v>550711.6321998269</v>
       </c>
       <c r="R63" t="n">
-        <v>7002095.629051142</v>
+        <v>7002171.138182109</v>
       </c>
       <c r="S63" t="n">
         <v>25</v>
@@ -7727,7 +7732,7 @@
       </c>
       <c r="Z63" t="inlineStr">
         <is>
-          <t>13:55</t>
+          <t>11:47</t>
         </is>
       </c>
       <c r="AA63" t="inlineStr">
@@ -7737,7 +7742,7 @@
       </c>
       <c r="AB63" t="inlineStr">
         <is>
-          <t>13:55</t>
+          <t>11:47</t>
         </is>
       </c>
       <c r="AD63" t="b">
@@ -7764,7 +7769,7 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>111424103</v>
+        <v>111424960</v>
       </c>
       <c r="B64" t="n">
         <v>94134</v>
@@ -7805,10 +7810,10 @@
         </is>
       </c>
       <c r="Q64" t="n">
-        <v>551037.3771583335</v>
+        <v>551037.0775894802</v>
       </c>
       <c r="R64" t="n">
-        <v>7002103.452742142</v>
+        <v>7001950.143101228</v>
       </c>
       <c r="S64" t="n">
         <v>25</v>
@@ -7840,7 +7845,7 @@
       </c>
       <c r="Z64" t="inlineStr">
         <is>
-          <t>13:55</t>
+          <t>14:55</t>
         </is>
       </c>
       <c r="AA64" t="inlineStr">
@@ -7850,7 +7855,7 @@
       </c>
       <c r="AB64" t="inlineStr">
         <is>
-          <t>13:55</t>
+          <t>14:55</t>
         </is>
       </c>
       <c r="AD64" t="b">
@@ -7877,7 +7882,7 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>111427779</v>
+        <v>111426486</v>
       </c>
       <c r="B65" t="n">
         <v>98446</v>
@@ -7918,10 +7923,10 @@
         </is>
       </c>
       <c r="Q65" t="n">
-        <v>550907.3809405958</v>
+        <v>550941.2588680513</v>
       </c>
       <c r="R65" t="n">
-        <v>7001932.724492302</v>
+        <v>7001938.232138845</v>
       </c>
       <c r="S65" t="n">
         <v>25</v>
@@ -7953,7 +7958,7 @@
       </c>
       <c r="Z65" t="inlineStr">
         <is>
-          <t>16:41</t>
+          <t>16:08</t>
         </is>
       </c>
       <c r="AA65" t="inlineStr">
@@ -7963,7 +7968,7 @@
       </c>
       <c r="AB65" t="inlineStr">
         <is>
-          <t>16:41</t>
+          <t>16:08</t>
         </is>
       </c>
       <c r="AD65" t="b">
@@ -7990,10 +7995,10 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>111424960</v>
+        <v>111427222</v>
       </c>
       <c r="B66" t="n">
-        <v>94134</v>
+        <v>98535</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -8002,25 +8007,25 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E66" t="n">
-        <v>53</v>
+        <v>222498</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I66" t="inlineStr"/>
@@ -8031,10 +8036,10 @@
         </is>
       </c>
       <c r="Q66" t="n">
-        <v>551037.0775894802</v>
+        <v>550980.9358707955</v>
       </c>
       <c r="R66" t="n">
-        <v>7001950.143101228</v>
+        <v>7001891.823664788</v>
       </c>
       <c r="S66" t="n">
         <v>25</v>
@@ -8066,7 +8071,7 @@
       </c>
       <c r="Z66" t="inlineStr">
         <is>
-          <t>14:55</t>
+          <t>16:41</t>
         </is>
       </c>
       <c r="AA66" t="inlineStr">
@@ -8076,7 +8081,7 @@
       </c>
       <c r="AB66" t="inlineStr">
         <is>
-          <t>14:55</t>
+          <t>16:41</t>
         </is>
       </c>
       <c r="AD66" t="b">
@@ -8103,10 +8108,10 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>111424030</v>
+        <v>111428138</v>
       </c>
       <c r="B67" t="n">
-        <v>78578</v>
+        <v>96348</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -8115,25 +8120,25 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E67" t="n">
-        <v>6458</v>
+        <v>220787</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I67" t="inlineStr"/>
@@ -8144,10 +8149,10 @@
         </is>
       </c>
       <c r="Q67" t="n">
-        <v>551011.8102739404</v>
+        <v>550809.7857848165</v>
       </c>
       <c r="R67" t="n">
-        <v>7002059.18440557</v>
+        <v>7001918.528248113</v>
       </c>
       <c r="S67" t="n">
         <v>25</v>
@@ -8179,7 +8184,7 @@
       </c>
       <c r="Z67" t="inlineStr">
         <is>
-          <t>13:55</t>
+          <t>17:39</t>
         </is>
       </c>
       <c r="AA67" t="inlineStr">
@@ -8189,12 +8194,7 @@
       </c>
       <c r="AB67" t="inlineStr">
         <is>
-          <t>13:55</t>
-        </is>
-      </c>
-      <c r="AC67" t="inlineStr">
-        <is>
-          <t>På björk</t>
+          <t>17:39</t>
         </is>
       </c>
       <c r="AD67" t="b">
@@ -8221,10 +8221,10 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>111420370</v>
+        <v>111421476</v>
       </c>
       <c r="B68" t="n">
-        <v>96348</v>
+        <v>77186</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -8233,25 +8233,25 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E68" t="n">
-        <v>220787</v>
+        <v>353</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Dvärgbägarlav</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Cladonia parasitica</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Hoffm.) Hoffm.</t>
         </is>
       </c>
       <c r="I68" t="inlineStr"/>
@@ -8262,10 +8262,10 @@
         </is>
       </c>
       <c r="Q68" t="n">
-        <v>550722.7296859198</v>
+        <v>550808.5392307156</v>
       </c>
       <c r="R68" t="n">
-        <v>7002214.271300747</v>
+        <v>7002084.47682756</v>
       </c>
       <c r="S68" t="n">
         <v>25</v>
@@ -8297,7 +8297,7 @@
       </c>
       <c r="Z68" t="inlineStr">
         <is>
-          <t>11:36</t>
+          <t>12:18</t>
         </is>
       </c>
       <c r="AA68" t="inlineStr">
@@ -8307,7 +8307,7 @@
       </c>
       <c r="AB68" t="inlineStr">
         <is>
-          <t>11:36</t>
+          <t>12:18</t>
         </is>
       </c>
       <c r="AD68" t="b">
@@ -8334,10 +8334,10 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>111425959</v>
+        <v>111424103</v>
       </c>
       <c r="B69" t="n">
-        <v>98535</v>
+        <v>94134</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -8346,25 +8346,25 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E69" t="n">
-        <v>222498</v>
+        <v>53</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I69" t="inlineStr"/>
@@ -8375,10 +8375,10 @@
         </is>
       </c>
       <c r="Q69" t="n">
-        <v>550955.3723719715</v>
+        <v>551037.3771583335</v>
       </c>
       <c r="R69" t="n">
-        <v>7001933.479667452</v>
+        <v>7002103.452742142</v>
       </c>
       <c r="S69" t="n">
         <v>25</v>
@@ -8410,7 +8410,7 @@
       </c>
       <c r="Z69" t="inlineStr">
         <is>
-          <t>15:34</t>
+          <t>13:55</t>
         </is>
       </c>
       <c r="AA69" t="inlineStr">
@@ -8420,7 +8420,7 @@
       </c>
       <c r="AB69" t="inlineStr">
         <is>
-          <t>15:34</t>
+          <t>13:55</t>
         </is>
       </c>
       <c r="AD69" t="b">
@@ -8447,10 +8447,10 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>111427126</v>
+        <v>111420859</v>
       </c>
       <c r="B70" t="n">
-        <v>78578</v>
+        <v>89686</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -8463,21 +8463,21 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>6458</v>
+        <v>658</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I70" t="inlineStr"/>
@@ -8488,10 +8488,10 @@
         </is>
       </c>
       <c r="Q70" t="n">
-        <v>550960.5946457037</v>
+        <v>550742.1573915739</v>
       </c>
       <c r="R70" t="n">
-        <v>7001918.185706819</v>
+        <v>7002101.524058201</v>
       </c>
       <c r="S70" t="n">
         <v>25</v>
@@ -8523,7 +8523,7 @@
       </c>
       <c r="Z70" t="inlineStr">
         <is>
-          <t>16:41</t>
+          <t>11:56</t>
         </is>
       </c>
       <c r="AA70" t="inlineStr">
@@ -8533,7 +8533,7 @@
       </c>
       <c r="AB70" t="inlineStr">
         <is>
-          <t>16:41</t>
+          <t>11:56</t>
         </is>
       </c>
       <c r="AD70" t="b">
@@ -8560,10 +8560,10 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>111427034</v>
+        <v>111424256</v>
       </c>
       <c r="B71" t="n">
-        <v>96348</v>
+        <v>78605</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -8572,25 +8572,25 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E71" t="n">
-        <v>220787</v>
+        <v>6462</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I71" t="inlineStr"/>
@@ -8601,10 +8601,10 @@
         </is>
       </c>
       <c r="Q71" t="n">
-        <v>550961.4004867796</v>
+        <v>551048.5278099331</v>
       </c>
       <c r="R71" t="n">
-        <v>7001924.529771334</v>
+        <v>7002085.539900199</v>
       </c>
       <c r="S71" t="n">
         <v>25</v>
@@ -8636,7 +8636,7 @@
       </c>
       <c r="Z71" t="inlineStr">
         <is>
-          <t>16:41</t>
+          <t>13:55</t>
         </is>
       </c>
       <c r="AA71" t="inlineStr">
@@ -8646,7 +8646,7 @@
       </c>
       <c r="AB71" t="inlineStr">
         <is>
-          <t>16:41</t>
+          <t>13:55</t>
         </is>
       </c>
       <c r="AD71" t="b">
@@ -8673,10 +8673,10 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>111421571</v>
+        <v>111427617</v>
       </c>
       <c r="B72" t="n">
-        <v>78605</v>
+        <v>98535</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -8689,21 +8689,21 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>6462</v>
+        <v>222498</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I72" t="inlineStr"/>
@@ -8714,10 +8714,10 @@
         </is>
       </c>
       <c r="Q72" t="n">
-        <v>550832.3776022838</v>
+        <v>550925.5549388798</v>
       </c>
       <c r="R72" t="n">
-        <v>7002094.799920618</v>
+        <v>7001928.940230627</v>
       </c>
       <c r="S72" t="n">
         <v>25</v>
@@ -8749,7 +8749,7 @@
       </c>
       <c r="Z72" t="inlineStr">
         <is>
-          <t>12:18</t>
+          <t>16:41</t>
         </is>
       </c>
       <c r="AA72" t="inlineStr">
@@ -8759,7 +8759,7 @@
       </c>
       <c r="AB72" t="inlineStr">
         <is>
-          <t>12:18</t>
+          <t>16:41</t>
         </is>
       </c>
       <c r="AD72" t="b">
@@ -8786,10 +8786,10 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>111420477</v>
+        <v>111424650</v>
       </c>
       <c r="B73" t="n">
-        <v>89405</v>
+        <v>96348</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -8798,25 +8798,25 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E73" t="n">
-        <v>1202</v>
+        <v>220787</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I73" t="inlineStr"/>
@@ -8827,10 +8827,10 @@
         </is>
       </c>
       <c r="Q73" t="n">
-        <v>550727.9291679059</v>
+        <v>551057.4223798013</v>
       </c>
       <c r="R73" t="n">
-        <v>7002200.33458891</v>
+        <v>7002009.706558069</v>
       </c>
       <c r="S73" t="n">
         <v>25</v>
@@ -8862,7 +8862,7 @@
       </c>
       <c r="Z73" t="inlineStr">
         <is>
-          <t>11:36</t>
+          <t>14:55</t>
         </is>
       </c>
       <c r="AA73" t="inlineStr">
@@ -8872,7 +8872,7 @@
       </c>
       <c r="AB73" t="inlineStr">
         <is>
-          <t>11:36</t>
+          <t>14:55</t>
         </is>
       </c>
       <c r="AD73" t="b">
@@ -8899,10 +8899,10 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>111420660</v>
+        <v>111427126</v>
       </c>
       <c r="B74" t="n">
-        <v>77267</v>
+        <v>78578</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -8915,21 +8915,21 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>6446</v>
+        <v>6458</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I74" t="inlineStr"/>
@@ -8940,10 +8940,10 @@
         </is>
       </c>
       <c r="Q74" t="n">
-        <v>550733.9986858405</v>
+        <v>550960.5946457037</v>
       </c>
       <c r="R74" t="n">
-        <v>7002188.6724778</v>
+        <v>7001918.185706819</v>
       </c>
       <c r="S74" t="n">
         <v>25</v>
@@ -8975,7 +8975,7 @@
       </c>
       <c r="Z74" t="inlineStr">
         <is>
-          <t>11:51</t>
+          <t>16:41</t>
         </is>
       </c>
       <c r="AA74" t="inlineStr">
@@ -8985,7 +8985,7 @@
       </c>
       <c r="AB74" t="inlineStr">
         <is>
-          <t>11:51</t>
+          <t>16:41</t>
         </is>
       </c>
       <c r="AD74" t="b">
@@ -9012,10 +9012,10 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>111424253</v>
+        <v>111427034</v>
       </c>
       <c r="B75" t="n">
-        <v>89965</v>
+        <v>96348</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -9028,21 +9028,21 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>760</v>
+        <v>220787</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Doftticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>Haploporus odorus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>(Sommerf.) Bondartsev &amp; Singer</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I75" t="inlineStr"/>
@@ -9053,10 +9053,10 @@
         </is>
       </c>
       <c r="Q75" t="n">
-        <v>551048.5278099331</v>
+        <v>550961.4004867796</v>
       </c>
       <c r="R75" t="n">
-        <v>7002085.539900199</v>
+        <v>7001924.529771334</v>
       </c>
       <c r="S75" t="n">
         <v>25</v>
@@ -9088,7 +9088,7 @@
       </c>
       <c r="Z75" t="inlineStr">
         <is>
-          <t>13:55</t>
+          <t>16:41</t>
         </is>
       </c>
       <c r="AA75" t="inlineStr">
@@ -9098,12 +9098,7 @@
       </c>
       <c r="AB75" t="inlineStr">
         <is>
-          <t>13:55</t>
-        </is>
-      </c>
-      <c r="AC75" t="inlineStr">
-        <is>
-          <t>Liten väldoftande fruktkropp på sälg som fallit</t>
+          <t>16:41</t>
         </is>
       </c>
       <c r="AD75" t="b">
@@ -9130,10 +9125,10 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>111421391</v>
+        <v>111426042</v>
       </c>
       <c r="B76" t="n">
-        <v>78578</v>
+        <v>98535</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -9142,25 +9137,25 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E76" t="n">
-        <v>6458</v>
+        <v>222498</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I76" t="inlineStr"/>
@@ -9171,10 +9166,10 @@
         </is>
       </c>
       <c r="Q76" t="n">
-        <v>550825.6664593286</v>
+        <v>550956.02874151</v>
       </c>
       <c r="R76" t="n">
-        <v>7002060.778115767</v>
+        <v>7001949.318344167</v>
       </c>
       <c r="S76" t="n">
         <v>25</v>
@@ -9206,7 +9201,7 @@
       </c>
       <c r="Z76" t="inlineStr">
         <is>
-          <t>12:18</t>
+          <t>15:34</t>
         </is>
       </c>
       <c r="AA76" t="inlineStr">
@@ -9216,12 +9211,7 @@
       </c>
       <c r="AB76" t="inlineStr">
         <is>
-          <t>12:18</t>
-        </is>
-      </c>
-      <c r="AC76" t="inlineStr">
-        <is>
-          <t>På asp</t>
+          <t>15:34</t>
         </is>
       </c>
       <c r="AD76" t="b">
@@ -9248,10 +9238,10 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>111423560</v>
+        <v>111424331</v>
       </c>
       <c r="B77" t="n">
-        <v>94134</v>
+        <v>78605</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -9260,25 +9250,25 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E77" t="n">
-        <v>53</v>
+        <v>6462</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I77" t="inlineStr"/>
@@ -9289,10 +9279,10 @@
         </is>
       </c>
       <c r="Q77" t="n">
-        <v>550948.589889885</v>
+        <v>551041.1344693471</v>
       </c>
       <c r="R77" t="n">
-        <v>7001990.354570261</v>
+        <v>7002037.487754084</v>
       </c>
       <c r="S77" t="n">
         <v>25</v>
@@ -9324,7 +9314,7 @@
       </c>
       <c r="Z77" t="inlineStr">
         <is>
-          <t>13:55</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA77" t="inlineStr">
@@ -9334,7 +9324,7 @@
       </c>
       <c r="AB77" t="inlineStr">
         <is>
-          <t>13:55</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD77" t="b">
@@ -9361,10 +9351,10 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>111424441</v>
+        <v>111423749</v>
       </c>
       <c r="B78" t="n">
-        <v>96348</v>
+        <v>78578</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -9373,25 +9363,25 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E78" t="n">
-        <v>220787</v>
+        <v>6458</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I78" t="inlineStr"/>
@@ -9402,10 +9392,10 @@
         </is>
       </c>
       <c r="Q78" t="n">
-        <v>551054.6486243291</v>
+        <v>550953.7324835873</v>
       </c>
       <c r="R78" t="n">
-        <v>7002070.713193813</v>
+        <v>7002066.409536021</v>
       </c>
       <c r="S78" t="n">
         <v>25</v>
@@ -9437,7 +9427,7 @@
       </c>
       <c r="Z78" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>13:55</t>
         </is>
       </c>
       <c r="AA78" t="inlineStr">
@@ -9447,7 +9437,12 @@
       </c>
       <c r="AB78" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>13:55</t>
+        </is>
+      </c>
+      <c r="AC78" t="inlineStr">
+        <is>
+          <t>På asp</t>
         </is>
       </c>
       <c r="AD78" t="b">
@@ -9474,10 +9469,10 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>111428138</v>
+        <v>111424253</v>
       </c>
       <c r="B79" t="n">
-        <v>96348</v>
+        <v>89965</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -9490,21 +9485,21 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>220787</v>
+        <v>760</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Doftticka</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Haploporus odorus</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Sommerf.) Bondartsev &amp; Singer</t>
         </is>
       </c>
       <c r="I79" t="inlineStr"/>
@@ -9515,10 +9510,10 @@
         </is>
       </c>
       <c r="Q79" t="n">
-        <v>550809.7857848165</v>
+        <v>551048.5278099331</v>
       </c>
       <c r="R79" t="n">
-        <v>7001918.528248113</v>
+        <v>7002085.539900199</v>
       </c>
       <c r="S79" t="n">
         <v>25</v>
@@ -9550,7 +9545,7 @@
       </c>
       <c r="Z79" t="inlineStr">
         <is>
-          <t>17:39</t>
+          <t>13:55</t>
         </is>
       </c>
       <c r="AA79" t="inlineStr">
@@ -9560,7 +9555,12 @@
       </c>
       <c r="AB79" t="inlineStr">
         <is>
-          <t>17:39</t>
+          <t>13:55</t>
+        </is>
+      </c>
+      <c r="AC79" t="inlineStr">
+        <is>
+          <t>Liten väldoftande fruktkropp på sälg som fallit</t>
         </is>
       </c>
       <c r="AD79" t="b">

--- a/artfynd/A 57003-2022.xlsx
+++ b/artfynd/A 57003-2022.xlsx
@@ -3234,10 +3234,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111422303</v>
+        <v>111426562</v>
       </c>
       <c r="B24" t="n">
-        <v>89405</v>
+        <v>96348</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3246,25 +3246,25 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>1202</v>
+        <v>220787</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -3275,10 +3275,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>550866.5625217154</v>
+        <v>550976.2344434585</v>
       </c>
       <c r="R24" t="n">
-        <v>7002138.297294092</v>
+        <v>7001931.546968644</v>
       </c>
       <c r="S24" t="n">
         <v>25</v>
@@ -3310,7 +3310,7 @@
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>12:18</t>
+          <t>16:17</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
@@ -3320,7 +3320,7 @@
       </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>12:18</t>
+          <t>16:17</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3347,10 +3347,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111426562</v>
+        <v>111421391</v>
       </c>
       <c r="B25" t="n">
-        <v>96348</v>
+        <v>78578</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3359,25 +3359,25 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>220787</v>
+        <v>6458</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3388,10 +3388,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>550976.2344434585</v>
+        <v>550825.6664593286</v>
       </c>
       <c r="R25" t="n">
-        <v>7001931.546968644</v>
+        <v>7002060.778115767</v>
       </c>
       <c r="S25" t="n">
         <v>25</v>
@@ -3423,7 +3423,7 @@
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>16:17</t>
+          <t>12:18</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
@@ -3433,7 +3433,12 @@
       </c>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>16:17</t>
+          <t>12:18</t>
+        </is>
+      </c>
+      <c r="AC25" t="inlineStr">
+        <is>
+          <t>På asp</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3460,7 +3465,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111421391</v>
+        <v>111421528</v>
       </c>
       <c r="B26" t="n">
         <v>78578</v>
@@ -3501,10 +3506,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>550825.6664593286</v>
+        <v>550826.5844548051</v>
       </c>
       <c r="R26" t="n">
-        <v>7002060.778115767</v>
+        <v>7002088.830120047</v>
       </c>
       <c r="S26" t="n">
         <v>25</v>
@@ -3547,11 +3552,6 @@
       <c r="AB26" t="inlineStr">
         <is>
           <t>12:18</t>
-        </is>
-      </c>
-      <c r="AC26" t="inlineStr">
-        <is>
-          <t>På asp</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -3578,10 +3578,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111421528</v>
+        <v>111422303</v>
       </c>
       <c r="B27" t="n">
-        <v>78578</v>
+        <v>89405</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3594,21 +3594,21 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>6458</v>
+        <v>1202</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -3619,10 +3619,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>550826.5844548051</v>
+        <v>550866.5625217154</v>
       </c>
       <c r="R27" t="n">
-        <v>7002088.830120047</v>
+        <v>7002138.297294092</v>
       </c>
       <c r="S27" t="n">
         <v>25</v>
@@ -3691,10 +3691,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111421571</v>
+        <v>111425527</v>
       </c>
       <c r="B28" t="n">
-        <v>78605</v>
+        <v>99413</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3707,21 +3707,21 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>6462</v>
+        <v>221235</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Vårärt</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Lathyrus vernus</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(L.) Bernh.</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
@@ -3732,10 +3732,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>550832.3776022838</v>
+        <v>550954.7515832841</v>
       </c>
       <c r="R28" t="n">
-        <v>7002094.799920618</v>
+        <v>7001915.380264779</v>
       </c>
       <c r="S28" t="n">
         <v>25</v>
@@ -3767,7 +3767,7 @@
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>12:18</t>
+          <t>15:16</t>
         </is>
       </c>
       <c r="AA28" t="inlineStr">
@@ -3777,7 +3777,7 @@
       </c>
       <c r="AB28" t="inlineStr">
         <is>
-          <t>12:18</t>
+          <t>15:16</t>
         </is>
       </c>
       <c r="AD28" t="b">
@@ -3804,10 +3804,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111423316</v>
+        <v>111426031</v>
       </c>
       <c r="B29" t="n">
-        <v>96348</v>
+        <v>99413</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3816,25 +3816,25 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>220787</v>
+        <v>221235</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Vårärt</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lathyrus vernus</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(L.) Bernh.</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
@@ -3845,10 +3845,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>550887.953173755</v>
+        <v>550956.02874151</v>
       </c>
       <c r="R29" t="n">
-        <v>7001958.648759932</v>
+        <v>7001949.318344167</v>
       </c>
       <c r="S29" t="n">
         <v>25</v>
@@ -3880,7 +3880,7 @@
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>13:55</t>
+          <t>15:34</t>
         </is>
       </c>
       <c r="AA29" t="inlineStr">
@@ -3890,7 +3890,7 @@
       </c>
       <c r="AB29" t="inlineStr">
         <is>
-          <t>13:55</t>
+          <t>15:34</t>
         </is>
       </c>
       <c r="AD29" t="b">
@@ -3917,10 +3917,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111425527</v>
+        <v>111426015</v>
       </c>
       <c r="B30" t="n">
-        <v>99413</v>
+        <v>98446</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3933,21 +3933,21 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>221235</v>
+        <v>222771</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Vårärt</t>
+          <t>Svart trolldruva</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Lathyrus vernus</t>
+          <t>Actaea spicata</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(L.) Bernh.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
@@ -3958,10 +3958,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>550954.7515832841</v>
+        <v>550956.02874151</v>
       </c>
       <c r="R30" t="n">
-        <v>7001915.380264779</v>
+        <v>7001949.318344167</v>
       </c>
       <c r="S30" t="n">
         <v>25</v>
@@ -3993,7 +3993,7 @@
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>15:16</t>
+          <t>15:34</t>
         </is>
       </c>
       <c r="AA30" t="inlineStr">
@@ -4003,7 +4003,7 @@
       </c>
       <c r="AB30" t="inlineStr">
         <is>
-          <t>15:16</t>
+          <t>15:34</t>
         </is>
       </c>
       <c r="AD30" t="b">
@@ -4030,10 +4030,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>111426031</v>
+        <v>111421571</v>
       </c>
       <c r="B31" t="n">
-        <v>99413</v>
+        <v>78605</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -4046,21 +4046,21 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>221235</v>
+        <v>6462</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Vårärt</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Lathyrus vernus</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(L.) Bernh.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
@@ -4071,10 +4071,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>550956.02874151</v>
+        <v>550832.3776022838</v>
       </c>
       <c r="R31" t="n">
-        <v>7001949.318344167</v>
+        <v>7002094.799920618</v>
       </c>
       <c r="S31" t="n">
         <v>25</v>
@@ -4106,7 +4106,7 @@
       </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>15:34</t>
+          <t>12:18</t>
         </is>
       </c>
       <c r="AA31" t="inlineStr">
@@ -4116,7 +4116,7 @@
       </c>
       <c r="AB31" t="inlineStr">
         <is>
-          <t>15:34</t>
+          <t>12:18</t>
         </is>
       </c>
       <c r="AD31" t="b">
@@ -4143,10 +4143,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>111426015</v>
+        <v>111423316</v>
       </c>
       <c r="B32" t="n">
-        <v>98446</v>
+        <v>96348</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4155,25 +4155,25 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>222771</v>
+        <v>220787</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Svart trolldruva</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Actaea spicata</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
@@ -4184,10 +4184,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>550956.02874151</v>
+        <v>550887.953173755</v>
       </c>
       <c r="R32" t="n">
-        <v>7001949.318344167</v>
+        <v>7001958.648759932</v>
       </c>
       <c r="S32" t="n">
         <v>25</v>
@@ -4219,7 +4219,7 @@
       </c>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>15:34</t>
+          <t>13:55</t>
         </is>
       </c>
       <c r="AA32" t="inlineStr">
@@ -4229,7 +4229,7 @@
       </c>
       <c r="AB32" t="inlineStr">
         <is>
-          <t>15:34</t>
+          <t>13:55</t>
         </is>
       </c>
       <c r="AD32" t="b">
@@ -4256,10 +4256,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>111425926</v>
+        <v>111423417</v>
       </c>
       <c r="B33" t="n">
-        <v>98446</v>
+        <v>94134</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4268,25 +4268,25 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>222771</v>
+        <v>53</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Svart trolldruva</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Actaea spicata</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
@@ -4297,10 +4297,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>550954.7515832841</v>
+        <v>550901.6754341319</v>
       </c>
       <c r="R33" t="n">
-        <v>7001915.380264779</v>
+        <v>7001978.762844464</v>
       </c>
       <c r="S33" t="n">
         <v>25</v>
@@ -4332,7 +4332,7 @@
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>15:34</t>
+          <t>13:55</t>
         </is>
       </c>
       <c r="AA33" t="inlineStr">
@@ -4342,7 +4342,7 @@
       </c>
       <c r="AB33" t="inlineStr">
         <is>
-          <t>15:34</t>
+          <t>13:55</t>
         </is>
       </c>
       <c r="AD33" t="b">
@@ -4369,10 +4369,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>111423417</v>
+        <v>111424030</v>
       </c>
       <c r="B34" t="n">
-        <v>94134</v>
+        <v>78578</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4385,21 +4385,21 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>53</v>
+        <v>6458</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
@@ -4410,10 +4410,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>550901.6754341319</v>
+        <v>551011.8102739404</v>
       </c>
       <c r="R34" t="n">
-        <v>7001978.762844464</v>
+        <v>7002059.18440557</v>
       </c>
       <c r="S34" t="n">
         <v>25</v>
@@ -4456,6 +4456,11 @@
       <c r="AB34" t="inlineStr">
         <is>
           <t>13:55</t>
+        </is>
+      </c>
+      <c r="AC34" t="inlineStr">
+        <is>
+          <t>På björk</t>
         </is>
       </c>
       <c r="AD34" t="b">
@@ -4482,10 +4487,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>111424030</v>
+        <v>111425926</v>
       </c>
       <c r="B35" t="n">
-        <v>78578</v>
+        <v>98446</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4494,25 +4499,25 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>6458</v>
+        <v>222771</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Svart trolldruva</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Actaea spicata</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
@@ -4523,10 +4528,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>551011.8102739404</v>
+        <v>550954.7515832841</v>
       </c>
       <c r="R35" t="n">
-        <v>7002059.18440557</v>
+        <v>7001915.380264779</v>
       </c>
       <c r="S35" t="n">
         <v>25</v>
@@ -4558,7 +4563,7 @@
       </c>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>13:55</t>
+          <t>15:34</t>
         </is>
       </c>
       <c r="AA35" t="inlineStr">
@@ -4568,12 +4573,7 @@
       </c>
       <c r="AB35" t="inlineStr">
         <is>
-          <t>13:55</t>
-        </is>
-      </c>
-      <c r="AC35" t="inlineStr">
-        <is>
-          <t>På björk</t>
+          <t>15:34</t>
         </is>
       </c>
       <c r="AD35" t="b">
@@ -5617,10 +5617,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>111422067</v>
+        <v>111423343</v>
       </c>
       <c r="B45" t="n">
-        <v>77515</v>
+        <v>98535</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -5629,25 +5629,25 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>6425</v>
+        <v>222498</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I45" t="inlineStr"/>
@@ -5658,10 +5658,10 @@
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>550845.9433502604</v>
+        <v>550911.6997848416</v>
       </c>
       <c r="R45" t="n">
-        <v>7002124.859161366</v>
+        <v>7001974.850411222</v>
       </c>
       <c r="S45" t="n">
         <v>25</v>
@@ -5693,7 +5693,7 @@
       </c>
       <c r="Z45" t="inlineStr">
         <is>
-          <t>12:18</t>
+          <t>13:55</t>
         </is>
       </c>
       <c r="AA45" t="inlineStr">
@@ -5703,12 +5703,7 @@
       </c>
       <c r="AB45" t="inlineStr">
         <is>
-          <t>12:18</t>
-        </is>
-      </c>
-      <c r="AC45" t="inlineStr">
-        <is>
-          <t>På tall</t>
+          <t>13:55</t>
         </is>
       </c>
       <c r="AD45" t="b">
@@ -5735,10 +5730,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>111420835</v>
+        <v>111423460</v>
       </c>
       <c r="B46" t="n">
-        <v>96348</v>
+        <v>98535</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -5747,25 +5742,25 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>220787</v>
+        <v>222498</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I46" t="inlineStr"/>
@@ -5776,10 +5771,10 @@
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>550732.0319218244</v>
+        <v>550919.8847323675</v>
       </c>
       <c r="R46" t="n">
-        <v>7002198.590094371</v>
+        <v>7001972.718000742</v>
       </c>
       <c r="S46" t="n">
         <v>25</v>
@@ -5811,7 +5806,7 @@
       </c>
       <c r="Z46" t="inlineStr">
         <is>
-          <t>11:56</t>
+          <t>13:55</t>
         </is>
       </c>
       <c r="AA46" t="inlineStr">
@@ -5821,7 +5816,7 @@
       </c>
       <c r="AB46" t="inlineStr">
         <is>
-          <t>11:56</t>
+          <t>13:55</t>
         </is>
       </c>
       <c r="AD46" t="b">
@@ -5848,10 +5843,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>111423343</v>
+        <v>111422067</v>
       </c>
       <c r="B47" t="n">
-        <v>98535</v>
+        <v>77515</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -5860,25 +5855,25 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>222498</v>
+        <v>6425</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I47" t="inlineStr"/>
@@ -5889,10 +5884,10 @@
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>550911.6997848416</v>
+        <v>550845.9433502604</v>
       </c>
       <c r="R47" t="n">
-        <v>7001974.850411222</v>
+        <v>7002124.859161366</v>
       </c>
       <c r="S47" t="n">
         <v>25</v>
@@ -5924,7 +5919,7 @@
       </c>
       <c r="Z47" t="inlineStr">
         <is>
-          <t>13:55</t>
+          <t>12:18</t>
         </is>
       </c>
       <c r="AA47" t="inlineStr">
@@ -5934,7 +5929,12 @@
       </c>
       <c r="AB47" t="inlineStr">
         <is>
-          <t>13:55</t>
+          <t>12:18</t>
+        </is>
+      </c>
+      <c r="AC47" t="inlineStr">
+        <is>
+          <t>På tall</t>
         </is>
       </c>
       <c r="AD47" t="b">
@@ -5961,10 +5961,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>111423460</v>
+        <v>111426396</v>
       </c>
       <c r="B48" t="n">
-        <v>98535</v>
+        <v>103396</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -5973,25 +5973,25 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>222498</v>
+        <v>674</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Myskmåra</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Galium triflorum</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>Michx.</t>
         </is>
       </c>
       <c r="I48" t="inlineStr"/>
@@ -6002,10 +6002,10 @@
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>550919.8847323675</v>
+        <v>550951.5040298713</v>
       </c>
       <c r="R48" t="n">
-        <v>7001972.718000742</v>
+        <v>7001920.303799121</v>
       </c>
       <c r="S48" t="n">
         <v>25</v>
@@ -6037,7 +6037,7 @@
       </c>
       <c r="Z48" t="inlineStr">
         <is>
-          <t>13:55</t>
+          <t>16:08</t>
         </is>
       </c>
       <c r="AA48" t="inlineStr">
@@ -6047,7 +6047,7 @@
       </c>
       <c r="AB48" t="inlineStr">
         <is>
-          <t>13:55</t>
+          <t>16:08</t>
         </is>
       </c>
       <c r="AD48" t="b">
@@ -6074,10 +6074,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>111427787</v>
+        <v>111427612</v>
       </c>
       <c r="B49" t="n">
-        <v>98535</v>
+        <v>98446</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -6090,21 +6090,21 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>222498</v>
+        <v>222771</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Svart trolldruva</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Actaea spicata</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
@@ -6115,10 +6115,10 @@
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>550907.3809405958</v>
+        <v>550925.5549388798</v>
       </c>
       <c r="R49" t="n">
-        <v>7001932.724492302</v>
+        <v>7001928.940230627</v>
       </c>
       <c r="S49" t="n">
         <v>25</v>
@@ -6187,10 +6187,10 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>111426396</v>
+        <v>111427787</v>
       </c>
       <c r="B50" t="n">
-        <v>103396</v>
+        <v>98535</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -6199,25 +6199,25 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>674</v>
+        <v>222498</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Myskmåra</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Galium triflorum</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Michx.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I50" t="inlineStr"/>
@@ -6228,10 +6228,10 @@
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>550951.5040298713</v>
+        <v>550907.3809405958</v>
       </c>
       <c r="R50" t="n">
-        <v>7001920.303799121</v>
+        <v>7001932.724492302</v>
       </c>
       <c r="S50" t="n">
         <v>25</v>
@@ -6263,7 +6263,7 @@
       </c>
       <c r="Z50" t="inlineStr">
         <is>
-          <t>16:08</t>
+          <t>16:41</t>
         </is>
       </c>
       <c r="AA50" t="inlineStr">
@@ -6273,7 +6273,7 @@
       </c>
       <c r="AB50" t="inlineStr">
         <is>
-          <t>16:08</t>
+          <t>16:41</t>
         </is>
       </c>
       <c r="AD50" t="b">
@@ -6300,10 +6300,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>111427612</v>
+        <v>111420835</v>
       </c>
       <c r="B51" t="n">
-        <v>98446</v>
+        <v>96348</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -6312,25 +6312,25 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>222771</v>
+        <v>220787</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Svart trolldruva</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Actaea spicata</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I51" t="inlineStr"/>
@@ -6341,10 +6341,10 @@
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>550925.5549388798</v>
+        <v>550732.0319218244</v>
       </c>
       <c r="R51" t="n">
-        <v>7001928.940230627</v>
+        <v>7002198.590094371</v>
       </c>
       <c r="S51" t="n">
         <v>25</v>
@@ -6376,7 +6376,7 @@
       </c>
       <c r="Z51" t="inlineStr">
         <is>
-          <t>16:41</t>
+          <t>11:56</t>
         </is>
       </c>
       <c r="AA51" t="inlineStr">
@@ -6386,7 +6386,7 @@
       </c>
       <c r="AB51" t="inlineStr">
         <is>
-          <t>16:41</t>
+          <t>11:56</t>
         </is>
       </c>
       <c r="AD51" t="b">
@@ -6413,10 +6413,10 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>111425313</v>
+        <v>111426315</v>
       </c>
       <c r="B52" t="n">
-        <v>78578</v>
+        <v>89845</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -6425,25 +6425,25 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>6458</v>
+        <v>1209</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I52" t="inlineStr"/>
@@ -6454,10 +6454,10 @@
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>550974.800833688</v>
+        <v>550958.3735980184</v>
       </c>
       <c r="R52" t="n">
-        <v>7001907.55558978</v>
+        <v>7001915.437287232</v>
       </c>
       <c r="S52" t="n">
         <v>25</v>
@@ -6489,7 +6489,7 @@
       </c>
       <c r="Z52" t="inlineStr">
         <is>
-          <t>15:16</t>
+          <t>16:07</t>
         </is>
       </c>
       <c r="AA52" t="inlineStr">
@@ -6499,7 +6499,7 @@
       </c>
       <c r="AB52" t="inlineStr">
         <is>
-          <t>15:16</t>
+          <t>16:07</t>
         </is>
       </c>
       <c r="AD52" t="b">
@@ -6526,10 +6526,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>111426315</v>
+        <v>111426302</v>
       </c>
       <c r="B53" t="n">
-        <v>89845</v>
+        <v>89686</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -6538,25 +6538,25 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>1209</v>
+        <v>658</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I53" t="inlineStr"/>
@@ -6567,10 +6567,10 @@
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>550958.3735980184</v>
+        <v>550960.5946457037</v>
       </c>
       <c r="R53" t="n">
-        <v>7001915.437287232</v>
+        <v>7001918.185706819</v>
       </c>
       <c r="S53" t="n">
         <v>25</v>
@@ -6639,10 +6639,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>111426302</v>
+        <v>111423560</v>
       </c>
       <c r="B54" t="n">
-        <v>89686</v>
+        <v>94134</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -6655,21 +6655,21 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>658</v>
+        <v>53</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I54" t="inlineStr"/>
@@ -6680,10 +6680,10 @@
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>550960.5946457037</v>
+        <v>550948.589889885</v>
       </c>
       <c r="R54" t="n">
-        <v>7001918.185706819</v>
+        <v>7001990.354570261</v>
       </c>
       <c r="S54" t="n">
         <v>25</v>
@@ -6715,7 +6715,7 @@
       </c>
       <c r="Z54" t="inlineStr">
         <is>
-          <t>16:07</t>
+          <t>13:55</t>
         </is>
       </c>
       <c r="AA54" t="inlineStr">
@@ -6725,7 +6725,7 @@
       </c>
       <c r="AB54" t="inlineStr">
         <is>
-          <t>16:07</t>
+          <t>13:55</t>
         </is>
       </c>
       <c r="AD54" t="b">
@@ -6752,10 +6752,10 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>111423560</v>
+        <v>111425313</v>
       </c>
       <c r="B55" t="n">
-        <v>94134</v>
+        <v>78578</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -6768,21 +6768,21 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>53</v>
+        <v>6458</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I55" t="inlineStr"/>
@@ -6793,10 +6793,10 @@
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>550948.589889885</v>
+        <v>550974.800833688</v>
       </c>
       <c r="R55" t="n">
-        <v>7001990.354570261</v>
+        <v>7001907.55558978</v>
       </c>
       <c r="S55" t="n">
         <v>25</v>
@@ -6828,7 +6828,7 @@
       </c>
       <c r="Z55" t="inlineStr">
         <is>
-          <t>13:55</t>
+          <t>15:16</t>
         </is>
       </c>
       <c r="AA55" t="inlineStr">
@@ -6838,7 +6838,7 @@
       </c>
       <c r="AB55" t="inlineStr">
         <is>
-          <t>13:55</t>
+          <t>15:16</t>
         </is>
       </c>
       <c r="AD55" t="b">
@@ -7656,10 +7656,10 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>111420595</v>
+        <v>111421476</v>
       </c>
       <c r="B63" t="n">
-        <v>96348</v>
+        <v>77186</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -7668,25 +7668,25 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E63" t="n">
-        <v>220787</v>
+        <v>353</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Dvärgbägarlav</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Cladonia parasitica</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Hoffm.) Hoffm.</t>
         </is>
       </c>
       <c r="I63" t="inlineStr"/>
@@ -7697,10 +7697,10 @@
         </is>
       </c>
       <c r="Q63" t="n">
-        <v>550711.6321998269</v>
+        <v>550808.5392307156</v>
       </c>
       <c r="R63" t="n">
-        <v>7002171.138182109</v>
+        <v>7002084.47682756</v>
       </c>
       <c r="S63" t="n">
         <v>25</v>
@@ -7732,7 +7732,7 @@
       </c>
       <c r="Z63" t="inlineStr">
         <is>
-          <t>11:47</t>
+          <t>12:18</t>
         </is>
       </c>
       <c r="AA63" t="inlineStr">
@@ -7742,7 +7742,7 @@
       </c>
       <c r="AB63" t="inlineStr">
         <is>
-          <t>11:47</t>
+          <t>12:18</t>
         </is>
       </c>
       <c r="AD63" t="b">
@@ -8221,10 +8221,10 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>111421476</v>
+        <v>111420595</v>
       </c>
       <c r="B68" t="n">
-        <v>77186</v>
+        <v>96348</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -8233,25 +8233,25 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E68" t="n">
-        <v>353</v>
+        <v>220787</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Dvärgbägarlav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Cladonia parasitica</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>(Hoffm.) Hoffm.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I68" t="inlineStr"/>
@@ -8262,10 +8262,10 @@
         </is>
       </c>
       <c r="Q68" t="n">
-        <v>550808.5392307156</v>
+        <v>550711.6321998269</v>
       </c>
       <c r="R68" t="n">
-        <v>7002084.47682756</v>
+        <v>7002171.138182109</v>
       </c>
       <c r="S68" t="n">
         <v>25</v>
@@ -8297,7 +8297,7 @@
       </c>
       <c r="Z68" t="inlineStr">
         <is>
-          <t>12:18</t>
+          <t>11:47</t>
         </is>
       </c>
       <c r="AA68" t="inlineStr">
@@ -8307,7 +8307,7 @@
       </c>
       <c r="AB68" t="inlineStr">
         <is>
-          <t>12:18</t>
+          <t>11:47</t>
         </is>
       </c>
       <c r="AD68" t="b">
@@ -8334,10 +8334,10 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>111424103</v>
+        <v>111420859</v>
       </c>
       <c r="B69" t="n">
-        <v>94134</v>
+        <v>89686</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -8350,21 +8350,21 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>53</v>
+        <v>658</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I69" t="inlineStr"/>
@@ -8375,10 +8375,10 @@
         </is>
       </c>
       <c r="Q69" t="n">
-        <v>551037.3771583335</v>
+        <v>550742.1573915739</v>
       </c>
       <c r="R69" t="n">
-        <v>7002103.452742142</v>
+        <v>7002101.524058201</v>
       </c>
       <c r="S69" t="n">
         <v>25</v>
@@ -8410,7 +8410,7 @@
       </c>
       <c r="Z69" t="inlineStr">
         <is>
-          <t>13:55</t>
+          <t>11:56</t>
         </is>
       </c>
       <c r="AA69" t="inlineStr">
@@ -8420,7 +8420,7 @@
       </c>
       <c r="AB69" t="inlineStr">
         <is>
-          <t>13:55</t>
+          <t>11:56</t>
         </is>
       </c>
       <c r="AD69" t="b">
@@ -8447,10 +8447,10 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>111420859</v>
+        <v>111427617</v>
       </c>
       <c r="B70" t="n">
-        <v>89686</v>
+        <v>98535</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -8459,25 +8459,25 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E70" t="n">
-        <v>658</v>
+        <v>222498</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I70" t="inlineStr"/>
@@ -8488,10 +8488,10 @@
         </is>
       </c>
       <c r="Q70" t="n">
-        <v>550742.1573915739</v>
+        <v>550925.5549388798</v>
       </c>
       <c r="R70" t="n">
-        <v>7002101.524058201</v>
+        <v>7001928.940230627</v>
       </c>
       <c r="S70" t="n">
         <v>25</v>
@@ -8523,7 +8523,7 @@
       </c>
       <c r="Z70" t="inlineStr">
         <is>
-          <t>11:56</t>
+          <t>16:41</t>
         </is>
       </c>
       <c r="AA70" t="inlineStr">
@@ -8533,7 +8533,7 @@
       </c>
       <c r="AB70" t="inlineStr">
         <is>
-          <t>11:56</t>
+          <t>16:41</t>
         </is>
       </c>
       <c r="AD70" t="b">
@@ -8560,10 +8560,10 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>111424256</v>
+        <v>111424103</v>
       </c>
       <c r="B71" t="n">
-        <v>78605</v>
+        <v>94134</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -8572,25 +8572,25 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E71" t="n">
-        <v>6462</v>
+        <v>53</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I71" t="inlineStr"/>
@@ -8601,10 +8601,10 @@
         </is>
       </c>
       <c r="Q71" t="n">
-        <v>551048.5278099331</v>
+        <v>551037.3771583335</v>
       </c>
       <c r="R71" t="n">
-        <v>7002085.539900199</v>
+        <v>7002103.452742142</v>
       </c>
       <c r="S71" t="n">
         <v>25</v>
@@ -8673,10 +8673,10 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>111427617</v>
+        <v>111424256</v>
       </c>
       <c r="B72" t="n">
-        <v>98535</v>
+        <v>78605</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -8689,21 +8689,21 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>222498</v>
+        <v>6462</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I72" t="inlineStr"/>
@@ -8714,10 +8714,10 @@
         </is>
       </c>
       <c r="Q72" t="n">
-        <v>550925.5549388798</v>
+        <v>551048.5278099331</v>
       </c>
       <c r="R72" t="n">
-        <v>7001928.940230627</v>
+        <v>7002085.539900199</v>
       </c>
       <c r="S72" t="n">
         <v>25</v>
@@ -8749,7 +8749,7 @@
       </c>
       <c r="Z72" t="inlineStr">
         <is>
-          <t>16:41</t>
+          <t>13:55</t>
         </is>
       </c>
       <c r="AA72" t="inlineStr">
@@ -8759,7 +8759,7 @@
       </c>
       <c r="AB72" t="inlineStr">
         <is>
-          <t>16:41</t>
+          <t>13:55</t>
         </is>
       </c>
       <c r="AD72" t="b">

--- a/artfynd/A 57003-2022.xlsx
+++ b/artfynd/A 57003-2022.xlsx
@@ -1186,7 +1186,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111420645</v>
+        <v>111421283</v>
       </c>
       <c r="B6" t="n">
         <v>96348</v>
@@ -1227,10 +1227,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>550733.9986858405</v>
+        <v>550786.6251378106</v>
       </c>
       <c r="R6" t="n">
-        <v>7002188.6724778</v>
+        <v>7002066.94856437</v>
       </c>
       <c r="S6" t="n">
         <v>25</v>
@@ -1262,7 +1262,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>11:51</t>
+          <t>12:18</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -1272,7 +1272,7 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>11:51</t>
+          <t>12:18</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1299,10 +1299,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111422023</v>
+        <v>111420869</v>
       </c>
       <c r="B7" t="n">
-        <v>90666</v>
+        <v>89405</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1311,25 +1311,25 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>4364</v>
+        <v>1202</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1340,10 +1340,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>550845.9433502604</v>
+        <v>550741.937658608</v>
       </c>
       <c r="R7" t="n">
-        <v>7002124.859161366</v>
+        <v>7002115.539248759</v>
       </c>
       <c r="S7" t="n">
         <v>25</v>
@@ -1375,7 +1375,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>12:18</t>
+          <t>11:56</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -1385,7 +1385,7 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>12:18</t>
+          <t>11:56</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1412,10 +1412,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111424144</v>
+        <v>111423113</v>
       </c>
       <c r="B8" t="n">
-        <v>95532</v>
+        <v>99413</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1428,24 +1428,28 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>221945</v>
+        <v>221235</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Vårärt</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Lycopodium annotinum</t>
+          <t>Lathyrus vernus</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>L.</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr"/>
+          <t>(L.) Bernh.</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="K8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
@@ -1453,10 +1457,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>551057.4254629152</v>
+        <v>550880.707108345</v>
       </c>
       <c r="R8" t="n">
-        <v>7002095.629051142</v>
+        <v>7001987.477793725</v>
       </c>
       <c r="S8" t="n">
         <v>25</v>
@@ -1488,7 +1492,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>13:55</t>
+          <t>13:40</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -1498,7 +1502,7 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>13:55</t>
+          <t>13:40</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1525,10 +1529,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111424976</v>
+        <v>111422600</v>
       </c>
       <c r="B9" t="n">
-        <v>78578</v>
+        <v>77186</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1541,21 +1545,21 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6458</v>
+        <v>353</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Dvärgbägarlav</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Cladonia parasitica</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Hoffm.) Hoffm.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1566,10 +1570,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>551037.0775894802</v>
+        <v>550737.1374797915</v>
       </c>
       <c r="R9" t="n">
-        <v>7001950.143101228</v>
+        <v>7002017.332277133</v>
       </c>
       <c r="S9" t="n">
         <v>25</v>
@@ -1601,7 +1605,7 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>14:55</t>
+          <t>12:18</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -1611,12 +1615,7 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>14:55</t>
-        </is>
-      </c>
-      <c r="AC9" t="inlineStr">
-        <is>
-          <t>På asp</t>
+          <t>12:18</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1643,7 +1642,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111421054</v>
+        <v>111423316</v>
       </c>
       <c r="B10" t="n">
         <v>96348</v>
@@ -1684,10 +1683,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>550741.937658608</v>
+        <v>550887.953173755</v>
       </c>
       <c r="R10" t="n">
-        <v>7002115.539248759</v>
+        <v>7001958.648759932</v>
       </c>
       <c r="S10" t="n">
         <v>25</v>
@@ -1719,7 +1718,7 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>12:09</t>
+          <t>13:55</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -1729,7 +1728,7 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>12:09</t>
+          <t>13:55</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1756,10 +1755,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111420660</v>
+        <v>111423417</v>
       </c>
       <c r="B11" t="n">
-        <v>77267</v>
+        <v>94134</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1772,21 +1771,21 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6446</v>
+        <v>53</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1797,10 +1796,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>550733.9986858405</v>
+        <v>550901.6754341319</v>
       </c>
       <c r="R11" t="n">
-        <v>7002188.6724778</v>
+        <v>7001978.762844464</v>
       </c>
       <c r="S11" t="n">
         <v>25</v>
@@ -1832,7 +1831,7 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>11:51</t>
+          <t>13:55</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
@@ -1842,7 +1841,7 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>11:51</t>
+          <t>13:55</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1869,7 +1868,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111425959</v>
+        <v>111427222</v>
       </c>
       <c r="B12" t="n">
         <v>98535</v>
@@ -1910,10 +1909,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>550955.3723719715</v>
+        <v>550980.9358707955</v>
       </c>
       <c r="R12" t="n">
-        <v>7001933.479667452</v>
+        <v>7001891.823664788</v>
       </c>
       <c r="S12" t="n">
         <v>25</v>
@@ -1945,7 +1944,7 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>15:34</t>
+          <t>16:41</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
@@ -1955,7 +1954,7 @@
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>15:34</t>
+          <t>16:41</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1982,10 +1981,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111426308</v>
+        <v>111425614</v>
       </c>
       <c r="B13" t="n">
-        <v>89405</v>
+        <v>98446</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1994,25 +1993,25 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>1202</v>
+        <v>222771</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Svart trolldruva</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Actaea spicata</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -2023,10 +2022,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>550958.3735980184</v>
+        <v>550954.7515832841</v>
       </c>
       <c r="R13" t="n">
-        <v>7001915.437287232</v>
+        <v>7001915.380264779</v>
       </c>
       <c r="S13" t="n">
         <v>25</v>
@@ -2058,7 +2057,7 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>16:07</t>
+          <t>15:34</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
@@ -2068,7 +2067,7 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>16:07</t>
+          <t>15:34</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2095,10 +2094,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111425793</v>
+        <v>111422067</v>
       </c>
       <c r="B14" t="n">
-        <v>98535</v>
+        <v>77515</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2107,25 +2106,25 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>222498</v>
+        <v>6425</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2136,10 +2135,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>550964.3063330664</v>
+        <v>550845.9433502604</v>
       </c>
       <c r="R14" t="n">
-        <v>7001941.308390027</v>
+        <v>7002124.859161366</v>
       </c>
       <c r="S14" t="n">
         <v>25</v>
@@ -2171,7 +2170,7 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>15:34</t>
+          <t>12:18</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
@@ -2181,7 +2180,12 @@
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>15:34</t>
+          <t>12:18</t>
+        </is>
+      </c>
+      <c r="AC14" t="inlineStr">
+        <is>
+          <t>På tall</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2208,10 +2212,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111420481</v>
+        <v>111427034</v>
       </c>
       <c r="B15" t="n">
-        <v>96381</v>
+        <v>96348</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2220,25 +2224,25 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>219874</v>
+        <v>220787</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Nattviol</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Platanthera bifolia</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2249,10 +2253,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>550727.9291679059</v>
+        <v>550961.4004867796</v>
       </c>
       <c r="R15" t="n">
-        <v>7002200.33458891</v>
+        <v>7001924.529771334</v>
       </c>
       <c r="S15" t="n">
         <v>25</v>
@@ -2284,7 +2288,7 @@
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>11:36</t>
+          <t>16:41</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
@@ -2294,7 +2298,7 @@
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>11:36</t>
+          <t>16:41</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2321,10 +2325,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111424910</v>
+        <v>111425793</v>
       </c>
       <c r="B16" t="n">
-        <v>78578</v>
+        <v>98535</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2333,25 +2337,25 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>6458</v>
+        <v>222498</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2362,10 +2366,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>551057.2480807917</v>
+        <v>550964.3063330664</v>
       </c>
       <c r="R16" t="n">
-        <v>7001934.632864759</v>
+        <v>7001941.308390027</v>
       </c>
       <c r="S16" t="n">
         <v>25</v>
@@ -2397,7 +2401,7 @@
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>14:55</t>
+          <t>15:34</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
@@ -2407,12 +2411,7 @@
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>14:55</t>
-        </is>
-      </c>
-      <c r="AC16" t="inlineStr">
-        <is>
-          <t>På asp</t>
+          <t>15:34</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2439,10 +2438,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111421283</v>
+        <v>111424960</v>
       </c>
       <c r="B17" t="n">
-        <v>96348</v>
+        <v>94134</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2451,25 +2450,25 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>220787</v>
+        <v>53</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2480,10 +2479,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>550786.6251378106</v>
+        <v>551037.0775894802</v>
       </c>
       <c r="R17" t="n">
-        <v>7002066.94856437</v>
+        <v>7001950.143101228</v>
       </c>
       <c r="S17" t="n">
         <v>25</v>
@@ -2515,7 +2514,7 @@
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>12:18</t>
+          <t>14:55</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
@@ -2525,7 +2524,7 @@
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>12:18</t>
+          <t>14:55</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2552,10 +2551,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111420370</v>
+        <v>111425037</v>
       </c>
       <c r="B18" t="n">
-        <v>96348</v>
+        <v>89845</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2568,21 +2567,21 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>220787</v>
+        <v>1209</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2593,10 +2592,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>550722.7296859198</v>
+        <v>551037.0775894802</v>
       </c>
       <c r="R18" t="n">
-        <v>7002214.271300747</v>
+        <v>7001950.143101228</v>
       </c>
       <c r="S18" t="n">
         <v>25</v>
@@ -2628,7 +2627,7 @@
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>11:36</t>
+          <t>15:16</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
@@ -2638,7 +2637,7 @@
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>11:36</t>
+          <t>15:16</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2665,10 +2664,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111423113</v>
+        <v>111420645</v>
       </c>
       <c r="B19" t="n">
-        <v>99413</v>
+        <v>96348</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2677,32 +2676,28 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>221235</v>
+        <v>220787</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Vårärt</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Lathyrus vernus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(L.) Bernh.</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
@@ -2710,10 +2705,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>550880.707108345</v>
+        <v>550733.9986858405</v>
       </c>
       <c r="R19" t="n">
-        <v>7001987.477793725</v>
+        <v>7002188.6724778</v>
       </c>
       <c r="S19" t="n">
         <v>25</v>
@@ -2745,7 +2740,7 @@
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>11:51</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
@@ -2755,7 +2750,7 @@
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>11:51</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2782,10 +2777,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111423236</v>
+        <v>111428138</v>
       </c>
       <c r="B20" t="n">
-        <v>94134</v>
+        <v>96348</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2794,25 +2789,25 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>53</v>
+        <v>220787</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2823,10 +2818,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>550869.8149192812</v>
+        <v>550809.7857848165</v>
       </c>
       <c r="R20" t="n">
-        <v>7001960.172576382</v>
+        <v>7001918.528248113</v>
       </c>
       <c r="S20" t="n">
         <v>25</v>
@@ -2858,7 +2853,7 @@
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>17:39</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
@@ -2868,7 +2863,7 @@
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>17:39</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2895,10 +2890,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111425789</v>
+        <v>111420370</v>
       </c>
       <c r="B21" t="n">
-        <v>99413</v>
+        <v>96348</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2907,25 +2902,25 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>221235</v>
+        <v>220787</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Vårärt</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Lathyrus vernus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(L.) Bernh.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2936,10 +2931,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>550964.3063330664</v>
+        <v>550722.7296859198</v>
       </c>
       <c r="R21" t="n">
-        <v>7001941.308390027</v>
+        <v>7002214.271300747</v>
       </c>
       <c r="S21" t="n">
         <v>25</v>
@@ -2971,7 +2966,7 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>15:34</t>
+          <t>11:36</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
@@ -2981,7 +2976,7 @@
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>15:34</t>
+          <t>11:36</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -3008,10 +3003,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111425786</v>
+        <v>111420859</v>
       </c>
       <c r="B22" t="n">
-        <v>98446</v>
+        <v>89686</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3020,25 +3015,25 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>222771</v>
+        <v>658</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Svart trolldruva</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Actaea spicata</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -3049,10 +3044,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>550964.3063330664</v>
+        <v>550742.1573915739</v>
       </c>
       <c r="R22" t="n">
-        <v>7001941.308390027</v>
+        <v>7002101.524058201</v>
       </c>
       <c r="S22" t="n">
         <v>25</v>
@@ -3084,7 +3079,7 @@
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>15:34</t>
+          <t>11:56</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
@@ -3094,7 +3089,7 @@
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>15:34</t>
+          <t>11:56</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3121,10 +3116,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111420310</v>
+        <v>111420481</v>
       </c>
       <c r="B23" t="n">
-        <v>96348</v>
+        <v>96381</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3133,25 +3128,25 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>220787</v>
+        <v>219874</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Nattviol</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Platanthera bifolia</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -3162,10 +3157,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>550710.25923741</v>
+        <v>550727.9291679059</v>
       </c>
       <c r="R23" t="n">
-        <v>7002200.962073827</v>
+        <v>7002200.33458891</v>
       </c>
       <c r="S23" t="n">
         <v>25</v>
@@ -3197,7 +3192,7 @@
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>11:25</t>
+          <t>11:36</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
@@ -3207,7 +3202,7 @@
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>11:25</t>
+          <t>11:36</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3234,10 +3229,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111426562</v>
+        <v>111427779</v>
       </c>
       <c r="B24" t="n">
-        <v>96348</v>
+        <v>98446</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3246,25 +3241,25 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>220787</v>
+        <v>222771</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Svart trolldruva</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Actaea spicata</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -3275,10 +3270,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>550976.2344434585</v>
+        <v>550907.3809405958</v>
       </c>
       <c r="R24" t="n">
-        <v>7001931.546968644</v>
+        <v>7001932.724492302</v>
       </c>
       <c r="S24" t="n">
         <v>25</v>
@@ -3310,7 +3305,7 @@
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>16:17</t>
+          <t>16:41</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
@@ -3320,7 +3315,7 @@
       </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>16:17</t>
+          <t>16:41</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3347,10 +3342,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111421391</v>
+        <v>111425548</v>
       </c>
       <c r="B25" t="n">
-        <v>78578</v>
+        <v>98535</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3359,25 +3354,25 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>6458</v>
+        <v>222498</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3388,10 +3383,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>550825.6664593286</v>
+        <v>550954.7515832841</v>
       </c>
       <c r="R25" t="n">
-        <v>7002060.778115767</v>
+        <v>7001915.380264779</v>
       </c>
       <c r="S25" t="n">
         <v>25</v>
@@ -3423,7 +3418,7 @@
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>12:18</t>
+          <t>15:16</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
@@ -3433,12 +3428,7 @@
       </c>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>12:18</t>
-        </is>
-      </c>
-      <c r="AC25" t="inlineStr">
-        <is>
-          <t>På asp</t>
+          <t>15:16</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3465,10 +3455,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111421528</v>
+        <v>111426315</v>
       </c>
       <c r="B26" t="n">
-        <v>78578</v>
+        <v>89845</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3477,25 +3467,25 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>6458</v>
+        <v>1209</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
@@ -3506,10 +3496,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>550826.5844548051</v>
+        <v>550958.3735980184</v>
       </c>
       <c r="R26" t="n">
-        <v>7002088.830120047</v>
+        <v>7001915.437287232</v>
       </c>
       <c r="S26" t="n">
         <v>25</v>
@@ -3541,7 +3531,7 @@
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>12:18</t>
+          <t>16:07</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
@@ -3551,7 +3541,7 @@
       </c>
       <c r="AB26" t="inlineStr">
         <is>
-          <t>12:18</t>
+          <t>16:07</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -3578,10 +3568,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111422303</v>
+        <v>111423343</v>
       </c>
       <c r="B27" t="n">
-        <v>89405</v>
+        <v>98535</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3590,25 +3580,25 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>1202</v>
+        <v>222498</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -3619,10 +3609,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>550866.5625217154</v>
+        <v>550911.6997848416</v>
       </c>
       <c r="R27" t="n">
-        <v>7002138.297294092</v>
+        <v>7001974.850411222</v>
       </c>
       <c r="S27" t="n">
         <v>25</v>
@@ -3654,7 +3644,7 @@
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>12:18</t>
+          <t>13:55</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
@@ -3664,7 +3654,7 @@
       </c>
       <c r="AB27" t="inlineStr">
         <is>
-          <t>12:18</t>
+          <t>13:55</t>
         </is>
       </c>
       <c r="AD27" t="b">
@@ -3691,10 +3681,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111425527</v>
+        <v>111425285</v>
       </c>
       <c r="B28" t="n">
-        <v>99413</v>
+        <v>98535</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3707,21 +3697,21 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>221235</v>
+        <v>222498</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Vårärt</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Lathyrus vernus</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(L.) Bernh.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
@@ -3732,10 +3722,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>550954.7515832841</v>
+        <v>550974.800833688</v>
       </c>
       <c r="R28" t="n">
-        <v>7001915.380264779</v>
+        <v>7001907.55558978</v>
       </c>
       <c r="S28" t="n">
         <v>25</v>
@@ -3804,10 +3794,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111426031</v>
+        <v>111427617</v>
       </c>
       <c r="B29" t="n">
-        <v>99413</v>
+        <v>98535</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3820,21 +3810,21 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>221235</v>
+        <v>222498</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Vårärt</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Lathyrus vernus</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(L.) Bernh.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
@@ -3845,10 +3835,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>550956.02874151</v>
+        <v>550925.5549388798</v>
       </c>
       <c r="R29" t="n">
-        <v>7001949.318344167</v>
+        <v>7001928.940230627</v>
       </c>
       <c r="S29" t="n">
         <v>25</v>
@@ -3880,7 +3870,7 @@
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>15:34</t>
+          <t>16:41</t>
         </is>
       </c>
       <c r="AA29" t="inlineStr">
@@ -3890,7 +3880,7 @@
       </c>
       <c r="AB29" t="inlineStr">
         <is>
-          <t>15:34</t>
+          <t>16:41</t>
         </is>
       </c>
       <c r="AD29" t="b">
@@ -3917,10 +3907,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111426015</v>
+        <v>111425959</v>
       </c>
       <c r="B30" t="n">
-        <v>98446</v>
+        <v>98535</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3933,21 +3923,21 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>222771</v>
+        <v>222498</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Svart trolldruva</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Actaea spicata</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
@@ -3958,10 +3948,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>550956.02874151</v>
+        <v>550955.3723719715</v>
       </c>
       <c r="R30" t="n">
-        <v>7001949.318344167</v>
+        <v>7001933.479667452</v>
       </c>
       <c r="S30" t="n">
         <v>25</v>
@@ -4030,10 +4020,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>111421571</v>
+        <v>111426015</v>
       </c>
       <c r="B31" t="n">
-        <v>78605</v>
+        <v>98446</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -4046,21 +4036,21 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>6462</v>
+        <v>222771</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Svart trolldruva</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Actaea spicata</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
@@ -4071,10 +4061,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>550832.3776022838</v>
+        <v>550956.02874151</v>
       </c>
       <c r="R31" t="n">
-        <v>7002094.799920618</v>
+        <v>7001949.318344167</v>
       </c>
       <c r="S31" t="n">
         <v>25</v>
@@ -4106,7 +4096,7 @@
       </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>12:18</t>
+          <t>15:34</t>
         </is>
       </c>
       <c r="AA31" t="inlineStr">
@@ -4116,7 +4106,7 @@
       </c>
       <c r="AB31" t="inlineStr">
         <is>
-          <t>12:18</t>
+          <t>15:34</t>
         </is>
       </c>
       <c r="AD31" t="b">
@@ -4143,10 +4133,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>111423316</v>
+        <v>111426302</v>
       </c>
       <c r="B32" t="n">
-        <v>96348</v>
+        <v>89686</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4155,25 +4145,25 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>220787</v>
+        <v>658</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
@@ -4184,10 +4174,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>550887.953173755</v>
+        <v>550960.5946457037</v>
       </c>
       <c r="R32" t="n">
-        <v>7001958.648759932</v>
+        <v>7001918.185706819</v>
       </c>
       <c r="S32" t="n">
         <v>25</v>
@@ -4219,7 +4209,7 @@
       </c>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>13:55</t>
+          <t>16:07</t>
         </is>
       </c>
       <c r="AA32" t="inlineStr">
@@ -4229,7 +4219,7 @@
       </c>
       <c r="AB32" t="inlineStr">
         <is>
-          <t>13:55</t>
+          <t>16:07</t>
         </is>
       </c>
       <c r="AD32" t="b">
@@ -4256,10 +4246,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>111423417</v>
+        <v>111421391</v>
       </c>
       <c r="B33" t="n">
-        <v>94134</v>
+        <v>78578</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4272,21 +4262,21 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>53</v>
+        <v>6458</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
@@ -4297,10 +4287,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>550901.6754341319</v>
+        <v>550825.6664593286</v>
       </c>
       <c r="R33" t="n">
-        <v>7001978.762844464</v>
+        <v>7002060.778115767</v>
       </c>
       <c r="S33" t="n">
         <v>25</v>
@@ -4332,7 +4322,7 @@
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>13:55</t>
+          <t>12:18</t>
         </is>
       </c>
       <c r="AA33" t="inlineStr">
@@ -4342,7 +4332,12 @@
       </c>
       <c r="AB33" t="inlineStr">
         <is>
-          <t>13:55</t>
+          <t>12:18</t>
+        </is>
+      </c>
+      <c r="AC33" t="inlineStr">
+        <is>
+          <t>På asp</t>
         </is>
       </c>
       <c r="AD33" t="b">
@@ -4369,10 +4364,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>111424030</v>
+        <v>111420835</v>
       </c>
       <c r="B34" t="n">
-        <v>78578</v>
+        <v>96348</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4381,25 +4376,25 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>6458</v>
+        <v>220787</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
@@ -4410,10 +4405,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>551011.8102739404</v>
+        <v>550732.0319218244</v>
       </c>
       <c r="R34" t="n">
-        <v>7002059.18440557</v>
+        <v>7002198.590094371</v>
       </c>
       <c r="S34" t="n">
         <v>25</v>
@@ -4445,7 +4440,7 @@
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>13:55</t>
+          <t>11:56</t>
         </is>
       </c>
       <c r="AA34" t="inlineStr">
@@ -4455,12 +4450,7 @@
       </c>
       <c r="AB34" t="inlineStr">
         <is>
-          <t>13:55</t>
-        </is>
-      </c>
-      <c r="AC34" t="inlineStr">
-        <is>
-          <t>På björk</t>
+          <t>11:56</t>
         </is>
       </c>
       <c r="AD34" t="b">
@@ -4487,10 +4477,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>111425926</v>
+        <v>111421054</v>
       </c>
       <c r="B35" t="n">
-        <v>98446</v>
+        <v>96348</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4499,25 +4489,25 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>222771</v>
+        <v>220787</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Svart trolldruva</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Actaea spicata</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
@@ -4528,10 +4518,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>550954.7515832841</v>
+        <v>550741.937658608</v>
       </c>
       <c r="R35" t="n">
-        <v>7001915.380264779</v>
+        <v>7002115.539248759</v>
       </c>
       <c r="S35" t="n">
         <v>25</v>
@@ -4563,7 +4553,7 @@
       </c>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>15:34</t>
+          <t>12:09</t>
         </is>
       </c>
       <c r="AA35" t="inlineStr">
@@ -4573,7 +4563,7 @@
       </c>
       <c r="AB35" t="inlineStr">
         <is>
-          <t>15:34</t>
+          <t>12:09</t>
         </is>
       </c>
       <c r="AD35" t="b">
@@ -4600,10 +4590,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>111424441</v>
+        <v>111423460</v>
       </c>
       <c r="B36" t="n">
-        <v>96348</v>
+        <v>98535</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4612,25 +4602,25 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>220787</v>
+        <v>222498</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
@@ -4641,10 +4631,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>551054.6486243291</v>
+        <v>550919.8847323675</v>
       </c>
       <c r="R36" t="n">
-        <v>7002070.713193813</v>
+        <v>7001972.718000742</v>
       </c>
       <c r="S36" t="n">
         <v>25</v>
@@ -4676,7 +4666,7 @@
       </c>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>13:55</t>
         </is>
       </c>
       <c r="AA36" t="inlineStr">
@@ -4686,7 +4676,7 @@
       </c>
       <c r="AB36" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>13:55</t>
         </is>
       </c>
       <c r="AD36" t="b">
@@ -4713,10 +4703,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>111420477</v>
+        <v>111420310</v>
       </c>
       <c r="B37" t="n">
-        <v>89405</v>
+        <v>96348</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4725,25 +4715,25 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>1202</v>
+        <v>220787</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
@@ -4754,10 +4744,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>550727.9291679059</v>
+        <v>550710.25923741</v>
       </c>
       <c r="R37" t="n">
-        <v>7002200.33458891</v>
+        <v>7002200.962073827</v>
       </c>
       <c r="S37" t="n">
         <v>25</v>
@@ -4789,7 +4779,7 @@
       </c>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>11:36</t>
+          <t>11:25</t>
         </is>
       </c>
       <c r="AA37" t="inlineStr">
@@ -4799,7 +4789,7 @@
       </c>
       <c r="AB37" t="inlineStr">
         <is>
-          <t>11:36</t>
+          <t>11:25</t>
         </is>
       </c>
       <c r="AD37" t="b">
@@ -4826,10 +4816,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>111422950</v>
+        <v>111422303</v>
       </c>
       <c r="B38" t="n">
-        <v>96348</v>
+        <v>89405</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -4838,25 +4828,25 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>220787</v>
+        <v>1202</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
@@ -4867,10 +4857,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>550849.6384025981</v>
+        <v>550866.5625217154</v>
       </c>
       <c r="R38" t="n">
-        <v>7001976.135959106</v>
+        <v>7002138.297294092</v>
       </c>
       <c r="S38" t="n">
         <v>25</v>
@@ -4902,7 +4892,7 @@
       </c>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>12:18</t>
         </is>
       </c>
       <c r="AA38" t="inlineStr">
@@ -4912,7 +4902,7 @@
       </c>
       <c r="AB38" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>12:18</t>
         </is>
       </c>
       <c r="AD38" t="b">
@@ -4939,10 +4929,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>111425285</v>
+        <v>111426031</v>
       </c>
       <c r="B39" t="n">
-        <v>98535</v>
+        <v>99413</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -4955,21 +4945,21 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>222498</v>
+        <v>221235</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Vårärt</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Lathyrus vernus</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(L.) Bernh.</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
@@ -4980,10 +4970,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>550974.800833688</v>
+        <v>550956.02874151</v>
       </c>
       <c r="R39" t="n">
-        <v>7001907.55558978</v>
+        <v>7001949.318344167</v>
       </c>
       <c r="S39" t="n">
         <v>25</v>
@@ -5015,7 +5005,7 @@
       </c>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>15:16</t>
+          <t>15:34</t>
         </is>
       </c>
       <c r="AA39" t="inlineStr">
@@ -5025,7 +5015,7 @@
       </c>
       <c r="AB39" t="inlineStr">
         <is>
-          <t>15:16</t>
+          <t>15:34</t>
         </is>
       </c>
       <c r="AD39" t="b">
@@ -5052,10 +5042,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>111425548</v>
+        <v>111425313</v>
       </c>
       <c r="B40" t="n">
-        <v>98535</v>
+        <v>78578</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -5064,25 +5054,25 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>222498</v>
+        <v>6458</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
@@ -5093,10 +5083,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>550954.7515832841</v>
+        <v>550974.800833688</v>
       </c>
       <c r="R40" t="n">
-        <v>7001915.380264779</v>
+        <v>7001907.55558978</v>
       </c>
       <c r="S40" t="n">
         <v>25</v>
@@ -5165,10 +5155,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>111425553</v>
+        <v>111424030</v>
       </c>
       <c r="B41" t="n">
-        <v>103396</v>
+        <v>78578</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -5181,21 +5171,21 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>674</v>
+        <v>6458</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Myskmåra</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Galium triflorum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Michx.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
@@ -5206,10 +5196,10 @@
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>550954.7515832841</v>
+        <v>551011.8102739404</v>
       </c>
       <c r="R41" t="n">
-        <v>7001915.380264779</v>
+        <v>7002059.18440557</v>
       </c>
       <c r="S41" t="n">
         <v>25</v>
@@ -5241,7 +5231,7 @@
       </c>
       <c r="Z41" t="inlineStr">
         <is>
-          <t>15:16</t>
+          <t>13:55</t>
         </is>
       </c>
       <c r="AA41" t="inlineStr">
@@ -5251,7 +5241,12 @@
       </c>
       <c r="AB41" t="inlineStr">
         <is>
-          <t>15:16</t>
+          <t>13:55</t>
+        </is>
+      </c>
+      <c r="AC41" t="inlineStr">
+        <is>
+          <t>På björk</t>
         </is>
       </c>
       <c r="AD41" t="b">
@@ -5278,10 +5273,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>111425951</v>
+        <v>111420477</v>
       </c>
       <c r="B42" t="n">
-        <v>99413</v>
+        <v>89405</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -5290,25 +5285,25 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>221235</v>
+        <v>1202</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Vårärt</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Lathyrus vernus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>(L.) Bernh.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I42" t="inlineStr"/>
@@ -5319,10 +5314,10 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>550955.3723719715</v>
+        <v>550727.9291679059</v>
       </c>
       <c r="R42" t="n">
-        <v>7001933.479667452</v>
+        <v>7002200.33458891</v>
       </c>
       <c r="S42" t="n">
         <v>25</v>
@@ -5354,7 +5349,7 @@
       </c>
       <c r="Z42" t="inlineStr">
         <is>
-          <t>15:34</t>
+          <t>11:36</t>
         </is>
       </c>
       <c r="AA42" t="inlineStr">
@@ -5364,7 +5359,7 @@
       </c>
       <c r="AB42" t="inlineStr">
         <is>
-          <t>15:34</t>
+          <t>11:36</t>
         </is>
       </c>
       <c r="AD42" t="b">
@@ -5391,10 +5386,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>111427783</v>
+        <v>111426396</v>
       </c>
       <c r="B43" t="n">
-        <v>99413</v>
+        <v>103396</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -5403,25 +5398,25 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>221235</v>
+        <v>674</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Vårärt</t>
+          <t>Myskmåra</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Lathyrus vernus</t>
+          <t>Galium triflorum</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>(L.) Bernh.</t>
+          <t>Michx.</t>
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
@@ -5432,10 +5427,10 @@
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>550907.3809405958</v>
+        <v>550951.5040298713</v>
       </c>
       <c r="R43" t="n">
-        <v>7001932.724492302</v>
+        <v>7001920.303799121</v>
       </c>
       <c r="S43" t="n">
         <v>25</v>
@@ -5467,7 +5462,7 @@
       </c>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>16:41</t>
+          <t>16:08</t>
         </is>
       </c>
       <c r="AA43" t="inlineStr">
@@ -5477,7 +5472,7 @@
       </c>
       <c r="AB43" t="inlineStr">
         <is>
-          <t>16:41</t>
+          <t>16:08</t>
         </is>
       </c>
       <c r="AD43" t="b">
@@ -5504,10 +5499,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>111427779</v>
+        <v>111425951</v>
       </c>
       <c r="B44" t="n">
-        <v>98446</v>
+        <v>99413</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -5520,21 +5515,21 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>222771</v>
+        <v>221235</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Svart trolldruva</t>
+          <t>Vårärt</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Actaea spicata</t>
+          <t>Lathyrus vernus</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(L.) Bernh.</t>
         </is>
       </c>
       <c r="I44" t="inlineStr"/>
@@ -5545,10 +5540,10 @@
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>550907.3809405958</v>
+        <v>550955.3723719715</v>
       </c>
       <c r="R44" t="n">
-        <v>7001932.724492302</v>
+        <v>7001933.479667452</v>
       </c>
       <c r="S44" t="n">
         <v>25</v>
@@ -5580,7 +5575,7 @@
       </c>
       <c r="Z44" t="inlineStr">
         <is>
-          <t>16:41</t>
+          <t>15:34</t>
         </is>
       </c>
       <c r="AA44" t="inlineStr">
@@ -5590,7 +5585,7 @@
       </c>
       <c r="AB44" t="inlineStr">
         <is>
-          <t>16:41</t>
+          <t>15:34</t>
         </is>
       </c>
       <c r="AD44" t="b">
@@ -5617,10 +5612,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>111423343</v>
+        <v>111425527</v>
       </c>
       <c r="B45" t="n">
-        <v>98535</v>
+        <v>99413</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -5633,21 +5628,21 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>222498</v>
+        <v>221235</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Vårärt</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Lathyrus vernus</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(L.) Bernh.</t>
         </is>
       </c>
       <c r="I45" t="inlineStr"/>
@@ -5658,10 +5653,10 @@
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>550911.6997848416</v>
+        <v>550954.7515832841</v>
       </c>
       <c r="R45" t="n">
-        <v>7001974.850411222</v>
+        <v>7001915.380264779</v>
       </c>
       <c r="S45" t="n">
         <v>25</v>
@@ -5693,7 +5688,7 @@
       </c>
       <c r="Z45" t="inlineStr">
         <is>
-          <t>13:55</t>
+          <t>15:16</t>
         </is>
       </c>
       <c r="AA45" t="inlineStr">
@@ -5703,7 +5698,7 @@
       </c>
       <c r="AB45" t="inlineStr">
         <is>
-          <t>13:55</t>
+          <t>15:16</t>
         </is>
       </c>
       <c r="AD45" t="b">
@@ -5730,10 +5725,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>111423460</v>
+        <v>111423943</v>
       </c>
       <c r="B46" t="n">
-        <v>98535</v>
+        <v>77267</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -5742,25 +5737,25 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>222498</v>
+        <v>6446</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I46" t="inlineStr"/>
@@ -5771,10 +5766,10 @@
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>550919.8847323675</v>
+        <v>550983.7409033215</v>
       </c>
       <c r="R46" t="n">
-        <v>7001972.718000742</v>
+        <v>7002058.742119073</v>
       </c>
       <c r="S46" t="n">
         <v>25</v>
@@ -5843,10 +5838,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>111422067</v>
+        <v>111424256</v>
       </c>
       <c r="B47" t="n">
-        <v>77515</v>
+        <v>78605</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -5855,25 +5850,25 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>6425</v>
+        <v>6462</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I47" t="inlineStr"/>
@@ -5884,10 +5879,10 @@
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>550845.9433502604</v>
+        <v>551048.5278099331</v>
       </c>
       <c r="R47" t="n">
-        <v>7002124.859161366</v>
+        <v>7002085.539900199</v>
       </c>
       <c r="S47" t="n">
         <v>25</v>
@@ -5919,7 +5914,7 @@
       </c>
       <c r="Z47" t="inlineStr">
         <is>
-          <t>12:18</t>
+          <t>13:55</t>
         </is>
       </c>
       <c r="AA47" t="inlineStr">
@@ -5929,12 +5924,7 @@
       </c>
       <c r="AB47" t="inlineStr">
         <is>
-          <t>12:18</t>
-        </is>
-      </c>
-      <c r="AC47" t="inlineStr">
-        <is>
-          <t>På tall</t>
+          <t>13:55</t>
         </is>
       </c>
       <c r="AD47" t="b">
@@ -5961,10 +5951,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>111426396</v>
+        <v>111424910</v>
       </c>
       <c r="B48" t="n">
-        <v>103396</v>
+        <v>78578</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -5977,21 +5967,21 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>674</v>
+        <v>6458</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Myskmåra</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Galium triflorum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Michx.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I48" t="inlineStr"/>
@@ -6002,10 +5992,10 @@
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>550951.5040298713</v>
+        <v>551057.2480807917</v>
       </c>
       <c r="R48" t="n">
-        <v>7001920.303799121</v>
+        <v>7001934.632864759</v>
       </c>
       <c r="S48" t="n">
         <v>25</v>
@@ -6037,7 +6027,7 @@
       </c>
       <c r="Z48" t="inlineStr">
         <is>
-          <t>16:08</t>
+          <t>14:55</t>
         </is>
       </c>
       <c r="AA48" t="inlineStr">
@@ -6047,7 +6037,12 @@
       </c>
       <c r="AB48" t="inlineStr">
         <is>
-          <t>16:08</t>
+          <t>14:55</t>
+        </is>
+      </c>
+      <c r="AC48" t="inlineStr">
+        <is>
+          <t>På asp</t>
         </is>
       </c>
       <c r="AD48" t="b">
@@ -6074,10 +6069,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>111427612</v>
+        <v>111423560</v>
       </c>
       <c r="B49" t="n">
-        <v>98446</v>
+        <v>94134</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -6086,25 +6081,25 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>222771</v>
+        <v>53</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Svart trolldruva</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Actaea spicata</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
@@ -6115,10 +6110,10 @@
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>550925.5549388798</v>
+        <v>550948.589889885</v>
       </c>
       <c r="R49" t="n">
-        <v>7001928.940230627</v>
+        <v>7001990.354570261</v>
       </c>
       <c r="S49" t="n">
         <v>25</v>
@@ -6150,7 +6145,7 @@
       </c>
       <c r="Z49" t="inlineStr">
         <is>
-          <t>16:41</t>
+          <t>13:55</t>
         </is>
       </c>
       <c r="AA49" t="inlineStr">
@@ -6160,7 +6155,7 @@
       </c>
       <c r="AB49" t="inlineStr">
         <is>
-          <t>16:41</t>
+          <t>13:55</t>
         </is>
       </c>
       <c r="AD49" t="b">
@@ -6187,10 +6182,10 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>111427787</v>
+        <v>111423236</v>
       </c>
       <c r="B50" t="n">
-        <v>98535</v>
+        <v>94134</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -6199,25 +6194,25 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>222498</v>
+        <v>53</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I50" t="inlineStr"/>
@@ -6228,10 +6223,10 @@
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>550907.3809405958</v>
+        <v>550869.8149192812</v>
       </c>
       <c r="R50" t="n">
-        <v>7001932.724492302</v>
+        <v>7001960.172576382</v>
       </c>
       <c r="S50" t="n">
         <v>25</v>
@@ -6263,7 +6258,7 @@
       </c>
       <c r="Z50" t="inlineStr">
         <is>
-          <t>16:41</t>
+          <t>13:40</t>
         </is>
       </c>
       <c r="AA50" t="inlineStr">
@@ -6273,7 +6268,7 @@
       </c>
       <c r="AB50" t="inlineStr">
         <is>
-          <t>16:41</t>
+          <t>13:40</t>
         </is>
       </c>
       <c r="AD50" t="b">
@@ -6300,7 +6295,7 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>111420835</v>
+        <v>111420595</v>
       </c>
       <c r="B51" t="n">
         <v>96348</v>
@@ -6341,10 +6336,10 @@
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>550732.0319218244</v>
+        <v>550711.6321998269</v>
       </c>
       <c r="R51" t="n">
-        <v>7002198.590094371</v>
+        <v>7002171.138182109</v>
       </c>
       <c r="S51" t="n">
         <v>25</v>
@@ -6376,7 +6371,7 @@
       </c>
       <c r="Z51" t="inlineStr">
         <is>
-          <t>11:56</t>
+          <t>11:47</t>
         </is>
       </c>
       <c r="AA51" t="inlineStr">
@@ -6386,7 +6381,7 @@
       </c>
       <c r="AB51" t="inlineStr">
         <is>
-          <t>11:56</t>
+          <t>11:47</t>
         </is>
       </c>
       <c r="AD51" t="b">
@@ -6413,10 +6408,10 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>111426315</v>
+        <v>111426562</v>
       </c>
       <c r="B52" t="n">
-        <v>89845</v>
+        <v>96348</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -6429,21 +6424,21 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>1209</v>
+        <v>220787</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I52" t="inlineStr"/>
@@ -6454,10 +6449,10 @@
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>550958.3735980184</v>
+        <v>550976.2344434585</v>
       </c>
       <c r="R52" t="n">
-        <v>7001915.437287232</v>
+        <v>7001931.546968644</v>
       </c>
       <c r="S52" t="n">
         <v>25</v>
@@ -6489,7 +6484,7 @@
       </c>
       <c r="Z52" t="inlineStr">
         <is>
-          <t>16:07</t>
+          <t>16:17</t>
         </is>
       </c>
       <c r="AA52" t="inlineStr">
@@ -6499,7 +6494,7 @@
       </c>
       <c r="AB52" t="inlineStr">
         <is>
-          <t>16:07</t>
+          <t>16:17</t>
         </is>
       </c>
       <c r="AD52" t="b">
@@ -6526,10 +6521,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>111426302</v>
+        <v>111427612</v>
       </c>
       <c r="B53" t="n">
-        <v>89686</v>
+        <v>98446</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -6538,25 +6533,25 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>658</v>
+        <v>222771</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Svart trolldruva</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Actaea spicata</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I53" t="inlineStr"/>
@@ -6567,10 +6562,10 @@
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>550960.5946457037</v>
+        <v>550925.5549388798</v>
       </c>
       <c r="R53" t="n">
-        <v>7001918.185706819</v>
+        <v>7001928.940230627</v>
       </c>
       <c r="S53" t="n">
         <v>25</v>
@@ -6602,7 +6597,7 @@
       </c>
       <c r="Z53" t="inlineStr">
         <is>
-          <t>16:07</t>
+          <t>16:41</t>
         </is>
       </c>
       <c r="AA53" t="inlineStr">
@@ -6612,7 +6607,7 @@
       </c>
       <c r="AB53" t="inlineStr">
         <is>
-          <t>16:07</t>
+          <t>16:41</t>
         </is>
       </c>
       <c r="AD53" t="b">
@@ -6639,10 +6634,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>111423560</v>
+        <v>111421476</v>
       </c>
       <c r="B54" t="n">
-        <v>94134</v>
+        <v>77186</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -6655,21 +6650,21 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>53</v>
+        <v>353</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Dvärgbägarlav</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Cladonia parasitica</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>(Hoffm.) Hoffm.</t>
         </is>
       </c>
       <c r="I54" t="inlineStr"/>
@@ -6680,10 +6675,10 @@
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>550948.589889885</v>
+        <v>550808.5392307156</v>
       </c>
       <c r="R54" t="n">
-        <v>7001990.354570261</v>
+        <v>7002084.47682756</v>
       </c>
       <c r="S54" t="n">
         <v>25</v>
@@ -6715,7 +6710,7 @@
       </c>
       <c r="Z54" t="inlineStr">
         <is>
-          <t>13:55</t>
+          <t>12:18</t>
         </is>
       </c>
       <c r="AA54" t="inlineStr">
@@ -6725,7 +6720,7 @@
       </c>
       <c r="AB54" t="inlineStr">
         <is>
-          <t>13:55</t>
+          <t>12:18</t>
         </is>
       </c>
       <c r="AD54" t="b">
@@ -6752,10 +6747,10 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>111425313</v>
+        <v>111422023</v>
       </c>
       <c r="B55" t="n">
-        <v>78578</v>
+        <v>90666</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -6764,25 +6759,25 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>6458</v>
+        <v>4364</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I55" t="inlineStr"/>
@@ -6793,10 +6788,10 @@
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>550974.800833688</v>
+        <v>550845.9433502604</v>
       </c>
       <c r="R55" t="n">
-        <v>7001907.55558978</v>
+        <v>7002124.859161366</v>
       </c>
       <c r="S55" t="n">
         <v>25</v>
@@ -6828,7 +6823,7 @@
       </c>
       <c r="Z55" t="inlineStr">
         <is>
-          <t>15:16</t>
+          <t>12:18</t>
         </is>
       </c>
       <c r="AA55" t="inlineStr">
@@ -6838,7 +6833,7 @@
       </c>
       <c r="AB55" t="inlineStr">
         <is>
-          <t>15:16</t>
+          <t>12:18</t>
         </is>
       </c>
       <c r="AD55" t="b">
@@ -6865,10 +6860,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>111423943</v>
+        <v>111424976</v>
       </c>
       <c r="B56" t="n">
-        <v>77267</v>
+        <v>78578</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -6881,21 +6876,21 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>6446</v>
+        <v>6458</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I56" t="inlineStr"/>
@@ -6906,10 +6901,10 @@
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>550983.7409033215</v>
+        <v>551037.0775894802</v>
       </c>
       <c r="R56" t="n">
-        <v>7002058.742119073</v>
+        <v>7001950.143101228</v>
       </c>
       <c r="S56" t="n">
         <v>25</v>
@@ -6941,7 +6936,7 @@
       </c>
       <c r="Z56" t="inlineStr">
         <is>
-          <t>13:55</t>
+          <t>14:55</t>
         </is>
       </c>
       <c r="AA56" t="inlineStr">
@@ -6951,7 +6946,12 @@
       </c>
       <c r="AB56" t="inlineStr">
         <is>
-          <t>13:55</t>
+          <t>14:55</t>
+        </is>
+      </c>
+      <c r="AC56" t="inlineStr">
+        <is>
+          <t>På asp</t>
         </is>
       </c>
       <c r="AD56" t="b">
@@ -6978,10 +6978,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>111420869</v>
+        <v>111424441</v>
       </c>
       <c r="B57" t="n">
-        <v>89405</v>
+        <v>96348</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -6990,25 +6990,25 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E57" t="n">
-        <v>1202</v>
+        <v>220787</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I57" t="inlineStr"/>
@@ -7019,10 +7019,10 @@
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>550741.937658608</v>
+        <v>551054.6486243291</v>
       </c>
       <c r="R57" t="n">
-        <v>7002115.539248759</v>
+        <v>7002070.713193813</v>
       </c>
       <c r="S57" t="n">
         <v>25</v>
@@ -7054,7 +7054,7 @@
       </c>
       <c r="Z57" t="inlineStr">
         <is>
-          <t>11:56</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA57" t="inlineStr">
@@ -7064,7 +7064,7 @@
       </c>
       <c r="AB57" t="inlineStr">
         <is>
-          <t>11:56</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD57" t="b">
@@ -7091,10 +7091,10 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>111421480</v>
+        <v>111427783</v>
       </c>
       <c r="B58" t="n">
-        <v>78107</v>
+        <v>99413</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -7103,25 +7103,25 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E58" t="n">
-        <v>6453</v>
+        <v>221235</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Vårärt</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Lathyrus vernus</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(L.) Bernh.</t>
         </is>
       </c>
       <c r="I58" t="inlineStr"/>
@@ -7132,10 +7132,10 @@
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>550808.5392307156</v>
+        <v>550907.3809405958</v>
       </c>
       <c r="R58" t="n">
-        <v>7002084.47682756</v>
+        <v>7001932.724492302</v>
       </c>
       <c r="S58" t="n">
         <v>25</v>
@@ -7167,7 +7167,7 @@
       </c>
       <c r="Z58" t="inlineStr">
         <is>
-          <t>12:18</t>
+          <t>16:41</t>
         </is>
       </c>
       <c r="AA58" t="inlineStr">
@@ -7177,7 +7177,7 @@
       </c>
       <c r="AB58" t="inlineStr">
         <is>
-          <t>12:18</t>
+          <t>16:41</t>
         </is>
       </c>
       <c r="AD58" t="b">
@@ -7204,10 +7204,10 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>111422600</v>
+        <v>111426308</v>
       </c>
       <c r="B59" t="n">
-        <v>77186</v>
+        <v>89405</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -7220,21 +7220,21 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>353</v>
+        <v>1202</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Dvärgbägarlav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Cladonia parasitica</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>(Hoffm.) Hoffm.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I59" t="inlineStr"/>
@@ -7245,10 +7245,10 @@
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>550737.1374797915</v>
+        <v>550958.3735980184</v>
       </c>
       <c r="R59" t="n">
-        <v>7002017.332277133</v>
+        <v>7001915.437287232</v>
       </c>
       <c r="S59" t="n">
         <v>25</v>
@@ -7280,7 +7280,7 @@
       </c>
       <c r="Z59" t="inlineStr">
         <is>
-          <t>12:18</t>
+          <t>16:07</t>
         </is>
       </c>
       <c r="AA59" t="inlineStr">
@@ -7290,7 +7290,7 @@
       </c>
       <c r="AB59" t="inlineStr">
         <is>
-          <t>12:18</t>
+          <t>16:07</t>
         </is>
       </c>
       <c r="AD59" t="b">
@@ -7317,10 +7317,10 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>111423255</v>
+        <v>111425553</v>
       </c>
       <c r="B60" t="n">
-        <v>98535</v>
+        <v>103396</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -7329,25 +7329,25 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E60" t="n">
-        <v>222498</v>
+        <v>674</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Myskmåra</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Galium triflorum</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>Michx.</t>
         </is>
       </c>
       <c r="I60" t="inlineStr"/>
@@ -7358,10 +7358,10 @@
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>550869.8149192812</v>
+        <v>550954.7515832841</v>
       </c>
       <c r="R60" t="n">
-        <v>7001960.172576382</v>
+        <v>7001915.380264779</v>
       </c>
       <c r="S60" t="n">
         <v>25</v>
@@ -7393,7 +7393,7 @@
       </c>
       <c r="Z60" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>15:16</t>
         </is>
       </c>
       <c r="AA60" t="inlineStr">
@@ -7403,7 +7403,7 @@
       </c>
       <c r="AB60" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>15:16</t>
         </is>
       </c>
       <c r="AD60" t="b">
@@ -7430,10 +7430,10 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>111425158</v>
+        <v>111424144</v>
       </c>
       <c r="B61" t="n">
-        <v>89845</v>
+        <v>95532</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -7442,25 +7442,25 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E61" t="n">
-        <v>1209</v>
+        <v>221945</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Lycopodium annotinum</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I61" t="inlineStr"/>
@@ -7471,10 +7471,10 @@
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>551009.5203002443</v>
+        <v>551057.4254629152</v>
       </c>
       <c r="R61" t="n">
-        <v>7001917.147422009</v>
+        <v>7002095.629051142</v>
       </c>
       <c r="S61" t="n">
         <v>25</v>
@@ -7506,7 +7506,7 @@
       </c>
       <c r="Z61" t="inlineStr">
         <is>
-          <t>15:16</t>
+          <t>13:55</t>
         </is>
       </c>
       <c r="AA61" t="inlineStr">
@@ -7516,7 +7516,7 @@
       </c>
       <c r="AB61" t="inlineStr">
         <is>
-          <t>15:16</t>
+          <t>13:55</t>
         </is>
       </c>
       <c r="AD61" t="b">
@@ -7543,10 +7543,10 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>111425037</v>
+        <v>111427126</v>
       </c>
       <c r="B62" t="n">
-        <v>89845</v>
+        <v>78578</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -7555,25 +7555,25 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E62" t="n">
-        <v>1209</v>
+        <v>6458</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I62" t="inlineStr"/>
@@ -7584,10 +7584,10 @@
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>551037.0775894802</v>
+        <v>550960.5946457037</v>
       </c>
       <c r="R62" t="n">
-        <v>7001950.143101228</v>
+        <v>7001918.185706819</v>
       </c>
       <c r="S62" t="n">
         <v>25</v>
@@ -7619,7 +7619,7 @@
       </c>
       <c r="Z62" t="inlineStr">
         <is>
-          <t>15:16</t>
+          <t>16:41</t>
         </is>
       </c>
       <c r="AA62" t="inlineStr">
@@ -7629,7 +7629,7 @@
       </c>
       <c r="AB62" t="inlineStr">
         <is>
-          <t>15:16</t>
+          <t>16:41</t>
         </is>
       </c>
       <c r="AD62" t="b">
@@ -7656,10 +7656,10 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>111421476</v>
+        <v>111426042</v>
       </c>
       <c r="B63" t="n">
-        <v>77186</v>
+        <v>98535</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -7668,25 +7668,25 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E63" t="n">
-        <v>353</v>
+        <v>222498</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Dvärgbägarlav</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Cladonia parasitica</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>(Hoffm.) Hoffm.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I63" t="inlineStr"/>
@@ -7697,10 +7697,10 @@
         </is>
       </c>
       <c r="Q63" t="n">
-        <v>550808.5392307156</v>
+        <v>550956.02874151</v>
       </c>
       <c r="R63" t="n">
-        <v>7002084.47682756</v>
+        <v>7001949.318344167</v>
       </c>
       <c r="S63" t="n">
         <v>25</v>
@@ -7732,7 +7732,7 @@
       </c>
       <c r="Z63" t="inlineStr">
         <is>
-          <t>12:18</t>
+          <t>15:34</t>
         </is>
       </c>
       <c r="AA63" t="inlineStr">
@@ -7742,7 +7742,7 @@
       </c>
       <c r="AB63" t="inlineStr">
         <is>
-          <t>12:18</t>
+          <t>15:34</t>
         </is>
       </c>
       <c r="AD63" t="b">
@@ -7769,10 +7769,10 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>111424960</v>
+        <v>111421480</v>
       </c>
       <c r="B64" t="n">
-        <v>94134</v>
+        <v>78107</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -7785,21 +7785,21 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>53</v>
+        <v>6453</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I64" t="inlineStr"/>
@@ -7810,10 +7810,10 @@
         </is>
       </c>
       <c r="Q64" t="n">
-        <v>551037.0775894802</v>
+        <v>550808.5392307156</v>
       </c>
       <c r="R64" t="n">
-        <v>7001950.143101228</v>
+        <v>7002084.47682756</v>
       </c>
       <c r="S64" t="n">
         <v>25</v>
@@ -7845,7 +7845,7 @@
       </c>
       <c r="Z64" t="inlineStr">
         <is>
-          <t>14:55</t>
+          <t>12:18</t>
         </is>
       </c>
       <c r="AA64" t="inlineStr">
@@ -7855,7 +7855,7 @@
       </c>
       <c r="AB64" t="inlineStr">
         <is>
-          <t>14:55</t>
+          <t>12:18</t>
         </is>
       </c>
       <c r="AD64" t="b">
@@ -7882,10 +7882,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>111426486</v>
+        <v>111424650</v>
       </c>
       <c r="B65" t="n">
-        <v>98446</v>
+        <v>96348</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -7894,25 +7894,25 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E65" t="n">
-        <v>222771</v>
+        <v>220787</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Svart trolldruva</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Actaea spicata</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I65" t="inlineStr"/>
@@ -7923,10 +7923,10 @@
         </is>
       </c>
       <c r="Q65" t="n">
-        <v>550941.2588680513</v>
+        <v>551057.4223798013</v>
       </c>
       <c r="R65" t="n">
-        <v>7001938.232138845</v>
+        <v>7002009.706558069</v>
       </c>
       <c r="S65" t="n">
         <v>25</v>
@@ -7958,7 +7958,7 @@
       </c>
       <c r="Z65" t="inlineStr">
         <is>
-          <t>16:08</t>
+          <t>14:55</t>
         </is>
       </c>
       <c r="AA65" t="inlineStr">
@@ -7968,7 +7968,7 @@
       </c>
       <c r="AB65" t="inlineStr">
         <is>
-          <t>16:08</t>
+          <t>14:55</t>
         </is>
       </c>
       <c r="AD65" t="b">
@@ -7995,10 +7995,10 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>111427222</v>
+        <v>111424103</v>
       </c>
       <c r="B66" t="n">
-        <v>98535</v>
+        <v>94134</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -8007,25 +8007,25 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E66" t="n">
-        <v>222498</v>
+        <v>53</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I66" t="inlineStr"/>
@@ -8036,10 +8036,10 @@
         </is>
       </c>
       <c r="Q66" t="n">
-        <v>550980.9358707955</v>
+        <v>551037.3771583335</v>
       </c>
       <c r="R66" t="n">
-        <v>7001891.823664788</v>
+        <v>7002103.452742142</v>
       </c>
       <c r="S66" t="n">
         <v>25</v>
@@ -8071,7 +8071,7 @@
       </c>
       <c r="Z66" t="inlineStr">
         <is>
-          <t>16:41</t>
+          <t>13:55</t>
         </is>
       </c>
       <c r="AA66" t="inlineStr">
@@ -8081,7 +8081,7 @@
       </c>
       <c r="AB66" t="inlineStr">
         <is>
-          <t>16:41</t>
+          <t>13:55</t>
         </is>
       </c>
       <c r="AD66" t="b">
@@ -8108,10 +8108,10 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>111428138</v>
+        <v>111425789</v>
       </c>
       <c r="B67" t="n">
-        <v>96348</v>
+        <v>99413</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -8120,25 +8120,25 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E67" t="n">
-        <v>220787</v>
+        <v>221235</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Vårärt</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lathyrus vernus</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(L.) Bernh.</t>
         </is>
       </c>
       <c r="I67" t="inlineStr"/>
@@ -8149,10 +8149,10 @@
         </is>
       </c>
       <c r="Q67" t="n">
-        <v>550809.7857848165</v>
+        <v>550964.3063330664</v>
       </c>
       <c r="R67" t="n">
-        <v>7001918.528248113</v>
+        <v>7001941.308390027</v>
       </c>
       <c r="S67" t="n">
         <v>25</v>
@@ -8184,7 +8184,7 @@
       </c>
       <c r="Z67" t="inlineStr">
         <is>
-          <t>17:39</t>
+          <t>15:34</t>
         </is>
       </c>
       <c r="AA67" t="inlineStr">
@@ -8194,7 +8194,7 @@
       </c>
       <c r="AB67" t="inlineStr">
         <is>
-          <t>17:39</t>
+          <t>15:34</t>
         </is>
       </c>
       <c r="AD67" t="b">
@@ -8221,10 +8221,10 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>111420595</v>
+        <v>111425158</v>
       </c>
       <c r="B68" t="n">
-        <v>96348</v>
+        <v>89845</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -8237,21 +8237,21 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>220787</v>
+        <v>1209</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I68" t="inlineStr"/>
@@ -8262,10 +8262,10 @@
         </is>
       </c>
       <c r="Q68" t="n">
-        <v>550711.6321998269</v>
+        <v>551009.5203002443</v>
       </c>
       <c r="R68" t="n">
-        <v>7002171.138182109</v>
+        <v>7001917.147422009</v>
       </c>
       <c r="S68" t="n">
         <v>25</v>
@@ -8297,7 +8297,7 @@
       </c>
       <c r="Z68" t="inlineStr">
         <is>
-          <t>11:47</t>
+          <t>15:16</t>
         </is>
       </c>
       <c r="AA68" t="inlineStr">
@@ -8307,7 +8307,7 @@
       </c>
       <c r="AB68" t="inlineStr">
         <is>
-          <t>11:47</t>
+          <t>15:16</t>
         </is>
       </c>
       <c r="AD68" t="b">
@@ -8334,10 +8334,10 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>111420859</v>
+        <v>111424253</v>
       </c>
       <c r="B69" t="n">
-        <v>89686</v>
+        <v>89965</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -8346,25 +8346,25 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E69" t="n">
-        <v>658</v>
+        <v>760</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Doftticka</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Haploporus odorus</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(Sommerf.) Bondartsev &amp; Singer</t>
         </is>
       </c>
       <c r="I69" t="inlineStr"/>
@@ -8375,10 +8375,10 @@
         </is>
       </c>
       <c r="Q69" t="n">
-        <v>550742.1573915739</v>
+        <v>551048.5278099331</v>
       </c>
       <c r="R69" t="n">
-        <v>7002101.524058201</v>
+        <v>7002085.539900199</v>
       </c>
       <c r="S69" t="n">
         <v>25</v>
@@ -8410,7 +8410,7 @@
       </c>
       <c r="Z69" t="inlineStr">
         <is>
-          <t>11:56</t>
+          <t>13:55</t>
         </is>
       </c>
       <c r="AA69" t="inlineStr">
@@ -8420,7 +8420,12 @@
       </c>
       <c r="AB69" t="inlineStr">
         <is>
-          <t>11:56</t>
+          <t>13:55</t>
+        </is>
+      </c>
+      <c r="AC69" t="inlineStr">
+        <is>
+          <t>Liten väldoftande fruktkropp på sälg som fallit</t>
         </is>
       </c>
       <c r="AD69" t="b">
@@ -8447,10 +8452,10 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>111427617</v>
+        <v>111422950</v>
       </c>
       <c r="B70" t="n">
-        <v>98535</v>
+        <v>96348</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -8459,25 +8464,25 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E70" t="n">
-        <v>222498</v>
+        <v>220787</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I70" t="inlineStr"/>
@@ -8488,10 +8493,10 @@
         </is>
       </c>
       <c r="Q70" t="n">
-        <v>550925.5549388798</v>
+        <v>550849.6384025981</v>
       </c>
       <c r="R70" t="n">
-        <v>7001928.940230627</v>
+        <v>7001976.135959106</v>
       </c>
       <c r="S70" t="n">
         <v>25</v>
@@ -8523,7 +8528,7 @@
       </c>
       <c r="Z70" t="inlineStr">
         <is>
-          <t>16:41</t>
+          <t>13:40</t>
         </is>
       </c>
       <c r="AA70" t="inlineStr">
@@ -8533,7 +8538,7 @@
       </c>
       <c r="AB70" t="inlineStr">
         <is>
-          <t>16:41</t>
+          <t>13:40</t>
         </is>
       </c>
       <c r="AD70" t="b">
@@ -8560,10 +8565,10 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>111424103</v>
+        <v>111423255</v>
       </c>
       <c r="B71" t="n">
-        <v>94134</v>
+        <v>98535</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -8572,25 +8577,25 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E71" t="n">
-        <v>53</v>
+        <v>222498</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I71" t="inlineStr"/>
@@ -8601,10 +8606,10 @@
         </is>
       </c>
       <c r="Q71" t="n">
-        <v>551037.3771583335</v>
+        <v>550869.8149192812</v>
       </c>
       <c r="R71" t="n">
-        <v>7002103.452742142</v>
+        <v>7001960.172576382</v>
       </c>
       <c r="S71" t="n">
         <v>25</v>
@@ -8636,7 +8641,7 @@
       </c>
       <c r="Z71" t="inlineStr">
         <is>
-          <t>13:55</t>
+          <t>13:40</t>
         </is>
       </c>
       <c r="AA71" t="inlineStr">
@@ -8646,7 +8651,7 @@
       </c>
       <c r="AB71" t="inlineStr">
         <is>
-          <t>13:55</t>
+          <t>13:40</t>
         </is>
       </c>
       <c r="AD71" t="b">
@@ -8673,10 +8678,10 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>111424256</v>
+        <v>111425889</v>
       </c>
       <c r="B72" t="n">
-        <v>78605</v>
+        <v>98446</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -8689,21 +8694,21 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>6462</v>
+        <v>222771</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Svart trolldruva</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Actaea spicata</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I72" t="inlineStr"/>
@@ -8714,10 +8719,10 @@
         </is>
       </c>
       <c r="Q72" t="n">
-        <v>551048.5278099331</v>
+        <v>550964.3063330664</v>
       </c>
       <c r="R72" t="n">
-        <v>7002085.539900199</v>
+        <v>7001941.308390027</v>
       </c>
       <c r="S72" t="n">
         <v>25</v>
@@ -8749,7 +8754,7 @@
       </c>
       <c r="Z72" t="inlineStr">
         <is>
-          <t>13:55</t>
+          <t>15:34</t>
         </is>
       </c>
       <c r="AA72" t="inlineStr">
@@ -8759,7 +8764,7 @@
       </c>
       <c r="AB72" t="inlineStr">
         <is>
-          <t>13:55</t>
+          <t>15:34</t>
         </is>
       </c>
       <c r="AD72" t="b">
@@ -8786,10 +8791,10 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>111424650</v>
+        <v>111421582</v>
       </c>
       <c r="B73" t="n">
-        <v>96348</v>
+        <v>78578</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -8798,25 +8803,25 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E73" t="n">
-        <v>220787</v>
+        <v>6458</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I73" t="inlineStr"/>
@@ -8827,10 +8832,10 @@
         </is>
       </c>
       <c r="Q73" t="n">
-        <v>551057.4223798013</v>
+        <v>550826.5844548051</v>
       </c>
       <c r="R73" t="n">
-        <v>7002009.706558069</v>
+        <v>7002088.830120047</v>
       </c>
       <c r="S73" t="n">
         <v>25</v>
@@ -8862,7 +8867,7 @@
       </c>
       <c r="Z73" t="inlineStr">
         <is>
-          <t>14:55</t>
+          <t>12:18</t>
         </is>
       </c>
       <c r="AA73" t="inlineStr">
@@ -8872,7 +8877,7 @@
       </c>
       <c r="AB73" t="inlineStr">
         <is>
-          <t>14:55</t>
+          <t>12:18</t>
         </is>
       </c>
       <c r="AD73" t="b">
@@ -8899,10 +8904,10 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>111427126</v>
+        <v>111421571</v>
       </c>
       <c r="B74" t="n">
-        <v>78578</v>
+        <v>78605</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -8911,25 +8916,25 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E74" t="n">
-        <v>6458</v>
+        <v>6462</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I74" t="inlineStr"/>
@@ -8940,10 +8945,10 @@
         </is>
       </c>
       <c r="Q74" t="n">
-        <v>550960.5946457037</v>
+        <v>550832.3776022838</v>
       </c>
       <c r="R74" t="n">
-        <v>7001918.185706819</v>
+        <v>7002094.799920618</v>
       </c>
       <c r="S74" t="n">
         <v>25</v>
@@ -8975,7 +8980,7 @@
       </c>
       <c r="Z74" t="inlineStr">
         <is>
-          <t>16:41</t>
+          <t>12:18</t>
         </is>
       </c>
       <c r="AA74" t="inlineStr">
@@ -8985,7 +8990,7 @@
       </c>
       <c r="AB74" t="inlineStr">
         <is>
-          <t>16:41</t>
+          <t>12:18</t>
         </is>
       </c>
       <c r="AD74" t="b">
@@ -9012,10 +9017,10 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>111427034</v>
+        <v>111420660</v>
       </c>
       <c r="B75" t="n">
-        <v>96348</v>
+        <v>77267</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -9024,25 +9029,25 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E75" t="n">
-        <v>220787</v>
+        <v>6446</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I75" t="inlineStr"/>
@@ -9053,10 +9058,10 @@
         </is>
       </c>
       <c r="Q75" t="n">
-        <v>550961.4004867796</v>
+        <v>550733.9986858405</v>
       </c>
       <c r="R75" t="n">
-        <v>7001924.529771334</v>
+        <v>7002188.6724778</v>
       </c>
       <c r="S75" t="n">
         <v>25</v>
@@ -9088,7 +9093,7 @@
       </c>
       <c r="Z75" t="inlineStr">
         <is>
-          <t>16:41</t>
+          <t>11:51</t>
         </is>
       </c>
       <c r="AA75" t="inlineStr">
@@ -9098,7 +9103,7 @@
       </c>
       <c r="AB75" t="inlineStr">
         <is>
-          <t>16:41</t>
+          <t>11:51</t>
         </is>
       </c>
       <c r="AD75" t="b">
@@ -9125,7 +9130,7 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>111426042</v>
+        <v>111427787</v>
       </c>
       <c r="B76" t="n">
         <v>98535</v>
@@ -9166,10 +9171,10 @@
         </is>
       </c>
       <c r="Q76" t="n">
-        <v>550956.02874151</v>
+        <v>550907.3809405958</v>
       </c>
       <c r="R76" t="n">
-        <v>7001949.318344167</v>
+        <v>7001932.724492302</v>
       </c>
       <c r="S76" t="n">
         <v>25</v>
@@ -9201,7 +9206,7 @@
       </c>
       <c r="Z76" t="inlineStr">
         <is>
-          <t>15:34</t>
+          <t>16:41</t>
         </is>
       </c>
       <c r="AA76" t="inlineStr">
@@ -9211,7 +9216,7 @@
       </c>
       <c r="AB76" t="inlineStr">
         <is>
-          <t>15:34</t>
+          <t>16:41</t>
         </is>
       </c>
       <c r="AD76" t="b">
@@ -9238,10 +9243,10 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>111424331</v>
+        <v>111426486</v>
       </c>
       <c r="B77" t="n">
-        <v>78605</v>
+        <v>98446</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -9254,21 +9259,21 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>6462</v>
+        <v>222771</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Svart trolldruva</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Actaea spicata</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I77" t="inlineStr"/>
@@ -9279,10 +9284,10 @@
         </is>
       </c>
       <c r="Q77" t="n">
-        <v>551041.1344693471</v>
+        <v>550941.2588680513</v>
       </c>
       <c r="R77" t="n">
-        <v>7002037.487754084</v>
+        <v>7001938.232138845</v>
       </c>
       <c r="S77" t="n">
         <v>25</v>
@@ -9314,7 +9319,7 @@
       </c>
       <c r="Z77" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>16:08</t>
         </is>
       </c>
       <c r="AA77" t="inlineStr">
@@ -9324,7 +9329,7 @@
       </c>
       <c r="AB77" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>16:08</t>
         </is>
       </c>
       <c r="AD77" t="b">
@@ -9351,10 +9356,10 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>111423749</v>
+        <v>111424331</v>
       </c>
       <c r="B78" t="n">
-        <v>78578</v>
+        <v>78605</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -9363,25 +9368,25 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E78" t="n">
-        <v>6458</v>
+        <v>6462</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I78" t="inlineStr"/>
@@ -9392,10 +9397,10 @@
         </is>
       </c>
       <c r="Q78" t="n">
-        <v>550953.7324835873</v>
+        <v>551041.1344693471</v>
       </c>
       <c r="R78" t="n">
-        <v>7002066.409536021</v>
+        <v>7002037.487754084</v>
       </c>
       <c r="S78" t="n">
         <v>25</v>
@@ -9427,7 +9432,7 @@
       </c>
       <c r="Z78" t="inlineStr">
         <is>
-          <t>13:55</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA78" t="inlineStr">
@@ -9437,12 +9442,7 @@
       </c>
       <c r="AB78" t="inlineStr">
         <is>
-          <t>13:55</t>
-        </is>
-      </c>
-      <c r="AC78" t="inlineStr">
-        <is>
-          <t>På asp</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD78" t="b">
@@ -9469,10 +9469,10 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>111424253</v>
+        <v>111423749</v>
       </c>
       <c r="B79" t="n">
-        <v>89965</v>
+        <v>78578</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -9481,25 +9481,25 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E79" t="n">
-        <v>760</v>
+        <v>6458</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Doftticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>Haploporus odorus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>(Sommerf.) Bondartsev &amp; Singer</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I79" t="inlineStr"/>
@@ -9510,10 +9510,10 @@
         </is>
       </c>
       <c r="Q79" t="n">
-        <v>551048.5278099331</v>
+        <v>550953.7324835873</v>
       </c>
       <c r="R79" t="n">
-        <v>7002085.539900199</v>
+        <v>7002066.409536021</v>
       </c>
       <c r="S79" t="n">
         <v>25</v>
@@ -9560,7 +9560,7 @@
       </c>
       <c r="AC79" t="inlineStr">
         <is>
-          <t>Liten väldoftande fruktkropp på sälg som fallit</t>
+          <t>På asp</t>
         </is>
       </c>
       <c r="AD79" t="b">
